--- a/CPData.xlsx
+++ b/CPData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dk-mi\Documents\ESOdev\Constellations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6F8379-4424-441F-B7A8-BF462DA6341E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC48C5-05D3-4B70-A1B5-E70882EF39D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LUA Import'!$A$1:$G$278</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="474">
   <si>
     <t>Points</t>
   </si>
@@ -1443,6 +1443,27 @@
     <t>Spell Erosion
 or
 Piercing</t>
+  </si>
+  <si>
+    <t>Psijic</t>
+  </si>
+  <si>
+    <t>Imbue Weapon</t>
+  </si>
+  <si>
+    <t>Crushing Weapon</t>
+  </si>
+  <si>
+    <t>Elemental Weapon</t>
+  </si>
+  <si>
+    <t>Spell Orb (magic)</t>
+  </si>
+  <si>
+    <t>Spell Orb (physical)</t>
+  </si>
+  <si>
+    <t>Bash</t>
   </si>
 </sst>
 </file>
@@ -9223,11 +9244,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC287C-D6E8-46F9-81E9-0FD07172993F}">
-  <dimension ref="A1:P180"/>
+  <dimension ref="A1:P187"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H182" sqref="H182:M186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9325,7 +9346,7 @@
         <v>8663</v>
       </c>
       <c r="G3" s="25">
-        <f>F3/E3/N$2/1.52-1</f>
+        <f t="shared" ref="G3:G18" si="0">F3/E3/N$2/1.52-1</f>
         <v>4.9899959299017693E-2</v>
       </c>
       <c r="H3" s="22" t="b">
@@ -9367,7 +9388,7 @@
         <v>7054</v>
       </c>
       <c r="G4" s="25">
-        <f>F4/E4/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>8.9838873945184528E-2</v>
       </c>
       <c r="H4" s="22" t="b">
@@ -9409,7 +9430,7 @@
         <v>476</v>
       </c>
       <c r="G5" s="25">
-        <f>F5/E5/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>-0.1212112260873196</v>
       </c>
       <c r="H5" s="22" t="b">
@@ -9451,7 +9472,7 @@
         <v>1434</v>
       </c>
       <c r="G6" s="25">
-        <f>F6/E6/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>8.9921541164679653E-2</v>
       </c>
       <c r="H6" s="22" t="b">
@@ -9493,7 +9514,7 @@
         <v>7469</v>
       </c>
       <c r="G7" s="25">
-        <f>F7/E7/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>5.0008605570964981E-2</v>
       </c>
       <c r="H7" s="22" t="b">
@@ -9535,7 +9556,7 @@
         <v>1669</v>
       </c>
       <c r="G8" s="25">
-        <f>F8/E8/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>-0.12239723629016985</v>
       </c>
       <c r="H8" s="22" t="b">
@@ -9577,7 +9598,7 @@
         <v>1908</v>
       </c>
       <c r="G9" s="25">
-        <f>F9/E9/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>-0.12213432353890863</v>
       </c>
       <c r="H9" s="22" t="b">
@@ -9619,7 +9640,7 @@
         <v>3001</v>
       </c>
       <c r="G10" s="25">
-        <f>F10/E10/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>8.9526424755887124E-2</v>
       </c>
       <c r="H10" s="22" t="b">
@@ -9661,7 +9682,7 @@
         <v>5780</v>
       </c>
       <c r="G11" s="25">
-        <f>F11/E11/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>4.9227380054819747E-2</v>
       </c>
       <c r="H11" s="22" t="b">
@@ -9703,7 +9724,7 @@
         <v>2238</v>
       </c>
       <c r="G12" s="25">
-        <f>F12/E12/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>4.9499670897394488E-2</v>
       </c>
       <c r="H12" s="22" t="b">
@@ -9745,7 +9766,7 @@
         <v>617</v>
       </c>
       <c r="G13" s="25">
-        <f>F13/E13/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>8.763679192066931E-2</v>
       </c>
       <c r="H13" s="22" t="b">
@@ -9787,7 +9808,7 @@
         <v>1858</v>
       </c>
       <c r="G14" s="25">
-        <f>F14/E14/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>8.9562075393926355E-2</v>
       </c>
       <c r="H14" s="22" t="b">
@@ -9829,7 +9850,7 @@
         <v>2175</v>
       </c>
       <c r="G15" s="25">
-        <f>F15/E15/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>5.0251840650645585E-2</v>
       </c>
       <c r="H15" s="22" t="b">
@@ -9871,7 +9892,7 @@
         <v>11305</v>
       </c>
       <c r="G16" s="25">
-        <f>F16/E16/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>5.002078742978755E-2</v>
       </c>
       <c r="H16" s="22" t="b">
@@ -9913,7 +9934,7 @@
         <v>4625</v>
       </c>
       <c r="G17" s="25">
-        <f>F17/E17/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>8.7485939100722554E-2</v>
       </c>
       <c r="H17" s="22" t="b">
@@ -9955,7 +9976,7 @@
         <v>8668</v>
       </c>
       <c r="G18" s="25">
-        <f>F18/E18/N$2/1.52-1</f>
+        <f t="shared" si="0"/>
         <v>4.9853709101095545E-2</v>
       </c>
       <c r="H18" s="22" t="b">
@@ -10081,7 +10102,7 @@
         <v>7292</v>
       </c>
       <c r="G21" s="25">
-        <f>F21/E21/N$2/1.52-1</f>
+        <f t="shared" ref="G21:G28" si="1">F21/E21/N$2/1.52-1</f>
         <v>9.0063263133976834E-2</v>
       </c>
       <c r="H21" s="22" t="b">
@@ -10123,7 +10144,7 @@
         <v>1887</v>
       </c>
       <c r="G22" s="25">
-        <f>F22/E22/N$2/1.52-1</f>
+        <f t="shared" si="1"/>
         <v>-0.12213432353890863</v>
       </c>
       <c r="H22" s="22" t="b">
@@ -10165,7 +10186,7 @@
         <v>1393</v>
       </c>
       <c r="G23" s="25">
-        <f>F23/E23/N$2/1.52-1</f>
+        <f t="shared" si="1"/>
         <v>8.9899186551069876E-2</v>
       </c>
       <c r="H23" s="22" t="b">
@@ -10207,7 +10228,7 @@
         <v>7719</v>
       </c>
       <c r="G24" s="25">
-        <f>F24/E24/N$2/1.52-1</f>
+        <f t="shared" si="1"/>
         <v>4.9848192207477604E-2</v>
       </c>
       <c r="H24" s="22" t="b">
@@ -10249,7 +10270,7 @@
         <v>809</v>
       </c>
       <c r="G25" s="25">
-        <f>F25/E25/N$2/1.52-1</f>
+        <f t="shared" si="1"/>
         <v>-0.12159142577981086</v>
       </c>
       <c r="H25" s="22" t="b">
@@ -10291,7 +10312,7 @@
         <v>2244</v>
       </c>
       <c r="G26" s="25">
-        <f>F26/E26/N$2/1.52-1</f>
+        <f t="shared" si="1"/>
         <v>5.0629641588634033E-2</v>
       </c>
       <c r="H26" s="22" t="b">
@@ -10335,7 +10356,7 @@
         <v>353</v>
       </c>
       <c r="G27" s="25">
-        <f>F27/E27/N$2/1.52-1</f>
+        <f t="shared" si="1"/>
         <v>8.1628564714712804E-2</v>
       </c>
       <c r="H27" s="22" t="b">
@@ -10377,7 +10398,7 @@
         <v>1923</v>
       </c>
       <c r="G28" s="25">
-        <f>F28/E28/N$2/1.52-1</f>
+        <f t="shared" si="1"/>
         <v>8.9471246101760826E-2</v>
       </c>
       <c r="H28" s="22" t="b">
@@ -10547,7 +10568,7 @@
         <v>7965</v>
       </c>
       <c r="G32" s="25">
-        <f>F32/E32/1.52-1</f>
+        <f t="shared" ref="G32:G40" si="2">F32/E32/1.52-1</f>
         <v>5.0126568927328474E-2</v>
       </c>
       <c r="H32" s="22" t="b">
@@ -10589,7 +10610,7 @@
         <v>6487</v>
       </c>
       <c r="G33" s="25">
-        <f>F33/E33/1.52-1</f>
+        <f t="shared" si="2"/>
         <v>9.0105532029306934E-2</v>
       </c>
       <c r="H33" s="22" t="b">
@@ -10631,7 +10652,7 @@
         <v>1465</v>
       </c>
       <c r="G34" s="25">
-        <f>F34/E34/1.52-1</f>
+        <f t="shared" si="2"/>
         <v>8.905738923580131E-2</v>
       </c>
       <c r="H34" s="22" t="b">
@@ -10673,7 +10694,7 @@
         <v>6867</v>
       </c>
       <c r="G35" s="25">
-        <f>F35/E35/1.52-1</f>
+        <f t="shared" si="2"/>
         <v>4.9910099441026423E-2</v>
       </c>
       <c r="H35" s="22" t="b">
@@ -10715,7 +10736,7 @@
         <v>5313</v>
       </c>
       <c r="G36" s="25">
-        <f>F36/E36/1.52-1</f>
+        <f t="shared" si="2"/>
         <v>4.9668089141773342E-2</v>
       </c>
       <c r="H36" s="22" t="b">
@@ -10757,7 +10778,7 @@
         <v>5145</v>
       </c>
       <c r="G37" s="25">
-        <f>F37/E37/1.52-1</f>
+        <f t="shared" si="2"/>
         <v>4.9897152931957622E-2</v>
       </c>
       <c r="H37" s="22" t="b">
@@ -10799,7 +10820,7 @@
         <v>1996</v>
       </c>
       <c r="G38" s="25">
-        <f>F38/E38/1.52-1</f>
+        <f t="shared" si="2"/>
         <v>5.0526315789473752E-2</v>
       </c>
       <c r="H38" s="22" t="b">
@@ -10841,7 +10862,7 @@
         <v>554</v>
       </c>
       <c r="G39" s="25">
-        <f>F39/E39/1.52-1</f>
+        <f t="shared" si="2"/>
         <v>9.1238575480617756E-2</v>
       </c>
       <c r="H39" s="22" t="b">
@@ -10883,7 +10904,7 @@
         <v>1960</v>
       </c>
       <c r="G40" s="25">
-        <f>F40/E40/1.52-1</f>
+        <f t="shared" si="2"/>
         <v>9.0003114294612274E-2</v>
       </c>
       <c r="H40" s="22" t="b">
@@ -11171,7 +11192,7 @@
         <v>1741</v>
       </c>
       <c r="G48" s="25">
-        <f>F48/E48/N$2/1.52-1</f>
+        <f t="shared" ref="G48:G54" si="3">F48/E48/N$2/1.52-1</f>
         <v>5.0422091215642562E-2</v>
       </c>
       <c r="H48" s="22" t="b">
@@ -11210,7 +11231,7 @@
         <v>634</v>
       </c>
       <c r="G49" s="25">
-        <f>F49/E49/N$2/1.52-1</f>
+        <f t="shared" si="3"/>
         <v>8.810721187943682E-2</v>
       </c>
       <c r="H49" s="22" t="b">
@@ -11249,7 +11270,7 @@
         <v>2787</v>
       </c>
       <c r="G50" s="25">
-        <f>F50/E50/N$2/1.52-1</f>
+        <f t="shared" si="3"/>
         <v>4.9597443284882692E-2</v>
       </c>
       <c r="H50" s="22" t="b">
@@ -11288,7 +11309,7 @@
         <v>3903</v>
       </c>
       <c r="G51" s="25">
-        <f>F51/E51/N$2/1.52-1</f>
+        <f t="shared" si="3"/>
         <v>8.9793172782328012E-2</v>
       </c>
       <c r="H51" s="22" t="b">
@@ -11327,7 +11348,7 @@
         <v>465</v>
       </c>
       <c r="G52" s="25">
-        <f>F52/E52/N$2/1.52-1</f>
+        <f t="shared" si="3"/>
         <v>8.855343881175326E-2</v>
       </c>
       <c r="H52" s="22" t="b">
@@ -11366,7 +11387,7 @@
         <v>1015</v>
       </c>
       <c r="G53" s="25">
-        <f>F53/E53/N$2/1.52-1</f>
+        <f t="shared" si="3"/>
         <v>4.9509613201422553E-2</v>
       </c>
       <c r="H53" s="22" t="b">
@@ -11405,7 +11426,7 @@
         <v>1015</v>
       </c>
       <c r="G54" s="25">
-        <f>F54/E54/N$2/1.52-1</f>
+        <f t="shared" si="3"/>
         <v>4.9509613201422553E-2</v>
       </c>
       <c r="H54" s="22" t="b">
@@ -11483,7 +11504,7 @@
         <v>1741</v>
       </c>
       <c r="G56" s="25">
-        <f>F56/E56/N$2/1.52-1</f>
+        <f t="shared" ref="G56:G62" si="4">F56/E56/N$2/1.52-1</f>
         <v>5.0422091215642562E-2</v>
       </c>
       <c r="H56" s="22" t="b">
@@ -11522,7 +11543,7 @@
         <v>658</v>
       </c>
       <c r="G57" s="25">
-        <f>F57/E57/N$2/1.52-1</f>
+        <f t="shared" si="4"/>
         <v>8.7826017158941783E-2</v>
       </c>
       <c r="H57" s="22" t="b">
@@ -11561,7 +11582,7 @@
         <v>2886</v>
       </c>
       <c r="G58" s="25">
-        <f>F58/E58/N$2/1.52-1</f>
+        <f t="shared" si="4"/>
         <v>5.0381568103942564E-2</v>
       </c>
       <c r="H58" s="22" t="b">
@@ -11600,7 +11621,7 @@
         <v>4032</v>
       </c>
       <c r="G59" s="25">
-        <f>F59/E59/N$2/1.52-1</f>
+        <f t="shared" si="4"/>
         <v>8.9932073130444934E-2</v>
       </c>
       <c r="H59" s="22" t="b">
@@ -11639,7 +11660,7 @@
         <v>465</v>
       </c>
       <c r="G60" s="25">
-        <f>F60/E60/N$2/1.52-1</f>
+        <f t="shared" si="4"/>
         <v>8.855343881175326E-2</v>
       </c>
       <c r="H60" s="22" t="b">
@@ -11678,7 +11699,7 @@
         <v>905</v>
       </c>
       <c r="G61" s="25">
-        <f>F61/E61/N$2/1.52-1</f>
+        <f t="shared" si="4"/>
         <v>4.8803217422161982E-2</v>
       </c>
       <c r="H61" s="22" t="b">
@@ -11717,7 +11738,7 @@
         <v>905</v>
       </c>
       <c r="G62" s="25">
-        <f>F62/E62/N$2/1.52-1</f>
+        <f t="shared" si="4"/>
         <v>4.8803217422161982E-2</v>
       </c>
       <c r="H62" s="22" t="b">
@@ -11993,7 +12014,7 @@
         <v>5246</v>
       </c>
       <c r="G70" s="25">
-        <f>F70/E70/N$2/1.52-1</f>
+        <f t="shared" ref="G70:G93" si="5">F70/E70/N$2/1.52-1</f>
         <v>4.9996201257383799E-2</v>
       </c>
       <c r="H70" s="22" t="b">
@@ -12032,7 +12053,7 @@
         <v>546</v>
       </c>
       <c r="G71" s="25">
-        <f>F71/E71/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>9.0590806252004219E-2</v>
       </c>
       <c r="H71" s="22" t="b">
@@ -12071,7 +12092,7 @@
         <v>2269</v>
       </c>
       <c r="G72" s="25">
-        <f>F72/E72/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>4.9737665291286648E-2</v>
       </c>
       <c r="H72" s="22" t="b">
@@ -12110,7 +12131,7 @@
         <v>2348</v>
       </c>
       <c r="G73" s="25">
-        <f>F73/E73/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>4.9772655121284703E-2</v>
       </c>
       <c r="H73" s="22" t="b">
@@ -12149,7 +12170,7 @@
         <v>2100</v>
       </c>
       <c r="G74" s="25">
-        <f>F74/E74/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>4.9540518399255218E-2</v>
       </c>
       <c r="H74" s="22" t="b">
@@ -12188,7 +12209,7 @@
         <v>813</v>
       </c>
       <c r="G75" s="25">
-        <f>F75/E75/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>8.8794500324740122E-2</v>
       </c>
       <c r="H75" s="22" t="b">
@@ -12227,7 +12248,7 @@
         <v>4186</v>
       </c>
       <c r="G76" s="25">
-        <f>F76/E76/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>8.9782242486989405E-2</v>
       </c>
       <c r="H76" s="22" t="b">
@@ -12266,7 +12287,7 @@
         <v>864</v>
       </c>
       <c r="G77" s="25">
-        <f>F77/E77/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>8.9764288020665051E-2</v>
       </c>
       <c r="H77" s="22" t="b">
@@ -12305,7 +12326,7 @@
         <v>5419</v>
       </c>
       <c r="G78" s="25">
-        <f>F78/E78/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>4.9796778272680919E-2</v>
       </c>
       <c r="H78" s="22" t="b">
@@ -12344,7 +12365,7 @@
         <v>564</v>
       </c>
       <c r="G79" s="25">
-        <f>F79/E79/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>8.9364667819704202E-2</v>
       </c>
       <c r="H79" s="22" t="b">
@@ -12383,7 +12404,7 @@
         <v>2714</v>
       </c>
       <c r="G80" s="25">
-        <f>F80/E80/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>4.9802796173342934E-2</v>
       </c>
       <c r="H80" s="22" t="b">
@@ -12422,7 +12443,7 @@
         <v>2368</v>
       </c>
       <c r="G81" s="25">
-        <f>F81/E81/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>4.9891879727204325E-2</v>
       </c>
       <c r="H81" s="22" t="b">
@@ -12461,7 +12482,7 @@
         <v>2170</v>
       </c>
       <c r="G82" s="25">
-        <f>F82/E82/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>4.9569431361194516E-2</v>
       </c>
       <c r="H82" s="22" t="b">
@@ -12500,7 +12521,7 @@
         <v>814</v>
       </c>
       <c r="G83" s="25">
-        <f>F83/E83/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>8.7644841155750886E-2</v>
       </c>
       <c r="H83" s="22" t="b">
@@ -12539,7 +12560,7 @@
         <v>4186</v>
       </c>
       <c r="G84" s="25">
-        <f>F84/E84/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>8.9782242486989405E-2</v>
       </c>
       <c r="H84" s="22" t="b">
@@ -12578,7 +12599,7 @@
         <v>4961</v>
       </c>
       <c r="G85" s="25">
-        <f>F85/E85/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>8.9862767998867499E-2</v>
       </c>
       <c r="H85" s="22" t="b">
@@ -12617,7 +12638,7 @@
         <v>5419</v>
       </c>
       <c r="G86" s="25">
-        <f>F86/E86/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>4.9796778272680919E-2</v>
       </c>
       <c r="H86" s="22" t="b">
@@ -12656,7 +12677,7 @@
         <v>546</v>
       </c>
       <c r="G87" s="25">
-        <f>F87/E87/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>9.0590806252004219E-2</v>
       </c>
       <c r="H87" s="22" t="b">
@@ -12695,7 +12716,7 @@
         <v>2269</v>
       </c>
       <c r="G88" s="25">
-        <f>F88/E88/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>4.9737665291286648E-2</v>
       </c>
       <c r="H88" s="22" t="b">
@@ -12734,7 +12755,7 @@
         <v>2368</v>
       </c>
       <c r="G89" s="25">
-        <f>F89/E89/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>4.9891879727204325E-2</v>
       </c>
       <c r="H89" s="22" t="b">
@@ -12773,7 +12794,7 @@
         <v>364</v>
       </c>
       <c r="G90" s="25">
-        <f>F90/E90/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>8.6881313713732311E-2</v>
       </c>
       <c r="H90" s="22" t="b">
@@ -12812,7 +12833,7 @@
         <v>2099</v>
       </c>
       <c r="G91" s="25">
-        <f>F91/E91/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>4.9937353214718261E-2</v>
       </c>
       <c r="H91" s="22" t="b">
@@ -12851,7 +12872,7 @@
         <v>814</v>
       </c>
       <c r="G92" s="25">
-        <f>F92/E92/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>8.7644841155750886E-2</v>
       </c>
       <c r="H92" s="22" t="b">
@@ -12890,7 +12911,7 @@
         <v>3106</v>
       </c>
       <c r="G93" s="25">
-        <f>F93/E93/N$2/1.52-1</f>
+        <f t="shared" si="5"/>
         <v>4.9519165160950562E-2</v>
       </c>
       <c r="H93" s="22" t="b">
@@ -14144,7 +14165,7 @@
         <v>4498</v>
       </c>
       <c r="G133" s="5">
-        <f t="shared" ref="G133:G153" si="0">F133/$E133-1</f>
+        <f t="shared" ref="G133:G150" si="6">F133/$E133-1</f>
         <v>0.36014514665860298</v>
       </c>
       <c r="H133" t="b">
@@ -14184,7 +14205,7 @@
         <v>2219</v>
       </c>
       <c r="G134" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>8.9882121807465687E-2</v>
       </c>
       <c r="H134" t="b">
@@ -14224,7 +14245,7 @@
         <v>3167</v>
       </c>
       <c r="G135" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7.9781793385611977E-2</v>
       </c>
       <c r="H135" t="b">
@@ -14264,7 +14285,7 @@
         <v>7198</v>
       </c>
       <c r="G136" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.35990931418855099</v>
       </c>
       <c r="H136" t="b">
@@ -14304,7 +14325,7 @@
         <v>3625</v>
       </c>
       <c r="G137" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.36999244142101295</v>
       </c>
       <c r="H137" t="b">
@@ -14344,7 +14365,7 @@
         <v>3947</v>
       </c>
       <c r="G138" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.0052700922266204E-2</v>
       </c>
       <c r="H138" t="b">
@@ -14384,7 +14405,7 @@
         <v>7633</v>
       </c>
       <c r="G139" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.9918256130790253E-2</v>
       </c>
       <c r="H139" t="b">
@@ -14424,7 +14445,7 @@
         <v>2893</v>
       </c>
       <c r="G140" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.9899352983465031E-2</v>
       </c>
       <c r="H140" t="b">
@@ -14464,7 +14485,7 @@
         <v>1976</v>
       </c>
       <c r="G141" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7.9781420765027367E-2</v>
       </c>
       <c r="H141" t="b">
@@ -14504,7 +14525,7 @@
         <v>4116</v>
       </c>
       <c r="G142" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.9732211170619767E-2</v>
       </c>
       <c r="H142" t="b">
@@ -14544,7 +14565,7 @@
         <v>7961</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.9986810867844955E-2</v>
       </c>
       <c r="H143" t="b">
@@ -14584,7 +14605,7 @@
         <v>3018</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.9739130434782508E-2</v>
       </c>
       <c r="H144" t="b">
@@ -14606,7 +14627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145" t="s">
         <v>420</v>
@@ -14624,7 +14645,7 @@
         <v>642</v>
       </c>
       <c r="G145" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.9019607843137303E-2</v>
       </c>
       <c r="H145" t="b">
@@ -14646,7 +14667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146"/>
       <c r="B146" t="s">
         <v>420</v>
@@ -14664,7 +14685,7 @@
         <v>642</v>
       </c>
       <c r="G146" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.9019607843137303E-2</v>
       </c>
       <c r="H146" t="b">
@@ -14686,7 +14707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147"/>
       <c r="B147" t="s">
         <v>421</v>
@@ -14704,7 +14725,7 @@
         <v>2573</v>
       </c>
       <c r="G147" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.0204081632652997E-2</v>
       </c>
       <c r="H147" t="b">
@@ -14726,7 +14747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148"/>
       <c r="B148" t="s">
         <v>422</v>
@@ -14744,7 +14765,7 @@
         <v>4077</v>
       </c>
       <c r="G148" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.9785768936495769E-2</v>
       </c>
       <c r="H148" t="b">
@@ -14766,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149" t="s">
         <v>423</v>
@@ -14784,7 +14805,7 @@
         <v>7885</v>
       </c>
       <c r="G149" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.9963070429965608E-2</v>
       </c>
       <c r="H149" t="b">
@@ -14806,7 +14827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150"/>
       <c r="B150" t="s">
         <v>424</v>
@@ -14824,7 +14845,7 @@
         <v>2989</v>
       </c>
       <c r="G150" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.9652173913043542E-2</v>
       </c>
       <c r="H150" t="b">
@@ -14846,7 +14867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -14860,7 +14881,7 @@
       <c r="K151"/>
       <c r="L151"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>260</v>
       </c>
@@ -14902,13 +14923,18 @@
         <v>1</v>
       </c>
       <c r="N152" s="22">
-        <v>4060</v>
+        <v>3960</v>
       </c>
       <c r="O152" s="22">
-        <v>18100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+        <f>18200-4984</f>
+        <v>13216</v>
+      </c>
+      <c r="P152" s="22">
+        <f>18200-(O152-N152)</f>
+        <v>8944</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
         <v>143</v>
       </c>
@@ -14928,7 +14954,7 @@
         <v>2395</v>
       </c>
       <c r="G153" s="25">
-        <f t="shared" ref="G153" si="1">F153/E153/N$2/1.52-1</f>
+        <f t="shared" ref="G153" si="7">F153/E153/N$2/1.52-1</f>
         <v>0.20936916601916256</v>
       </c>
       <c r="H153" s="22" t="b">
@@ -14951,10 +14977,10 @@
       </c>
       <c r="N153" s="22">
         <f>(1-(O152-N152)/50000)/(1-O152/50000)</f>
-        <v>1.1272727272727274</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1076555023923447</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
         <v>143</v>
       </c>
@@ -14993,7 +15019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="26" t="s">
         <v>143</v>
       </c>
@@ -15013,7 +15039,7 @@
         <v>1757</v>
       </c>
       <c r="G155" s="25">
-        <f t="shared" ref="G155:G156" si="2">F155/E155/N$2/1.52-1</f>
+        <f t="shared" ref="G155:G156" si="8">F155/E155/N$2/1.52-1</f>
         <v>0.20973332826834312</v>
       </c>
       <c r="H155" s="22" t="b">
@@ -15035,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="26" t="s">
         <v>143</v>
       </c>
@@ -15055,7 +15081,7 @@
         <v>1761</v>
       </c>
       <c r="G156" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.20964120207197312</v>
       </c>
       <c r="H156" s="22" t="b">
@@ -15077,7 +15103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="26" t="s">
         <v>140</v>
       </c>
@@ -15119,7 +15145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="26" t="s">
         <v>140</v>
       </c>
@@ -15161,7 +15187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="26" t="s">
         <v>140</v>
       </c>
@@ -15200,7 +15226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="22" t="s">
         <v>451</v>
       </c>
@@ -15220,7 +15246,7 @@
         <v>2277</v>
       </c>
       <c r="G160" s="25">
-        <f t="shared" ref="G160:G161" si="3">F160/E160/N$2/1.52-1</f>
+        <f t="shared" ref="G160:G161" si="9">F160/E160/N$2/1.52-1</f>
         <v>0.20925598626854502</v>
       </c>
       <c r="H160" s="22" t="b">
@@ -15262,7 +15288,7 @@
         <v>3545</v>
       </c>
       <c r="G161" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.20973132091528424</v>
       </c>
       <c r="H161" s="22" t="b">
@@ -15343,7 +15369,7 @@
         <v>2247</v>
       </c>
       <c r="G163" s="25">
-        <f t="shared" ref="G163:G168" si="4">F163/E163/N$2/1.52-1</f>
+        <f t="shared" ref="G163:G168" si="10">F163/E163/N$2/1.52-1</f>
         <v>0.2097909690328561</v>
       </c>
       <c r="H163" s="22" t="b">
@@ -15385,7 +15411,7 @@
         <v>4695</v>
       </c>
       <c r="G164" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.2099161458930936</v>
       </c>
       <c r="H164" s="22" t="b">
@@ -15466,7 +15492,7 @@
         <v>3633</v>
       </c>
       <c r="G166" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.9452452314295847E-2</v>
       </c>
       <c r="H166" t="b">
@@ -15508,7 +15534,7 @@
         <v>3971</v>
       </c>
       <c r="G167" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.9685215666062543E-2</v>
       </c>
       <c r="H167" t="b">
@@ -15550,7 +15576,7 @@
         <v>2728</v>
       </c>
       <c r="G168" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.0358581309586592E-2</v>
       </c>
       <c r="H168" t="b">
@@ -15634,7 +15660,7 @@
         <v>3754</v>
       </c>
       <c r="G170" s="25">
-        <f t="shared" ref="G170:G173" si="5">F170/E170/N$2/1.52-1</f>
+        <f t="shared" ref="G170:G173" si="11">F170/E170/N$2/1.52-1</f>
         <v>4.9691909359750541E-2</v>
       </c>
       <c r="H170" t="b">
@@ -15676,7 +15702,7 @@
         <v>4107</v>
       </c>
       <c r="G171" s="25">
-        <f t="shared" ref="G171" si="6">F171/E171/N$2/1.52-1</f>
+        <f t="shared" ref="G171" si="12">F171/E171/N$2/1.52-1</f>
         <v>5.0063880362808177E-2</v>
       </c>
       <c r="H171" t="b">
@@ -15718,7 +15744,7 @@
         <v>991</v>
       </c>
       <c r="G172" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.8782260847427983E-2</v>
       </c>
       <c r="H172" t="b">
@@ -15760,7 +15786,7 @@
         <v>2726</v>
       </c>
       <c r="G173" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.958852369865574E-2</v>
       </c>
       <c r="H173" t="b">
@@ -15844,7 +15870,7 @@
         <v>3754</v>
       </c>
       <c r="G175" s="25">
-        <f t="shared" ref="G175:G180" si="7">F175/E175/N$2/1.52-1</f>
+        <f t="shared" ref="G175:G187" si="13">F175/E175/N$2/1.52-1</f>
         <v>4.9691909359750541E-2</v>
       </c>
       <c r="H175" t="b">
@@ -15886,7 +15912,7 @@
         <v>4107</v>
       </c>
       <c r="G176" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.0063880362808177E-2</v>
       </c>
       <c r="H176" t="b">
@@ -15928,7 +15954,7 @@
         <v>2726</v>
       </c>
       <c r="G177" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.958852369865574E-2</v>
       </c>
       <c r="H177" t="b">
@@ -15970,7 +15996,7 @@
         <v>4324</v>
       </c>
       <c r="G178" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.0039055329947235E-2</v>
       </c>
       <c r="H178" t="b">
@@ -16006,14 +16032,14 @@
         <v>100218</v>
       </c>
       <c r="E180" s="22">
-        <v>746</v>
+        <v>1880</v>
       </c>
       <c r="F180" s="22">
-        <v>1339</v>
+        <v>3317</v>
       </c>
       <c r="G180" s="25">
-        <f t="shared" si="7"/>
-        <v>5.0457677195175465E-2</v>
+        <f>F180/(E180/1.05)/N153/1.52-1.05</f>
+        <v>5.0344366067735624E-2</v>
       </c>
       <c r="H180" t="b">
         <v>1</v>
@@ -16031,6 +16057,246 @@
         <v>1</v>
       </c>
       <c r="M180" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="C182">
+        <v>103878</v>
+      </c>
+      <c r="D182" s="24">
+        <v>103881</v>
+      </c>
+      <c r="E182" s="22">
+        <v>1002</v>
+      </c>
+      <c r="F182" s="22">
+        <v>1798</v>
+      </c>
+      <c r="G182" s="25">
+        <f t="shared" si="13"/>
+        <v>5.0167988208278169E-2</v>
+      </c>
+      <c r="H182" t="b">
+        <v>1</v>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="b">
+        <v>0</v>
+      </c>
+      <c r="K182" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M182" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B183" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="C183">
+        <v>103483</v>
+      </c>
+      <c r="D183" s="24">
+        <v>103485</v>
+      </c>
+      <c r="E183" s="22">
+        <v>1864</v>
+      </c>
+      <c r="F183" s="22">
+        <v>3345</v>
+      </c>
+      <c r="G183" s="25">
+        <f t="shared" si="13"/>
+        <v>5.0236297482957992E-2</v>
+      </c>
+      <c r="H183" t="b">
+        <v>1</v>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="b">
+        <v>0</v>
+      </c>
+      <c r="K183" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M183" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>470</v>
+      </c>
+      <c r="C184">
+        <v>103571</v>
+      </c>
+      <c r="D184" s="24">
+        <v>103572</v>
+      </c>
+      <c r="E184" s="22">
+        <v>1985</v>
+      </c>
+      <c r="F184" s="22">
+        <v>3560</v>
+      </c>
+      <c r="G184" s="25">
+        <f t="shared" si="13"/>
+        <v>4.9605980924092519E-2</v>
+      </c>
+      <c r="H184" t="b">
+        <v>1</v>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="b">
+        <v>0</v>
+      </c>
+      <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M184" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>469</v>
+      </c>
+      <c r="C185">
+        <v>103623</v>
+      </c>
+      <c r="D185" s="24">
+        <v>103626</v>
+      </c>
+      <c r="E185" s="22">
+        <v>1926</v>
+      </c>
+      <c r="F185" s="22">
+        <v>3455</v>
+      </c>
+      <c r="G185" s="25">
+        <f t="shared" si="13"/>
+        <v>4.9853206013523943E-2</v>
+      </c>
+      <c r="H185" t="b">
+        <v>1</v>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="b">
+        <v>0</v>
+      </c>
+      <c r="K185" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M185" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B186" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="C186">
+        <v>103878</v>
+      </c>
+      <c r="D186" s="24">
+        <v>103880</v>
+      </c>
+      <c r="E186" s="22">
+        <v>2229</v>
+      </c>
+      <c r="F186" s="22">
+        <v>3931</v>
+      </c>
+      <c r="G186" s="25">
+        <f>F186/(E186/1.05)/N153/1.52-1.05</f>
+        <v>4.9851312029627115E-2</v>
+      </c>
+      <c r="H186" t="b">
+        <v>1</v>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="b">
+        <v>0</v>
+      </c>
+      <c r="K186" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M186" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187" s="24">
+        <v>21970</v>
+      </c>
+      <c r="E187" s="22">
+        <v>426</v>
+      </c>
+      <c r="F187" s="22">
+        <v>763</v>
+      </c>
+      <c r="G187" s="25">
+        <f t="shared" si="13"/>
+        <v>4.8218327292351537E-2</v>
+      </c>
+      <c r="H187" t="b">
+        <v>1</v>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" t="b">
+        <v>0</v>
+      </c>
+      <c r="K187" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M187" s="22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16066,10 +16332,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K423"/>
+  <dimension ref="A1:K429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K423"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="I438" sqref="I438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16145,8 +16411,8 @@
         <v>1</v>
       </c>
       <c r="K2" t="str">
-        <f>CONCATENATE("[",D2,"] = { ",LOWER(E2),", ",LOWER(F2),", ",LOWER(G2),", ",LOWER(H2),", ",LOWER(I2),",",LOWER(J2),"}, --",B2)</f>
-        <v>[40267] = { true, false, true, false, true,true}, --Anti-Calvary Caltrops</v>
+        <f>CONCATENATE("[",D2,"] = {",LOWER(E2),", ",LOWER(F2),", ",LOWER(G2),", ",LOWER(H2),", ",LOWER(I2),", ",LOWER(J2),"}, --",B2)</f>
+        <v>[40267] = {true, false, true, false, true, true}, --Anti-Calvary Caltrops</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16181,8 +16447,8 @@
         <v>1</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="0">CONCATENATE("[",D3,"] = { ",LOWER(E3),", ",LOWER(F3),", ",LOWER(G3),", ",LOWER(H3),", ",LOWER(I3),",",LOWER(J3),"}, --",B3)</f>
-        <v>[38561] = { true, false, true, false, true,true}, --Caltrops</v>
+        <f t="shared" ref="K3:K66" si="0">CONCATENATE("[",D3,"] = {",LOWER(E3),", ",LOWER(F3),", ",LOWER(G3),", ",LOWER(H3),", ",LOWER(I3),", ",LOWER(J3),"}, --",B3)</f>
+        <v>[38561] = {true, false, true, false, true, true}, --Caltrops</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16218,7 +16484,7 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>[61493] = { true, false, false, false, true,true}, --Inevitable Detonation</v>
+        <v>[61493] = {true, false, false, false, true, true}, --Inevitable Detonation</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16254,7 +16520,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>[61502] = { true, false, false, false, true,true}, --Proximity Detonation</v>
+        <v>[61502] = {true, false, false, false, true, true}, --Proximity Detonation</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16290,7 +16556,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>[40254] = { true, false, false, false, true,true}, --Razor Caltrops</v>
+        <v>[40254] = {true, false, false, false, true, true}, --Razor Caltrops</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16326,7 +16592,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>[40252] = { true, false, true, false, true,true}, --Razor Caltrops dot</v>
+        <v>[40252] = {true, false, true, false, true, true}, --Razor Caltrops dot</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16362,7 +16628,7 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>[38724] = { true, true, false, false, true,true}, --Acid Spray</v>
+        <v>[38724] = {true, true, false, false, true, true}, --Acid Spray</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16398,7 +16664,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>[38703] = { true, false, true, false, true,true}, --Acid Spray (Dot)</v>
+        <v>[38703] = {true, false, true, false, true, true}, --Acid Spray (Dot)</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16434,7 +16700,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>[38696] = { true, false, true, false, true,true}, --Arrow Barrage</v>
+        <v>[38696] = {true, false, true, false, true, true}, --Arrow Barrage</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16470,7 +16736,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>[38722] = { true, true, false, false, true,true}, --Arrow Spray</v>
+        <v>[38722] = {true, true, false, false, true, true}, --Arrow Spray</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16506,7 +16772,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>[85462] = { true, true, false, false, true,true}, --Ballista</v>
+        <v>[85462] = {true, true, false, false, true, true}, --Ballista</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16542,7 +16808,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>[38723] = { true, true, false, false, true,true}, --Bombard</v>
+        <v>[38723] = {true, true, false, false, true, true}, --Bombard</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16578,7 +16844,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>[38669] = { true, true, false, false, true,true}, --Draining Shot</v>
+        <v>[38669] = {true, true, false, false, true, true}, --Draining Shot</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16614,7 +16880,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>[38690] = { true, false, true, false, true,true}, --Endless Hail</v>
+        <v>[38690] = {true, false, true, false, true, true}, --Endless Hail</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16650,7 +16916,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>[38687] = { true, true, false, false, true,true}, --Focused Aim</v>
+        <v>[38687] = {true, true, false, false, true, true}, --Focused Aim</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16686,7 +16952,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>[17173] = { true, true, false, true, true,true}, --Heavy Attack (Bow)</v>
+        <v>[17173] = {true, true, false, true, true, true}, --Heavy Attack (Bow)</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16722,7 +16988,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>[17174] = { true, true, false, true, true,true}, --Heavy Attack (Medium, Bow)</v>
+        <v>[17174] = {true, true, false, true, true, true}, --Heavy Attack (Medium, Bow)</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16758,7 +17024,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>[38685] = { true, true, false, false, true,true}, --Lethal Arrow</v>
+        <v>[38685] = {true, true, false, false, true, true}, --Lethal Arrow</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16794,7 +17060,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>[16688] = { true, true, false, true, true,true}, --Light Attack (Bow)</v>
+        <v>[16688] = {true, true, false, true, true, true}, --Light Attack (Bow)</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16830,7 +17096,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>[38672] = { true, true, false, false, true,true}, --Magnum Shot</v>
+        <v>[38672] = {true, true, false, false, true, true}, --Magnum Shot</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16866,7 +17132,7 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
-        <v>[28869] = { true, true, false, false, true,true}, --Poison Arrow</v>
+        <v>[28869] = {true, true, false, false, true, true}, --Poison Arrow</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16902,7 +17168,7 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
-        <v>[44540] = { true, false, true, false, true,true}, --Poison Arrow (Dot)</v>
+        <v>[44540] = {true, false, true, false, true, true}, --Poison Arrow (Dot)</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16938,7 +17204,7 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>[38660] = { true, true, false, false, true,true}, --Poison Injection</v>
+        <v>[38660] = {true, true, false, false, true, true}, --Poison Injection</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16974,7 +17240,7 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
-        <v>[44549] = { true, false, true, false, true,true}, --Poison Injection (Dot)</v>
+        <v>[44549] = {true, false, true, false, true, true}, --Poison Injection (Dot)</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17010,7 +17276,7 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
-        <v>[21929] = { true, false, true, false, true,true}, --Poisoned</v>
+        <v>[21929] = {true, false, true, false, true, true}, --Poisoned</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17046,7 +17312,7 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
-        <v>[86563] = { true, false, true, false, true,true}, --Rapid Fire</v>
+        <v>[86563] = {true, false, true, false, true, true}, --Rapid Fire</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17082,7 +17348,7 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
-        <v>[28879] = { true, true, false, false, true,true}, --Scatter Shot</v>
+        <v>[28879] = {true, true, false, false, true, true}, --Scatter Shot</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17118,7 +17384,7 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
-        <v>[28882] = { true, true, false, false, true,true}, --Snipe</v>
+        <v>[28882] = {true, true, false, false, true, true}, --Snipe</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17154,7 +17420,7 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
-        <v>[85260] = { true, false, true, false, true,true}, --Toxic Barrage</v>
+        <v>[85260] = {true, false, true, false, true, true}, --Toxic Barrage</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17190,7 +17456,7 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
-        <v>[85261] = { true, false, true, false, true,true}, --Toxic Barrage (Dot)</v>
+        <v>[85261] = {true, false, true, false, true, true}, --Toxic Barrage (Dot)</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17226,7 +17492,7 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
-        <v>[38645] = { true, true, false, false, true,true}, --Venom Arrow</v>
+        <v>[38645] = {true, true, false, false, true, true}, --Venom Arrow</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17262,7 +17528,7 @@
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
-        <v>[44545] = { true, false, true, false, true,true}, --Venom Arrow (Dot)</v>
+        <v>[44545] = {true, false, true, false, true, true}, --Venom Arrow (Dot)</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17298,7 +17564,7 @@
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
-        <v>[28877] = { true, false, true, false, true,true}, --Volley</v>
+        <v>[28877] = {true, false, true, false, true, true}, --Volley</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17334,7 +17600,7 @@
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
-        <v>[62912] = { true, false, true, false, true,true}, --Blockade of Fire</v>
+        <v>[62912] = {true, false, true, false, true, true}, --Blockade of Fire</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17370,7 +17636,7 @@
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
-        <v>[62951] = { true, false, true, false, true,true}, --Blockade of Frost</v>
+        <v>[62951] = {true, false, true, false, true, true}, --Blockade of Frost</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17406,7 +17672,7 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
-        <v>[62990] = { true, false, true, false, true,true}, --Blockade of Storms</v>
+        <v>[62990] = {true, false, true, false, true, true}, --Blockade of Storms</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17442,7 +17708,7 @@
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
-        <v>[18084] = { true, false, true, false, true,true}, --Burning</v>
+        <v>[18084] = {true, false, true, false, true, true}, --Burning</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17478,7 +17744,7 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
-        <v>[21481] = { true, false, true, false, true,true}, --Chill</v>
+        <v>[21481] = {true, false, true, false, true, true}, --Chill</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17514,7 +17780,7 @@
       </c>
       <c r="K40" t="str">
         <f t="shared" si="0"/>
-        <v>[21487] = { true, false, true, false, true,true}, --Concussion</v>
+        <v>[21487] = {true, false, true, false, true, true}, --Concussion</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17550,7 +17816,7 @@
       </c>
       <c r="K41" t="str">
         <f t="shared" si="0"/>
-        <v>[46348] = { true, true, false, false, true,true}, --Crushing Shock (Fire)</v>
+        <v>[46348] = {true, true, false, false, true, true}, --Crushing Shock (Fire)</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17586,7 +17852,7 @@
       </c>
       <c r="K42" t="str">
         <f t="shared" si="0"/>
-        <v>[46350] = { true, true, false, false, true,true}, --Crushing Shock (Frost)</v>
+        <v>[46350] = {true, true, false, false, true, true}, --Crushing Shock (Frost)</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17622,7 +17888,7 @@
       </c>
       <c r="K43" t="str">
         <f t="shared" si="0"/>
-        <v>[46351] = { true, true, false, false, true,true}, --Crushing Shock (Shock)</v>
+        <v>[46351] = {true, true, false, false, true, true}, --Crushing Shock (Shock)</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17658,7 +17924,7 @@
       </c>
       <c r="K44" t="str">
         <f t="shared" si="0"/>
-        <v>[83683] = { true, false, true, false, true,true}, --Eye of Flame</v>
+        <v>[83683] = {true, false, true, false, true, true}, --Eye of Flame</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17694,7 +17960,7 @@
       </c>
       <c r="K45" t="str">
         <f t="shared" si="0"/>
-        <v>[83685] = { true, false, true, false, true,true}, --Eye of Frost</v>
+        <v>[83685] = {true, false, true, false, true, true}, --Eye of Frost</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17730,7 +17996,7 @@
       </c>
       <c r="K46" t="str">
         <f t="shared" si="0"/>
-        <v>[83687] = { true, false, true, false, true,true}, --Eye of Lightning</v>
+        <v>[83687] = {true, false, true, false, true, true}, --Eye of Lightning</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17766,7 +18032,7 @@
       </c>
       <c r="K47" t="str">
         <f t="shared" si="0"/>
-        <v>[85127] = { true, false, true, false, true,true}, --Fiery Rage</v>
+        <v>[85127] = {true, false, true, false, true, true}, --Fiery Rage</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17802,7 +18068,7 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="0"/>
-        <v>[62668] = { true, false, true, false, true,true}, --Fire Clench</v>
+        <v>[62668] = {true, false, true, false, true, true}, --Fire Clench</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17838,7 +18104,7 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="0"/>
-        <v>[39149] = { true, true, false, false, true,true}, --Fire Ring</v>
+        <v>[39149] = {true, true, false, false, true, true}, --Fire Ring</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17874,7 +18140,7 @@
       </c>
       <c r="K50" t="str">
         <f t="shared" si="0"/>
-        <v>[38985] = { true, true, false, false, true,true}, --Flame Clench</v>
+        <v>[38985] = {true, true, false, false, true, true}, --Flame Clench</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17910,7 +18176,7 @@
       </c>
       <c r="K51" t="str">
         <f t="shared" si="0"/>
-        <v>[39162] = { true, true, false, false, true,true}, --Flame Pulsar</v>
+        <v>[39162] = {true, true, false, false, true, true}, --Flame Pulsar</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17946,7 +18212,7 @@
       </c>
       <c r="K52" t="str">
         <f t="shared" si="0"/>
-        <v>[38944] = { true, true, false, false, true,true}, --Flame Reach</v>
+        <v>[38944] = {true, true, false, false, true, true}, --Flame Reach</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17982,7 +18248,7 @@
       </c>
       <c r="K53" t="str">
         <f t="shared" si="0"/>
-        <v>[62682] = { true, false, true, false, true,true}, --Flame Reach dot</v>
+        <v>[62682] = {true, false, true, false, true, true}, --Flame Reach dot</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18018,7 +18284,7 @@
       </c>
       <c r="K54" t="str">
         <f t="shared" si="0"/>
-        <v>[29073] = { true, true, false, false, true,true}, --Flame Touch</v>
+        <v>[29073] = {true, true, false, false, true, true}, --Flame Touch</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18054,7 +18320,7 @@
       </c>
       <c r="K55" t="str">
         <f t="shared" si="0"/>
-        <v>[62648] = { true, false, true, false, true,true}, --Flame Touch dot</v>
+        <v>[62648] = {true, false, true, false, true, true}, --Flame Touch dot</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18090,7 +18356,7 @@
       </c>
       <c r="K56" t="str">
         <f t="shared" si="0"/>
-        <v>[46356] = { true, true, false, false, true,true}, --Force Pulse (Fire)</v>
+        <v>[46356] = {true, true, false, false, true, true}, --Force Pulse (Fire)</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18126,7 +18392,7 @@
       </c>
       <c r="K57" t="str">
         <f t="shared" si="0"/>
-        <v>[46357] = { true, true, false, false, true,true}, --Force Pulse (Frost)</v>
+        <v>[46357] = {true, true, false, false, true, true}, --Force Pulse (Frost)</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18162,7 +18428,7 @@
       </c>
       <c r="K58" t="str">
         <f t="shared" si="0"/>
-        <v>[46358] = { true, true, false, false, true,true}, --Force Pulse (Shock)</v>
+        <v>[46358] = {true, true, false, false, true, true}, --Force Pulse (Shock)</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18198,7 +18464,7 @@
       </c>
       <c r="K59" t="str">
         <f t="shared" si="0"/>
-        <v>[38989] = { true, true, false, false, true,true}, --Frost Clench</v>
+        <v>[38989] = {true, true, false, false, true, true}, --Frost Clench</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18234,7 +18500,7 @@
       </c>
       <c r="K60" t="str">
         <f t="shared" si="0"/>
-        <v>[62702] = { true, false, true, false, true,true}, --Frost Clench dot</v>
+        <v>[62702] = {true, false, true, false, true, true}, --Frost Clench dot</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18270,7 +18536,7 @@
       </c>
       <c r="K61" t="str">
         <f t="shared" si="0"/>
-        <v>[39163] = { true, true, false, false, true,true}, --Frost Pulsar</v>
+        <v>[39163] = {true, true, false, false, true, true}, --Frost Pulsar</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18306,7 +18572,7 @@
       </c>
       <c r="K62" t="str">
         <f t="shared" si="0"/>
-        <v>[38970] = { true, true, false, false, true,true}, --Frost Reach</v>
+        <v>[38970] = {true, true, false, false, true, true}, --Frost Reach</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18342,7 +18608,7 @@
       </c>
       <c r="K63" t="str">
         <f t="shared" si="0"/>
-        <v>[62712] = { true, false, true, false, true,true}, --Frost Reach dot</v>
+        <v>[62712] = {true, false, true, false, true, true}, --Frost Reach dot</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18378,7 +18644,7 @@
       </c>
       <c r="K64" t="str">
         <f t="shared" si="0"/>
-        <v>[39151] = { true, true, false, false, true,true}, --Frost Ring</v>
+        <v>[39151] = {true, true, false, false, true, true}, --Frost Ring</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18414,7 +18680,7 @@
       </c>
       <c r="K65" t="str">
         <f t="shared" si="0"/>
-        <v>[29078] = { true, true, false, false, true,true}, --Frost Touch</v>
+        <v>[29078] = {true, true, false, false, true, true}, --Frost Touch</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18450,7 +18716,7 @@
       </c>
       <c r="K66" t="str">
         <f t="shared" si="0"/>
-        <v>[62692] = { true, false, true, false, true,true}, --Frost Touch dot</v>
+        <v>[62692] = {true, false, true, false, true, true}, --Frost Touch dot</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18485,8 +18751,8 @@
         <v>1</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K130" si="1">CONCATENATE("[",D67,"] = { ",LOWER(E67),", ",LOWER(F67),", ",LOWER(G67),", ",LOWER(H67),", ",LOWER(I67),",",LOWER(J67),"}, --",B67)</f>
-        <v>[15385] = { true, true, false, true, true,true}, --Heavy Attack (Fire)</v>
+        <f t="shared" ref="K67:K130" si="1">CONCATENATE("[",D67,"] = {",LOWER(E67),", ",LOWER(F67),", ",LOWER(G67),", ",LOWER(H67),", ",LOWER(I67),", ",LOWER(J67),"}, --",B67)</f>
+        <v>[15385] = {true, true, false, true, true, true}, --Heavy Attack (Fire)</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18522,7 +18788,7 @@
       </c>
       <c r="K68" t="str">
         <f t="shared" si="1"/>
-        <v>[16321] = { true, true, false, true, true,true}, --Heavy Attack (Fire), full</v>
+        <v>[16321] = {true, true, false, true, true, true}, --Heavy Attack (Fire), full</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18558,7 +18824,7 @@
       </c>
       <c r="K69" t="str">
         <f t="shared" si="1"/>
-        <v>[18405] = { true, true, false, true, true,true}, --Heavy Attack (Frost)</v>
+        <v>[18405] = {true, true, false, true, true, true}, --Heavy Attack (Frost)</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18594,7 +18860,7 @@
       </c>
       <c r="K70" t="str">
         <f t="shared" si="1"/>
-        <v>[18406] = { true, true, false, true, true,true}, --Heavy Attack (Frost), full</v>
+        <v>[18406] = {true, true, false, true, true, true}, --Heavy Attack (Frost), full</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,7 +18896,7 @@
       </c>
       <c r="K71" t="str">
         <f t="shared" si="1"/>
-        <v>[18396] = { true, false, true, true, true,true}, --Heavy Attack (Shock)</v>
+        <v>[18396] = {true, false, true, true, true, true}, --Heavy Attack (Shock)</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18666,7 +18932,7 @@
       </c>
       <c r="K72" t="str">
         <f t="shared" si="1"/>
-        <v>[85129] = { true, false, true, false, true,true}, --Icy Rage</v>
+        <v>[85129] = {true, false, true, false, true, true}, --Icy Rage</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18702,7 +18968,7 @@
       </c>
       <c r="K73" t="str">
         <f t="shared" si="1"/>
-        <v>[16165] = { true, true, false, true, true,true}, --Light Attack (Fire)</v>
+        <v>[16165] = {true, true, false, true, true, true}, --Light Attack (Fire)</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18738,7 +19004,7 @@
       </c>
       <c r="K74" t="str">
         <f t="shared" si="1"/>
-        <v>[16277] = { true, true, false, true, true,true}, --Light Attack (Frost)</v>
+        <v>[16277] = {true, true, false, true, true, true}, --Light Attack (Frost)</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18774,7 +19040,7 @@
       </c>
       <c r="K75" t="str">
         <f t="shared" si="1"/>
-        <v>[18350] = { true, true, false, true, true,true}, --Light Attack (Shock)</v>
+        <v>[18350] = {true, true, false, true, true, true}, --Light Attack (Shock)</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18810,7 +19076,7 @@
       </c>
       <c r="K76" t="str">
         <f t="shared" si="1"/>
-        <v>[38993] = { true, true, false, false, true,true}, --Shock Clench</v>
+        <v>[38993] = {true, true, false, false, true, true}, --Shock Clench</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18846,7 +19112,7 @@
       </c>
       <c r="K77" t="str">
         <f t="shared" si="1"/>
-        <v>[62733] = { true, false, true, false, true,true}, --Shock Clench dot</v>
+        <v>[62733] = {true, false, true, false, true, true}, --Shock Clench dot</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18882,7 +19148,7 @@
       </c>
       <c r="K78" t="str">
         <f t="shared" si="1"/>
-        <v>[62743] = { true, false, true, false, true,true}, --Shock Clench Explosion</v>
+        <v>[62743] = {true, false, true, false, true, true}, --Shock Clench Explosion</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18918,7 +19184,7 @@
       </c>
       <c r="K79" t="str">
         <f t="shared" si="1"/>
-        <v>[19277] = { true, true, false, false, true,true}, --Shock Pulse</v>
+        <v>[19277] = {true, true, false, false, true, true}, --Shock Pulse</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18954,7 +19220,7 @@
       </c>
       <c r="K80" t="str">
         <f t="shared" si="1"/>
-        <v>[38978] = { true, true, false, false, true,true}, --Shock Reach</v>
+        <v>[38978] = {true, true, false, false, true, true}, --Shock Reach</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18990,7 +19256,7 @@
       </c>
       <c r="K81" t="str">
         <f t="shared" si="1"/>
-        <v>[62745] = { true, false, true, false, true,true}, --Shock Reach dot</v>
+        <v>[62745] = {true, false, true, false, true, true}, --Shock Reach dot</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19026,7 +19292,7 @@
       </c>
       <c r="K82" t="str">
         <f t="shared" si="1"/>
-        <v>[39153] = { true, true, false, false, true,true}, --Shock Ring</v>
+        <v>[39153] = {true, true, false, false, true, true}, --Shock Ring</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19062,7 +19328,7 @@
       </c>
       <c r="K83" t="str">
         <f t="shared" si="1"/>
-        <v>[29089] = { true, true, false, false, true,true}, --Shock Touch</v>
+        <v>[29089] = {true, true, false, false, true, true}, --Shock Touch</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19098,7 +19364,7 @@
       </c>
       <c r="K84" t="str">
         <f t="shared" si="1"/>
-        <v>[62722] = { true, false, true, false, true,true}, --Shock Touch dot</v>
+        <v>[62722] = {true, false, true, false, true, true}, --Shock Touch dot</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19134,7 +19400,7 @@
       </c>
       <c r="K85" t="str">
         <f t="shared" si="1"/>
-        <v>[39167] = { true, true, false, false, true,true}, --Storm Pulsar</v>
+        <v>[39167] = {true, true, false, false, true, true}, --Storm Pulsar</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19170,7 +19436,7 @@
       </c>
       <c r="K86" t="str">
         <f t="shared" si="1"/>
-        <v>[85131] = { true, false, true, false, true,true}, --Thunderous Rage</v>
+        <v>[85131] = {true, false, true, false, true, true}, --Thunderous Rage</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19206,7 +19472,7 @@
       </c>
       <c r="K87" t="str">
         <f t="shared" si="1"/>
-        <v>[45505] = { true, false, true, true, true,true}, --Tri Focus (Shock)</v>
+        <v>[45505] = {true, false, true, true, true, true}, --Tri Focus (Shock)</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19242,7 +19508,7 @@
       </c>
       <c r="K88" t="str">
         <f t="shared" si="1"/>
-        <v>[39054] = { true, false, true, false, true,true}, --Unstable Wall of Fire</v>
+        <v>[39054] = {true, false, true, false, true, true}, --Unstable Wall of Fire</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19278,7 +19544,7 @@
       </c>
       <c r="K89" t="str">
         <f t="shared" si="1"/>
-        <v>[39056] = { true, true, false, false, true,true}, --Unstable Wall of Fire Explosion</v>
+        <v>[39056] = {true, true, false, false, true, true}, --Unstable Wall of Fire Explosion</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19314,7 +19580,7 @@
       </c>
       <c r="K90" t="str">
         <f t="shared" si="1"/>
-        <v>[39071] = { true, false, true, false, true,true}, --Unstable Wall of Frost</v>
+        <v>[39071] = {true, false, true, false, true, true}, --Unstable Wall of Frost</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19350,7 +19616,7 @@
       </c>
       <c r="K91" t="str">
         <f t="shared" si="1"/>
-        <v>[39072] = { true, true, false, false, true,true}, --Unstable Wall of Frost Explosion</v>
+        <v>[39072] = {true, true, false, false, true, true}, --Unstable Wall of Frost Explosion</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19386,7 +19652,7 @@
       </c>
       <c r="K92" t="str">
         <f t="shared" si="1"/>
-        <v>[39079] = { true, false, true, false, true,true}, --Unstable Wall of Storms</v>
+        <v>[39079] = {true, false, true, false, true, true}, --Unstable Wall of Storms</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19422,7 +19688,7 @@
       </c>
       <c r="K93" t="str">
         <f t="shared" si="1"/>
-        <v>[39080] = { true, true, false, false, true,true}, --Unstable Wall of Storms Explosion</v>
+        <v>[39080] = {true, true, false, false, true, true}, --Unstable Wall of Storms Explosion</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19458,7 +19724,7 @@
       </c>
       <c r="K94" t="str">
         <f t="shared" si="1"/>
-        <v>[20660] = { true, true, false, false, true,true}, --Burning Embers</v>
+        <v>[20660] = {true, true, false, false, true, true}, --Burning Embers</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19494,7 +19760,7 @@
       </c>
       <c r="K95" t="str">
         <f t="shared" si="1"/>
-        <v>[44373] = { true, false, true, false, true,true}, --Burning Embers dot</v>
+        <v>[44373] = {true, false, true, false, true, true}, --Burning Embers dot</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19530,7 +19796,7 @@
       </c>
       <c r="K96" t="str">
         <f t="shared" si="1"/>
-        <v>[20252] = { true, true, false, false, true,true}, --Burning Talons</v>
+        <v>[20252] = {true, true, false, false, true, true}, --Burning Talons</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19566,7 +19832,7 @@
       </c>
       <c r="K97" t="str">
         <f t="shared" si="1"/>
-        <v>[31898] = { true, false, true, false, true,true}, --Burning Talons (dot)</v>
+        <v>[31898] = {true, false, true, false, true, true}, --Burning Talons (dot)</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19602,7 +19868,7 @@
       </c>
       <c r="K98" t="str">
         <f t="shared" si="1"/>
-        <v>[20251] = { true, true, false, false, true,true}, --Choking Talons</v>
+        <v>[20251] = {true, true, false, false, true, true}, --Choking Talons</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19638,7 +19904,7 @@
       </c>
       <c r="K99" t="str">
         <f t="shared" si="1"/>
-        <v>[17879] = { true, false, true, false, true,true}, --Corrosive Armor</v>
+        <v>[17879] = {true, false, true, false, true, true}, --Corrosive Armor</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19674,7 +19940,7 @@
       </c>
       <c r="K100" t="str">
         <f t="shared" si="1"/>
-        <v>[32792] = { true, true, false, false, true,true}, --Deep Breath (1st)</v>
+        <v>[32792] = {true, true, false, false, true, true}, --Deep Breath (1st)</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19710,7 +19976,7 @@
       </c>
       <c r="K101" t="str">
         <f t="shared" si="1"/>
-        <v>[32794] = { true, true, false, false, true,true}, --Deep Breath (2nd)</v>
+        <v>[32794] = {true, true, false, false, true, true}, --Deep Breath (2nd)</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19746,7 +20012,7 @@
       </c>
       <c r="K102" t="str">
         <f t="shared" si="1"/>
-        <v>[32785] = { true, true, false, false, true,true}, --Draw Essence (1st)</v>
+        <v>[32785] = {true, true, false, false, true, true}, --Draw Essence (1st)</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19782,7 +20048,7 @@
       </c>
       <c r="K103" t="str">
         <f t="shared" si="1"/>
-        <v>[32787] = { true, true, false, false, true,true}, --Draw Essence (2nd)</v>
+        <v>[32787] = {true, true, false, false, true, true}, --Draw Essence (2nd)</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19818,7 +20084,7 @@
       </c>
       <c r="K104" t="str">
         <f t="shared" si="1"/>
-        <v>[20499] = { true, true, false, false, true,true}, --Empowering Chains</v>
+        <v>[20499] = {true, true, false, false, true, true}, --Empowering Chains</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19854,7 +20120,7 @@
       </c>
       <c r="K105" t="str">
         <f t="shared" si="1"/>
-        <v>[20930] = { true, true, false, false, true,true}, --Engulfing Flames</v>
+        <v>[20930] = {true, true, false, false, true, true}, --Engulfing Flames</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19890,7 +20156,7 @@
       </c>
       <c r="K106" t="str">
         <f t="shared" si="1"/>
-        <v>[31104] = { true, false, true, false, true,true}, --Engulfing Flames dot</v>
+        <v>[31104] = {true, false, true, false, true, true}, --Engulfing Flames dot</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19926,7 +20192,7 @@
       </c>
       <c r="K107" t="str">
         <f t="shared" si="1"/>
-        <v>[32714] = { true, false, true, false, true,true}, --Eruption</v>
+        <v>[32714] = {true, false, true, false, true, true}, --Eruption</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19962,7 +20228,7 @@
       </c>
       <c r="K108" t="str">
         <f t="shared" si="1"/>
-        <v>[32711] = { true, false, true, false, true,true}, --Eruption (dot)</v>
+        <v>[32711] = {true, false, true, false, true, true}, --Eruption (dot)</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19998,7 +20264,7 @@
       </c>
       <c r="K109" t="str">
         <f t="shared" si="1"/>
-        <v>[32716] = { true, true, false, false, true,true}, --Ferocious Leap</v>
+        <v>[32716] = {true, true, false, false, true, true}, --Ferocious Leap</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20034,7 +20300,7 @@
       </c>
       <c r="K110" t="str">
         <f t="shared" si="1"/>
-        <v>[20816] = { true, true, false, false, true,true}, --Flame Lash</v>
+        <v>[20816] = {true, true, false, false, true, true}, --Flame Lash</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20070,7 +20336,7 @@
       </c>
       <c r="K111" t="str">
         <f t="shared" si="1"/>
-        <v>[61945] = { true, true, false, false, true,true}, --Flames of Oblivion</v>
+        <v>[61945] = {true, true, false, false, true, true}, --Flames of Oblivion</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20106,7 +20372,7 @@
       </c>
       <c r="K112" t="str">
         <f t="shared" si="1"/>
-        <v>[54931] = { true, true, false, false, true,true}, --Fossilize</v>
+        <v>[54931] = {true, true, false, false, true, true}, --Fossilize</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20142,7 +20408,7 @@
       </c>
       <c r="K113" t="str">
         <f t="shared" si="1"/>
-        <v>[28969] = { true, true, false, false, true,true}, --Inferno</v>
+        <v>[28969] = {true, true, false, false, true, true}, --Inferno</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20178,7 +20444,7 @@
       </c>
       <c r="K114" t="str">
         <f t="shared" si="1"/>
-        <v>[23806] = { true, true, false, false, true,true}, --Lava Whip</v>
+        <v>[23806] = {true, true, false, false, true, true}, --Lava Whip</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20214,7 +20480,7 @@
       </c>
       <c r="K115" t="str">
         <f t="shared" si="1"/>
-        <v>[17875] = { true, false, true, false, true,true}, --Magma Shell</v>
+        <v>[17875] = {true, false, true, false, true, true}, --Magma Shell</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20250,7 +20516,7 @@
       </c>
       <c r="K116" t="str">
         <f t="shared" si="1"/>
-        <v>[20805] = { true, true, false, false, true,true}, --Molten Whip</v>
+        <v>[20805] = {true, true, false, false, true, true}, --Molten Whip</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20286,7 +20552,7 @@
       </c>
       <c r="K117" t="str">
         <f t="shared" si="1"/>
-        <v>[20944] = { true, true, false, false, true,true}, --Noxious Breath</v>
+        <v>[20944] = {true, true, false, false, true, true}, --Noxious Breath</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20322,7 +20588,7 @@
       </c>
       <c r="K118" t="str">
         <f t="shared" si="1"/>
-        <v>[31103] = { true, false, true, false, true,true}, --Noxious Breath (dot)</v>
+        <v>[31103] = {true, false, true, false, true, true}, --Noxious Breath (dot)</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20358,7 +20624,7 @@
       </c>
       <c r="K119" t="str">
         <f t="shared" si="1"/>
-        <v>[31820] = { true, true, false, false, true,true}, --Obsidian Shard</v>
+        <v>[31820] = {true, true, false, false, true, true}, --Obsidian Shard</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20394,7 +20660,7 @@
       </c>
       <c r="K120" t="str">
         <f t="shared" si="1"/>
-        <v>[54918] = { true, true, false, false, true,true}, --Petrify</v>
+        <v>[54918] = {true, true, false, false, true, true}, --Petrify</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20430,7 +20696,7 @@
       </c>
       <c r="K121" t="str">
         <f t="shared" si="1"/>
-        <v>[20824] = { true, true, false, false, true,true}, --Power Lash</v>
+        <v>[20824] = {true, true, false, false, true, true}, --Power Lash</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20466,7 +20732,7 @@
       </c>
       <c r="K122" t="str">
         <f t="shared" si="1"/>
-        <v>[32684] = { true, true, false, false, true,true}, --Shattering Rocks</v>
+        <v>[32684] = {true, true, false, false, true, true}, --Shattering Rocks</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20502,7 +20768,7 @@
       </c>
       <c r="K123" t="str">
         <f t="shared" si="1"/>
-        <v>[32960] = { true, false, true, false, true,true}, --Shifting Standard</v>
+        <v>[32960] = {true, false, true, false, true, true}, --Shifting Standard</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20538,7 +20804,7 @@
       </c>
       <c r="K124" t="str">
         <f t="shared" si="1"/>
-        <v>[32964] = { true, false, true, false, true,true}, --Shifting Standard</v>
+        <v>[32964] = {true, false, true, false, true, true}, --Shifting Standard</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20574,7 +20840,7 @@
       </c>
       <c r="K125" t="str">
         <f t="shared" si="1"/>
-        <v>[32948] = { true, false, true, false, true,true}, --Standard of Might</v>
+        <v>[32948] = {true, false, true, false, true, true}, --Standard of Might</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20610,7 +20876,7 @@
       </c>
       <c r="K126" t="str">
         <f t="shared" si="1"/>
-        <v>[31816] = { true, true, false, false, true,true}, --Stone Giant</v>
+        <v>[31816] = {true, true, false, false, true, true}, --Stone Giant</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20646,7 +20912,7 @@
       </c>
       <c r="K127" t="str">
         <f t="shared" si="1"/>
-        <v>[32720] = { true, true, false, false, true,true}, --Take Flight</v>
+        <v>[32720] = {true, true, false, false, true, true}, --Take Flight</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20682,7 +20948,7 @@
       </c>
       <c r="K128" t="str">
         <f t="shared" si="1"/>
-        <v>[20496] = { true, true, false, false, true,true}, --Unrelenting Grip</v>
+        <v>[20496] = {true, true, false, false, true, true}, --Unrelenting Grip</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20718,7 +20984,7 @@
       </c>
       <c r="K129" t="str">
         <f t="shared" si="1"/>
-        <v>[20668] = { true, true, false, false, true,true}, --Venomous Claw</v>
+        <v>[20668] = {true, true, false, false, true, true}, --Venomous Claw</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20754,7 +21020,7 @@
       </c>
       <c r="K130" t="str">
         <f t="shared" si="1"/>
-        <v>[44369] = { true, false, true, false, true,true}, --Venomous Claw (dot)</v>
+        <v>[44369] = {true, false, true, false, true, true}, --Venomous Claw (dot)</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20789,8 +21055,8 @@
         <v>1</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" ref="K131:K194" si="2">CONCATENATE("[",D131,"] = { ",LOWER(E131),", ",LOWER(F131),", ",LOWER(G131),", ",LOWER(H131),", ",LOWER(I131),",",LOWER(J131),"}, --",B131)</f>
-        <v>[20326] = { true, false, true, false, true,true}, --Volatile Armor</v>
+        <f t="shared" ref="K131:K194" si="2">CONCATENATE("[",D131,"] = {",LOWER(E131),", ",LOWER(F131),", ",LOWER(G131),", ",LOWER(H131),", ",LOWER(I131),", ",LOWER(J131),"}, --",B131)</f>
+        <v>[20326] = {true, false, true, false, true, true}, --Volatile Armor</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20826,7 +21092,7 @@
       </c>
       <c r="K132" t="str">
         <f t="shared" si="2"/>
-        <v>[62522] = { true, false, true, false, true,true}, --Blade Cloak</v>
+        <v>[62522] = {true, false, true, false, true, true}, --Blade Cloak</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20862,7 +21128,7 @@
       </c>
       <c r="K133" t="str">
         <f t="shared" si="2"/>
-        <v>[38845] = { true, true, false, false, true,true}, --Blood Craze</v>
+        <v>[38845] = {true, true, false, false, true, true}, --Blood Craze</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20898,7 +21164,7 @@
       </c>
       <c r="K134" t="str">
         <f t="shared" si="2"/>
-        <v>[38847] = { true, true, false, false, true,true}, --Blood Craze (Off Hand)</v>
+        <v>[38847] = {true, true, false, false, true, true}, --Blood Craze (Off Hand)</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20934,7 +21200,7 @@
       </c>
       <c r="K135" t="str">
         <f t="shared" si="2"/>
-        <v>[38848] = { true, false, true, false, true,false}, --Blood Craze Bleed</v>
+        <v>[38848] = {true, false, true, false, true, false}, --Blood Craze Bleed</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20970,7 +21236,7 @@
       </c>
       <c r="K136" t="str">
         <f t="shared" si="2"/>
-        <v>[38846] = { true, false, true, false, true,true}, --Bloodthirst</v>
+        <v>[38846] = {true, false, true, false, true, true}, --Bloodthirst</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21006,7 +21272,7 @@
       </c>
       <c r="K137" t="str">
         <f t="shared" si="2"/>
-        <v>[62547] = { true, false, true, false, true,true}, --Deadly Cloak (Blade Cloak)</v>
+        <v>[62547] = {true, false, true, false, true, true}, --Deadly Cloak (Blade Cloak)</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21042,7 +21308,7 @@
       </c>
       <c r="K138" t="str">
         <f t="shared" si="2"/>
-        <v>[28607] = { true, false, true, false, true,true}, --Flurry</v>
+        <v>[28607] = {true, false, true, false, true, true}, --Flurry</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21078,7 +21344,7 @@
       </c>
       <c r="K139" t="str">
         <f t="shared" si="2"/>
-        <v>[38910] = { true, true, false, false, true,true}, --Flying Blade</v>
+        <v>[38910] = {true, true, false, false, true, true}, --Flying Blade</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21114,7 +21380,7 @@
       </c>
       <c r="K140" t="str">
         <f t="shared" si="2"/>
-        <v>[18622] = { true, true, false, true, true,true}, --Heavy Attack (Dual Wield)</v>
+        <v>[18622] = {true, true, false, true, true, true}, --Heavy Attack (Dual Wield)</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21150,7 +21416,7 @@
       </c>
       <c r="K141" t="str">
         <f t="shared" si="2"/>
-        <v>[17169] = { true, true, false, true, true,true}, --Heavy Attack (DW)</v>
+        <v>[17169] = {true, true, false, true, true, true}, --Heavy Attack (DW)</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21186,7 +21452,7 @@
       </c>
       <c r="K142" t="str">
         <f t="shared" si="2"/>
-        <v>[17170] = { true, true, false, true, true,true}, --Heavy Attack (Medium, DW)</v>
+        <v>[17170] = {true, true, false, true, true, true}, --Heavy Attack (Medium, DW)</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21222,7 +21488,7 @@
       </c>
       <c r="K143" t="str">
         <f t="shared" si="2"/>
-        <v>[21157] = { true, true, false, false, true,true}, --Hidden Blade</v>
+        <v>[21157] = {true, true, false, false, true, true}, --Hidden Blade</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21258,7 +21524,7 @@
       </c>
       <c r="K144" t="str">
         <f t="shared" si="2"/>
-        <v>[85156] = { true, false, true, false, true,true}, --Lacerate</v>
+        <v>[85156] = {true, false, true, false, true, true}, --Lacerate</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21294,7 +21560,7 @@
       </c>
       <c r="K145" t="str">
         <f t="shared" si="2"/>
-        <v>[16499] = { true, true, false, true, true,true}, --Light Attack (DW)</v>
+        <v>[16499] = {true, true, false, true, true, true}, --Light Attack (DW)</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21330,7 +21596,7 @@
       </c>
       <c r="K146" t="str">
         <f t="shared" si="2"/>
-        <v>[62529] = { true, false, true, false, true,true}, --Quick Cloak (Blade Cloak)</v>
+        <v>[62529] = {true, false, true, false, true, true}, --Quick Cloak (Blade Cloak)</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21366,7 +21632,7 @@
       </c>
       <c r="K147" t="str">
         <f t="shared" si="2"/>
-        <v>[38857] = { true, false, true, false, true,true}, --Rapid Strikes</v>
+        <v>[38857] = {true, false, true, false, true, true}, --Rapid Strikes</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21402,7 +21668,7 @@
       </c>
       <c r="K148" t="str">
         <f t="shared" si="2"/>
-        <v>[85192] = { true, false, true, false, true,true}, --Rend</v>
+        <v>[85192] = {true, false, true, false, true, true}, --Rend</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21438,7 +21704,7 @@
       </c>
       <c r="K149" t="str">
         <f t="shared" si="2"/>
-        <v>[38839] = { true, true, false, false, true,true}, --Rending Slashes</v>
+        <v>[38839] = {true, true, false, false, true, true}, --Rending Slashes</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21474,7 +21740,7 @@
       </c>
       <c r="K150" t="str">
         <f t="shared" si="2"/>
-        <v>[38840] = { true, true, false, false, true,true}, --Rending Slashes (Off Hand)</v>
+        <v>[38840] = {true, true, false, false, true, true}, --Rending Slashes (Off Hand)</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21510,7 +21776,7 @@
       </c>
       <c r="K151" t="str">
         <f t="shared" si="2"/>
-        <v>[38841] = { true, false, true, false, true,false}, --Rending Slashes Bleed</v>
+        <v>[38841] = {true, false, true, false, true, false}, --Rending Slashes Bleed</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21546,7 +21812,7 @@
       </c>
       <c r="K152" t="str">
         <f t="shared" si="2"/>
-        <v>[38914] = { true, true, false, false, true,true}, --Shrouded Daggers</v>
+        <v>[38914] = {true, true, false, false, true, true}, --Shrouded Daggers</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21582,7 +21848,7 @@
       </c>
       <c r="K153" t="str">
         <f t="shared" si="2"/>
-        <v>[38861] = { true, true, false, false, true,true}, --Steel Tornado</v>
+        <v>[38861] = {true, true, false, false, true, true}, --Steel Tornado</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21618,7 +21884,7 @@
       </c>
       <c r="K154" t="str">
         <f t="shared" si="2"/>
-        <v>[85182] = { true, false, true, false, true,true}, --Thrive in Chaos</v>
+        <v>[85182] = {true, false, true, false, true, true}, --Thrive in Chaos</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21654,7 +21920,7 @@
       </c>
       <c r="K155" t="str">
         <f t="shared" si="2"/>
-        <v>[28379] = { true, true, false, false, true,true}, --Twin Slashes</v>
+        <v>[28379] = {true, true, false, false, true, true}, --Twin Slashes</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21690,7 +21956,7 @@
       </c>
       <c r="K156" t="str">
         <f t="shared" si="2"/>
-        <v>[35312] = { true, true, false, false, true,true}, --Twin Slashes (Off hand)</v>
+        <v>[35312] = {true, true, false, false, true, true}, --Twin Slashes (Off hand)</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21726,7 +21992,7 @@
       </c>
       <c r="K157" t="str">
         <f t="shared" si="2"/>
-        <v>[29293] = { true, false, true, false, true,false}, --Twin Slashes Bleed</v>
+        <v>[29293] = {true, false, true, false, true, false}, --Twin Slashes Bleed</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21762,7 +22028,7 @@
       </c>
       <c r="K158" t="str">
         <f t="shared" si="2"/>
-        <v>[38891] = { true, true, false, false, true,true}, --Whirling Blades</v>
+        <v>[38891] = {true, true, false, false, true, true}, --Whirling Blades</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21798,7 +22064,7 @@
       </c>
       <c r="K159" t="str">
         <f t="shared" si="2"/>
-        <v>[28591] = { true, true, false, false, true,true}, --Whirlwind</v>
+        <v>[28591] = {true, true, false, false, true, true}, --Whirlwind</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21834,7 +22100,7 @@
       </c>
       <c r="K160" t="str">
         <f t="shared" si="2"/>
-        <v>[40158] = { true, true, false, false, true,true}, --Dawnbreaker of Smiting</v>
+        <v>[40158] = {true, true, false, false, true, true}, --Dawnbreaker of Smiting</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21870,7 +22136,7 @@
       </c>
       <c r="K161" t="str">
         <f t="shared" si="2"/>
-        <v>[62314] = { true, false, true, false, true,true}, --Dawnbreaker of Smiting dot</v>
+        <v>[62314] = {true, false, true, false, true, true}, --Dawnbreaker of Smiting dot</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21906,7 +22172,7 @@
       </c>
       <c r="K162" t="str">
         <f t="shared" si="2"/>
-        <v>[40161] = { true, true, false, false, true,true}, --Flawless Dawnbreaker</v>
+        <v>[40161] = {true, true, false, false, true, true}, --Flawless Dawnbreaker</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21942,7 +22208,7 @@
       </c>
       <c r="K163" t="str">
         <f t="shared" si="2"/>
-        <v>[62310] = { true, false, true, false, true,true}, --Flawless Dawnbreaker dot</v>
+        <v>[62310] = {true, false, true, false, true, true}, --Flawless Dawnbreaker dot</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21978,7 +22244,7 @@
       </c>
       <c r="K164" t="str">
         <f t="shared" si="2"/>
-        <v>[40376] = { true, false, true, false, true,true}, --Lightweight Beast Trap</v>
+        <v>[40376] = {true, false, true, false, true, true}, --Lightweight Beast Trap</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22014,7 +22280,7 @@
       </c>
       <c r="K165" t="str">
         <f t="shared" si="2"/>
-        <v>[40375] = { true, false, true, false, true,true}, --Lightweight Beast Trap dot</v>
+        <v>[40375] = {true, false, true, false, true, true}, --Lightweight Beast Trap dot</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22050,7 +22316,7 @@
       </c>
       <c r="K166" t="str">
         <f t="shared" si="2"/>
-        <v>[40389] = { true, false, true, false, true,true}, --Rearming Trap</v>
+        <v>[40389] = {true, false, true, false, true, true}, --Rearming Trap</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22086,7 +22352,7 @@
       </c>
       <c r="K167" t="str">
         <f t="shared" si="2"/>
-        <v>[40392] = { true, false, true, false, true,true}, --Rearming Trap 2</v>
+        <v>[40392] = {true, false, true, false, true, true}, --Rearming Trap 2</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22122,7 +22388,7 @@
       </c>
       <c r="K168" t="str">
         <f t="shared" si="2"/>
-        <v>[40385] = { true, false, true, false, true,true}, --Rearming Trap dot</v>
+        <v>[40385] = {true, false, true, false, true, true}, --Rearming Trap dot</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22158,7 +22424,7 @@
       </c>
       <c r="K169" t="str">
         <f t="shared" si="2"/>
-        <v>[40336] = { true, true, false, false, true,true}, --Silver Leash</v>
+        <v>[40336] = {true, true, false, false, true, true}, --Silver Leash</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22194,7 +22460,7 @@
       </c>
       <c r="K170" t="str">
         <f t="shared" si="2"/>
-        <v>[40300] = { true, true, false, false, true,true}, --Silver Shards</v>
+        <v>[40300] = {true, true, false, false, true, true}, --Silver Shards</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22230,7 +22496,7 @@
       </c>
       <c r="K171" t="str">
         <f t="shared" si="2"/>
-        <v>[46743] = { true, true, false, false, true,true}, --Absorb Magicka</v>
+        <v>[46743] = {true, true, false, false, true, true}, --Absorb Magicka</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22266,7 +22532,7 @@
       </c>
       <c r="K172" t="str">
         <f t="shared" si="2"/>
-        <v>[46746] = { true, true, false, false, true,true}, --Absorb Stamina</v>
+        <v>[46746] = {true, true, false, false, true, true}, --Absorb Stamina</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22302,7 +22568,7 @@
       </c>
       <c r="K173" t="str">
         <f t="shared" si="2"/>
-        <v>[17904] = { true, true, false, false, true,true}, --Befouled Weapon</v>
+        <v>[17904] = {true, true, false, false, true, true}, --Befouled Weapon</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22338,7 +22604,7 @@
       </c>
       <c r="K174" t="str">
         <f t="shared" si="2"/>
-        <v>[17899] = { true, true, false, false, true,true}, --Charged Weapon</v>
+        <v>[17899] = {true, true, false, false, true, true}, --Charged Weapon</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22374,7 +22640,7 @@
       </c>
       <c r="K175" t="str">
         <f t="shared" si="2"/>
-        <v>[46749] = { true, true, false, false, true,true}, --Damage Health</v>
+        <v>[46749] = {true, true, false, false, true, true}, --Damage Health</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22410,7 +22676,7 @@
       </c>
       <c r="K176" t="str">
         <f t="shared" si="2"/>
-        <v>[93307] = { ??, false, false, false, false,false}, --Defiler</v>
+        <v>[93307] = {??, false, false, false, false, false}, --Defiler</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22446,7 +22712,7 @@
       </c>
       <c r="K177" t="str">
         <f t="shared" si="2"/>
-        <v>[97883] = { true, false, true, false, false,true}, --Domihaus (fire)</v>
+        <v>[97883] = {true, false, true, false, false, true}, --Domihaus (fire)</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22482,7 +22748,7 @@
       </c>
       <c r="K178" t="str">
         <f t="shared" si="2"/>
-        <v>[17895] = { true, true, false, false, true,true}, --Fiery Weapon</v>
+        <v>[17895] = {true, true, false, false, true, true}, --Fiery Weapon</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22518,7 +22784,7 @@
       </c>
       <c r="K179" t="str">
         <f t="shared" si="2"/>
-        <v>[17897] = { true, true, false, false, true,true}, --Frozen Weapon</v>
+        <v>[17897] = {true, true, false, false, true, true}, --Frozen Weapon</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22554,7 +22820,7 @@
       </c>
       <c r="K180" t="str">
         <f t="shared" si="2"/>
-        <v>[84502] = { true, false, true, false, false,true}, --Grothdarr</v>
+        <v>[84502] = {true, false, true, false, false, true}, --Grothdarr</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22590,7 +22856,7 @@
       </c>
       <c r="K181" t="str">
         <f t="shared" si="2"/>
-        <v>[80561] = { true, false, true, false, false,true}, --Iceheart</v>
+        <v>[80561] = {true, false, true, false, false, true}, --Iceheart</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22626,7 +22892,7 @@
       </c>
       <c r="K182" t="str">
         <f t="shared" si="2"/>
-        <v>[80525] = { true, false, true, false, false,true}, --Illambris (fire)</v>
+        <v>[80525] = {true, false, true, false, false, true}, --Illambris (fire)</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22662,7 +22928,7 @@
       </c>
       <c r="K183" t="str">
         <f t="shared" si="2"/>
-        <v>[80526] = { true, false, true, false, false,true}, --Illambris (lightning)</v>
+        <v>[80526] = {true, false, true, false, false, true}, --Illambris (lightning)</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22698,7 +22964,7 @@
       </c>
       <c r="K184" t="str">
         <f t="shared" si="2"/>
-        <v>[83409] = { true, true, false, false, false,true}, --Infernal Guardian</v>
+        <v>[83409] = {true, true, false, false, false, true}, --Infernal Guardian</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22734,7 +23000,7 @@
       </c>
       <c r="K185" t="str">
         <f t="shared" si="2"/>
-        <v>[80565] = { true, false, true, false, false,true}, --Kra'gh</v>
+        <v>[80565] = {true, false, true, false, false, true}, --Kra'gh</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22770,7 +23036,7 @@
       </c>
       <c r="K186" t="str">
         <f t="shared" si="2"/>
-        <v>[28919] = { true, true, false, false, true,true}, --Life Drain</v>
+        <v>[28919] = {true, true, false, false, true, true}, --Life Drain</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22806,7 +23072,7 @@
       </c>
       <c r="K187" t="str">
         <f t="shared" si="2"/>
-        <v>[107094] = { true, false, true, false, false,true}, --Mantle of Siroria</v>
+        <v>[107094] = {true, false, true, false, false, true}, --Mantle of Siroria</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22842,7 +23108,7 @@
       </c>
       <c r="K188" t="str">
         <f t="shared" si="2"/>
-        <v>[59498] = { true, false, true, false, false,true}, --Mephala's Web</v>
+        <v>[59498] = {true, false, true, false, false, true}, --Mephala's Web</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22878,7 +23144,7 @@
       </c>
       <c r="K189" t="str">
         <f t="shared" si="2"/>
-        <v>[59593] = { true, true, false, false, false,true}, --Nerien'eth</v>
+        <v>[59593] = {true, true, false, false, false, true}, --Nerien'eth</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22914,7 +23180,7 @@
       </c>
       <c r="K190" t="str">
         <f t="shared" si="2"/>
-        <v>[17902] = { true, true, false, false, true,true}, --Poisoned Weapon</v>
+        <v>[17902] = {true, true, false, false, true, true}, --Poisoned Weapon</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22950,7 +23216,7 @@
       </c>
       <c r="K191" t="str">
         <f t="shared" si="2"/>
-        <v>[40337] = { true, true, false, false, true,true}, --Prismatic Weapon</v>
+        <v>[40337] = {true, true, false, false, true, true}, --Prismatic Weapon</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22986,7 +23252,7 @@
       </c>
       <c r="K192" t="str">
         <f t="shared" si="2"/>
-        <v>[80606] = { true, true, false, false, false,true}, --Selene</v>
+        <v>[80606] = {true, true, false, false, false, true}, --Selene</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23022,7 +23288,7 @@
       </c>
       <c r="K193" t="str">
         <f t="shared" si="2"/>
-        <v>[80544] = { true, true, false, false, false,true}, --Sellistrix</v>
+        <v>[80544] = {true, true, false, false, false, true}, --Sellistrix</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23058,7 +23324,7 @@
       </c>
       <c r="K194" t="str">
         <f t="shared" si="2"/>
-        <v>[80980] = { ??, false, false, false, false,false}, --Shadowrend (base attack)</v>
+        <v>[80980] = {??, false, false, false, false, false}, --Shadowrend (base attack)</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23093,8 +23359,8 @@
         <v>0</v>
       </c>
       <c r="K195" t="str">
-        <f t="shared" ref="K195:K258" si="3">CONCATENATE("[",D195,"] = { ",LOWER(E195),", ",LOWER(F195),", ",LOWER(G195),", ",LOWER(H195),", ",LOWER(I195),",",LOWER(J195),"}, --",B195)</f>
-        <v>[80989] = { ??, false, false, false, false,false}, --Shadowrend (tail sweep)</v>
+        <f t="shared" ref="K195:K258" si="3">CONCATENATE("[",D195,"] = {",LOWER(E195),", ",LOWER(F195),", ",LOWER(G195),", ",LOWER(H195),", ",LOWER(I195),", ",LOWER(J195),"}, --",B195)</f>
+        <v>[80989] = {??, false, false, false, false, false}, --Shadowrend (tail sweep)</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23130,7 +23396,7 @@
       </c>
       <c r="K196" t="str">
         <f t="shared" si="3"/>
-        <v>[80522] = { true, false, true, false, false,true}, --Stormfist (lightning)</v>
+        <v>[80522] = {true, false, true, false, false, true}, --Stormfist (lightning)</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23166,7 +23432,7 @@
       </c>
       <c r="K197" t="str">
         <f t="shared" si="3"/>
-        <v>[80521] = { true, true, false, false, false,true}, --Stormfist (physical)</v>
+        <v>[80521] = {true, true, false, false, false, true}, --Stormfist (physical)</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23202,7 +23468,7 @@
       </c>
       <c r="K198" t="str">
         <f t="shared" si="3"/>
-        <v>[80865] = { true, true, false, false, false,true}, --Tremorscale</v>
+        <v>[80865] = {true, true, false, false, false, true}, --Tremorscale</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23238,7 +23504,7 @@
       </c>
       <c r="K199" t="str">
         <f t="shared" si="3"/>
-        <v>[61273] = { true, true, false, false, false,true}, --Valkyn Skoria (splash)</v>
+        <v>[61273] = {true, true, false, false, false, true}, --Valkyn Skoria (splash)</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23274,7 +23540,7 @@
       </c>
       <c r="K200" t="str">
         <f t="shared" si="3"/>
-        <v>[59596] = { true, true, false, false, false,true}, --Valkyn Skoria (target hit)</v>
+        <v>[59596] = {true, true, false, false, false, true}, --Valkyn Skoria (target hit)</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23310,7 +23576,7 @@
       </c>
       <c r="K201" t="str">
         <f t="shared" si="3"/>
-        <v>[80490] = { true, true, false, false, false,true}, --Velidreth</v>
+        <v>[80490] = {true, true, false, false, false, true}, --Velidreth</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23346,7 +23612,7 @@
       </c>
       <c r="K202" t="str">
         <f t="shared" si="3"/>
-        <v>[102136] = { true, false, true, false, false,true}, --Zaan</v>
+        <v>[102136] = {true, false, true, false, false, true}, --Zaan</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23382,7 +23648,7 @@
       </c>
       <c r="K203" t="str">
         <f t="shared" si="3"/>
-        <v>[40457] = { true, false, true, false, true,true}, --Degeneration</v>
+        <v>[40457] = {true, false, true, false, true, true}, --Degeneration</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23418,7 +23684,7 @@
       </c>
       <c r="K204" t="str">
         <f t="shared" si="3"/>
-        <v>[63457] = { true, true, false, false, true,true}, --Ice Comet</v>
+        <v>[63457] = {true, true, false, false, true, true}, --Ice Comet</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23454,7 +23720,7 @@
       </c>
       <c r="K205" t="str">
         <f t="shared" si="3"/>
-        <v>[63454] = { true, false, true, false, true,true}, --Ice Comet dot</v>
+        <v>[63454] = {true, false, true, false, true, true}, --Ice Comet dot</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23490,7 +23756,7 @@
       </c>
       <c r="K206" t="str">
         <f t="shared" si="3"/>
-        <v>[40469] = { true, true, false, false, true,true}, --Scalding Rune</v>
+        <v>[40469] = {true, true, false, false, true, true}, --Scalding Rune</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23526,7 +23792,7 @@
       </c>
       <c r="K207" t="str">
         <f t="shared" si="3"/>
-        <v>[40468] = { true, false, true, false, true,true}, --Scalding Rune dot</v>
+        <v>[40468] = {true, false, true, false, true, true}, --Scalding Rune dot</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23562,7 +23828,7 @@
       </c>
       <c r="K208" t="str">
         <f t="shared" si="3"/>
-        <v>[63474] = { true, true, false, false, true,true}, --Shooting Star</v>
+        <v>[63474] = {true, true, false, false, true, true}, --Shooting Star</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23598,7 +23864,7 @@
       </c>
       <c r="K209" t="str">
         <f t="shared" si="3"/>
-        <v>[63471] = { true, false, true, false, true,true}, --Shooting Star (dot)</v>
+        <v>[63471] = {true, false, true, false, true, true}, --Shooting Star (dot)</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23634,7 +23900,7 @@
       </c>
       <c r="K210" t="str">
         <f t="shared" si="3"/>
-        <v>[40452] = { true, false, true, false, true,true}, --Structured Entropy</v>
+        <v>[40452] = {true, false, true, false, true, true}, --Structured Entropy</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23670,7 +23936,7 @@
       </c>
       <c r="K211" t="str">
         <f t="shared" si="3"/>
-        <v>[40473] = { true, true, false, false, true,true}, --Volcanic Rune</v>
+        <v>[40473] = {true, true, false, false, true, true}, --Volcanic Rune</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23706,7 +23972,7 @@
       </c>
       <c r="K212" t="str">
         <f t="shared" si="3"/>
-        <v>[25485] = { true, true, false, false, true,true}, --Ambush</v>
+        <v>[25485] = {true, true, false, false, true, true}, --Ambush</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23742,7 +24008,7 @@
       </c>
       <c r="K213" t="str">
         <f t="shared" si="3"/>
-        <v>[61932] = { true, true, false, false, true,true}, --Assassin's Scourge</v>
+        <v>[61932] = {true, true, false, false, true, true}, --Assassin's Scourge</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23778,7 +24044,7 @@
       </c>
       <c r="K214" t="str">
         <f t="shared" si="3"/>
-        <v>[61907] = { true, true, false, false, true,true}, --Assassin's Will</v>
+        <v>[61907] = {true, true, false, false, true, true}, --Assassin's Will</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23814,7 +24080,7 @@
       </c>
       <c r="K215" t="str">
         <f t="shared" si="3"/>
-        <v>[61930] = { true, true, false, false, true,true}, --Assassin's Will</v>
+        <v>[61930] = {true, true, false, false, true, true}, --Assassin's Will</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23850,7 +24116,7 @@
       </c>
       <c r="K216" t="str">
         <f t="shared" si="3"/>
-        <v>[25267] = { true, true, false, false, true,true}, --Concealed Weapon</v>
+        <v>[25267] = {true, true, false, false, true, true}, --Concealed Weapon</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23886,7 +24152,7 @@
       </c>
       <c r="K217" t="str">
         <f t="shared" si="3"/>
-        <v>[33219] = { false, false, false, false, true,true}, --Corrode (pet)</v>
+        <v>[33219] = {false, false, false, false, true, true}, --Corrode (pet)</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23922,7 +24188,7 @@
       </c>
       <c r="K218" t="str">
         <f t="shared" si="3"/>
-        <v>[51556] = { false, false, false, false, true,true}, --Corrode (pet)</v>
+        <v>[51556] = {false, false, false, false, true, true}, --Corrode (pet)</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23958,7 +24224,7 @@
       </c>
       <c r="K219" t="str">
         <f t="shared" si="3"/>
-        <v>[36963] = { true, true, false, false, true,true}, --Crippling Grasp</v>
+        <v>[36963] = {true, true, false, false, true, true}, --Crippling Grasp</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23994,7 +24260,7 @@
       </c>
       <c r="K220" t="str">
         <f t="shared" si="3"/>
-        <v>[36960] = { true, false, true, false, true,true}, --Crippling Grasp dot</v>
+        <v>[36960] = {true, false, true, false, true, true}, --Crippling Grasp dot</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24030,7 +24296,7 @@
       </c>
       <c r="K221" t="str">
         <f t="shared" si="3"/>
-        <v>[36947] = { true, false, true, false, true,true}, --Debilitate</v>
+        <v>[36947] = {true, false, true, false, true, true}, --Debilitate</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24066,7 +24332,7 @@
       </c>
       <c r="K222" t="str">
         <f t="shared" si="3"/>
-        <v>[34838] = { true, true, false, false, true,true}, --Funnel Health</v>
+        <v>[34838] = {true, true, false, false, true, true}, --Funnel Health</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24102,7 +24368,7 @@
       </c>
       <c r="K223" t="str">
         <f t="shared" si="3"/>
-        <v>[34851] = { true, true, false, false, true,true}, --Impale</v>
+        <v>[34851] = {true, true, false, false, true, true}, --Impale</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24138,7 +24404,7 @@
       </c>
       <c r="K224" t="str">
         <f t="shared" si="3"/>
-        <v>[36508] = { true, true, false, false, true,true}, --Incapacitating Strike</v>
+        <v>[36508] = {true, true, false, false, true, true}, --Incapacitating Strike</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24174,7 +24440,7 @@
       </c>
       <c r="K225" t="str">
         <f t="shared" si="3"/>
-        <v>[34843] = { true, true, false, false, true,true}, --Killers Blade</v>
+        <v>[34843] = {true, true, false, false, true, true}, --Killers Blade</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24210,7 +24476,7 @@
       </c>
       <c r="K226" t="str">
         <f t="shared" si="3"/>
-        <v>[25494] = { true, true, false, false, true,true}, --Lotus Fan</v>
+        <v>[25494] = {true, true, false, false, true, true}, --Lotus Fan</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24246,7 +24512,7 @@
       </c>
       <c r="K227" t="str">
         <f t="shared" si="3"/>
-        <v>[35336] = { true, false, true, false, true,true}, --Lotus Fan dot</v>
+        <v>[35336] = {true, false, true, false, true, true}, --Lotus Fan dot</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24282,7 +24548,7 @@
       </c>
       <c r="K228" t="str">
         <f t="shared" si="3"/>
-        <v>[64001] = { true, false, true, false, true,true}, --Path of Darkness (Refreshing Path)</v>
+        <v>[64001] = {true, false, true, false, true, true}, --Path of Darkness (Refreshing Path)</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24318,7 +24584,7 @@
       </c>
       <c r="K229" t="str">
         <f t="shared" si="3"/>
-        <v>[36901] = { true, true, false, false, true,true}, --Power Extraction</v>
+        <v>[36901] = {true, true, false, false, true, true}, --Power Extraction</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24354,7 +24620,7 @@
       </c>
       <c r="K230" t="str">
         <f t="shared" si="3"/>
-        <v>[36891] = { true, true, false, false, true,true}, --Sap Essence</v>
+        <v>[36891] = {true, true, false, false, true, true}, --Sap Essence</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24390,7 +24656,7 @@
       </c>
       <c r="K231" t="str">
         <f t="shared" si="3"/>
-        <v>[36514] = { true, true, false, false, true,true}, --Soul Harvest</v>
+        <v>[36514] = {true, true, false, false, true, true}, --Soul Harvest</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24426,7 +24692,7 @@
       </c>
       <c r="K232" t="str">
         <f t="shared" si="3"/>
-        <v>[35465] = { true, true, false, false, true,true}, --Soul Tether</v>
+        <v>[35465] = {true, true, false, false, true, true}, --Soul Tether</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24462,7 +24728,7 @@
       </c>
       <c r="K233" t="str">
         <f t="shared" si="3"/>
-        <v>[35462] = { true, false, true, false, true,true}, --Soul Tether dot</v>
+        <v>[35462] = {true, false, true, false, true, true}, --Soul Tether dot</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24498,7 +24764,7 @@
       </c>
       <c r="K234" t="str">
         <f t="shared" si="3"/>
-        <v>[25260] = { true, true, false, false, true,true}, --Surprise Attack</v>
+        <v>[25260] = {true, true, false, false, true, true}, --Surprise Attack</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24534,7 +24800,7 @@
       </c>
       <c r="K235" t="str">
         <f t="shared" si="3"/>
-        <v>[34835] = { true, true, false, false, true,true}, --Swallow Soul</v>
+        <v>[34835] = {true, true, false, false, true, true}, --Swallow Soul</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24570,7 +24836,7 @@
       </c>
       <c r="K236" t="str">
         <f t="shared" si="3"/>
-        <v>[36052] = { true, false, true, false, true,true}, --Twisting Path</v>
+        <v>[36052] = {true, false, true, false, true, true}, --Twisting Path</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24606,7 +24872,7 @@
       </c>
       <c r="K237" t="str">
         <f t="shared" si="3"/>
-        <v>[36490] = { true, false, true, false, true,true}, --Veil of Blades</v>
+        <v>[36490] = {true, false, true, false, true, true}, --Veil of Blades</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24642,7 +24908,7 @@
       </c>
       <c r="K238" t="str">
         <f t="shared" si="3"/>
-        <v>[108936] = { false, false, false, false, true,true}, --Whirlwind (pet)</v>
+        <v>[108936] = {false, false, false, false, true, true}, --Whirlwind (pet)</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24678,7 +24944,7 @@
       </c>
       <c r="K239" t="str">
         <f t="shared" si="3"/>
-        <v>[38268] = { true, true, false, false, true,true}, --Deep Slash</v>
+        <v>[38268] = {true, true, false, false, true, true}, --Deep Slash</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24714,7 +24980,7 @@
       </c>
       <c r="K240" t="str">
         <f t="shared" si="3"/>
-        <v>[60921] = { true, true, false, false, true,true}, --Deep Slash</v>
+        <v>[60921] = {true, true, false, false, true, true}, --Deep Slash</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24750,7 +25016,7 @@
       </c>
       <c r="K241" t="str">
         <f t="shared" si="3"/>
-        <v>[15829] = { true, true, false, true, true,true}, --Heavy Attack (1H+S)</v>
+        <v>[15829] = {true, true, false, true, true, true}, --Heavy Attack (1H+S)</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24786,7 +25052,7 @@
       </c>
       <c r="K242" t="str">
         <f t="shared" si="3"/>
-        <v>[15282] = { true, true, false, true, true,true}, --Heavy Attack (Medium, 1H+S)</v>
+        <v>[15282] = {true, true, false, true, true, true}, --Heavy Attack (Medium, 1H+S)</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24822,7 +25088,7 @@
       </c>
       <c r="K243" t="str">
         <f t="shared" si="3"/>
-        <v>[38264] = { true, true, false, false, true,true}, --Heroic Slash</v>
+        <v>[38264] = {true, true, false, false, true, true}, --Heroic Slash</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24858,7 +25124,7 @@
       </c>
       <c r="K244" t="str">
         <f t="shared" si="3"/>
-        <v>[38406] = { true, true, false, false, true,true}, --Invasion</v>
+        <v>[38406] = {true, true, false, false, true, true}, --Invasion</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24894,7 +25160,7 @@
       </c>
       <c r="K245" t="str">
         <f t="shared" si="3"/>
-        <v>[15435] = { true, true, false, true, true,true}, --Light Attack (1H+S)</v>
+        <v>[15435] = {true, true, false, true, true, true}, --Light Attack (1H+S)</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24930,7 +25196,7 @@
       </c>
       <c r="K246" t="str">
         <f t="shared" si="3"/>
-        <v>[28304] = { true, true, false, false, true,true}, --Low Slash</v>
+        <v>[28304] = {true, true, false, false, true, true}, --Low Slash</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24966,7 +25232,7 @@
       </c>
       <c r="K247" t="str">
         <f t="shared" si="3"/>
-        <v>[38250] = { true, true, false, false, true,true}, --Pierce Armor</v>
+        <v>[38250] = {true, true, false, false, true, true}, --Pierce Armor</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25002,7 +25268,7 @@
       </c>
       <c r="K248" t="str">
         <f t="shared" si="3"/>
-        <v>[38365] = { true, true, false, false, true,true}, --Power Bash</v>
+        <v>[38365] = {true, true, false, false, true, true}, --Power Bash</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25038,7 +25304,7 @@
       </c>
       <c r="K249" t="str">
         <f t="shared" si="3"/>
-        <v>[38452] = { true, true, false, false, true,true}, --Power Slam</v>
+        <v>[38452] = {true, true, false, false, true, true}, --Power Slam</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25074,7 +25340,7 @@
       </c>
       <c r="K250" t="str">
         <f t="shared" si="3"/>
-        <v>[28306] = { true, true, false, false, true,true}, --Puncture</v>
+        <v>[28306] = {true, true, false, false, true, true}, --Puncture</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25110,7 +25376,7 @@
       </c>
       <c r="K251" t="str">
         <f t="shared" si="3"/>
-        <v>[38256] = { true, true, false, false, true,true}, --Ransack</v>
+        <v>[38256] = {true, true, false, false, true, true}, --Ransack</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25146,7 +25412,7 @@
       </c>
       <c r="K252" t="str">
         <f t="shared" si="3"/>
-        <v>[38455] = { true, true, false, false, true,true}, --Reverberating Bash</v>
+        <v>[38455] = {true, true, false, false, true, true}, --Reverberating Bash</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25182,7 +25448,7 @@
       </c>
       <c r="K253" t="str">
         <f t="shared" si="3"/>
-        <v>[28721] = { true, true, false, false, true,true}, --Shield Charge</v>
+        <v>[28721] = {true, true, false, false, true, true}, --Shield Charge</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25218,7 +25484,7 @@
       </c>
       <c r="K254" t="str">
         <f t="shared" si="3"/>
-        <v>[38402] = { true, true, false, false, true,true}, --Shielded Assault</v>
+        <v>[38402] = {true, true, false, false, true, true}, --Shielded Assault</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25254,7 +25520,7 @@
       </c>
       <c r="K255" t="str">
         <f t="shared" si="3"/>
-        <v>[21925] = { true, false, true, false, true,true}, --Diseased</v>
+        <v>[21925] = {true, false, true, false, true, true}, --Diseased</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25290,7 +25556,7 @@
       </c>
       <c r="K256" t="str">
         <f t="shared" si="3"/>
-        <v>[21929] = { true, false, true, false, true,true}, --Poisoned</v>
+        <v>[21929] = {true, false, true, false, true, true}, --Poisoned</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25326,7 +25592,7 @@
       </c>
       <c r="K257" t="str">
         <f t="shared" si="3"/>
-        <v>[79025] = { true, false, true, false, true,true}, --Creeping Ravage Health</v>
+        <v>[79025] = {true, false, true, false, true, true}, --Creeping Ravage Health</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25362,7 +25628,7 @@
       </c>
       <c r="K258" t="str">
         <f t="shared" si="3"/>
-        <v>[81275] = { true, true, false, false, true,true}, --Creeping Ravage Health (Crown Store)</v>
+        <v>[81275] = {true, true, false, false, true, true}, --Creeping Ravage Health (Crown Store)</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25397,8 +25663,8 @@
         <v>1</v>
       </c>
       <c r="K259" t="str">
-        <f t="shared" ref="K259:K322" si="4">CONCATENATE("[",D259,"] = { ",LOWER(E259),", ",LOWER(F259),", ",LOWER(G259),", ",LOWER(H259),", ",LOWER(I259),",",LOWER(J259),"}, --",B259)</f>
-        <v>[79707] = { true, false, true, false, true,true}, --Ravage Health</v>
+        <f t="shared" ref="K259:K322" si="4">CONCATENATE("[",D259,"] = {",LOWER(E259),", ",LOWER(F259),", ",LOWER(G259),", ",LOWER(H259),", ",LOWER(I259),", ",LOWER(J259),"}, --",B259)</f>
+        <v>[79707] = {true, false, true, false, true, true}, --Ravage Health</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25434,7 +25700,7 @@
       </c>
       <c r="K260" t="str">
         <f t="shared" si="4"/>
-        <v>[81274] = { true, true, false, false, true,true}, --Ravage Health (Crown Store)</v>
+        <v>[81274] = {true, true, false, false, true, true}, --Ravage Health (Crown Store)</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25470,7 +25736,7 @@
       </c>
       <c r="K261" t="str">
         <f t="shared" si="4"/>
-        <v>[16212] = { true, false, true, true, true,true}, --Heavy Attack (Resto)</v>
+        <v>[16212] = {true, false, true, true, true, true}, --Heavy Attack (Resto)</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25506,7 +25772,7 @@
       </c>
       <c r="K262" t="str">
         <f t="shared" si="4"/>
-        <v>[16145] = { true, true, false, true, true,true}, --Light Attack (Resto)</v>
+        <v>[16145] = {true, true, false, true, true, true}, --Light Attack (Resto)</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25542,7 +25808,7 @@
       </c>
       <c r="K263" t="str">
         <f t="shared" si="4"/>
-        <v>[46743] = { true, true, false, false, true,true}, --Absorb Magicka</v>
+        <v>[46743] = {true, true, false, false, true, true}, --Absorb Magicka</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25578,7 +25844,7 @@
       </c>
       <c r="K264" t="str">
         <f t="shared" si="4"/>
-        <v>[23428] = { true, false, true, false, true,true}, --Atronach Zap (Storm Atronach)</v>
+        <v>[23428] = {true, false, true, false, true, true}, --Atronach Zap (Storm Atronach)</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25614,7 +25880,7 @@
       </c>
       <c r="K265" t="str">
         <f t="shared" si="4"/>
-        <v>[23214] = { true, false, true, false, true,true}, --Boundless Storm</v>
+        <v>[23214] = {true, false, true, false, true, true}, --Boundless Storm</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25650,7 +25916,7 @@
       </c>
       <c r="K266" t="str">
         <f t="shared" si="4"/>
-        <v>[29528] = { false, false, false, false, false,false}, --Claw (Unstable Clannfear)</v>
+        <v>[29528] = {false, false, false, false, false, false}, --Claw (Unstable Clannfear)</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25686,7 +25952,7 @@
       </c>
       <c r="K267" t="str">
         <f t="shared" si="4"/>
-        <v>[46331] = { true, true, false, false, true,true}, --Crystal Blast</v>
+        <v>[46331] = {true, true, false, false, true, true}, --Crystal Blast</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25722,7 +25988,7 @@
       </c>
       <c r="K268" t="str">
         <f t="shared" si="4"/>
-        <v>[46324] = { true, true, false, false, true,true}, --Crystal Fragments</v>
+        <v>[46324] = {true, true, false, false, true, true}, --Crystal Fragments</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25758,7 +26024,7 @@
       </c>
       <c r="K269" t="str">
         <f t="shared" si="4"/>
-        <v>[43714] = { true, true, false, false, true,true}, --Crystal Shard</v>
+        <v>[43714] = {true, true, false, false, true, true}, --Crystal Shard</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25794,7 +26060,7 @@
       </c>
       <c r="K270" t="str">
         <f t="shared" si="4"/>
-        <v>[24327] = { true, true, false, false, true,true}, --Daedric Curse</v>
+        <v>[24327] = {true, true, false, false, true, true}, --Daedric Curse</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25830,7 +26096,7 @@
       </c>
       <c r="K271" t="str">
         <f t="shared" si="4"/>
-        <v>[25161] = { true, false, true, false, true,true}, --Daedric Minefield</v>
+        <v>[25161] = {true, false, true, false, true, true}, --Daedric Minefield</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25866,7 +26132,7 @@
       </c>
       <c r="K272" t="str">
         <f t="shared" si="4"/>
-        <v>[24829] = { true, false, true, false, true,true}, --Daedric Mines</v>
+        <v>[24829] = {true, false, true, false, true, true}, --Daedric Mines</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25902,7 +26168,7 @@
       </c>
       <c r="K273" t="str">
         <f t="shared" si="4"/>
-        <v>[24329] = { true, true, false, false, true,true}, --Daedric Prey</v>
+        <v>[24329] = {true, true, false, false, true, true}, --Daedric Prey</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25938,7 +26204,7 @@
       </c>
       <c r="K274" t="str">
         <f t="shared" si="4"/>
-        <v>[24843] = { true, false, true, false, true,true}, --Daedric Tomb</v>
+        <v>[24843] = {true, false, true, false, true, true}, --Daedric Tomb</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25974,7 +26240,7 @@
       </c>
       <c r="K275" t="str">
         <f t="shared" si="4"/>
-        <v>[19109] = { true, true, false, false, true,true}, --Endless Fury</v>
+        <v>[19109] = {true, true, false, false, true, true}, --Endless Fury</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26010,7 +26276,7 @@
       </c>
       <c r="K276" t="str">
         <f t="shared" si="4"/>
-        <v>[108844] = { true, false, true, false, true,true}, --Familiar Damage Pulse (Unstable Familirar)</v>
+        <v>[108844] = {true, false, true, false, true, true}, --Familiar Damage Pulse (Unstable Familirar)</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26046,7 +26312,7 @@
       </c>
       <c r="K277" t="str">
         <f t="shared" si="4"/>
-        <v>[77186] = { true, false, true, false, true,true}, --Familiar Damage Pulse (Volatile Familiar)</v>
+        <v>[77186] = {true, false, true, false, true, true}, --Familiar Damage Pulse (Volatile Familiar)</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26082,7 +26348,7 @@
       </c>
       <c r="K278" t="str">
         <f t="shared" si="4"/>
-        <v>[27850] = { false, false, false, false, false,false}, --Familiar Melee (Unstable Familirar)</v>
+        <v>[27850] = {false, false, false, false, false, false}, --Familiar Melee (Unstable Familirar)</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26118,7 +26384,7 @@
       </c>
       <c r="K279" t="str">
         <f t="shared" si="4"/>
-        <v>[23664] = { true, true, false, false, true,true}, --Greater Storm Attronach</v>
+        <v>[23664] = {true, true, false, false, true, true}, --Greater Storm Attronach</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26154,7 +26420,7 @@
       </c>
       <c r="K280" t="str">
         <f t="shared" si="4"/>
-        <v>[24331] = { true, true, false, false, true,true}, --Haunting Curse</v>
+        <v>[24331] = {true, true, false, false, true, true}, --Haunting Curse</v>
       </c>
     </row>
     <row r="281" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26190,7 +26456,7 @@
       </c>
       <c r="K281" t="str">
         <f t="shared" si="4"/>
-        <v>[23232] = { true, false, true, false, true,true}, --Hurricane</v>
+        <v>[23232] = {true, false, true, false, true, true}, --Hurricane</v>
       </c>
     </row>
     <row r="282" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26226,7 +26492,7 @@
       </c>
       <c r="K282" t="str">
         <f t="shared" si="4"/>
-        <v>[45194] = { true, true, false, false, true,true}, --Implosion (Lightning)</v>
+        <v>[45194] = {true, true, false, false, true, true}, --Implosion (Lightning)</v>
       </c>
     </row>
     <row r="283" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26262,7 +26528,7 @@
       </c>
       <c r="K283" t="str">
         <f t="shared" si="4"/>
-        <v>[82806] = { true, true, false, false, true,true}, --Implosion (Physical)</v>
+        <v>[82806] = {true, true, false, false, true, true}, --Implosion (Physical)</v>
       </c>
     </row>
     <row r="284" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26298,7 +26564,7 @@
       </c>
       <c r="K284" t="str">
         <f t="shared" si="4"/>
-        <v>[28027] = { false, false, false, false, false,false}, --Kick (Winged Twilight/Twilight Tormentor)</v>
+        <v>[28027] = {false, false, false, false, false, false}, --Kick (Winged Twilight/Twilight Tormentor)</v>
       </c>
     </row>
     <row r="285" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26334,7 +26600,7 @@
       </c>
       <c r="K285" t="str">
         <f t="shared" si="4"/>
-        <v>[23208] = { true, false, true, false, true,true}, --Lightning Flood</v>
+        <v>[23208] = {true, false, true, false, true, true}, --Lightning Flood</v>
       </c>
     </row>
     <row r="286" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26370,7 +26636,7 @@
       </c>
       <c r="K286" t="str">
         <f t="shared" si="4"/>
-        <v>[23211] = { true, false, true, false, true,true}, --Lightning Form</v>
+        <v>[23211] = {true, false, true, false, true, true}, --Lightning Form</v>
       </c>
     </row>
     <row r="287" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26406,7 +26672,7 @@
       </c>
       <c r="K287" t="str">
         <f t="shared" si="4"/>
-        <v>[23189] = { true, false, true, false, true,true}, --Lightning Splash</v>
+        <v>[23189] = {true, false, true, false, true, true}, --Lightning Splash</v>
       </c>
     </row>
     <row r="288" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26442,7 +26708,7 @@
       </c>
       <c r="K288" t="str">
         <f t="shared" si="4"/>
-        <v>[29809] = { true, true, false, false, true,true}, --Lightning Strike (Charged Atronach)</v>
+        <v>[29809] = {true, true, false, false, true, true}, --Lightning Strike (Charged Atronach)</v>
       </c>
     </row>
     <row r="289" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26478,7 +26744,7 @@
       </c>
       <c r="K289" t="str">
         <f t="shared" si="4"/>
-        <v>[23202] = { true, false, true, false, true,true}, --Liquid Lightning</v>
+        <v>[23202] = {true, false, true, false, true, true}, --Liquid Lightning</v>
       </c>
     </row>
     <row r="290" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26514,7 +26780,7 @@
       </c>
       <c r="K290" t="str">
         <f t="shared" si="4"/>
-        <v>[18718] = { true, true, false, false, true,true}, --Mages' Fury</v>
+        <v>[18718] = {true, true, false, false, true, true}, --Mages' Fury</v>
       </c>
     </row>
     <row r="291" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26550,7 +26816,7 @@
       </c>
       <c r="K291" t="str">
         <f t="shared" si="4"/>
-        <v>[19123] = { true, true, false, false, true,true}, --Magess' Wraith</v>
+        <v>[19123] = {true, true, false, false, true, true}, --Magess' Wraith</v>
       </c>
     </row>
     <row r="292" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26586,7 +26852,7 @@
       </c>
       <c r="K292" t="str">
         <f t="shared" si="4"/>
-        <v>[24798] = { true, false, true, false, true,true}, --Overload Heavy Attack</v>
+        <v>[24798] = {true, false, true, false, true, true}, --Overload Heavy Attack</v>
       </c>
     </row>
     <row r="293" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26622,7 +26888,7 @@
       </c>
       <c r="K293" t="str">
         <f t="shared" si="4"/>
-        <v>[24792] = { true, true, false, false, true,true}, --Overload Light Attack</v>
+        <v>[24792] = {true, true, false, false, true, true}, --Overload Light Attack</v>
       </c>
     </row>
     <row r="294" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26658,7 +26924,7 @@
       </c>
       <c r="K294" t="str">
         <f t="shared" si="4"/>
-        <v>[100118] = { true, true, false, false, true,true}, --Petrify (Rune Cage)</v>
+        <v>[100118] = {true, true, false, false, true, true}, --Petrify (Rune Cage)</v>
       </c>
     </row>
     <row r="295" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26694,7 +26960,7 @@
       </c>
       <c r="K295" t="str">
         <f t="shared" si="4"/>
-        <v>[24811] = { true, false, true, false, true,true}, --Power Overload Heavy</v>
+        <v>[24811] = {true, false, true, false, true, true}, --Power Overload Heavy</v>
       </c>
     </row>
     <row r="296" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26730,7 +26996,7 @@
       </c>
       <c r="K296" t="str">
         <f t="shared" si="4"/>
-        <v>[28309] = { true, true, false, false, true,true}, --Shattering Prison</v>
+        <v>[28309] = {true, true, false, false, true, true}, --Shattering Prison</v>
       </c>
     </row>
     <row r="297" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26766,7 +27032,7 @@
       </c>
       <c r="K297" t="str">
         <f t="shared" si="4"/>
-        <v>[23239] = { true, true, false, false, true,true}, --Streak</v>
+        <v>[23239] = {true, true, false, false, true, true}, --Streak</v>
       </c>
     </row>
     <row r="298" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26802,7 +27068,7 @@
       </c>
       <c r="K298" t="str">
         <f t="shared" si="4"/>
-        <v>[23667] = { true, true, false, false, true,true}, --Summon Charged Atronach</v>
+        <v>[23667] = {true, true, false, false, true, true}, --Summon Charged Atronach</v>
       </c>
     </row>
     <row r="299" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26838,7 +27104,7 @@
       </c>
       <c r="K299" t="str">
         <f t="shared" si="4"/>
-        <v>[23659] = { true, true, false, false, true,true}, --Summon Storm Atronach</v>
+        <v>[23659] = {true, true, false, false, true, true}, --Summon Storm Atronach</v>
       </c>
     </row>
     <row r="300" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26874,7 +27140,7 @@
       </c>
       <c r="K300" t="str">
         <f t="shared" si="4"/>
-        <v>[80435] = { true, false, true, false, true,true}, --Suppression Field</v>
+        <v>[80435] = {true, false, true, false, true, true}, --Suppression Field</v>
       </c>
     </row>
     <row r="301" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26910,7 +27176,7 @@
       </c>
       <c r="K301" t="str">
         <f t="shared" si="4"/>
-        <v>[29528] = { false, false, false, false, false,false}, --Tail Spike (Unstable Clannfear)</v>
+        <v>[29528] = {false, false, false, false, false, false}, --Tail Spike (Unstable Clannfear)</v>
       </c>
     </row>
     <row r="302" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26946,7 +27212,7 @@
       </c>
       <c r="K302" t="str">
         <f t="shared" si="4"/>
-        <v>[24617] = { false, false, false, false, false,false}, --Zap (Winged Twilight/Twilight Tormentor)</v>
+        <v>[24617] = {false, false, false, false, false, false}, --Zap (Winged Twilight/Twilight Tormentor)</v>
       </c>
     </row>
     <row r="303" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26982,7 +27248,7 @@
       </c>
       <c r="K303" t="str">
         <f t="shared" si="4"/>
-        <v>[40317] = { true, false, true, false, true,true}, --Consuming Trap</v>
+        <v>[40317] = {true, false, true, false, true, true}, --Consuming Trap</v>
       </c>
     </row>
     <row r="304" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27018,7 +27284,7 @@
       </c>
       <c r="K304" t="str">
         <f t="shared" si="4"/>
-        <v>[40414] = { true, false, true, false, true,true}, --Shatter Soul</v>
+        <v>[40414] = {true, false, true, false, true, true}, --Shatter Soul</v>
       </c>
     </row>
     <row r="305" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27054,7 +27320,7 @@
       </c>
       <c r="K305" t="str">
         <f t="shared" si="4"/>
-        <v>[40420] = { true, false, true, false, true,true}, --Soul Assault</v>
+        <v>[40420] = {true, false, true, false, true, true}, --Soul Assault</v>
       </c>
     </row>
     <row r="306" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27090,7 +27356,7 @@
       </c>
       <c r="K306" t="str">
         <f t="shared" si="4"/>
-        <v>[40328] = { true, false, true, false, true,true}, --Soul Splitting Trap</v>
+        <v>[40328] = {true, false, true, false, true, true}, --Soul Splitting Trap</v>
       </c>
     </row>
     <row r="307" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27126,7 +27392,7 @@
       </c>
       <c r="K307" t="str">
         <f t="shared" si="4"/>
-        <v>[26800] = { true, true, false, false, true,true}, --Aurora Javelin</v>
+        <v>[26800] = {true, true, false, false, true, true}, --Aurora Javelin</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27162,7 +27428,7 @@
       </c>
       <c r="K308" t="str">
         <f t="shared" si="4"/>
-        <v>[26804] = { true, true, false, false, true,true}, --Binding Javelin</v>
+        <v>[26804] = {true, true, false, false, true, true}, --Binding Javelin</v>
       </c>
     </row>
     <row r="309" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27198,7 +27464,7 @@
       </c>
       <c r="K309" t="str">
         <f t="shared" si="4"/>
-        <v>[44432] = { true, false, true, false, true,true}, --Biting Jabs</v>
+        <v>[44432] = {true, false, true, false, true, true}, --Biting Jabs</v>
       </c>
     </row>
     <row r="310" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27234,7 +27500,7 @@
       </c>
       <c r="K310" t="str">
         <f t="shared" si="4"/>
-        <v>[26794] = { true, false, true, false, true,true}, --Biting Jabs (splash)</v>
+        <v>[26794] = {true, false, true, false, true, true}, --Biting Jabs (splash)</v>
       </c>
     </row>
     <row r="311" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27270,7 +27536,7 @@
       </c>
       <c r="K311" t="str">
         <f t="shared" si="4"/>
-        <v>[26871] = { true, true, false, false, true,true}, --Blazing Spear</v>
+        <v>[26871] = {true, true, false, false, true, true}, --Blazing Spear</v>
       </c>
     </row>
     <row r="312" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27306,7 +27572,7 @@
       </c>
       <c r="K312" t="str">
         <f t="shared" si="4"/>
-        <v>[26879] = { true, false, true, false, true,true}, --Blazing Spear Pulse</v>
+        <v>[26879] = {true, false, true, false, true, true}, --Blazing Spear Pulse</v>
       </c>
     </row>
     <row r="313" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27342,7 +27608,7 @@
       </c>
       <c r="K313" t="str">
         <f t="shared" si="4"/>
-        <v>[80170] = { true, true, false, false, true,true}, --Burning Light</v>
+        <v>[80170] = {true, true, false, false, true, true}, --Burning Light</v>
       </c>
     </row>
     <row r="314" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27378,7 +27644,7 @@
       </c>
       <c r="K314" t="str">
         <f t="shared" si="4"/>
-        <v>[80170] = { true, true, false, false, true,true}, --Burning Light</v>
+        <v>[80170] = {true, true, false, false, true, true}, --Burning Light</v>
       </c>
     </row>
     <row r="315" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27414,7 +27680,7 @@
       </c>
       <c r="K315" t="str">
         <f t="shared" si="4"/>
-        <v>[22139] = { true, true, false, false, true,true}, --Crescent Sweep</v>
+        <v>[22139] = {true, true, false, false, true, true}, --Crescent Sweep</v>
       </c>
     </row>
     <row r="316" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27450,7 +27716,7 @@
       </c>
       <c r="K316" t="str">
         <f t="shared" si="4"/>
-        <v>[22110] = { true, true, false, false, true,true}, --Dark Flare</v>
+        <v>[22110] = {true, true, false, false, true, true}, --Dark Flare</v>
       </c>
     </row>
     <row r="317" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27486,7 +27752,7 @@
       </c>
       <c r="K317" t="str">
         <f t="shared" si="4"/>
-        <v>[22144] = { true, true, false, false, true,true}, --Empowering Sweep</v>
+        <v>[22144] = {true, true, false, false, true, true}, --Empowering Sweep</v>
       </c>
     </row>
     <row r="318" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27522,7 +27788,7 @@
       </c>
       <c r="K318" t="str">
         <f t="shared" si="4"/>
-        <v>[22165] = { true, true, false, false, true,true}, --Explosive Charge</v>
+        <v>[22165] = {true, true, false, false, true, true}, --Explosive Charge</v>
       </c>
     </row>
     <row r="319" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27558,7 +27824,7 @@
       </c>
       <c r="K319" t="str">
         <f t="shared" si="4"/>
-        <v>[26859] = { true, true, false, false, true,true}, --Luminous Shards</v>
+        <v>[26859] = {true, true, false, false, true, true}, --Luminous Shards</v>
       </c>
     </row>
     <row r="320" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27594,7 +27860,7 @@
       </c>
       <c r="K320" t="str">
         <f t="shared" si="4"/>
-        <v>[95955] = { true, false, true, false, true,true}, --Luminous Shards (dot)</v>
+        <v>[95955] = {true, false, true, false, true, true}, --Luminous Shards (dot)</v>
       </c>
     </row>
     <row r="321" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27630,7 +27896,7 @@
       </c>
       <c r="K321" t="str">
         <f t="shared" si="4"/>
-        <v>[89828] = { true, true, false, false, true,true}, --Power of the Light (1st)</v>
+        <v>[89828] = {true, true, false, false, true, true}, --Power of the Light (1st)</v>
       </c>
     </row>
     <row r="322" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27666,7 +27932,7 @@
       </c>
       <c r="K322" t="str">
         <f t="shared" si="4"/>
-        <v>[27567] = { false, false, false, false, false,false}, --Power of the Light (2nd)</v>
+        <v>[27567] = {false, false, false, false, false, false}, --Power of the Light (2nd)</v>
       </c>
     </row>
     <row r="323" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27701,8 +27967,8 @@
         <v>1</v>
       </c>
       <c r="K323" t="str">
-        <f t="shared" ref="K323:K386" si="5">CONCATENATE("[",D323,"] = { ",LOWER(E323),", ",LOWER(F323),", ",LOWER(G323),", ",LOWER(H323),", ",LOWER(I323),",",LOWER(J323),"}, --",B323)</f>
-        <v>[44436] = { true, false, true, false, true,true}, --Puncturing Sweep</v>
+        <f t="shared" ref="K323:K386" si="5">CONCATENATE("[",D323,"] = {",LOWER(E323),", ",LOWER(F323),", ",LOWER(G323),", ",LOWER(H323),", ",LOWER(I323),", ",LOWER(J323),"}, --",B323)</f>
+        <v>[44436] = {true, false, true, false, true, true}, --Puncturing Sweep</v>
       </c>
     </row>
     <row r="324" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27738,7 +28004,7 @@
       </c>
       <c r="K324" t="str">
         <f t="shared" si="5"/>
-        <v>[26799] = { true, false, true, false, true,true}, --Puncturing Sweep (splash)</v>
+        <v>[26799] = {true, false, true, false, true, true}, --Puncturing Sweep (splash)</v>
       </c>
     </row>
     <row r="325" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27774,7 +28040,7 @@
       </c>
       <c r="K325" t="str">
         <f t="shared" si="5"/>
-        <v>[89825] = { true, true, false, false, true,true}, --Purifying Light (1st)</v>
+        <v>[89825] = {true, true, false, false, true, true}, --Purifying Light (1st)</v>
       </c>
     </row>
     <row r="326" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27810,7 +28076,7 @@
       </c>
       <c r="K326" t="str">
         <f t="shared" si="5"/>
-        <v>[27544] = { false, false, false, false, false,false}, --Purifying Light (2nd)</v>
+        <v>[27544] = {false, false, false, false, false, false}, --Purifying Light (2nd)</v>
       </c>
     </row>
     <row r="327" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27846,7 +28112,7 @@
       </c>
       <c r="K327" t="str">
         <f t="shared" si="5"/>
-        <v>[22138] = { true, false, true, false, true,true}, --Radial Sweep</v>
+        <v>[22138] = {true, false, true, false, true, true}, --Radial Sweep</v>
       </c>
     </row>
     <row r="328" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27882,7 +28148,7 @@
       </c>
       <c r="K328" t="str">
         <f t="shared" si="5"/>
-        <v>[62550] = { true, false, true, false, true,true}, --Radial Sweep (dot)</v>
+        <v>[62550] = {true, false, true, false, true, true}, --Radial Sweep (dot)</v>
       </c>
     </row>
     <row r="329" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27918,7 +28184,7 @@
       </c>
       <c r="K329" t="str">
         <f t="shared" si="5"/>
-        <v>[62606] = { true, false, true, false, true,true}, --Radial Sweep (dot)</v>
+        <v>[62606] = {true, false, true, false, true, true}, --Radial Sweep (dot)</v>
       </c>
     </row>
     <row r="330" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27954,7 +28220,7 @@
       </c>
       <c r="K330" t="str">
         <f t="shared" si="5"/>
-        <v>[62598] = { true, false, true, false, true,true}, --Radial Sweep (dot)</v>
+        <v>[62598] = {true, false, true, false, true, true}, --Radial Sweep (dot)</v>
       </c>
     </row>
     <row r="331" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27990,7 +28256,7 @@
       </c>
       <c r="K331" t="str">
         <f t="shared" si="5"/>
-        <v>[63961] = { true, false, true, false, true,true}, --Radiant Oppression</v>
+        <v>[63961] = {true, false, true, false, true, true}, --Radiant Oppression</v>
       </c>
     </row>
     <row r="332" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28026,7 +28292,7 @@
       </c>
       <c r="K332" t="str">
         <f t="shared" si="5"/>
-        <v>[22182] = { true, true, false, false, true,true}, --Radiant Ward</v>
+        <v>[22182] = {true, true, false, false, true, true}, --Radiant Ward</v>
       </c>
     </row>
     <row r="333" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28062,7 +28328,7 @@
       </c>
       <c r="K333" t="str">
         <f t="shared" si="5"/>
-        <v>[21732] = { true, true, false, false, true,true}, --Reflective Light</v>
+        <v>[21732] = {true, true, false, false, true, true}, --Reflective Light</v>
       </c>
     </row>
     <row r="334" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28098,7 +28364,7 @@
       </c>
       <c r="K334" t="str">
         <f t="shared" si="5"/>
-        <v>[21734] = { true, false, true, false, true,true}, --Reflective Light (dot)</v>
+        <v>[21734] = {true, false, true, false, true, true}, --Reflective Light (dot)</v>
       </c>
     </row>
     <row r="335" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28134,7 +28400,7 @@
       </c>
       <c r="K335" t="str">
         <f t="shared" si="5"/>
-        <v>[80172] = { true, false, true, false, true,true}, --Ritual of Retribution</v>
+        <v>[80172] = {true, false, true, false, true, true}, --Ritual of Retribution</v>
       </c>
     </row>
     <row r="336" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28170,7 +28436,7 @@
       </c>
       <c r="K336" t="str">
         <f t="shared" si="5"/>
-        <v>[100218] = { true, true, false, false, true,true}, --Solar Barrage</v>
+        <v>[100218] = {true, true, false, false, true, true}, --Solar Barrage</v>
       </c>
     </row>
     <row r="337" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28206,7 +28472,7 @@
       </c>
       <c r="K337" t="str">
         <f t="shared" si="5"/>
-        <v>[21759] = { true, false, true, false, true,true}, --Solar Disturbance</v>
+        <v>[21759] = {true, false, true, false, true, true}, --Solar Disturbance</v>
       </c>
     </row>
     <row r="338" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28242,7 +28508,7 @@
       </c>
       <c r="K338" t="str">
         <f t="shared" si="5"/>
-        <v>[21756] = { true, false, true, false, true,true}, --Solar Prison</v>
+        <v>[21756] = {true, false, true, false, true, true}, --Solar Prison</v>
       </c>
     </row>
     <row r="339" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28278,7 +28544,7 @@
       </c>
       <c r="K339" t="str">
         <f t="shared" si="5"/>
-        <v>[21726] = { true, true, false, false, true,true}, --Sun Fire</v>
+        <v>[21726] = {true, true, false, false, true, true}, --Sun Fire</v>
       </c>
     </row>
     <row r="340" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28314,7 +28580,7 @@
       </c>
       <c r="K340" t="str">
         <f t="shared" si="5"/>
-        <v>[21728] = { true, false, true, false, true,true}, --Sun Fire (DoT)</v>
+        <v>[21728] = {true, false, true, false, true, true}, --Sun Fire (DoT)</v>
       </c>
     </row>
     <row r="341" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28350,7 +28616,7 @@
       </c>
       <c r="K341" t="str">
         <f t="shared" si="5"/>
-        <v>[22178] = { true, true, false, false, true,true}, --Sun Shield</v>
+        <v>[22178] = {true, true, false, false, true, true}, --Sun Shield</v>
       </c>
     </row>
     <row r="342" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28386,7 +28652,7 @@
       </c>
       <c r="K342" t="str">
         <f t="shared" si="5"/>
-        <v>[15544] = { true, true, false, false, true,true}, --Toppling Charge</v>
+        <v>[15544] = {true, true, false, false, true, true}, --Toppling Charge</v>
       </c>
     </row>
     <row r="343" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28422,7 +28688,7 @@
       </c>
       <c r="K343" t="str">
         <f t="shared" si="5"/>
-        <v>[68729] = { true, true, false, false, true,true}, --Total Dark</v>
+        <v>[68729] = {true, true, false, false, true, true}, --Total Dark</v>
       </c>
     </row>
     <row r="344" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28458,7 +28724,7 @@
       </c>
       <c r="K344" t="str">
         <f t="shared" si="5"/>
-        <v>[22005] = { true, true, false, false, true,true}, --Unstable Core</v>
+        <v>[22005] = {true, true, false, false, true, true}, --Unstable Core</v>
       </c>
     </row>
     <row r="345" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28494,7 +28760,7 @@
       </c>
       <c r="K345" t="str">
         <f t="shared" si="5"/>
-        <v>[21729] = { true, true, false, false, true,true}, --Vampires Bane</v>
+        <v>[21729] = {true, true, false, false, true, true}, --Vampires Bane</v>
       </c>
     </row>
     <row r="346" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28530,7 +28796,7 @@
       </c>
       <c r="K346" t="str">
         <f t="shared" si="5"/>
-        <v>[21731] = { true, false, true, false, true,true}, --Vampires Bane (dot)</v>
+        <v>[21731] = {true, false, true, false, true, true}, --Vampires Bane (dot)</v>
       </c>
     </row>
     <row r="347" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28566,7 +28832,7 @@
       </c>
       <c r="K347" t="str">
         <f t="shared" si="5"/>
-        <v>[83238] = { true, true, false, false, true,false}, --Berserker Rage</v>
+        <v>[83238] = {true, true, false, false, true, false}, --Berserker Rage</v>
       </c>
     </row>
     <row r="348" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28602,7 +28868,7 @@
       </c>
       <c r="K348" t="str">
         <f t="shared" si="5"/>
-        <v>[83216] = { true, true, false, false, true,false}, --Berserker Strike</v>
+        <v>[83216] = {true, true, false, false, true, false}, --Berserker Strike</v>
       </c>
     </row>
     <row r="349" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28638,7 +28904,7 @@
       </c>
       <c r="K349" t="str">
         <f t="shared" si="5"/>
-        <v>[38754] = { true, true, false, false, true,true}, --Brawler</v>
+        <v>[38754] = {true, true, false, false, true, true}, --Brawler</v>
       </c>
     </row>
     <row r="350" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28674,7 +28940,7 @@
       </c>
       <c r="K350" t="str">
         <f t="shared" si="5"/>
-        <v>[38759] = { true, false, true, false, true,false}, --Brawler Bleed</v>
+        <v>[38759] = {true, false, true, false, true, false}, --Brawler Bleed</v>
       </c>
     </row>
     <row r="351" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28710,7 +28976,7 @@
       </c>
       <c r="K351" t="str">
         <f t="shared" si="5"/>
-        <v>[38745] = { true, true, false, false, true,true}, --Carve</v>
+        <v>[38745] = {true, true, false, false, true, true}, --Carve</v>
       </c>
     </row>
     <row r="352" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28746,7 +29012,7 @@
       </c>
       <c r="K352" t="str">
         <f t="shared" si="5"/>
-        <v>[38747] = { true, false, true, false, true,false}, --Carve Bleed</v>
+        <v>[38747] = {true, false, true, false, true, false}, --Carve Bleed</v>
       </c>
     </row>
     <row r="353" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28782,7 +29048,7 @@
       </c>
       <c r="K353" t="str">
         <f t="shared" si="5"/>
-        <v>[20919] = { true, true, false, false, true,true}, --Cleave</v>
+        <v>[20919] = {true, true, false, false, true, true}, --Cleave</v>
       </c>
     </row>
     <row r="354" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28818,7 +29084,7 @@
       </c>
       <c r="K354" t="str">
         <f t="shared" si="5"/>
-        <v>[31059] = { true, false, true, false, true,false}, --Cleave Bleed</v>
+        <v>[31059] = {true, false, true, false, true, false}, --Cleave Bleed</v>
       </c>
     </row>
     <row r="355" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28854,7 +29120,7 @@
       </c>
       <c r="K355" t="str">
         <f t="shared" si="5"/>
-        <v>[28449] = { true, true, false, false, true,true}, --Critical Charge</v>
+        <v>[28449] = {true, true, false, false, true, true}, --Critical Charge</v>
       </c>
     </row>
     <row r="356" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28890,7 +29156,7 @@
       </c>
       <c r="K356" t="str">
         <f t="shared" si="5"/>
-        <v>[38782] = { true, true, false, false, true,true}, --Critical Rush</v>
+        <v>[38782] = {true, true, false, false, true, true}, --Critical Rush</v>
       </c>
     </row>
     <row r="357" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28926,7 +29192,7 @@
       </c>
       <c r="K357" t="str">
         <f t="shared" si="5"/>
-        <v>[38814] = { true, true, false, false, true,true}, --Dizzying Swing</v>
+        <v>[38814] = {true, true, false, false, true, true}, --Dizzying Swing</v>
       </c>
     </row>
     <row r="358" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28962,7 +29228,7 @@
       </c>
       <c r="K358" t="str">
         <f t="shared" si="5"/>
-        <v>[38819] = { true, true, false, false, true,true}, --Executioner</v>
+        <v>[38819] = {true, true, false, false, true, true}, --Executioner</v>
       </c>
     </row>
     <row r="359" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28998,7 +29264,7 @@
       </c>
       <c r="K359" t="str">
         <f t="shared" si="5"/>
-        <v>[17163] = { true, true, false, true, true,true}, --Heavy Attack (2H)</v>
+        <v>[17163] = {true, true, false, true, true, true}, --Heavy Attack (2H)</v>
       </c>
     </row>
     <row r="360" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29034,7 +29300,7 @@
       </c>
       <c r="K360" t="str">
         <f t="shared" si="5"/>
-        <v>[17162] = { true, true, false, true, true,true}, --Heavy Attack (Medium, 2H)</v>
+        <v>[17162] = {true, true, false, true, true, true}, --Heavy Attack (Medium, 2H)</v>
       </c>
     </row>
     <row r="361" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29070,7 +29336,7 @@
       </c>
       <c r="K361" t="str">
         <f t="shared" si="5"/>
-        <v>[45431] = { true, false, true, false, true,false}, --Heavy Weapons Bleed</v>
+        <v>[45431] = {true, false, true, false, true, false}, --Heavy Weapons Bleed</v>
       </c>
     </row>
     <row r="362" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29106,7 +29372,7 @@
       </c>
       <c r="K362" t="str">
         <f t="shared" si="5"/>
-        <v>[16037] = { true, true, false, true, true,true}, --Light Attack (2H)</v>
+        <v>[16037] = {true, true, false, true, true, true}, --Light Attack (2H)</v>
       </c>
     </row>
     <row r="363" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29142,7 +29408,7 @@
       </c>
       <c r="K363" t="str">
         <f t="shared" si="5"/>
-        <v>[83229] = { true, true, false, false, true,false}, --Onslaught</v>
+        <v>[83229] = {true, true, false, false, true, false}, --Onslaught</v>
       </c>
     </row>
     <row r="364" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29178,7 +29444,7 @@
       </c>
       <c r="K364" t="str">
         <f t="shared" si="5"/>
-        <v>[28302] = { true, true, false, false, true,true}, --Reverse Slash</v>
+        <v>[28302] = {true, true, false, false, true, true}, --Reverse Slash</v>
       </c>
     </row>
     <row r="365" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29214,7 +29480,7 @@
       </c>
       <c r="K365" t="str">
         <f t="shared" si="5"/>
-        <v>[38823] = { true, true, false, false, true,true}, --Reverse Slice</v>
+        <v>[38823] = {true, true, false, false, true, true}, --Reverse Slice</v>
       </c>
     </row>
     <row r="366" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29250,7 +29516,7 @@
       </c>
       <c r="K366" t="str">
         <f t="shared" si="5"/>
-        <v>[38827] = { true, true, false, false, true,true}, --Reverse Slice (2nd)</v>
+        <v>[38827] = {true, true, false, false, true, true}, --Reverse Slice (2nd)</v>
       </c>
     </row>
     <row r="367" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29286,7 +29552,7 @@
       </c>
       <c r="K367" t="str">
         <f t="shared" si="5"/>
-        <v>[38792] = { true, true, false, false, true,true}, --Stampede</v>
+        <v>[38792] = {true, true, false, false, true, true}, --Stampede</v>
       </c>
     </row>
     <row r="368" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29322,7 +29588,7 @@
       </c>
       <c r="K368" t="str">
         <f t="shared" si="5"/>
-        <v>[28279] = { true, true, false, false, true,true}, --Uppercut</v>
+        <v>[28279] = {true, true, false, false, true, true}, --Uppercut</v>
       </c>
     </row>
     <row r="369" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29358,7 +29624,7 @@
       </c>
       <c r="K369" t="str">
         <f t="shared" si="5"/>
-        <v>[38807] = { true, true, false, false, true,true}, --Wrecking Blow</v>
+        <v>[38807] = {true, true, false, false, true, true}, --Wrecking Blow</v>
       </c>
     </row>
     <row r="370" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29394,7 +29660,7 @@
       </c>
       <c r="K370" t="str">
         <f t="shared" si="5"/>
-        <v>[42060] = { true, true, false, false, true,true}, --Inner Beast</v>
+        <v>[42060] = {true, true, false, false, true, true}, --Inner Beast</v>
       </c>
     </row>
     <row r="371" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29430,7 +29696,7 @@
       </c>
       <c r="K371" t="str">
         <f t="shared" si="5"/>
-        <v>[42056] = { true, true, false, false, true,true}, --Inner Rage</v>
+        <v>[42056] = {true, true, false, false, true, true}, --Inner Rage</v>
       </c>
     </row>
     <row r="372" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29466,7 +29732,7 @@
       </c>
       <c r="K372" t="str">
         <f t="shared" si="5"/>
-        <v>[80107] = { true, true, false, false, true,true}, --Shadow Silk (not synergy)</v>
+        <v>[80107] = {true, true, false, false, true, true}, --Shadow Silk (not synergy)</v>
       </c>
     </row>
     <row r="373" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29502,7 +29768,7 @@
       </c>
       <c r="K373" t="str">
         <f t="shared" si="5"/>
-        <v>[80129] = { true, true, false, false, true,true}, --Tangling Webs (not synergy)</v>
+        <v>[80129] = {true, true, false, false, true, true}, --Tangling Webs (not synergy)</v>
       </c>
     </row>
     <row r="374" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29538,7 +29804,7 @@
       </c>
       <c r="K374" t="str">
         <f t="shared" si="5"/>
-        <v>[38956] = { true, false, true, false, true,true}, --Accelerating Drain</v>
+        <v>[38956] = {true, false, true, false, true, true}, --Accelerating Drain</v>
       </c>
     </row>
     <row r="375" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29574,7 +29840,7 @@
       </c>
       <c r="K375" t="str">
         <f t="shared" si="5"/>
-        <v>[38968] = { true, false, true, false, true,true}, --Baleful Mist</v>
+        <v>[38968] = {true, false, true, false, true, true}, --Baleful Mist</v>
       </c>
     </row>
     <row r="376" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29610,7 +29876,7 @@
       </c>
       <c r="K376" t="str">
         <f t="shared" si="5"/>
-        <v>[32625] = { true, false, true, false, true,true}, --Bat Swarm</v>
+        <v>[32625] = {true, false, true, false, true, true}, --Bat Swarm</v>
       </c>
     </row>
     <row r="377" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29646,7 +29912,7 @@
       </c>
       <c r="K377" t="str">
         <f t="shared" si="5"/>
-        <v>[38935] = { true, false, true, false, true,true}, --Clouding Swarm</v>
+        <v>[38935] = {true, false, true, false, true, true}, --Clouding Swarm</v>
       </c>
     </row>
     <row r="378" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29682,7 +29948,7 @@
       </c>
       <c r="K378" t="str">
         <f t="shared" si="5"/>
-        <v>[38934] = { true, false, true, false, true,true}, --Devouring Swarm</v>
+        <v>[38934] = {true, false, true, false, true, true}, --Devouring Swarm</v>
       </c>
     </row>
     <row r="379" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29718,7 +29984,7 @@
       </c>
       <c r="K379" t="str">
         <f t="shared" si="5"/>
-        <v>[32893] = { true, false, true, false, true,true}, --Drain Essence</v>
+        <v>[32893] = {true, false, true, false, true, true}, --Drain Essence</v>
       </c>
     </row>
     <row r="380" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29754,7 +30020,7 @@
       </c>
       <c r="K380" t="str">
         <f t="shared" si="5"/>
-        <v>[38949] = { true, false, true, false, true,true}, --Invigorating Drain</v>
+        <v>[38949] = {true, false, true, false, true, true}, --Invigorating Drain</v>
       </c>
     </row>
     <row r="381" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29790,7 +30056,7 @@
       </c>
       <c r="K381" t="str">
         <f t="shared" si="5"/>
-        <v>[87256] = { true, false, true, false, true,true}, --Arctic Blast</v>
+        <v>[87256] = {true, false, true, false, true, true}, --Arctic Blast</v>
       </c>
     </row>
     <row r="382" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29826,7 +30092,7 @@
       </c>
       <c r="K382" t="str">
         <f t="shared" si="5"/>
-        <v>[105907] = { true, true, false, false, true,true}, --Crushing Swipe (pet)</v>
+        <v>[105907] = {true, true, false, false, true, true}, --Crushing Swipe (pet)</v>
       </c>
     </row>
     <row r="383" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29862,7 +30128,7 @@
       </c>
       <c r="K383" t="str">
         <f t="shared" si="5"/>
-        <v>[89128] = { true, true, false, false, true,true}, --Crushing Swipe (pet)</v>
+        <v>[89128] = {true, true, false, false, true, true}, --Crushing Swipe (pet)</v>
       </c>
     </row>
     <row r="384" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29898,7 +30164,7 @@
       </c>
       <c r="K384" t="str">
         <f t="shared" si="5"/>
-        <v>[89220] = { true, true, false, false, true,true}, --Crushing Swipe (pet)</v>
+        <v>[89220] = {true, true, false, false, true, true}, --Crushing Swipe (pet)</v>
       </c>
     </row>
     <row r="385" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29934,7 +30200,7 @@
       </c>
       <c r="K385" t="str">
         <f t="shared" si="5"/>
-        <v>[85999] = { true, true, false, false, true,true}, --Cutting Dive</v>
+        <v>[85999] = {true, true, false, false, true, true}, --Cutting Dive</v>
       </c>
     </row>
     <row r="386" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29970,7 +30236,7 @@
       </c>
       <c r="K386" t="str">
         <f t="shared" si="5"/>
-        <v>[94424] = { true, true, false, false, true,true}, --Deep Fissure</v>
+        <v>[94424] = {true, true, false, false, true, true}, --Deep Fissure</v>
       </c>
     </row>
     <row r="387" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30005,8 +30271,8 @@
         <v>1</v>
       </c>
       <c r="K387" t="str">
-        <f t="shared" ref="K387:K423" si="6">CONCATENATE("[",D387,"] = { ",LOWER(E387),", ",LOWER(F387),", ",LOWER(G387),", ",LOWER(H387),", ",LOWER(I387),",",LOWER(J387),"}, --",B387)</f>
-        <v>[85995] = { true, true, false, false, true,true}, --Dive</v>
+        <f t="shared" ref="K387:K429" si="6">CONCATENATE("[",D387,"] = {",LOWER(E387),", ",LOWER(F387),", ",LOWER(G387),", ",LOWER(H387),", ",LOWER(I387),", ",LOWER(J387),"}, --",B387)</f>
+        <v>[85995] = {true, true, false, false, true, true}, --Dive</v>
       </c>
     </row>
     <row r="388" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30042,7 +30308,7 @@
       </c>
       <c r="K388" t="str">
         <f t="shared" si="6"/>
-        <v>[101904] = { true, true, false, false, true,true}, --Fetcher Infection</v>
+        <v>[101904] = {true, true, false, false, true, true}, --Fetcher Infection</v>
       </c>
     </row>
     <row r="389" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30078,7 +30344,7 @@
       </c>
       <c r="K389" t="str">
         <f t="shared" si="6"/>
-        <v>[88791] = { true, false, true, false, true,true}, --Gripping Shards</v>
+        <v>[88791] = {true, false, true, false, true, true}, --Gripping Shards</v>
       </c>
     </row>
     <row r="390" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30114,7 +30380,7 @@
       </c>
       <c r="K390" t="str">
         <f t="shared" si="6"/>
-        <v>[101944] = { true, true, false, false, true,true}, --Growing Swarm</v>
+        <v>[101944] = {true, true, false, false, true, true}, --Growing Swarm</v>
       </c>
     </row>
     <row r="391" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30150,7 +30416,7 @@
       </c>
       <c r="K391" t="str">
         <f t="shared" si="6"/>
-        <v>[92160] = { true, true, false, false, true,true}, --Guardian Savagery</v>
+        <v>[92160] = {true, true, false, false, true, true}, --Guardian Savagery</v>
       </c>
     </row>
     <row r="392" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30186,7 +30452,7 @@
       </c>
       <c r="K392" t="str">
         <f t="shared" si="6"/>
-        <v>[105921] = { true, true, false, false, true,true}, --Guardian's Wrath (pet)</v>
+        <v>[105921] = {true, true, false, false, true, true}, --Guardian's Wrath (pet)</v>
       </c>
     </row>
     <row r="393" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30222,7 +30488,7 @@
       </c>
       <c r="K393" t="str">
         <f t="shared" si="6"/>
-        <v>[91974] = { true, true, false, false, true,true}, --Guardian's Wrath (pet)</v>
+        <v>[91974] = {true, true, false, false, true, true}, --Guardian's Wrath (pet)</v>
       </c>
     </row>
     <row r="394" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30258,7 +30524,7 @@
       </c>
       <c r="K394" t="str">
         <f t="shared" si="6"/>
-        <v>[88783] = { true, false, true, false, true,true}, --Impaling Shards</v>
+        <v>[88783] = {true, false, true, false, true, true}, --Impaling Shards</v>
       </c>
     </row>
     <row r="395" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30294,7 +30560,7 @@
       </c>
       <c r="K395" t="str">
         <f t="shared" si="6"/>
-        <v>[88860] = { true, false, true, false, true,true}, --Northern Storm</v>
+        <v>[88860] = {true, false, true, false, true, true}, --Northern Storm</v>
       </c>
     </row>
     <row r="396" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30330,7 +30596,7 @@
       </c>
       <c r="K396" t="str">
         <f t="shared" si="6"/>
-        <v>[88863] = { true, true, false, false, true,true}, --Permafrost</v>
+        <v>[88863] = {true, true, false, false, true, true}, --Permafrost</v>
       </c>
     </row>
     <row r="397" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30366,7 +30632,7 @@
       </c>
       <c r="K397" t="str">
         <f t="shared" si="6"/>
-        <v>[94411] = { true, true, false, false, true,true}, --Scorch</v>
+        <v>[94411] = {true, true, false, false, true, true}, --Scorch</v>
       </c>
     </row>
     <row r="398" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30402,7 +30668,7 @@
       </c>
       <c r="K398" t="str">
         <f t="shared" si="6"/>
-        <v>[86003] = { true, true, false, false, true,true}, --Screaming Cliff Racer</v>
+        <v>[86003] = {true, true, false, false, true, true}, --Screaming Cliff Racer</v>
       </c>
     </row>
     <row r="399" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30438,7 +30704,7 @@
       </c>
       <c r="K399" t="str">
         <f t="shared" si="6"/>
-        <v>[86247] = { true, false, true, false, true,true}, --Sleet Storm</v>
+        <v>[86247] = {true, false, true, false, true, true}, --Sleet Storm</v>
       </c>
     </row>
     <row r="400" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30474,7 +30740,7 @@
       </c>
       <c r="K400" t="str">
         <f t="shared" si="6"/>
-        <v>[94445] = { true, true, false, false, true,true}, --Subterranean Assault</v>
+        <v>[94445] = {true, true, false, false, true, true}, --Subterranean Assault</v>
       </c>
     </row>
     <row r="401" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30510,7 +30776,7 @@
       </c>
       <c r="K401" t="str">
         <f t="shared" si="6"/>
-        <v>[101703] = { true, false, true, false, true,true}, --Swarm</v>
+        <v>[101703] = {true, false, true, false, true, true}, --Swarm</v>
       </c>
     </row>
     <row r="402" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30546,7 +30812,7 @@
       </c>
       <c r="K402" t="str">
         <f t="shared" si="6"/>
-        <v>[105906] = { true, true, false, false, true,true}, --Swipe (pet)</v>
+        <v>[105906] = {true, true, false, false, true, true}, --Swipe (pet)</v>
       </c>
     </row>
     <row r="403" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30582,7 +30848,7 @@
       </c>
       <c r="K403" t="str">
         <f t="shared" si="6"/>
-        <v>[89135] = { true, true, false, false, true,true}, --Swipe (pet)</v>
+        <v>[89135] = {true, true, false, false, true, true}, --Swipe (pet)</v>
       </c>
     </row>
     <row r="404" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30618,7 +30884,7 @@
       </c>
       <c r="K404" t="str">
         <f t="shared" si="6"/>
-        <v>[89219] = { true, true, false, false, true,true}, --Swipe (pet)</v>
+        <v>[89219] = {true, true, false, false, true, true}, --Swipe (pet)</v>
       </c>
     </row>
     <row r="405" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30654,7 +30920,7 @@
       </c>
       <c r="K405" t="str">
         <f t="shared" si="6"/>
-        <v>[88802] = { true, false, true, false, true,true}, --Winters Revenge</v>
+        <v>[88802] = {true, false, true, false, true, true}, --Winters Revenge</v>
       </c>
     </row>
     <row r="406" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30690,7 +30956,7 @@
       </c>
       <c r="K406" t="str">
         <f t="shared" si="6"/>
-        <v>[39109] = { true, true, false, false, true,true}, --Brutal Pounce</v>
+        <v>[39109] = {true, true, false, false, true, true}, --Brutal Pounce</v>
       </c>
     </row>
     <row r="407" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30726,7 +30992,7 @@
       </c>
       <c r="K407" t="str">
         <f t="shared" si="6"/>
-        <v>[58864] = { true, true, false, false, true,true}, --Claws of Anguish</v>
+        <v>[58864] = {true, true, false, false, true, true}, --Claws of Anguish</v>
       </c>
     </row>
     <row r="408" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30762,7 +31028,7 @@
       </c>
       <c r="K408" t="str">
         <f t="shared" si="6"/>
-        <v>[58879] = { true, true, false, false, true,true}, --Claws of Life</v>
+        <v>[58879] = {true, true, false, false, true, true}, --Claws of Life</v>
       </c>
     </row>
     <row r="409" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30798,7 +31064,7 @@
       </c>
       <c r="K409" t="str">
         <f t="shared" si="6"/>
-        <v>[39107] = { true, true, false, false, true,true}, --Feral Pounce</v>
+        <v>[39107] = {true, true, false, false, true, true}, --Feral Pounce</v>
       </c>
     </row>
     <row r="410" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30834,7 +31100,7 @@
       </c>
       <c r="K410" t="str">
         <f t="shared" si="6"/>
-        <v>[80189] = { true, true, false, false, true,true}, --Gnash (Pact Leader)</v>
+        <v>[80189] = {true, true, false, false, true, true}, --Gnash (Pact Leader)</v>
       </c>
     </row>
     <row r="411" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30870,7 +31136,7 @@
       </c>
       <c r="K411" t="str">
         <f t="shared" si="6"/>
-        <v>[80190] = { true, true, false, false, true,true}, --Gnash (Pact Leader)</v>
+        <v>[80190] = {true, true, false, false, true, true}, --Gnash (Pact Leader)</v>
       </c>
     </row>
     <row r="412" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30906,7 +31172,7 @@
       </c>
       <c r="K412" t="str">
         <f t="shared" si="6"/>
-        <v>[32494] = { true, true, false, true, true,true}, --Heavy Attack (Splash)</v>
+        <v>[32494] = {true, true, false, true, true, true}, --Heavy Attack (Splash)</v>
       </c>
     </row>
     <row r="413" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30942,7 +31208,7 @@
       </c>
       <c r="K413" t="str">
         <f t="shared" si="6"/>
-        <v>[32480] = { true, true, false, true, true,true}, --Heavy Attack Werewolf</v>
+        <v>[32480] = {true, true, false, true, true, true}, --Heavy Attack Werewolf</v>
       </c>
     </row>
     <row r="414" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30978,7 +31244,7 @@
       </c>
       <c r="K414" t="str">
         <f t="shared" si="6"/>
-        <v>[58798] = { true, true, false, false, true,true}, --Howl of Agony</v>
+        <v>[58798] = {true, true, false, false, true, true}, --Howl of Agony</v>
       </c>
     </row>
     <row r="415" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31014,7 +31280,7 @@
       </c>
       <c r="K415" t="str">
         <f t="shared" si="6"/>
-        <v>[58742] = { true, true, false, false, true,true}, --Howl of Dispair</v>
+        <v>[58742] = {true, true, false, false, true, true}, --Howl of Dispair</v>
       </c>
     </row>
     <row r="416" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31050,7 +31316,7 @@
       </c>
       <c r="K416" t="str">
         <f t="shared" si="6"/>
-        <v>[58856] = { true, false, true, false, false,true}, --Infection</v>
+        <v>[58856] = {true, false, true, false, false, true}, --Infection</v>
       </c>
     </row>
     <row r="417" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31086,7 +31352,7 @@
       </c>
       <c r="K417" t="str">
         <f t="shared" si="6"/>
-        <v>[58855] = { true, true, false, false, true,true}, --Infectious Claws</v>
+        <v>[58855] = {true, true, false, false, true, true}, --Infectious Claws</v>
       </c>
     </row>
     <row r="418" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31122,7 +31388,7 @@
       </c>
       <c r="K418" t="str">
         <f t="shared" si="6"/>
-        <v>[32464] = { true, true, false, true, true,true}, --Light Attack</v>
+        <v>[32464] = {true, true, false, true, true, true}, --Light Attack</v>
       </c>
     </row>
     <row r="419" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31158,7 +31424,7 @@
       </c>
       <c r="K419" t="str">
         <f t="shared" si="6"/>
-        <v>[80184] = { true, true, false, false, true,true}, --Lunge (Pact Leader)</v>
+        <v>[80184] = {true, true, false, false, true, true}, --Lunge (Pact Leader)</v>
       </c>
     </row>
     <row r="420" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31194,7 +31460,7 @@
       </c>
       <c r="K420" t="str">
         <f t="shared" si="6"/>
-        <v>[58405] = { true, true, false, false, true,true}, --Piercing Howl</v>
+        <v>[58405] = {true, true, false, false, true, true}, --Piercing Howl</v>
       </c>
     </row>
     <row r="421" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31230,7 +31496,7 @@
       </c>
       <c r="K421" t="str">
         <f t="shared" si="6"/>
-        <v>[32645] = { true, true, false, false, true,true}, --Pounce</v>
+        <v>[32645] = {true, true, false, false, true, true}, --Pounce</v>
       </c>
     </row>
     <row r="422" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31266,7 +31532,7 @@
       </c>
       <c r="K422" t="str">
         <f t="shared" si="6"/>
-        <v>[89147] = { true, false, true, false, true,false}, --Werewolf Berserker Bleed</v>
+        <v>[89147] = {true, false, true, false, true, false}, --Werewolf Berserker Bleed</v>
       </c>
     </row>
     <row r="423" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31302,7 +31568,223 @@
       </c>
       <c r="K423" t="str">
         <f t="shared" si="6"/>
-        <v>[89146] = { true, false, true, false, true,false}, --Werewolf Bleed</v>
+        <v>[89146] = {true, false, true, false, true, false}, --Werewolf Bleed</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B424" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C424" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D424" s="13">
+        <v>21970</v>
+      </c>
+      <c r="E424" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F424" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G424" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H424" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I424" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J424" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K424" t="str">
+        <f t="shared" si="6"/>
+        <v>[21970] = {true, true, false, false, true, true}, --Bash</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B425" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C425" s="12">
+        <v>103878</v>
+      </c>
+      <c r="D425" s="13">
+        <v>103881</v>
+      </c>
+      <c r="E425" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F425" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G425" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H425" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I425" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J425" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K425" t="str">
+        <f t="shared" si="6"/>
+        <v>[103881] = {true, true, false, false, true, true}, --Spell Orb (physical)</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B426" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C426" s="12">
+        <v>103483</v>
+      </c>
+      <c r="D426" s="13">
+        <v>103485</v>
+      </c>
+      <c r="E426" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F426" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G426" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H426" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I426" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J426" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K426" t="str">
+        <f t="shared" si="6"/>
+        <v>[103485] = {true, true, false, false, true, true}, --Imbue Weapon</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B427" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C427" s="12">
+        <v>103571</v>
+      </c>
+      <c r="D427" s="13">
+        <v>103572</v>
+      </c>
+      <c r="E427" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F427" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G427" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H427" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I427" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J427" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K427" t="str">
+        <f t="shared" si="6"/>
+        <v>[103572] = {true, true, false, false, true, true}, --Elemental Weapon</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B428" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C428" s="12">
+        <v>103623</v>
+      </c>
+      <c r="D428" s="13">
+        <v>103626</v>
+      </c>
+      <c r="E428" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F428" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G428" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H428" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I428" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J428" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K428" t="str">
+        <f t="shared" si="6"/>
+        <v>[103626] = {true, true, false, false, true, true}, --Crushing Weapon</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B429" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C429" s="12">
+        <v>103878</v>
+      </c>
+      <c r="D429" s="13">
+        <v>103880</v>
+      </c>
+      <c r="E429" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F429" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G429" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H429" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I429" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J429" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K429" t="str">
+        <f t="shared" si="6"/>
+        <v>[103880] = {true, true, false, false, true, true}, --Spell Orb (magic)</v>
       </c>
     </row>
   </sheetData>

--- a/CPData.xlsx
+++ b/CPData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dk-mi\Documents\ESOdev\Constellations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8312FF3-F9A9-4C40-AD9C-01D303EA4E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33260B0-CE26-4AA3-9E62-22B3CC50A2AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="481">
   <si>
     <t>Points</t>
   </si>
@@ -1482,6 +1487,9 @@
   </si>
   <si>
     <t>Master - at - Arms</t>
+  </si>
+  <si>
+    <t>Radiant Glory</t>
   </si>
 </sst>
 </file>
@@ -15888,7 +15896,7 @@
         <v>3754</v>
       </c>
       <c r="G175" s="24">
-        <f t="shared" ref="G175:G190" si="13">F175/E175/N$2/1.52-1</f>
+        <f t="shared" ref="G175:G187" si="13">F175/E175/N$2/1.52-1</f>
         <v>4.9691909359750541E-2</v>
       </c>
       <c r="H175" t="b">
@@ -16514,7 +16522,7 @@
         <v>3248</v>
       </c>
       <c r="G194" s="24">
-        <f t="shared" ref="G194:G196" si="14">F194/E194/N$196-1</f>
+        <f t="shared" ref="G194:G195" si="14">F194/E194/N$196-1</f>
         <v>4.9728463186821115E-2</v>
       </c>
       <c r="H194" t="b">
@@ -16664,8 +16672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K435"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K436" sqref="K5:K436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16777,7 +16785,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K3:K66" si="0">CONCATENATE("[",D5,"] = {",LOWER(E5),", ",LOWER(F5),", ",LOWER(G5),", ",LOWER(H5),", ",LOWER(I5),", ",LOWER(J5),"}, --",B5)</f>
+        <f t="shared" ref="K5:K66" si="0">CONCATENATE("[",D5,"] = {",LOWER(E5),", ",LOWER(F5),", ",LOWER(G5),", ",LOWER(H5),", ",LOWER(I5),", ",LOWER(J5),"}, --",B5)</f>
         <v>[40267] = {true, false, true, false, true, true}, --Anti-Calvary Caltrops</v>
       </c>
     </row>
@@ -28702,22 +28710,22 @@
         <v>92</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>24</v>
+        <v>480</v>
       </c>
       <c r="C337" s="12">
-        <v>22182</v>
+        <v>63044</v>
       </c>
       <c r="D337" s="13">
-        <v>22182</v>
+        <v>63956</v>
       </c>
       <c r="E337" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F337" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G337" s="15" t="b">
-        <v>0</v>
+      <c r="F337" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G337" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H337" s="15" t="b">
         <v>0</v>
@@ -28730,7 +28738,7 @@
       </c>
       <c r="K337" t="str">
         <f t="shared" si="5"/>
-        <v>[22182] = {true, true, false, false, true, true}, --Radiant Ward</v>
+        <v>[63956] = {true, false, true, false, true, true}, --Radiant Glory</v>
       </c>
     </row>
     <row r="338" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28738,13 +28746,13 @@
         <v>92</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C338" s="12">
-        <v>21732</v>
+        <v>22182</v>
       </c>
       <c r="D338" s="13">
-        <v>21732</v>
+        <v>22182</v>
       </c>
       <c r="E338" s="14" t="b">
         <v>1</v>
@@ -28766,7 +28774,7 @@
       </c>
       <c r="K338" t="str">
         <f t="shared" si="5"/>
-        <v>[21732] = {true, true, false, false, true, true}, --Reflective Light</v>
+        <v>[22182] = {true, true, false, false, true, true}, --Radiant Ward</v>
       </c>
     </row>
     <row r="339" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28774,22 +28782,22 @@
         <v>92</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C339" s="12">
         <v>21732</v>
       </c>
       <c r="D339" s="13">
-        <v>21734</v>
+        <v>21732</v>
       </c>
       <c r="E339" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F339" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G339" s="14" t="b">
-        <v>1</v>
+      <c r="F339" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G339" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H339" s="15" t="b">
         <v>0</v>
@@ -28802,7 +28810,7 @@
       </c>
       <c r="K339" t="str">
         <f t="shared" si="5"/>
-        <v>[21734] = {true, false, true, false, true, true}, --Reflective Light (dot)</v>
+        <v>[21732] = {true, true, false, false, true, true}, --Reflective Light</v>
       </c>
     </row>
     <row r="340" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28810,13 +28818,13 @@
         <v>92</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C340" s="12">
-        <v>22259</v>
+        <v>21732</v>
       </c>
       <c r="D340" s="13">
-        <v>80172</v>
+        <v>21734</v>
       </c>
       <c r="E340" s="14" t="b">
         <v>1</v>
@@ -28838,7 +28846,7 @@
       </c>
       <c r="K340" t="str">
         <f t="shared" si="5"/>
-        <v>[80172] = {true, false, true, false, true, true}, --Ritual of Retribution</v>
+        <v>[21734] = {true, false, true, false, true, true}, --Reflective Light (dot)</v>
       </c>
     </row>
     <row r="341" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28846,22 +28854,22 @@
         <v>92</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C341" s="12">
-        <v>22095</v>
+        <v>22259</v>
       </c>
       <c r="D341" s="13">
-        <v>100218</v>
+        <v>80172</v>
       </c>
       <c r="E341" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F341" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G341" s="15" t="b">
-        <v>0</v>
+      <c r="F341" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G341" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H341" s="15" t="b">
         <v>0</v>
@@ -28874,7 +28882,7 @@
       </c>
       <c r="K341" t="str">
         <f t="shared" si="5"/>
-        <v>[100218] = {true, true, false, false, true, true}, --Solar Barrage</v>
+        <v>[80172] = {true, false, true, false, true, true}, --Ritual of Retribution</v>
       </c>
     </row>
     <row r="342" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28882,22 +28890,22 @@
         <v>92</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="C342" s="12">
-        <v>21758</v>
+        <v>22095</v>
       </c>
       <c r="D342" s="13">
-        <v>21759</v>
+        <v>100218</v>
       </c>
       <c r="E342" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F342" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G342" s="14" t="b">
-        <v>1</v>
+      <c r="F342" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G342" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H342" s="15" t="b">
         <v>0</v>
@@ -28910,7 +28918,7 @@
       </c>
       <c r="K342" t="str">
         <f t="shared" si="5"/>
-        <v>[21759] = {true, false, true, false, true, true}, --Solar Disturbance</v>
+        <v>[100218] = {true, true, false, false, true, true}, --Solar Barrage</v>
       </c>
     </row>
     <row r="343" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28918,13 +28926,13 @@
         <v>92</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C343" s="12">
-        <v>21755</v>
+        <v>21758</v>
       </c>
       <c r="D343" s="13">
-        <v>21756</v>
+        <v>21759</v>
       </c>
       <c r="E343" s="14" t="b">
         <v>1</v>
@@ -28946,7 +28954,7 @@
       </c>
       <c r="K343" t="str">
         <f t="shared" si="5"/>
-        <v>[21756] = {true, false, true, false, true, true}, --Solar Prison</v>
+        <v>[21759] = {true, false, true, false, true, true}, --Solar Disturbance</v>
       </c>
     </row>
     <row r="344" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28954,22 +28962,22 @@
         <v>92</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="C344" s="12">
-        <v>21726</v>
+        <v>21755</v>
       </c>
       <c r="D344" s="13">
-        <v>21726</v>
+        <v>21756</v>
       </c>
       <c r="E344" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F344" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G344" s="15" t="b">
-        <v>0</v>
+      <c r="F344" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G344" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H344" s="15" t="b">
         <v>0</v>
@@ -28982,7 +28990,7 @@
       </c>
       <c r="K344" t="str">
         <f t="shared" si="5"/>
-        <v>[21726] = {true, true, false, false, true, true}, --Sun Fire</v>
+        <v>[21756] = {true, false, true, false, true, true}, --Solar Prison</v>
       </c>
     </row>
     <row r="345" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28990,22 +28998,22 @@
         <v>92</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C345" s="12">
         <v>21726</v>
       </c>
       <c r="D345" s="13">
-        <v>21728</v>
+        <v>21726</v>
       </c>
       <c r="E345" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F345" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G345" s="14" t="b">
-        <v>1</v>
+      <c r="F345" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G345" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H345" s="15" t="b">
         <v>0</v>
@@ -29018,7 +29026,7 @@
       </c>
       <c r="K345" t="str">
         <f t="shared" si="5"/>
-        <v>[21728] = {true, false, true, false, true, true}, --Sun Fire (DoT)</v>
+        <v>[21726] = {true, true, false, false, true, true}, --Sun Fire</v>
       </c>
     </row>
     <row r="346" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29026,22 +29034,22 @@
         <v>92</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C346" s="12">
-        <v>22178</v>
+        <v>21726</v>
       </c>
       <c r="D346" s="13">
-        <v>22178</v>
+        <v>21728</v>
       </c>
       <c r="E346" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F346" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G346" s="15" t="b">
-        <v>0</v>
+      <c r="F346" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G346" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H346" s="15" t="b">
         <v>0</v>
@@ -29054,7 +29062,7 @@
       </c>
       <c r="K346" t="str">
         <f t="shared" si="5"/>
-        <v>[22178] = {true, true, false, false, true, true}, --Sun Shield</v>
+        <v>[21728] = {true, false, true, false, true, true}, --Sun Fire (DoT)</v>
       </c>
     </row>
     <row r="347" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29062,13 +29070,13 @@
         <v>92</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="C347" s="12">
-        <v>15540</v>
+        <v>22178</v>
       </c>
       <c r="D347" s="13">
-        <v>15544</v>
+        <v>22178</v>
       </c>
       <c r="E347" s="14" t="b">
         <v>1</v>
@@ -29090,7 +29098,7 @@
       </c>
       <c r="K347" t="str">
         <f t="shared" si="5"/>
-        <v>[15544] = {true, true, false, false, true, true}, --Toppling Charge</v>
+        <v>[22178] = {true, true, false, false, true, true}, --Sun Shield</v>
       </c>
     </row>
     <row r="348" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29098,13 +29106,13 @@
         <v>92</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C348" s="12">
-        <v>22006</v>
+        <v>15540</v>
       </c>
       <c r="D348" s="13">
-        <v>68729</v>
+        <v>15544</v>
       </c>
       <c r="E348" s="14" t="b">
         <v>1</v>
@@ -29126,7 +29134,7 @@
       </c>
       <c r="K348" t="str">
         <f t="shared" si="5"/>
-        <v>[68729] = {true, true, false, false, true, true}, --Total Dark</v>
+        <v>[15544] = {true, true, false, false, true, true}, --Toppling Charge</v>
       </c>
     </row>
     <row r="349" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29134,13 +29142,13 @@
         <v>92</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C349" s="12">
-        <v>22004</v>
+        <v>22006</v>
       </c>
       <c r="D349" s="13">
-        <v>22005</v>
+        <v>68729</v>
       </c>
       <c r="E349" s="14" t="b">
         <v>1</v>
@@ -29162,7 +29170,7 @@
       </c>
       <c r="K349" t="str">
         <f t="shared" si="5"/>
-        <v>[22005] = {true, true, false, false, true, true}, --Unstable Core</v>
+        <v>[68729] = {true, true, false, false, true, true}, --Total Dark</v>
       </c>
     </row>
     <row r="350" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29170,13 +29178,13 @@
         <v>92</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="C350" s="12">
-        <v>21729</v>
+        <v>22004</v>
       </c>
       <c r="D350" s="13">
-        <v>21729</v>
+        <v>22005</v>
       </c>
       <c r="E350" s="14" t="b">
         <v>1</v>
@@ -29198,7 +29206,7 @@
       </c>
       <c r="K350" t="str">
         <f t="shared" si="5"/>
-        <v>[21729] = {true, true, false, false, true, true}, --Vampires Bane</v>
+        <v>[22005] = {true, true, false, false, true, true}, --Unstable Core</v>
       </c>
     </row>
     <row r="351" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29206,22 +29214,22 @@
         <v>92</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C351" s="12">
         <v>21729</v>
       </c>
       <c r="D351" s="13">
-        <v>21731</v>
+        <v>21729</v>
       </c>
       <c r="E351" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F351" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G351" s="14" t="b">
-        <v>1</v>
+      <c r="F351" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G351" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H351" s="15" t="b">
         <v>0</v>
@@ -29234,30 +29242,30 @@
       </c>
       <c r="K351" t="str">
         <f t="shared" si="5"/>
-        <v>[21731] = {true, false, true, false, true, true}, --Vampires Bane (dot)</v>
+        <v>[21729] = {true, true, false, false, true, true}, --Vampires Bane</v>
       </c>
     </row>
     <row r="352" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="10" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="C352" s="12">
-        <v>83238</v>
+        <v>21729</v>
       </c>
       <c r="D352" s="13">
-        <v>83238</v>
+        <v>21731</v>
       </c>
       <c r="E352" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F352" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G352" s="15" t="b">
-        <v>0</v>
+      <c r="F352" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G352" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H352" s="15" t="b">
         <v>0</v>
@@ -29265,12 +29273,12 @@
       <c r="I352" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J352" s="15" t="b">
-        <v>0</v>
+      <c r="J352" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="K352" t="str">
         <f t="shared" si="5"/>
-        <v>[83238] = {true, true, false, false, true, false}, --Berserker Rage</v>
+        <v>[21731] = {true, false, true, false, true, true}, --Vampires Bane (dot)</v>
       </c>
     </row>
     <row r="353" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29278,13 +29286,13 @@
         <v>139</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>393</v>
+        <v>144</v>
       </c>
       <c r="C353" s="12">
-        <v>83216</v>
+        <v>83238</v>
       </c>
       <c r="D353" s="13">
-        <v>83216</v>
+        <v>83238</v>
       </c>
       <c r="E353" s="14" t="b">
         <v>1</v>
@@ -29306,7 +29314,7 @@
       </c>
       <c r="K353" t="str">
         <f t="shared" si="5"/>
-        <v>[83216] = {true, true, false, false, true, false}, --Berserker Strike</v>
+        <v>[83238] = {true, true, false, false, true, false}, --Berserker Rage</v>
       </c>
     </row>
     <row r="354" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29314,13 +29322,13 @@
         <v>139</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>154</v>
+        <v>393</v>
       </c>
       <c r="C354" s="12">
-        <v>38754</v>
+        <v>83216</v>
       </c>
       <c r="D354" s="13">
-        <v>38754</v>
+        <v>83216</v>
       </c>
       <c r="E354" s="14" t="b">
         <v>1</v>
@@ -29337,12 +29345,12 @@
       <c r="I354" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J354" s="14" t="b">
-        <v>1</v>
+      <c r="J354" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="K354" t="str">
         <f t="shared" si="5"/>
-        <v>[38754] = {true, true, false, false, true, true}, --Brawler</v>
+        <v>[83216] = {true, true, false, false, true, false}, --Berserker Strike</v>
       </c>
     </row>
     <row r="355" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29350,22 +29358,22 @@
         <v>139</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C355" s="12">
         <v>38754</v>
       </c>
       <c r="D355" s="13">
-        <v>38759</v>
+        <v>38754</v>
       </c>
       <c r="E355" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F355" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G355" s="14" t="b">
-        <v>1</v>
+      <c r="F355" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G355" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H355" s="15" t="b">
         <v>0</v>
@@ -29373,12 +29381,12 @@
       <c r="I355" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J355" s="15" t="b">
-        <v>0</v>
+      <c r="J355" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="K355" t="str">
         <f t="shared" si="5"/>
-        <v>[38759] = {true, false, true, false, true, false}, --Brawler Bleed</v>
+        <v>[38754] = {true, true, false, false, true, true}, --Brawler</v>
       </c>
     </row>
     <row r="356" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29386,22 +29394,22 @@
         <v>139</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C356" s="12">
-        <v>38745</v>
+        <v>38754</v>
       </c>
       <c r="D356" s="13">
-        <v>38745</v>
+        <v>38759</v>
       </c>
       <c r="E356" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F356" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G356" s="15" t="b">
-        <v>0</v>
+      <c r="F356" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G356" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H356" s="15" t="b">
         <v>0</v>
@@ -29409,12 +29417,12 @@
       <c r="I356" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J356" s="14" t="b">
-        <v>1</v>
+      <c r="J356" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="K356" t="str">
         <f t="shared" si="5"/>
-        <v>[38745] = {true, true, false, false, true, true}, --Carve</v>
+        <v>[38759] = {true, false, true, false, true, false}, --Brawler Bleed</v>
       </c>
     </row>
     <row r="357" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29422,22 +29430,22 @@
         <v>139</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C357" s="12">
         <v>38745</v>
       </c>
       <c r="D357" s="13">
-        <v>38747</v>
+        <v>38745</v>
       </c>
       <c r="E357" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F357" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G357" s="14" t="b">
-        <v>1</v>
+      <c r="F357" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G357" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H357" s="15" t="b">
         <v>0</v>
@@ -29445,12 +29453,12 @@
       <c r="I357" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J357" s="15" t="b">
-        <v>0</v>
+      <c r="J357" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="K357" t="str">
         <f t="shared" si="5"/>
-        <v>[38747] = {true, false, true, false, true, false}, --Carve Bleed</v>
+        <v>[38745] = {true, true, false, false, true, true}, --Carve</v>
       </c>
     </row>
     <row r="358" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29458,22 +29466,22 @@
         <v>139</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>390</v>
+        <v>106</v>
       </c>
       <c r="C358" s="12">
-        <v>20919</v>
+        <v>38745</v>
       </c>
       <c r="D358" s="13">
-        <v>20919</v>
+        <v>38747</v>
       </c>
       <c r="E358" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F358" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G358" s="15" t="b">
-        <v>0</v>
+      <c r="F358" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G358" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H358" s="15" t="b">
         <v>0</v>
@@ -29481,12 +29489,12 @@
       <c r="I358" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J358" s="14" t="b">
-        <v>1</v>
+      <c r="J358" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="K358" t="str">
         <f t="shared" si="5"/>
-        <v>[20919] = {true, true, false, false, true, true}, --Cleave</v>
+        <v>[38747] = {true, false, true, false, true, false}, --Carve Bleed</v>
       </c>
     </row>
     <row r="359" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29494,22 +29502,22 @@
         <v>139</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C359" s="12">
         <v>20919</v>
       </c>
       <c r="D359" s="13">
-        <v>31059</v>
+        <v>20919</v>
       </c>
       <c r="E359" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F359" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G359" s="14" t="b">
-        <v>1</v>
+      <c r="F359" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G359" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H359" s="15" t="b">
         <v>0</v>
@@ -29517,12 +29525,12 @@
       <c r="I359" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J359" s="15" t="b">
-        <v>0</v>
+      <c r="J359" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="K359" t="str">
         <f t="shared" si="5"/>
-        <v>[31059] = {true, false, true, false, true, false}, --Cleave Bleed</v>
+        <v>[20919] = {true, true, false, false, true, true}, --Cleave</v>
       </c>
     </row>
     <row r="360" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29530,22 +29538,22 @@
         <v>139</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C360" s="12">
-        <v>28448</v>
+        <v>20919</v>
       </c>
       <c r="D360" s="13">
-        <v>28449</v>
+        <v>31059</v>
       </c>
       <c r="E360" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F360" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G360" s="15" t="b">
-        <v>0</v>
+      <c r="F360" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G360" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H360" s="15" t="b">
         <v>0</v>
@@ -29553,12 +29561,12 @@
       <c r="I360" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J360" s="14" t="b">
-        <v>1</v>
+      <c r="J360" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="K360" t="str">
         <f t="shared" si="5"/>
-        <v>[28449] = {true, true, false, false, true, true}, --Critical Charge</v>
+        <v>[31059] = {true, false, true, false, true, false}, --Cleave Bleed</v>
       </c>
     </row>
     <row r="361" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29566,13 +29574,13 @@
         <v>139</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>145</v>
+        <v>389</v>
       </c>
       <c r="C361" s="12">
-        <v>38778</v>
+        <v>28448</v>
       </c>
       <c r="D361" s="13">
-        <v>38782</v>
+        <v>28449</v>
       </c>
       <c r="E361" s="14" t="b">
         <v>1</v>
@@ -29594,7 +29602,7 @@
       </c>
       <c r="K361" t="str">
         <f t="shared" si="5"/>
-        <v>[38782] = {true, true, false, false, true, true}, --Critical Rush</v>
+        <v>[28449] = {true, true, false, false, true, true}, --Critical Charge</v>
       </c>
     </row>
     <row r="362" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29602,13 +29610,13 @@
         <v>139</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="C362" s="12">
-        <v>38814</v>
+        <v>38778</v>
       </c>
       <c r="D362" s="13">
-        <v>38814</v>
+        <v>38782</v>
       </c>
       <c r="E362" s="14" t="b">
         <v>1</v>
@@ -29630,7 +29638,7 @@
       </c>
       <c r="K362" t="str">
         <f t="shared" si="5"/>
-        <v>[38814] = {true, true, false, false, true, true}, --Dizzying Swing</v>
+        <v>[38782] = {true, true, false, false, true, true}, --Critical Rush</v>
       </c>
     </row>
     <row r="363" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29638,13 +29646,13 @@
         <v>139</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="C363" s="12">
-        <v>38819</v>
+        <v>38814</v>
       </c>
       <c r="D363" s="13">
-        <v>38819</v>
+        <v>38814</v>
       </c>
       <c r="E363" s="14" t="b">
         <v>1</v>
@@ -29666,7 +29674,7 @@
       </c>
       <c r="K363" t="str">
         <f t="shared" si="5"/>
-        <v>[38819] = {true, true, false, false, true, true}, --Executioner</v>
+        <v>[38814] = {true, true, false, false, true, true}, --Dizzying Swing</v>
       </c>
     </row>
     <row r="364" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29674,13 +29682,13 @@
         <v>139</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C364" s="12">
-        <v>16041</v>
+        <v>38819</v>
       </c>
       <c r="D364" s="13">
-        <v>17163</v>
+        <v>38819</v>
       </c>
       <c r="E364" s="14" t="b">
         <v>1</v>
@@ -29691,8 +29699,8 @@
       <c r="G364" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="H364" s="14" t="b">
-        <v>1</v>
+      <c r="H364" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="I364" s="14" t="b">
         <v>1</v>
@@ -29702,7 +29710,7 @@
       </c>
       <c r="K364" t="str">
         <f t="shared" si="5"/>
-        <v>[17163] = {true, true, false, true, true, true}, --Heavy Attack (2H)</v>
+        <v>[38819] = {true, true, false, false, true, true}, --Executioner</v>
       </c>
     </row>
     <row r="365" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29710,13 +29718,13 @@
         <v>139</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>444</v>
+        <v>129</v>
       </c>
       <c r="C365" s="12">
         <v>16041</v>
       </c>
       <c r="D365" s="13">
-        <v>17162</v>
+        <v>17163</v>
       </c>
       <c r="E365" s="14" t="b">
         <v>1</v>
@@ -29738,7 +29746,7 @@
       </c>
       <c r="K365" t="str">
         <f t="shared" si="5"/>
-        <v>[17162] = {true, true, false, true, true, true}, --Heavy Attack (Medium, 2H)</v>
+        <v>[17163] = {true, true, false, true, true, true}, --Heavy Attack (2H)</v>
       </c>
     </row>
     <row r="366" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29746,35 +29754,35 @@
         <v>139</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="C366" s="12" t="s">
-        <v>33</v>
+        <v>444</v>
+      </c>
+      <c r="C366" s="12">
+        <v>16041</v>
       </c>
       <c r="D366" s="13">
-        <v>45431</v>
+        <v>17162</v>
       </c>
       <c r="E366" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F366" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G366" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H366" s="15" t="b">
-        <v>0</v>
+      <c r="F366" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G366" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H366" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="I366" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J366" s="15" t="b">
-        <v>0</v>
+      <c r="J366" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="K366" t="str">
         <f t="shared" si="5"/>
-        <v>[45431] = {true, false, true, false, true, false}, --Heavy Weapons Bleed</v>
+        <v>[17162] = {true, true, false, true, true, true}, --Heavy Attack (Medium, 2H)</v>
       </c>
     </row>
     <row r="367" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29782,35 +29790,35 @@
         <v>139</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C367" s="12">
-        <v>16037</v>
+        <v>394</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="D367" s="13">
-        <v>16037</v>
+        <v>45431</v>
       </c>
       <c r="E367" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F367" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G367" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H367" s="14" t="b">
-        <v>1</v>
+      <c r="F367" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G367" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H367" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="I367" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J367" s="14" t="b">
-        <v>1</v>
+      <c r="J367" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="K367" t="str">
         <f t="shared" si="5"/>
-        <v>[16037] = {true, true, false, true, true, true}, --Light Attack (2H)</v>
+        <v>[45431] = {true, false, true, false, true, false}, --Heavy Weapons Bleed</v>
       </c>
     </row>
     <row r="368" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29818,13 +29826,13 @@
         <v>139</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C368" s="12">
-        <v>83229</v>
+        <v>16037</v>
       </c>
       <c r="D368" s="13">
-        <v>83229</v>
+        <v>16037</v>
       </c>
       <c r="E368" s="14" t="b">
         <v>1</v>
@@ -29835,18 +29843,18 @@
       <c r="G368" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="H368" s="15" t="b">
-        <v>0</v>
+      <c r="H368" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="I368" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J368" s="15" t="b">
-        <v>0</v>
+      <c r="J368" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="K368" t="str">
         <f t="shared" si="5"/>
-        <v>[83229] = {true, true, false, false, true, false}, --Onslaught</v>
+        <v>[16037] = {true, true, false, true, true, true}, --Light Attack (2H)</v>
       </c>
     </row>
     <row r="369" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29854,13 +29862,13 @@
         <v>139</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>392</v>
+        <v>114</v>
       </c>
       <c r="C369" s="12">
-        <v>28302</v>
+        <v>83229</v>
       </c>
       <c r="D369" s="13">
-        <v>28302</v>
+        <v>83229</v>
       </c>
       <c r="E369" s="14" t="b">
         <v>1</v>
@@ -29877,12 +29885,12 @@
       <c r="I369" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J369" s="14" t="b">
-        <v>1</v>
+      <c r="J369" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="K369" t="str">
         <f t="shared" si="5"/>
-        <v>[28302] = {true, true, false, false, true, true}, --Reverse Slash</v>
+        <v>[83229] = {true, true, false, false, true, false}, --Onslaught</v>
       </c>
     </row>
     <row r="370" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29890,13 +29898,13 @@
         <v>139</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>110</v>
+        <v>392</v>
       </c>
       <c r="C370" s="12">
-        <v>38823</v>
+        <v>28302</v>
       </c>
       <c r="D370" s="13">
-        <v>38823</v>
+        <v>28302</v>
       </c>
       <c r="E370" s="14" t="b">
         <v>1</v>
@@ -29918,7 +29926,7 @@
       </c>
       <c r="K370" t="str">
         <f t="shared" si="5"/>
-        <v>[38823] = {true, true, false, false, true, true}, --Reverse Slice</v>
+        <v>[28302] = {true, true, false, false, true, true}, --Reverse Slash</v>
       </c>
     </row>
     <row r="371" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29926,13 +29934,13 @@
         <v>139</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="C371" s="12">
         <v>38823</v>
       </c>
       <c r="D371" s="13">
-        <v>38827</v>
+        <v>38823</v>
       </c>
       <c r="E371" s="14" t="b">
         <v>1</v>
@@ -29954,7 +29962,7 @@
       </c>
       <c r="K371" t="str">
         <f t="shared" si="5"/>
-        <v>[38827] = {true, true, false, false, true, true}, --Reverse Slice (2nd)</v>
+        <v>[38823] = {true, true, false, false, true, true}, --Reverse Slice</v>
       </c>
     </row>
     <row r="372" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29962,13 +29970,13 @@
         <v>139</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>108</v>
+        <v>395</v>
       </c>
       <c r="C372" s="12">
-        <v>38788</v>
+        <v>38823</v>
       </c>
       <c r="D372" s="13">
-        <v>38792</v>
+        <v>38827</v>
       </c>
       <c r="E372" s="14" t="b">
         <v>1</v>
@@ -29990,7 +29998,7 @@
       </c>
       <c r="K372" t="str">
         <f t="shared" si="5"/>
-        <v>[38792] = {true, true, false, false, true, true}, --Stampede</v>
+        <v>[38827] = {true, true, false, false, true, true}, --Reverse Slice (2nd)</v>
       </c>
     </row>
     <row r="373" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29998,13 +30006,13 @@
         <v>139</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>388</v>
+        <v>108</v>
       </c>
       <c r="C373" s="12">
-        <v>28279</v>
+        <v>38788</v>
       </c>
       <c r="D373" s="13">
-        <v>28279</v>
+        <v>38792</v>
       </c>
       <c r="E373" s="14" t="b">
         <v>1</v>
@@ -30026,7 +30034,7 @@
       </c>
       <c r="K373" t="str">
         <f t="shared" si="5"/>
-        <v>[28279] = {true, true, false, false, true, true}, --Uppercut</v>
+        <v>[38792] = {true, true, false, false, true, true}, --Stampede</v>
       </c>
     </row>
     <row r="374" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30034,13 +30042,13 @@
         <v>139</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>146</v>
+        <v>388</v>
       </c>
       <c r="C374" s="12">
-        <v>38807</v>
+        <v>28279</v>
       </c>
       <c r="D374" s="13">
-        <v>38807</v>
+        <v>28279</v>
       </c>
       <c r="E374" s="14" t="b">
         <v>1</v>
@@ -30062,21 +30070,21 @@
       </c>
       <c r="K374" t="str">
         <f t="shared" si="5"/>
-        <v>[38807] = {true, true, false, false, true, true}, --Wrecking Blow</v>
+        <v>[28279] = {true, true, false, false, true, true}, --Uppercut</v>
       </c>
     </row>
     <row r="375" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="10" t="s">
-        <v>396</v>
+        <v>139</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>397</v>
+        <v>146</v>
       </c>
       <c r="C375" s="12">
-        <v>42060</v>
+        <v>38807</v>
       </c>
       <c r="D375" s="13">
-        <v>42060</v>
+        <v>38807</v>
       </c>
       <c r="E375" s="14" t="b">
         <v>1</v>
@@ -30098,7 +30106,7 @@
       </c>
       <c r="K375" t="str">
         <f t="shared" si="5"/>
-        <v>[42060] = {true, true, false, false, true, true}, --Inner Beast</v>
+        <v>[38807] = {true, true, false, false, true, true}, --Wrecking Blow</v>
       </c>
     </row>
     <row r="376" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30106,13 +30114,13 @@
         <v>396</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C376" s="12">
-        <v>42056</v>
+        <v>42060</v>
       </c>
       <c r="D376" s="13">
-        <v>42056</v>
+        <v>42060</v>
       </c>
       <c r="E376" s="14" t="b">
         <v>1</v>
@@ -30134,7 +30142,7 @@
       </c>
       <c r="K376" t="str">
         <f t="shared" si="5"/>
-        <v>[42056] = {true, true, false, false, true, true}, --Inner Rage</v>
+        <v>[42060] = {true, true, false, false, true, true}, --Inner Beast</v>
       </c>
     </row>
     <row r="377" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30142,13 +30150,13 @@
         <v>396</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C377" s="12">
-        <v>41990</v>
+        <v>42056</v>
       </c>
       <c r="D377" s="13">
-        <v>80107</v>
+        <v>42056</v>
       </c>
       <c r="E377" s="14" t="b">
         <v>1</v>
@@ -30170,7 +30178,7 @@
       </c>
       <c r="K377" t="str">
         <f t="shared" si="5"/>
-        <v>[80107] = {true, true, false, false, true, true}, --Shadow Silk (not synergy)</v>
+        <v>[42056] = {true, true, false, false, true, true}, --Inner Rage</v>
       </c>
     </row>
     <row r="378" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30178,13 +30186,13 @@
         <v>396</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C378" s="12">
-        <v>42012</v>
+        <v>41990</v>
       </c>
       <c r="D378" s="13">
-        <v>80129</v>
+        <v>80107</v>
       </c>
       <c r="E378" s="14" t="b">
         <v>1</v>
@@ -30206,30 +30214,30 @@
       </c>
       <c r="K378" t="str">
         <f t="shared" si="5"/>
-        <v>[80129] = {true, true, false, false, true, true}, --Tangling Webs (not synergy)</v>
+        <v>[80107] = {true, true, false, false, true, true}, --Shadow Silk (not synergy)</v>
       </c>
     </row>
     <row r="379" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="10" t="s">
-        <v>276</v>
+        <v>396</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="C379" s="12">
-        <v>38956</v>
+        <v>42012</v>
       </c>
       <c r="D379" s="13">
-        <v>38956</v>
+        <v>80129</v>
       </c>
       <c r="E379" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F379" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G379" s="14" t="b">
-        <v>1</v>
+      <c r="F379" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G379" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H379" s="15" t="b">
         <v>0</v>
@@ -30242,7 +30250,7 @@
       </c>
       <c r="K379" t="str">
         <f t="shared" si="5"/>
-        <v>[38956] = {true, false, true, false, true, true}, --Accelerating Drain</v>
+        <v>[80129] = {true, true, false, false, true, true}, --Tangling Webs (not synergy)</v>
       </c>
     </row>
     <row r="380" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30250,13 +30258,13 @@
         <v>276</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C380" s="12">
-        <v>38965</v>
+        <v>38956</v>
       </c>
       <c r="D380" s="13">
-        <v>38968</v>
+        <v>38956</v>
       </c>
       <c r="E380" s="14" t="b">
         <v>1</v>
@@ -30278,7 +30286,7 @@
       </c>
       <c r="K380" t="str">
         <f t="shared" si="5"/>
-        <v>[38968] = {true, false, true, false, true, true}, --Baleful Mist</v>
+        <v>[38956] = {true, false, true, false, true, true}, --Accelerating Drain</v>
       </c>
     </row>
     <row r="381" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30286,13 +30294,13 @@
         <v>276</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C381" s="12">
-        <v>32624</v>
+        <v>38965</v>
       </c>
       <c r="D381" s="13">
-        <v>32625</v>
+        <v>38968</v>
       </c>
       <c r="E381" s="14" t="b">
         <v>1</v>
@@ -30314,7 +30322,7 @@
       </c>
       <c r="K381" t="str">
         <f t="shared" si="5"/>
-        <v>[32625] = {true, false, true, false, true, true}, --Bat Swarm</v>
+        <v>[38968] = {true, false, true, false, true, true}, --Baleful Mist</v>
       </c>
     </row>
     <row r="382" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30322,13 +30330,13 @@
         <v>276</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C382" s="12">
-        <v>38932</v>
+        <v>32624</v>
       </c>
       <c r="D382" s="13">
-        <v>38935</v>
+        <v>32625</v>
       </c>
       <c r="E382" s="14" t="b">
         <v>1</v>
@@ -30350,7 +30358,7 @@
       </c>
       <c r="K382" t="str">
         <f t="shared" si="5"/>
-        <v>[38935] = {true, false, true, false, true, true}, --Clouding Swarm</v>
+        <v>[32625] = {true, false, true, false, true, true}, --Bat Swarm</v>
       </c>
     </row>
     <row r="383" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30358,13 +30366,13 @@
         <v>276</v>
       </c>
       <c r="B383" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C383" s="12">
-        <v>38931</v>
+        <v>38932</v>
       </c>
       <c r="D383" s="13">
-        <v>38934</v>
+        <v>38935</v>
       </c>
       <c r="E383" s="14" t="b">
         <v>1</v>
@@ -30386,7 +30394,7 @@
       </c>
       <c r="K383" t="str">
         <f t="shared" si="5"/>
-        <v>[38934] = {true, false, true, false, true, true}, --Devouring Swarm</v>
+        <v>[38935] = {true, false, true, false, true, true}, --Clouding Swarm</v>
       </c>
     </row>
     <row r="384" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30394,13 +30402,13 @@
         <v>276</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C384" s="12">
-        <v>32893</v>
+        <v>38931</v>
       </c>
       <c r="D384" s="13">
-        <v>32893</v>
+        <v>38934</v>
       </c>
       <c r="E384" s="14" t="b">
         <v>1</v>
@@ -30422,7 +30430,7 @@
       </c>
       <c r="K384" t="str">
         <f t="shared" si="5"/>
-        <v>[32893] = {true, false, true, false, true, true}, --Drain Essence</v>
+        <v>[38934] = {true, false, true, false, true, true}, --Devouring Swarm</v>
       </c>
     </row>
     <row r="385" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30430,13 +30438,13 @@
         <v>276</v>
       </c>
       <c r="B385" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C385" s="12">
-        <v>38949</v>
+        <v>32893</v>
       </c>
       <c r="D385" s="13">
-        <v>38949</v>
+        <v>32893</v>
       </c>
       <c r="E385" s="14" t="b">
         <v>1</v>
@@ -30458,21 +30466,21 @@
       </c>
       <c r="K385" t="str">
         <f t="shared" si="5"/>
-        <v>[38949] = {true, false, true, false, true, true}, --Invigorating Drain</v>
+        <v>[32893] = {true, false, true, false, true, true}, --Drain Essence</v>
       </c>
     </row>
     <row r="386" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="10" t="s">
-        <v>93</v>
+        <v>276</v>
       </c>
       <c r="B386" s="11" t="s">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="C386" s="12">
-        <v>86156</v>
+        <v>38949</v>
       </c>
       <c r="D386" s="13">
-        <v>87256</v>
+        <v>38949</v>
       </c>
       <c r="E386" s="14" t="b">
         <v>1</v>
@@ -30494,7 +30502,7 @@
       </c>
       <c r="K386" t="str">
         <f t="shared" si="5"/>
-        <v>[87256] = {true, false, true, false, true, true}, --Arctic Blast</v>
+        <v>[38949] = {true, false, true, false, true, true}, --Invigorating Drain</v>
       </c>
     </row>
     <row r="387" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30502,22 +30510,22 @@
         <v>93</v>
       </c>
       <c r="B387" s="11" t="s">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="C387" s="12">
-        <v>85986</v>
+        <v>86156</v>
       </c>
       <c r="D387" s="13">
-        <v>105907</v>
+        <v>87256</v>
       </c>
       <c r="E387" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F387" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G387" s="15" t="b">
-        <v>0</v>
+      <c r="F387" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G387" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H387" s="15" t="b">
         <v>0</v>
@@ -30529,8 +30537,8 @@
         <v>1</v>
       </c>
       <c r="K387" t="str">
-        <f t="shared" ref="K387:K435" si="6">CONCATENATE("[",D387,"] = {",LOWER(E387),", ",LOWER(F387),", ",LOWER(G387),", ",LOWER(H387),", ",LOWER(I387),", ",LOWER(J387),"}, --",B387)</f>
-        <v>[105907] = {true, true, false, false, true, true}, --Crushing Swipe (pet)</v>
+        <f t="shared" ref="K387:K436" si="6">CONCATENATE("[",D387,"] = {",LOWER(E387),", ",LOWER(F387),", ",LOWER(G387),", ",LOWER(H387),", ",LOWER(I387),", ",LOWER(J387),"}, --",B387)</f>
+        <v>[87256] = {true, false, true, false, true, true}, --Arctic Blast</v>
       </c>
     </row>
     <row r="388" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30541,10 +30549,10 @@
         <v>250</v>
       </c>
       <c r="C388" s="12">
-        <v>85982</v>
+        <v>85986</v>
       </c>
       <c r="D388" s="13">
-        <v>89128</v>
+        <v>105907</v>
       </c>
       <c r="E388" s="14" t="b">
         <v>1</v>
@@ -30566,7 +30574,7 @@
       </c>
       <c r="K388" t="str">
         <f t="shared" si="6"/>
-        <v>[89128] = {true, true, false, false, true, true}, --Crushing Swipe (pet)</v>
+        <v>[105907] = {true, true, false, false, true, true}, --Crushing Swipe (pet)</v>
       </c>
     </row>
     <row r="389" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30577,10 +30585,10 @@
         <v>250</v>
       </c>
       <c r="C389" s="12">
-        <v>85990</v>
+        <v>85982</v>
       </c>
       <c r="D389" s="13">
-        <v>89220</v>
+        <v>89128</v>
       </c>
       <c r="E389" s="14" t="b">
         <v>1</v>
@@ -30602,7 +30610,7 @@
       </c>
       <c r="K389" t="str">
         <f t="shared" si="6"/>
-        <v>[89220] = {true, true, false, false, true, true}, --Crushing Swipe (pet)</v>
+        <v>[89128] = {true, true, false, false, true, true}, --Crushing Swipe (pet)</v>
       </c>
     </row>
     <row r="390" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30610,13 +30618,13 @@
         <v>93</v>
       </c>
       <c r="B390" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C390" s="12">
-        <v>85999</v>
+        <v>85990</v>
       </c>
       <c r="D390" s="13">
-        <v>85999</v>
+        <v>89220</v>
       </c>
       <c r="E390" s="14" t="b">
         <v>1</v>
@@ -30638,7 +30646,7 @@
       </c>
       <c r="K390" t="str">
         <f t="shared" si="6"/>
-        <v>[85999] = {true, true, false, false, true, true}, --Cutting Dive</v>
+        <v>[89220] = {true, true, false, false, true, true}, --Crushing Swipe (pet)</v>
       </c>
     </row>
     <row r="391" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30646,13 +30654,13 @@
         <v>93</v>
       </c>
       <c r="B391" s="11" t="s">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="C391" s="12">
-        <v>86015</v>
+        <v>85999</v>
       </c>
       <c r="D391" s="13">
-        <v>94424</v>
+        <v>85999</v>
       </c>
       <c r="E391" s="14" t="b">
         <v>1</v>
@@ -30674,7 +30682,7 @@
       </c>
       <c r="K391" t="str">
         <f t="shared" si="6"/>
-        <v>[94424] = {true, true, false, false, true, true}, --Deep Fissure</v>
+        <v>[85999] = {true, true, false, false, true, true}, --Cutting Dive</v>
       </c>
     </row>
     <row r="392" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30682,13 +30690,13 @@
         <v>93</v>
       </c>
       <c r="B392" s="11" t="s">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="C392" s="12">
-        <v>85995</v>
+        <v>86015</v>
       </c>
       <c r="D392" s="13">
-        <v>85995</v>
+        <v>94424</v>
       </c>
       <c r="E392" s="14" t="b">
         <v>1</v>
@@ -30710,7 +30718,7 @@
       </c>
       <c r="K392" t="str">
         <f t="shared" si="6"/>
-        <v>[85995] = {true, true, false, false, true, true}, --Dive</v>
+        <v>[94424] = {true, true, false, false, true, true}, --Deep Fissure</v>
       </c>
     </row>
     <row r="393" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30718,13 +30726,13 @@
         <v>93</v>
       </c>
       <c r="B393" s="11" t="s">
-        <v>252</v>
+        <v>401</v>
       </c>
       <c r="C393" s="12">
-        <v>86027</v>
+        <v>85995</v>
       </c>
       <c r="D393" s="13">
-        <v>101904</v>
+        <v>85995</v>
       </c>
       <c r="E393" s="14" t="b">
         <v>1</v>
@@ -30746,7 +30754,7 @@
       </c>
       <c r="K393" t="str">
         <f t="shared" si="6"/>
-        <v>[101904] = {true, true, false, false, true, true}, --Fetcher Infection</v>
+        <v>[85995] = {true, true, false, false, true, true}, --Dive</v>
       </c>
     </row>
     <row r="394" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30754,22 +30762,22 @@
         <v>93</v>
       </c>
       <c r="B394" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C394" s="12">
-        <v>86165</v>
+        <v>86027</v>
       </c>
       <c r="D394" s="13">
-        <v>88791</v>
+        <v>101904</v>
       </c>
       <c r="E394" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F394" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G394" s="14" t="b">
-        <v>1</v>
+      <c r="F394" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G394" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H394" s="15" t="b">
         <v>0</v>
@@ -30782,7 +30790,7 @@
       </c>
       <c r="K394" t="str">
         <f t="shared" si="6"/>
-        <v>[88791] = {true, false, true, false, true, true}, --Gripping Shards</v>
+        <v>[101904] = {true, true, false, false, true, true}, --Fetcher Infection</v>
       </c>
     </row>
     <row r="395" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30790,22 +30798,22 @@
         <v>93</v>
       </c>
       <c r="B395" s="11" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="C395" s="12">
-        <v>86031</v>
+        <v>86165</v>
       </c>
       <c r="D395" s="13">
-        <v>101944</v>
+        <v>88791</v>
       </c>
       <c r="E395" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F395" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G395" s="15" t="b">
-        <v>0</v>
+      <c r="F395" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G395" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H395" s="15" t="b">
         <v>0</v>
@@ -30818,7 +30826,7 @@
       </c>
       <c r="K395" t="str">
         <f t="shared" si="6"/>
-        <v>[101944] = {true, true, false, false, true, true}, --Growing Swarm</v>
+        <v>[88791] = {true, false, true, false, true, true}, --Gripping Shards</v>
       </c>
     </row>
     <row r="396" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30826,13 +30834,13 @@
         <v>93</v>
       </c>
       <c r="B396" s="11" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="C396" s="12">
-        <v>85990</v>
+        <v>86031</v>
       </c>
       <c r="D396" s="13">
-        <v>92160</v>
+        <v>101944</v>
       </c>
       <c r="E396" s="14" t="b">
         <v>1</v>
@@ -30854,7 +30862,7 @@
       </c>
       <c r="K396" t="str">
         <f t="shared" si="6"/>
-        <v>[92160] = {true, true, false, false, true, true}, --Guardian Savagery</v>
+        <v>[101944] = {true, true, false, false, true, true}, --Growing Swarm</v>
       </c>
     </row>
     <row r="397" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30862,13 +30870,13 @@
         <v>93</v>
       </c>
       <c r="B397" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C397" s="12">
-        <v>85986</v>
+        <v>85990</v>
       </c>
       <c r="D397" s="13">
-        <v>105921</v>
+        <v>92160</v>
       </c>
       <c r="E397" s="14" t="b">
         <v>1</v>
@@ -30890,7 +30898,7 @@
       </c>
       <c r="K397" t="str">
         <f t="shared" si="6"/>
-        <v>[105921] = {true, true, false, false, true, true}, --Guardian's Wrath (pet)</v>
+        <v>[92160] = {true, true, false, false, true, true}, --Guardian Savagery</v>
       </c>
     </row>
     <row r="398" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30901,10 +30909,10 @@
         <v>255</v>
       </c>
       <c r="C398" s="12">
-        <v>85982</v>
+        <v>85986</v>
       </c>
       <c r="D398" s="13">
-        <v>91974</v>
+        <v>105921</v>
       </c>
       <c r="E398" s="14" t="b">
         <v>1</v>
@@ -30926,7 +30934,7 @@
       </c>
       <c r="K398" t="str">
         <f t="shared" si="6"/>
-        <v>[91974] = {true, true, false, false, true, true}, --Guardian's Wrath (pet)</v>
+        <v>[105921] = {true, true, false, false, true, true}, --Guardian's Wrath (pet)</v>
       </c>
     </row>
     <row r="399" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30934,22 +30942,22 @@
         <v>93</v>
       </c>
       <c r="B399" s="11" t="s">
-        <v>402</v>
+        <v>255</v>
       </c>
       <c r="C399" s="12">
-        <v>86161</v>
+        <v>85982</v>
       </c>
       <c r="D399" s="13">
-        <v>88783</v>
+        <v>91974</v>
       </c>
       <c r="E399" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F399" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G399" s="14" t="b">
-        <v>1</v>
+      <c r="F399" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G399" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H399" s="15" t="b">
         <v>0</v>
@@ -30962,7 +30970,7 @@
       </c>
       <c r="K399" t="str">
         <f t="shared" si="6"/>
-        <v>[88783] = {true, false, true, false, true, true}, --Impaling Shards</v>
+        <v>[91974] = {true, true, false, false, true, true}, --Guardian's Wrath (pet)</v>
       </c>
     </row>
     <row r="400" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30970,13 +30978,13 @@
         <v>93</v>
       </c>
       <c r="B400" s="11" t="s">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="C400" s="12">
-        <v>86113</v>
+        <v>86161</v>
       </c>
       <c r="D400" s="13">
-        <v>88860</v>
+        <v>88783</v>
       </c>
       <c r="E400" s="14" t="b">
         <v>1</v>
@@ -30998,7 +31006,7 @@
       </c>
       <c r="K400" t="str">
         <f t="shared" si="6"/>
-        <v>[88860] = {true, false, true, false, true, true}, --Northern Storm</v>
+        <v>[88783] = {true, false, true, false, true, true}, --Impaling Shards</v>
       </c>
     </row>
     <row r="401" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31006,22 +31014,22 @@
         <v>93</v>
       </c>
       <c r="B401" s="11" t="s">
-        <v>256</v>
+        <v>83</v>
       </c>
       <c r="C401" s="12">
-        <v>86117</v>
+        <v>86113</v>
       </c>
       <c r="D401" s="13">
-        <v>88863</v>
+        <v>88860</v>
       </c>
       <c r="E401" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F401" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G401" s="15" t="b">
-        <v>0</v>
+      <c r="F401" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G401" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H401" s="15" t="b">
         <v>0</v>
@@ -31034,7 +31042,7 @@
       </c>
       <c r="K401" t="str">
         <f t="shared" si="6"/>
-        <v>[88863] = {true, true, false, false, true, true}, --Permafrost</v>
+        <v>[88860] = {true, false, true, false, true, true}, --Northern Storm</v>
       </c>
     </row>
     <row r="402" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31042,13 +31050,13 @@
         <v>93</v>
       </c>
       <c r="B402" s="11" t="s">
-        <v>403</v>
+        <v>256</v>
       </c>
       <c r="C402" s="12">
-        <v>86009</v>
+        <v>86117</v>
       </c>
       <c r="D402" s="13">
-        <v>94411</v>
+        <v>88863</v>
       </c>
       <c r="E402" s="14" t="b">
         <v>1</v>
@@ -31070,7 +31078,7 @@
       </c>
       <c r="K402" t="str">
         <f t="shared" si="6"/>
-        <v>[94411] = {true, true, false, false, true, true}, --Scorch</v>
+        <v>[88863] = {true, true, false, false, true, true}, --Permafrost</v>
       </c>
     </row>
     <row r="403" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31078,13 +31086,13 @@
         <v>93</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>84</v>
+        <v>403</v>
       </c>
       <c r="C403" s="12">
-        <v>86003</v>
+        <v>86009</v>
       </c>
       <c r="D403" s="13">
-        <v>86003</v>
+        <v>94411</v>
       </c>
       <c r="E403" s="14" t="b">
         <v>1</v>
@@ -31106,7 +31114,7 @@
       </c>
       <c r="K403" t="str">
         <f t="shared" si="6"/>
-        <v>[86003] = {true, true, false, false, true, true}, --Screaming Cliff Racer</v>
+        <v>[94411] = {true, true, false, false, true, true}, --Scorch</v>
       </c>
     </row>
     <row r="404" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31114,22 +31122,22 @@
         <v>93</v>
       </c>
       <c r="B404" s="11" t="s">
-        <v>404</v>
+        <v>84</v>
       </c>
       <c r="C404" s="12">
-        <v>86109</v>
+        <v>86003</v>
       </c>
       <c r="D404" s="13">
-        <v>86247</v>
+        <v>86003</v>
       </c>
       <c r="E404" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F404" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G404" s="14" t="b">
-        <v>1</v>
+      <c r="F404" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G404" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H404" s="15" t="b">
         <v>0</v>
@@ -31142,7 +31150,7 @@
       </c>
       <c r="K404" t="str">
         <f t="shared" si="6"/>
-        <v>[86247] = {true, false, true, false, true, true}, --Sleet Storm</v>
+        <v>[86003] = {true, true, false, false, true, true}, --Screaming Cliff Racer</v>
       </c>
     </row>
     <row r="405" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31150,22 +31158,22 @@
         <v>93</v>
       </c>
       <c r="B405" s="11" t="s">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C405" s="12">
-        <v>86019</v>
+        <v>86109</v>
       </c>
       <c r="D405" s="13">
-        <v>94445</v>
+        <v>86247</v>
       </c>
       <c r="E405" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F405" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G405" s="15" t="b">
-        <v>0</v>
+      <c r="F405" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G405" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H405" s="15" t="b">
         <v>0</v>
@@ -31178,7 +31186,7 @@
       </c>
       <c r="K405" t="str">
         <f t="shared" si="6"/>
-        <v>[94445] = {true, true, false, false, true, true}, --Subterranean Assault</v>
+        <v>[86247] = {true, false, true, false, true, true}, --Sleet Storm</v>
       </c>
     </row>
     <row r="406" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31186,22 +31194,22 @@
         <v>93</v>
       </c>
       <c r="B406" s="11" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
       <c r="C406" s="12">
-        <v>86023</v>
+        <v>86019</v>
       </c>
       <c r="D406" s="13">
-        <v>101703</v>
+        <v>94445</v>
       </c>
       <c r="E406" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F406" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G406" s="14" t="b">
-        <v>1</v>
+      <c r="F406" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G406" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H406" s="15" t="b">
         <v>0</v>
@@ -31214,7 +31222,7 @@
       </c>
       <c r="K406" t="str">
         <f t="shared" si="6"/>
-        <v>[101703] = {true, false, true, false, true, true}, --Swarm</v>
+        <v>[94445] = {true, true, false, false, true, true}, --Subterranean Assault</v>
       </c>
     </row>
     <row r="407" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31222,22 +31230,22 @@
         <v>93</v>
       </c>
       <c r="B407" s="11" t="s">
-        <v>258</v>
+        <v>405</v>
       </c>
       <c r="C407" s="12">
-        <v>85986</v>
+        <v>86023</v>
       </c>
       <c r="D407" s="13">
-        <v>105906</v>
+        <v>101703</v>
       </c>
       <c r="E407" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F407" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G407" s="15" t="b">
-        <v>0</v>
+      <c r="F407" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G407" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H407" s="15" t="b">
         <v>0</v>
@@ -31250,7 +31258,7 @@
       </c>
       <c r="K407" t="str">
         <f t="shared" si="6"/>
-        <v>[105906] = {true, true, false, false, true, true}, --Swipe (pet)</v>
+        <v>[101703] = {true, false, true, false, true, true}, --Swarm</v>
       </c>
     </row>
     <row r="408" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31261,10 +31269,10 @@
         <v>258</v>
       </c>
       <c r="C408" s="12">
-        <v>85982</v>
+        <v>85986</v>
       </c>
       <c r="D408" s="13">
-        <v>89135</v>
+        <v>105906</v>
       </c>
       <c r="E408" s="14" t="b">
         <v>1</v>
@@ -31286,7 +31294,7 @@
       </c>
       <c r="K408" t="str">
         <f t="shared" si="6"/>
-        <v>[89135] = {true, true, false, false, true, true}, --Swipe (pet)</v>
+        <v>[105906] = {true, true, false, false, true, true}, --Swipe (pet)</v>
       </c>
     </row>
     <row r="409" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31297,10 +31305,10 @@
         <v>258</v>
       </c>
       <c r="C409" s="12">
-        <v>85990</v>
+        <v>85982</v>
       </c>
       <c r="D409" s="13">
-        <v>89219</v>
+        <v>89135</v>
       </c>
       <c r="E409" s="14" t="b">
         <v>1</v>
@@ -31322,7 +31330,7 @@
       </c>
       <c r="K409" t="str">
         <f t="shared" si="6"/>
-        <v>[89219] = {true, true, false, false, true, true}, --Swipe (pet)</v>
+        <v>[89135] = {true, true, false, false, true, true}, --Swipe (pet)</v>
       </c>
     </row>
     <row r="410" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31330,22 +31338,22 @@
         <v>93</v>
       </c>
       <c r="B410" s="11" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="C410" s="12">
-        <v>86169</v>
+        <v>85990</v>
       </c>
       <c r="D410" s="13">
-        <v>88802</v>
+        <v>89219</v>
       </c>
       <c r="E410" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F410" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G410" s="14" t="b">
-        <v>1</v>
+      <c r="F410" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G410" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H410" s="15" t="b">
         <v>0</v>
@@ -31358,30 +31366,30 @@
       </c>
       <c r="K410" t="str">
         <f t="shared" si="6"/>
-        <v>[88802] = {true, false, true, false, true, true}, --Winters Revenge</v>
+        <v>[89219] = {true, true, false, false, true, true}, --Swipe (pet)</v>
       </c>
     </row>
     <row r="411" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="10" t="s">
-        <v>406</v>
+        <v>93</v>
       </c>
       <c r="B411" s="11" t="s">
-        <v>414</v>
+        <v>85</v>
       </c>
       <c r="C411" s="12">
-        <v>39105</v>
+        <v>86169</v>
       </c>
       <c r="D411" s="13">
-        <v>39109</v>
+        <v>88802</v>
       </c>
       <c r="E411" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F411" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G411" s="15" t="b">
-        <v>0</v>
+      <c r="F411" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G411" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H411" s="15" t="b">
         <v>0</v>
@@ -31394,7 +31402,7 @@
       </c>
       <c r="K411" t="str">
         <f t="shared" si="6"/>
-        <v>[39109] = {true, true, false, false, true, true}, --Brutal Pounce</v>
+        <v>[88802] = {true, false, true, false, true, true}, --Winters Revenge</v>
       </c>
     </row>
     <row r="412" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31402,13 +31410,13 @@
         <v>406</v>
       </c>
       <c r="B412" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C412" s="12">
-        <v>58864</v>
+        <v>39105</v>
       </c>
       <c r="D412" s="13">
-        <v>58864</v>
+        <v>39109</v>
       </c>
       <c r="E412" s="14" t="b">
         <v>1</v>
@@ -31430,7 +31438,7 @@
       </c>
       <c r="K412" t="str">
         <f t="shared" si="6"/>
-        <v>[58864] = {true, true, false, false, true, true}, --Claws of Anguish</v>
+        <v>[39109] = {true, true, false, false, true, true}, --Brutal Pounce</v>
       </c>
     </row>
     <row r="413" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31438,13 +31446,13 @@
         <v>406</v>
       </c>
       <c r="B413" s="11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C413" s="12">
-        <v>58879</v>
+        <v>58864</v>
       </c>
       <c r="D413" s="13">
-        <v>58879</v>
+        <v>58864</v>
       </c>
       <c r="E413" s="14" t="b">
         <v>1</v>
@@ -31466,7 +31474,7 @@
       </c>
       <c r="K413" t="str">
         <f t="shared" si="6"/>
-        <v>[58879] = {true, true, false, false, true, true}, --Claws of Life</v>
+        <v>[58864] = {true, true, false, false, true, true}, --Claws of Anguish</v>
       </c>
     </row>
     <row r="414" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31474,13 +31482,13 @@
         <v>406</v>
       </c>
       <c r="B414" s="11" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C414" s="12">
-        <v>39104</v>
+        <v>58879</v>
       </c>
       <c r="D414" s="13">
-        <v>39107</v>
+        <v>58879</v>
       </c>
       <c r="E414" s="14" t="b">
         <v>1</v>
@@ -31502,7 +31510,7 @@
       </c>
       <c r="K414" t="str">
         <f t="shared" si="6"/>
-        <v>[39107] = {true, true, false, false, true, true}, --Feral Pounce</v>
+        <v>[58879] = {true, true, false, false, true, true}, --Claws of Life</v>
       </c>
     </row>
     <row r="415" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31510,13 +31518,13 @@
         <v>406</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C415" s="12">
-        <v>39075</v>
+        <v>39104</v>
       </c>
       <c r="D415" s="13">
-        <v>80189</v>
+        <v>39107</v>
       </c>
       <c r="E415" s="14" t="b">
         <v>1</v>
@@ -31538,7 +31546,7 @@
       </c>
       <c r="K415" t="str">
         <f t="shared" si="6"/>
-        <v>[80189] = {true, true, false, false, true, true}, --Gnash (Pact Leader)</v>
+        <v>[39107] = {true, true, false, false, true, true}, --Feral Pounce</v>
       </c>
     </row>
     <row r="416" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31552,7 +31560,7 @@
         <v>39075</v>
       </c>
       <c r="D416" s="13">
-        <v>80190</v>
+        <v>80189</v>
       </c>
       <c r="E416" s="14" t="b">
         <v>1</v>
@@ -31574,7 +31582,7 @@
       </c>
       <c r="K416" t="str">
         <f t="shared" si="6"/>
-        <v>[80190] = {true, true, false, false, true, true}, --Gnash (Pact Leader)</v>
+        <v>[80189] = {true, true, false, false, true, true}, --Gnash (Pact Leader)</v>
       </c>
     </row>
     <row r="417" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31582,13 +31590,13 @@
         <v>406</v>
       </c>
       <c r="B417" s="11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C417" s="12">
-        <v>32477</v>
+        <v>39075</v>
       </c>
       <c r="D417" s="13">
-        <v>32494</v>
+        <v>80190</v>
       </c>
       <c r="E417" s="14" t="b">
         <v>1</v>
@@ -31599,8 +31607,8 @@
       <c r="G417" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="H417" s="14" t="b">
-        <v>1</v>
+      <c r="H417" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="I417" s="14" t="b">
         <v>1</v>
@@ -31610,7 +31618,7 @@
       </c>
       <c r="K417" t="str">
         <f t="shared" si="6"/>
-        <v>[32494] = {true, true, false, true, true, true}, --Heavy Attack (Splash)</v>
+        <v>[80190] = {true, true, false, false, true, true}, --Gnash (Pact Leader)</v>
       </c>
     </row>
     <row r="418" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31618,13 +31626,13 @@
         <v>406</v>
       </c>
       <c r="B418" s="11" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C418" s="12">
         <v>32477</v>
       </c>
       <c r="D418" s="13">
-        <v>32480</v>
+        <v>32494</v>
       </c>
       <c r="E418" s="14" t="b">
         <v>1</v>
@@ -31646,7 +31654,7 @@
       </c>
       <c r="K418" t="str">
         <f t="shared" si="6"/>
-        <v>[32480] = {true, true, false, true, true, true}, --Heavy Attack Werewolf</v>
+        <v>[32494] = {true, true, false, true, true, true}, --Heavy Attack (Splash)</v>
       </c>
     </row>
     <row r="419" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31654,13 +31662,13 @@
         <v>406</v>
       </c>
       <c r="B419" s="11" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C419" s="12">
-        <v>58798</v>
+        <v>32477</v>
       </c>
       <c r="D419" s="13">
-        <v>58798</v>
+        <v>32480</v>
       </c>
       <c r="E419" s="14" t="b">
         <v>1</v>
@@ -31671,8 +31679,8 @@
       <c r="G419" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="H419" s="15" t="b">
-        <v>0</v>
+      <c r="H419" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="I419" s="14" t="b">
         <v>1</v>
@@ -31682,7 +31690,7 @@
       </c>
       <c r="K419" t="str">
         <f t="shared" si="6"/>
-        <v>[58798] = {true, true, false, false, true, true}, --Howl of Agony</v>
+        <v>[32480] = {true, true, false, true, true, true}, --Heavy Attack Werewolf</v>
       </c>
     </row>
     <row r="420" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31690,13 +31698,13 @@
         <v>406</v>
       </c>
       <c r="B420" s="11" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C420" s="12">
-        <v>58742</v>
+        <v>58798</v>
       </c>
       <c r="D420" s="13">
-        <v>58742</v>
+        <v>58798</v>
       </c>
       <c r="E420" s="14" t="b">
         <v>1</v>
@@ -31718,7 +31726,7 @@
       </c>
       <c r="K420" t="str">
         <f t="shared" si="6"/>
-        <v>[58742] = {true, true, false, false, true, true}, --Howl of Dispair</v>
+        <v>[58798] = {true, true, false, false, true, true}, --Howl of Agony</v>
       </c>
     </row>
     <row r="421" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31726,35 +31734,35 @@
         <v>406</v>
       </c>
       <c r="B421" s="11" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C421" s="12">
-        <v>58855</v>
+        <v>58742</v>
       </c>
       <c r="D421" s="13">
-        <v>58856</v>
+        <v>58742</v>
       </c>
       <c r="E421" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F421" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G421" s="14" t="b">
-        <v>1</v>
+      <c r="F421" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G421" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H421" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I421" s="15" t="b">
-        <v>0</v>
+      <c r="I421" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="J421" s="14" t="b">
         <v>1</v>
       </c>
       <c r="K421" t="str">
         <f t="shared" si="6"/>
-        <v>[58856] = {true, false, true, false, false, true}, --Infection</v>
+        <v>[58742] = {true, true, false, false, true, true}, --Howl of Dispair</v>
       </c>
     </row>
     <row r="422" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31762,35 +31770,35 @@
         <v>406</v>
       </c>
       <c r="B422" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C422" s="12">
         <v>58855</v>
       </c>
       <c r="D422" s="13">
-        <v>58855</v>
+        <v>58856</v>
       </c>
       <c r="E422" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F422" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G422" s="15" t="b">
-        <v>0</v>
+      <c r="F422" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G422" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H422" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I422" s="14" t="b">
-        <v>1</v>
+      <c r="I422" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="J422" s="14" t="b">
         <v>1</v>
       </c>
       <c r="K422" t="str">
         <f t="shared" si="6"/>
-        <v>[58855] = {true, true, false, false, true, true}, --Infectious Claws</v>
+        <v>[58856] = {true, false, true, false, false, true}, --Infection</v>
       </c>
     </row>
     <row r="423" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31798,13 +31806,13 @@
         <v>406</v>
       </c>
       <c r="B423" s="11" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C423" s="12">
-        <v>32464</v>
+        <v>58855</v>
       </c>
       <c r="D423" s="13">
-        <v>32464</v>
+        <v>58855</v>
       </c>
       <c r="E423" s="14" t="b">
         <v>1</v>
@@ -31815,8 +31823,8 @@
       <c r="G423" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="H423" s="14" t="b">
-        <v>1</v>
+      <c r="H423" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="I423" s="14" t="b">
         <v>1</v>
@@ -31826,7 +31834,7 @@
       </c>
       <c r="K423" t="str">
         <f t="shared" si="6"/>
-        <v>[32464] = {true, true, false, true, true, true}, --Light Attack</v>
+        <v>[58855] = {true, true, false, false, true, true}, --Infectious Claws</v>
       </c>
     </row>
     <row r="424" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31834,13 +31842,13 @@
         <v>406</v>
       </c>
       <c r="B424" s="11" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C424" s="12">
-        <v>39075</v>
+        <v>32464</v>
       </c>
       <c r="D424" s="13">
-        <v>80184</v>
+        <v>32464</v>
       </c>
       <c r="E424" s="14" t="b">
         <v>1</v>
@@ -31851,8 +31859,8 @@
       <c r="G424" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="H424" s="15" t="b">
-        <v>0</v>
+      <c r="H424" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="I424" s="14" t="b">
         <v>1</v>
@@ -31862,7 +31870,7 @@
       </c>
       <c r="K424" t="str">
         <f t="shared" si="6"/>
-        <v>[80184] = {true, true, false, false, true, true}, --Lunge (Pact Leader)</v>
+        <v>[32464] = {true, true, false, true, true, true}, --Light Attack</v>
       </c>
     </row>
     <row r="425" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31870,13 +31878,13 @@
         <v>406</v>
       </c>
       <c r="B425" s="11" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C425" s="12">
-        <v>58405</v>
+        <v>39075</v>
       </c>
       <c r="D425" s="13">
-        <v>58405</v>
+        <v>80184</v>
       </c>
       <c r="E425" s="14" t="b">
         <v>1</v>
@@ -31898,7 +31906,7 @@
       </c>
       <c r="K425" t="str">
         <f t="shared" si="6"/>
-        <v>[58405] = {true, true, false, false, true, true}, --Piercing Howl</v>
+        <v>[80184] = {true, true, false, false, true, true}, --Lunge (Pact Leader)</v>
       </c>
     </row>
     <row r="426" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31906,13 +31914,13 @@
         <v>406</v>
       </c>
       <c r="B426" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C426" s="12">
-        <v>32632</v>
+        <v>58405</v>
       </c>
       <c r="D426" s="13">
-        <v>32645</v>
+        <v>58405</v>
       </c>
       <c r="E426" s="14" t="b">
         <v>1</v>
@@ -31934,7 +31942,7 @@
       </c>
       <c r="K426" t="str">
         <f t="shared" si="6"/>
-        <v>[32645] = {true, true, false, false, true, true}, --Pounce</v>
+        <v>[58405] = {true, true, false, false, true, true}, --Piercing Howl</v>
       </c>
     </row>
     <row r="427" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31942,22 +31950,22 @@
         <v>406</v>
       </c>
       <c r="B427" s="11" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C427" s="12">
-        <v>32464</v>
+        <v>32632</v>
       </c>
       <c r="D427" s="13">
-        <v>89147</v>
+        <v>32645</v>
       </c>
       <c r="E427" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F427" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G427" s="14" t="b">
-        <v>1</v>
+      <c r="F427" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G427" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H427" s="15" t="b">
         <v>0</v>
@@ -31965,12 +31973,12 @@
       <c r="I427" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J427" s="15" t="b">
-        <v>0</v>
+      <c r="J427" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="K427" t="str">
         <f t="shared" si="6"/>
-        <v>[89147] = {true, false, true, false, true, false}, --Werewolf Berserker Bleed</v>
+        <v>[32645] = {true, true, false, false, true, true}, --Pounce</v>
       </c>
     </row>
     <row r="428" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31978,13 +31986,13 @@
         <v>406</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C428" s="12">
         <v>32464</v>
       </c>
       <c r="D428" s="13">
-        <v>89146</v>
+        <v>89147</v>
       </c>
       <c r="E428" s="14" t="b">
         <v>1</v>
@@ -32006,30 +32014,30 @@
       </c>
       <c r="K428" t="str">
         <f t="shared" si="6"/>
-        <v>[89146] = {true, false, true, false, true, false}, --Werewolf Bleed</v>
+        <v>[89147] = {true, false, true, false, true, false}, --Werewolf Berserker Bleed</v>
       </c>
     </row>
     <row r="429" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="10" t="s">
-        <v>140</v>
+        <v>406</v>
       </c>
       <c r="B429" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="C429" s="12" t="s">
-        <v>33</v>
+        <v>413</v>
+      </c>
+      <c r="C429" s="12">
+        <v>32464</v>
       </c>
       <c r="D429" s="13">
-        <v>21970</v>
+        <v>89146</v>
       </c>
       <c r="E429" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F429" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G429" s="15" t="b">
-        <v>0</v>
+      <c r="F429" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G429" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="H429" s="15" t="b">
         <v>0</v>
@@ -32037,26 +32045,26 @@
       <c r="I429" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J429" s="14" t="b">
-        <v>1</v>
+      <c r="J429" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="K429" t="str">
         <f t="shared" si="6"/>
-        <v>[21970] = {true, true, false, false, true, true}, --Bash</v>
+        <v>[89146] = {true, false, true, false, true, false}, --Werewolf Bleed</v>
       </c>
     </row>
     <row r="430" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="10" t="s">
-        <v>465</v>
+        <v>140</v>
       </c>
       <c r="B430" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="C430" s="12">
-        <v>103878</v>
+        <v>471</v>
+      </c>
+      <c r="C430" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="D430" s="13">
-        <v>103881</v>
+        <v>21970</v>
       </c>
       <c r="E430" s="14" t="b">
         <v>1</v>
@@ -32078,7 +32086,7 @@
       </c>
       <c r="K430" t="str">
         <f t="shared" si="6"/>
-        <v>[103881] = {true, true, false, false, true, true}, --Spell Orb (physical)</v>
+        <v>[21970] = {true, true, false, false, true, true}, --Bash</v>
       </c>
     </row>
     <row r="431" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32086,13 +32094,13 @@
         <v>465</v>
       </c>
       <c r="B431" s="11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C431" s="12">
-        <v>103483</v>
+        <v>103878</v>
       </c>
       <c r="D431" s="13">
-        <v>103485</v>
+        <v>103881</v>
       </c>
       <c r="E431" s="14" t="b">
         <v>1</v>
@@ -32114,7 +32122,7 @@
       </c>
       <c r="K431" t="str">
         <f t="shared" si="6"/>
-        <v>[103485] = {true, true, false, false, true, true}, --Imbue Weapon</v>
+        <v>[103881] = {true, true, false, false, true, true}, --Spell Orb (physical)</v>
       </c>
     </row>
     <row r="432" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32122,13 +32130,13 @@
         <v>465</v>
       </c>
       <c r="B432" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C432" s="12">
-        <v>103571</v>
+        <v>103483</v>
       </c>
       <c r="D432" s="13">
-        <v>103572</v>
+        <v>103485</v>
       </c>
       <c r="E432" s="14" t="b">
         <v>1</v>
@@ -32150,7 +32158,7 @@
       </c>
       <c r="K432" t="str">
         <f t="shared" si="6"/>
-        <v>[103572] = {true, true, false, false, true, true}, --Elemental Weapon</v>
+        <v>[103485] = {true, true, false, false, true, true}, --Imbue Weapon</v>
       </c>
     </row>
     <row r="433" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32158,13 +32166,13 @@
         <v>465</v>
       </c>
       <c r="B433" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C433" s="12">
-        <v>103623</v>
+        <v>103571</v>
       </c>
       <c r="D433" s="13">
-        <v>103626</v>
+        <v>103572</v>
       </c>
       <c r="E433" s="14" t="b">
         <v>1</v>
@@ -32186,7 +32194,7 @@
       </c>
       <c r="K433" t="str">
         <f t="shared" si="6"/>
-        <v>[103626] = {true, true, false, false, true, true}, --Crushing Weapon</v>
+        <v>[103572] = {true, true, false, false, true, true}, --Elemental Weapon</v>
       </c>
     </row>
     <row r="434" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32194,13 +32202,13 @@
         <v>465</v>
       </c>
       <c r="B434" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C434" s="12">
-        <v>103878</v>
+        <v>103623</v>
       </c>
       <c r="D434" s="13">
-        <v>103880</v>
+        <v>103626</v>
       </c>
       <c r="E434" s="14" t="b">
         <v>1</v>
@@ -32222,21 +32230,21 @@
       </c>
       <c r="K434" t="str">
         <f t="shared" si="6"/>
-        <v>[103880] = {true, true, false, false, true, true}, --Spell Orb (magic)</v>
+        <v>[103626] = {true, true, false, false, true, true}, --Crushing Weapon</v>
       </c>
     </row>
     <row r="435" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="10" t="s">
-        <v>140</v>
+        <v>465</v>
       </c>
       <c r="B435" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="C435" s="12" t="s">
-        <v>33</v>
+        <v>469</v>
+      </c>
+      <c r="C435" s="12">
+        <v>103878</v>
       </c>
       <c r="D435" s="13">
-        <v>60230</v>
+        <v>103880</v>
       </c>
       <c r="E435" s="14" t="b">
         <v>1</v>
@@ -32258,20 +32266,44 @@
       </c>
       <c r="K435" t="str">
         <f t="shared" si="6"/>
+        <v>[103880] = {true, true, false, false, true, true}, --Spell Orb (magic)</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B436" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D436" s="13">
+        <v>60230</v>
+      </c>
+      <c r="E436" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F436" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G436" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H436" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I436" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J436" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K436" t="str">
+        <f t="shared" si="6"/>
         <v>[60230] = {true, true, false, false, true, true}, --Riposte</v>
       </c>
-    </row>
-    <row r="436" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="16"/>
-      <c r="B436" s="16"/>
-      <c r="C436" s="16"/>
-      <c r="D436" s="27"/>
-      <c r="E436" s="16"/>
-      <c r="F436" s="16"/>
-      <c r="G436" s="16"/>
-      <c r="H436" s="16"/>
-      <c r="I436" s="16"/>
-      <c r="J436" s="16"/>
     </row>
     <row r="437" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="16"/>

--- a/CPData.xlsx
+++ b/CPData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dk-mi\Documents\ESOdev\Constellations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DBB425-66A3-4A22-8053-9F58C50F7166}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDF2EB9-89AC-4849-A6E8-3145A0C014C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10422,8 +10422,8 @@
   <dimension ref="A1:R585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10545,10 +10545,10 @@
         <v>346</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>347</v>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="R3" s="9" t="str">
         <f t="shared" ref="R3:R66" si="0">CONCATENATE("[",D3,"] = {",LOWER(H3),", ",LOWER(I3),", ",LOWER(J3),", ",LOWER(K3),", ",LOWER(L3),", ",LOWER(M3),"}, --",B3)</f>
-        <v>[40267] = {true, true, false, false, true, true}, --Anti-Cavalry Caltrops</v>
+        <v>[40267] = {true, false, true, false, true, true}, --Anti-Cavalry Caltrops</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -10598,10 +10598,10 @@
         <v>346</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>347</v>
@@ -10620,7 +10620,7 @@
       </c>
       <c r="R4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>[38561] = {true, true, false, false, true, true}, --Caltrops</v>
+        <v>[38561] = {true, false, true, false, true, true}, --Caltrops</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -10788,17 +10788,17 @@
         <v>40242</v>
       </c>
       <c r="D8" s="11">
-        <v>40252</v>
+        <v>40254</v>
       </c>
       <c r="E8" s="9">
-        <v>465</v>
+        <v>1451</v>
       </c>
       <c r="F8" s="9">
-        <v>865</v>
+        <v>2604</v>
       </c>
       <c r="G8" s="13">
         <f>F8/E8/N$2/1.52-1</f>
-        <v>8.8301371527975681E-2</v>
+        <v>4.9928172899188272E-2</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>346</v>
@@ -10819,14 +10819,14 @@
         <v>346</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>305</v>
+        <v>536</v>
       </c>
       <c r="Q8" s="9">
-        <v>33376</v>
+        <v>61487</v>
       </c>
       <c r="R8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>[40252] = {true, true, false, false, true, true}, --Razor Caltrops</v>
+        <v>[40254] = {true, true, false, false, true, true}, --Razor Caltrops</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -10841,26 +10841,26 @@
         <v>40242</v>
       </c>
       <c r="D9" s="11">
-        <v>40254</v>
+        <v>40252</v>
       </c>
       <c r="E9" s="9">
-        <v>1451</v>
+        <v>465</v>
       </c>
       <c r="F9" s="9">
-        <v>2604</v>
+        <v>865</v>
       </c>
       <c r="G9" s="13">
         <f>F9/E9/N$2/1.52-1</f>
-        <v>4.9928172899188272E-2</v>
+        <v>8.8301371527975681E-2</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>347</v>
@@ -10872,14 +10872,14 @@
         <v>346</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>536</v>
+        <v>305</v>
       </c>
       <c r="Q9" s="9">
-        <v>61487</v>
+        <v>33376</v>
       </c>
       <c r="R9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>[40254] = {true, true, false, false, true, true}, --Razor Caltrops</v>
+        <v>[40252] = {true, false, true, false, true, true}, --Razor Caltrops</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -10894,26 +10894,26 @@
         <v>38701</v>
       </c>
       <c r="D10" s="11">
-        <v>38703</v>
+        <v>38724</v>
       </c>
       <c r="E10" s="9">
-        <v>281</v>
+        <v>1498</v>
       </c>
       <c r="F10" s="9">
-        <v>523</v>
+        <v>2688</v>
       </c>
       <c r="G10" s="13">
         <f>F10/E10/N$2/1.52-1</f>
-        <v>8.8883434672807793E-2</v>
+        <v>4.9792517422264204E-2</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>347</v>
@@ -10923,16 +10923,10 @@
       </c>
       <c r="M10" s="9" t="s">
         <v>346</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>85451</v>
       </c>
       <c r="R10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>[38703] = {true, false, true, false, true, true}, --Acid Spray</v>
+        <v>[38724] = {true, true, false, false, true, true}, --Acid Spray</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -10947,26 +10941,26 @@
         <v>38701</v>
       </c>
       <c r="D11" s="11">
-        <v>38724</v>
+        <v>38703</v>
       </c>
       <c r="E11" s="9">
-        <v>1498</v>
+        <v>281</v>
       </c>
       <c r="F11" s="9">
-        <v>2688</v>
+        <v>523</v>
       </c>
       <c r="G11" s="13">
         <f>F11/E11/N$2/1.52-1</f>
-        <v>4.9792517422264204E-2</v>
+        <v>8.8883434672807793E-2</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>347</v>
@@ -10976,10 +10970,16 @@
       </c>
       <c r="M11" s="9" t="s">
         <v>346</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>85451</v>
       </c>
       <c r="R11" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>[38724] = {true, true, false, false, true, true}, --Acid Spray</v>
+        <v>[38703] = {true, false, true, false, true, true}, --Acid Spray</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -11980,17 +11980,17 @@
         <v>85257</v>
       </c>
       <c r="D31" s="11">
-        <v>85260</v>
+        <v>85261</v>
       </c>
       <c r="E31" s="9">
-        <v>1818</v>
+        <v>2155</v>
       </c>
       <c r="F31" s="9">
-        <v>3387</v>
+        <v>4014</v>
       </c>
       <c r="G31" s="13">
         <f>F31/E31/N$2/1.52-1</f>
-        <v>8.995191730405816E-2</v>
+        <v>8.9722995571895892E-2</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>346</v>
@@ -12011,14 +12011,14 @@
         <v>346</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="Q31" s="9">
-        <v>85257</v>
+        <v>38687</v>
       </c>
       <c r="R31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>[85260] = {true, false, true, false, true, true}, --Toxic Barrage</v>
+        <v>[85261] = {true, false, true, false, true, true}, --Toxic Barrage</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -12033,17 +12033,17 @@
         <v>85257</v>
       </c>
       <c r="D32" s="11">
-        <v>85261</v>
+        <v>85260</v>
       </c>
       <c r="E32" s="9">
-        <v>2155</v>
+        <v>1818</v>
       </c>
       <c r="F32" s="9">
-        <v>4014</v>
+        <v>3387</v>
       </c>
       <c r="G32" s="13">
         <f>F32/E32/N$2/1.52-1</f>
-        <v>8.9722995571895892E-2</v>
+        <v>8.995191730405816E-2</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>346</v>
@@ -12064,14 +12064,14 @@
         <v>346</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="Q32" s="9">
-        <v>38687</v>
+        <v>85257</v>
       </c>
       <c r="R32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>[85261] = {true, false, true, false, true, true}, --Toxic Barrage</v>
+        <v>[85260] = {true, false, true, false, true, true}, --Toxic Barrage</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -13075,17 +13075,17 @@
         <v>32792</v>
       </c>
       <c r="D52" s="11">
-        <v>32792</v>
+        <v>32794</v>
       </c>
       <c r="E52" s="9">
-        <v>903</v>
+        <v>1750</v>
       </c>
       <c r="F52" s="9">
-        <v>1621</v>
+        <v>3140</v>
       </c>
       <c r="G52" s="13">
         <f>F52/E52/N$2/1.52-1</f>
-        <v>5.0222422765200836E-2</v>
+        <v>4.9730029772417694E-2</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>346</v>
@@ -13106,14 +13106,14 @@
         <v>346</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="Q52" s="9">
-        <v>20251</v>
+        <v>32722</v>
       </c>
       <c r="R52" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>[32792] = {true, true, false, false, true, true}, --Deep Breath</v>
+        <v>[32794] = {true, true, false, false, true, true}, --Deep Breath</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -13128,17 +13128,17 @@
         <v>32792</v>
       </c>
       <c r="D53" s="11">
-        <v>32794</v>
+        <v>32792</v>
       </c>
       <c r="E53" s="9">
-        <v>1750</v>
+        <v>903</v>
       </c>
       <c r="F53" s="9">
-        <v>3140</v>
+        <v>1621</v>
       </c>
       <c r="G53" s="13">
         <f>F53/E53/N$2/1.52-1</f>
-        <v>4.9730029772417694E-2</v>
+        <v>5.0222422765200836E-2</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>346</v>
@@ -13159,14 +13159,14 @@
         <v>346</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>370</v>
+        <v>136</v>
       </c>
       <c r="Q53" s="9">
-        <v>32722</v>
+        <v>20251</v>
       </c>
       <c r="R53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>[32794] = {true, true, false, false, true, true}, --Deep Breath</v>
+        <v>[32792] = {true, true, false, false, true, true}, --Deep Breath</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -13605,26 +13605,26 @@
         <v>32710</v>
       </c>
       <c r="D62" s="11">
-        <v>32711</v>
+        <v>32714</v>
       </c>
       <c r="E62" s="9">
-        <v>536</v>
+        <v>1807</v>
       </c>
       <c r="F62" s="9">
-        <v>997</v>
+        <v>3243</v>
       </c>
       <c r="G62" s="13">
         <f>F62/E62/N$2/1.52-1</f>
-        <v>8.8219216088402996E-2</v>
+        <v>4.9964989560399076E-2</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>347</v>
@@ -13636,14 +13636,14 @@
         <v>346</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q62" s="9">
-        <v>28988</v>
+        <v>20319</v>
       </c>
       <c r="R62" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>[32711] = {true, false, true, false, true, true}, --Eruption</v>
+        <v>[32714] = {true, true, false, false, true, true}, --Eruption</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -13658,26 +13658,26 @@
         <v>32710</v>
       </c>
       <c r="D63" s="11">
-        <v>32714</v>
+        <v>32711</v>
       </c>
       <c r="E63" s="9">
-        <v>1807</v>
+        <v>536</v>
       </c>
       <c r="F63" s="9">
-        <v>3243</v>
+        <v>997</v>
       </c>
       <c r="G63" s="13">
         <f>F63/E63/N$2/1.52-1</f>
-        <v>4.9964989560399076E-2</v>
+        <v>8.8219216088402996E-2</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K63" s="9" t="s">
         <v>347</v>
@@ -13689,14 +13689,14 @@
         <v>346</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q63" s="9">
-        <v>20319</v>
+        <v>28988</v>
       </c>
       <c r="R63" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>[32714] = {true, true, false, false, true, true}, --Eruption</v>
+        <v>[32711] = {true, false, true, false, true, true}, --Eruption</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -15433,32 +15433,32 @@
         <v>20323</v>
       </c>
       <c r="D97" s="11">
-        <v>20326</v>
+        <v>20324</v>
       </c>
       <c r="E97" s="9">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="F97" s="9">
-        <v>868</v>
+        <v>607</v>
       </c>
       <c r="G97" s="13">
-        <f>F97/E97/N$2/1.52-1</f>
-        <v>8.9732316793077249E-2</v>
+        <f>F97/E97/O$2-1</f>
+        <v>5.0127700685497878E-2</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K97" s="9" t="s">
         <v>347</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>346</v>
@@ -15466,7 +15466,7 @@
       <c r="P97" s="12"/>
       <c r="R97" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>[20326] = {true, false, true, false, true, true}, --Volatile Armor</v>
+        <v>[20324] = {true, true, false, false, false, true}, --Volatile Armor</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -15481,32 +15481,32 @@
         <v>20323</v>
       </c>
       <c r="D98" s="11">
-        <v>20324</v>
+        <v>20326</v>
       </c>
       <c r="E98" s="9">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="F98" s="9">
-        <v>607</v>
+        <v>868</v>
       </c>
       <c r="G98" s="13">
-        <f>F98/E98/O$2-1</f>
-        <v>5.0127700685497878E-2</v>
+        <f>F98/E98/N$2/1.52-1</f>
+        <v>8.9732316793077249E-2</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K98" s="9" t="s">
         <v>347</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M98" s="9" t="s">
         <v>346</v>
@@ -15514,7 +15514,7 @@
       <c r="P98" s="12"/>
       <c r="R98" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>[20324] = {true, true, false, false, false, true}, --Volatile Armor</v>
+        <v>[20326] = {true, false, true, false, true, true}, --Volatile Armor</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -16589,17 +16589,17 @@
         <v>38914</v>
       </c>
       <c r="D120" s="11">
-        <v>68862</v>
+        <v>68864</v>
       </c>
       <c r="E120" s="9">
-        <v>2370</v>
+        <v>2838</v>
       </c>
       <c r="F120" s="9">
-        <v>4254</v>
+        <v>5094</v>
       </c>
       <c r="G120" s="13">
         <f>F120/E120/N$2/1.52-1</f>
-        <v>5.0110888043317869E-2</v>
+        <v>5.0104625398506242E-2</v>
       </c>
       <c r="H120" s="9" t="s">
         <v>346</v>
@@ -16620,14 +16620,14 @@
         <v>346</v>
       </c>
       <c r="P120" s="9" t="s">
-        <v>122</v>
+        <v>498</v>
       </c>
       <c r="Q120" s="9">
-        <v>38861</v>
+        <v>38906</v>
       </c>
       <c r="R120" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>[68862] = {true, true, false, false, true, true}, --Shrouded Daggers</v>
+        <v>[68864] = {true, true, false, false, true, true}, --Shrouded Daggers</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -16642,17 +16642,17 @@
         <v>38914</v>
       </c>
       <c r="D121" s="11">
-        <v>68864</v>
+        <v>68862</v>
       </c>
       <c r="E121" s="9">
-        <v>2838</v>
+        <v>2370</v>
       </c>
       <c r="F121" s="9">
-        <v>5094</v>
+        <v>4254</v>
       </c>
       <c r="G121" s="13">
         <f>F121/E121/N$2/1.52-1</f>
-        <v>5.0104625398506242E-2</v>
+        <v>5.0110888043317869E-2</v>
       </c>
       <c r="H121" s="9" t="s">
         <v>346</v>
@@ -16673,14 +16673,14 @@
         <v>346</v>
       </c>
       <c r="P121" s="9" t="s">
-        <v>498</v>
+        <v>122</v>
       </c>
       <c r="Q121" s="9">
-        <v>38906</v>
+        <v>38861</v>
       </c>
       <c r="R121" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>[68864] = {true, true, false, false, true, true}, --Shrouded Daggers</v>
+        <v>[68862] = {true, true, false, false, true, true}, --Shrouded Daggers</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -17169,10 +17169,10 @@
         <v>346</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K131" s="9" t="s">
         <v>347</v>
@@ -17191,7 +17191,7 @@
       </c>
       <c r="R131" s="9" t="str">
         <f t="shared" ref="R131:R194" si="2">CONCATENATE("[",D131,"] = {",LOWER(H131),", ",LOWER(I131),", ",LOWER(J131),", ",LOWER(K131),", ",LOWER(L131),", ",LOWER(M131),"}, --",B131)</f>
-        <v>[62305] = {true, true, false, false, true, true}, --Dawnbreaker</v>
+        <v>[62305] = {true, false, true, false, true, true}, --Dawnbreaker</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
@@ -17275,10 +17275,10 @@
         <v>346</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K133" s="9" t="s">
         <v>347</v>
@@ -17291,7 +17291,7 @@
       </c>
       <c r="R133" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[62314] = {true, true, false, false, true, true}, --Dawnbreaker of Smiting</v>
+        <v>[62314] = {true, false, true, false, true, true}, --Dawnbreaker of Smiting</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -17375,10 +17375,10 @@
         <v>346</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K135" s="9" t="s">
         <v>347</v>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="R135" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[62310] = {true, true, false, false, true, true}, --Flawless Dawnbreaker</v>
+        <v>[62310] = {true, false, true, false, true, true}, --Flawless Dawnbreaker</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -17412,26 +17412,26 @@
         <v>40372</v>
       </c>
       <c r="D136" s="11">
-        <v>40375</v>
+        <v>40376</v>
       </c>
       <c r="E136" s="9">
-        <v>950</v>
+        <v>1046</v>
       </c>
       <c r="F136" s="9">
-        <v>1886</v>
+        <v>2075</v>
       </c>
       <c r="G136" s="13">
         <f>F136/E136/N$2/1.62-1</f>
-        <v>8.976455555991647E-2</v>
+        <v>8.8932630364568777E-2</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K136" s="9" t="s">
         <v>347</v>
@@ -17444,7 +17444,7 @@
       </c>
       <c r="R136" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[40375] = {true, true, false, false, true, true}, --Lightweight Beast Trap</v>
+        <v>[40376] = {true, false, true, false, true, true}, --Lightweight Beast Trap</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
@@ -17459,26 +17459,26 @@
         <v>40372</v>
       </c>
       <c r="D137" s="11">
-        <v>40376</v>
+        <v>40375</v>
       </c>
       <c r="E137" s="9">
-        <v>1046</v>
+        <v>950</v>
       </c>
       <c r="F137" s="9">
-        <v>2075</v>
+        <v>1886</v>
       </c>
       <c r="G137" s="13">
         <f>F137/E137/N$2/1.62-1</f>
-        <v>8.8932630364568777E-2</v>
+        <v>8.976455555991647E-2</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K137" s="9" t="s">
         <v>347</v>
@@ -17491,7 +17491,7 @@
       </c>
       <c r="R137" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[40376] = {true, true, false, false, true, true}, --Lightweight Beast Trap</v>
+        <v>[40375] = {true, false, true, false, true, true}, --Lightweight Beast Trap</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
@@ -17506,26 +17506,26 @@
         <v>40382</v>
       </c>
       <c r="D138" s="11">
-        <v>40385</v>
+        <v>40389</v>
       </c>
       <c r="E138" s="9">
-        <v>667</v>
+        <v>752</v>
       </c>
       <c r="F138" s="9">
-        <v>1324</v>
+        <v>1492</v>
       </c>
       <c r="G138" s="13">
         <f>F138/E138/N$2/1.62-1</f>
-        <v>8.9624215980500965E-2</v>
+        <v>8.9094532678234861E-2</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K138" s="9" t="s">
         <v>347</v>
@@ -17537,14 +17537,14 @@
         <v>346</v>
       </c>
       <c r="P138" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q138" s="9">
-        <v>40300</v>
+        <v>40382</v>
       </c>
       <c r="R138" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[40385] = {true, true, false, false, true, true}, --Rearming Trap</v>
+        <v>[40389] = {true, false, true, false, true, true}, --Rearming Trap</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
@@ -17559,26 +17559,26 @@
         <v>40382</v>
       </c>
       <c r="D139" s="11">
-        <v>40389</v>
+        <v>40392</v>
       </c>
       <c r="E139" s="9">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="F139" s="9">
-        <v>1492</v>
+        <v>1453</v>
       </c>
       <c r="G139" s="13">
         <f>F139/E139/N$2/1.62-1</f>
-        <v>8.9094532678234861E-2</v>
+        <v>8.9605103079877235E-2</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K139" s="9" t="s">
         <v>347</v>
@@ -17590,14 +17590,14 @@
         <v>346</v>
       </c>
       <c r="P139" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q139" s="9">
-        <v>40382</v>
+        <v>40161</v>
       </c>
       <c r="R139" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[40389] = {true, true, false, false, true, true}, --Rearming Trap</v>
+        <v>[40392] = {true, false, true, false, true, true}, --Rearming Trap</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
@@ -17612,26 +17612,26 @@
         <v>40382</v>
       </c>
       <c r="D140" s="11">
-        <v>40392</v>
+        <v>40385</v>
       </c>
       <c r="E140" s="9">
-        <v>732</v>
+        <v>667</v>
       </c>
       <c r="F140" s="9">
-        <v>1453</v>
+        <v>1324</v>
       </c>
       <c r="G140" s="13">
         <f>F140/E140/N$2/1.62-1</f>
-        <v>8.9605103079877235E-2</v>
+        <v>8.9624215980500965E-2</v>
       </c>
       <c r="H140" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K140" s="9" t="s">
         <v>347</v>
@@ -17643,14 +17643,14 @@
         <v>346</v>
       </c>
       <c r="P140" s="9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q140" s="9">
-        <v>40161</v>
+        <v>40300</v>
       </c>
       <c r="R140" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[40392] = {true, true, false, false, true, true}, --Rearming Trap</v>
+        <v>[40385] = {true, false, true, false, true, true}, --Rearming Trap</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -17834,10 +17834,10 @@
         <v>346</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K144" s="9" t="s">
         <v>347</v>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="R144" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[40452] = {true, true, false, false, true, true}, --Structured Entropy</v>
+        <v>[40452] = {true, false, true, false, true, true}, --Structured Entropy</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -17881,10 +17881,10 @@
         <v>346</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K145" s="9" t="s">
         <v>347</v>
@@ -17897,7 +17897,7 @@
       </c>
       <c r="R145" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[35754] = {true, true, false, false, true, true}, --Trap Beast</v>
+        <v>[35754] = {true, false, true, false, true, true}, --Trap Beast</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
@@ -17928,10 +17928,10 @@
         <v>346</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K146" s="9" t="s">
         <v>347</v>
@@ -17944,7 +17944,7 @@
       </c>
       <c r="R146" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[35756] = {true, true, false, false, true, true}, --Trap Beast</v>
+        <v>[35756] = {true, false, true, false, true, true}, --Trap Beast</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
@@ -18780,26 +18780,26 @@
         <v>39067</v>
       </c>
       <c r="D163" s="11">
-        <v>39071</v>
+        <v>39072</v>
       </c>
       <c r="E163" s="9">
-        <v>652</v>
+        <v>1042</v>
       </c>
       <c r="F163" s="9">
-        <v>1214</v>
+        <v>1870</v>
       </c>
       <c r="G163" s="13">
         <f>F163/E163/N$2/1.52-1</f>
-        <v>8.9324102346284295E-2</v>
+        <v>4.9928946792130668E-2</v>
       </c>
       <c r="H163" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K163" s="9" t="s">
         <v>347</v>
@@ -18818,7 +18818,7 @@
       </c>
       <c r="R163" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[39071] = {true, false, true, false, true, true}, --Unstable Wall of Frost</v>
+        <v>[39072] = {true, true, false, false, true, true}, --Unstable Wall of Frost</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
@@ -18833,26 +18833,26 @@
         <v>39067</v>
       </c>
       <c r="D164" s="11">
-        <v>39072</v>
+        <v>39071</v>
       </c>
       <c r="E164" s="9">
-        <v>1042</v>
+        <v>652</v>
       </c>
       <c r="F164" s="9">
-        <v>1870</v>
+        <v>1214</v>
       </c>
       <c r="G164" s="13">
         <f>F164/E164/N$2/1.52-1</f>
-        <v>4.9928946792130668E-2</v>
+        <v>8.9324102346284295E-2</v>
       </c>
       <c r="H164" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K164" s="9" t="s">
         <v>347</v>
@@ -18871,7 +18871,7 @@
       </c>
       <c r="R164" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[39072] = {true, true, false, false, true, true}, --Unstable Wall of Frost</v>
+        <v>[39071] = {true, false, true, false, true, true}, --Unstable Wall of Frost</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
@@ -19775,26 +19775,26 @@
         <v>39053</v>
       </c>
       <c r="D183" s="11">
-        <v>39054</v>
+        <v>39056</v>
       </c>
       <c r="E183" s="9">
-        <v>652</v>
+        <v>1042</v>
       </c>
       <c r="F183" s="9">
-        <v>1214</v>
+        <v>1870</v>
       </c>
       <c r="G183" s="13">
         <f>F183/E183/N$2/1.52-1</f>
-        <v>8.9324102346284295E-2</v>
+        <v>4.9928946792130668E-2</v>
       </c>
       <c r="H183" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K183" s="9" t="s">
         <v>347</v>
@@ -19806,14 +19806,14 @@
         <v>346</v>
       </c>
       <c r="P183" s="9" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="Q183" s="9">
-        <v>39145</v>
+        <v>85126</v>
       </c>
       <c r="R183" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[39054] = {true, false, true, false, true, true}, --Unstable Wall of Fire</v>
+        <v>[39056] = {true, true, false, false, true, true}, --Unstable Wall of Fire</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
@@ -19828,26 +19828,26 @@
         <v>39053</v>
       </c>
       <c r="D184" s="11">
-        <v>39056</v>
+        <v>39054</v>
       </c>
       <c r="E184" s="9">
-        <v>1042</v>
+        <v>652</v>
       </c>
       <c r="F184" s="9">
-        <v>1870</v>
+        <v>1214</v>
       </c>
       <c r="G184" s="13">
         <f>F184/E184/N$2/1.52-1</f>
-        <v>4.9928946792130668E-2</v>
+        <v>8.9324102346284295E-2</v>
       </c>
       <c r="H184" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K184" s="9" t="s">
         <v>347</v>
@@ -19859,14 +19859,14 @@
         <v>346</v>
       </c>
       <c r="P184" s="9" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="Q184" s="9">
-        <v>85126</v>
+        <v>39145</v>
       </c>
       <c r="R184" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[39056] = {true, true, false, false, true, true}, --Unstable Wall of Fire</v>
+        <v>[39054] = {true, false, true, false, true, true}, --Unstable Wall of Fire</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
@@ -22296,26 +22296,26 @@
         <v>39073</v>
       </c>
       <c r="D241" s="11">
-        <v>39079</v>
+        <v>39080</v>
       </c>
       <c r="E241" s="9">
-        <v>652</v>
+        <v>1042</v>
       </c>
       <c r="F241" s="9">
-        <v>1214</v>
+        <v>1870</v>
       </c>
       <c r="G241" s="13">
         <f>F241/E241/N$2/1.52-1</f>
-        <v>8.9324102346284295E-2</v>
+        <v>4.9928946792130668E-2</v>
       </c>
       <c r="H241" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J241" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K241" s="9" t="s">
         <v>347</v>
@@ -22327,14 +22327,14 @@
         <v>346</v>
       </c>
       <c r="P241" s="9" t="s">
-        <v>514</v>
+        <v>26</v>
       </c>
       <c r="Q241" s="9">
-        <v>83630</v>
+        <v>39073</v>
       </c>
       <c r="R241" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[39079] = {true, false, true, false, true, true}, --Unstable Wall of Storms</v>
+        <v>[39080] = {true, true, false, false, true, true}, --Unstable Wall of Storms</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
@@ -22349,26 +22349,26 @@
         <v>39073</v>
       </c>
       <c r="D242" s="11">
-        <v>39080</v>
+        <v>39079</v>
       </c>
       <c r="E242" s="9">
-        <v>1042</v>
+        <v>652</v>
       </c>
       <c r="F242" s="9">
-        <v>1870</v>
+        <v>1214</v>
       </c>
       <c r="G242" s="13">
         <f>F242/E242/N$2/1.52-1</f>
-        <v>4.9928946792130668E-2</v>
+        <v>8.9324102346284295E-2</v>
       </c>
       <c r="H242" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J242" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K242" s="9" t="s">
         <v>347</v>
@@ -22380,14 +22380,14 @@
         <v>346</v>
       </c>
       <c r="P242" s="9" t="s">
-        <v>26</v>
+        <v>514</v>
       </c>
       <c r="Q242" s="9">
-        <v>39073</v>
+        <v>83630</v>
       </c>
       <c r="R242" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[39080] = {true, true, false, false, true, true}, --Unstable Wall of Storms</v>
+        <v>[39079] = {true, false, true, false, true, true}, --Unstable Wall of Storms</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
@@ -22471,10 +22471,10 @@
         <v>346</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K244" s="9" t="s">
         <v>347</v>
@@ -22493,7 +22493,7 @@
       </c>
       <c r="R244" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[40457] = {true, true, false, false, true, true}, --Degeneration</v>
+        <v>[40457] = {true, false, true, false, true, true}, --Degeneration</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
@@ -22524,10 +22524,10 @@
         <v>346</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K245" s="9" t="s">
         <v>347</v>
@@ -22546,7 +22546,7 @@
       </c>
       <c r="R245" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[28567] = {true, true, false, false, true, true}, --Entropy</v>
+        <v>[28567] = {true, false, true, false, true, true}, --Entropy</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
@@ -22614,17 +22614,17 @@
         <v>40489</v>
       </c>
       <c r="D247" s="11">
-        <v>63454</v>
+        <v>63457</v>
       </c>
       <c r="E247" s="9">
-        <v>1499</v>
+        <v>5174</v>
       </c>
       <c r="F247" s="9">
-        <v>2793</v>
+        <v>9285</v>
       </c>
       <c r="G247" s="13">
         <f>F247/E247/N$2/1.52-1</f>
-        <v>9.0072352485549567E-2</v>
+        <v>4.988445542660469E-2</v>
       </c>
       <c r="H247" s="9" t="s">
         <v>346</v>
@@ -22645,14 +22645,14 @@
         <v>346</v>
       </c>
       <c r="P247" s="9" t="s">
-        <v>532</v>
+        <v>36</v>
       </c>
       <c r="Q247" s="9">
-        <v>16536</v>
+        <v>40457</v>
       </c>
       <c r="R247" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[63454] = {true, true, false, false, true, true}, --Ice Comet</v>
+        <v>[63457] = {true, true, false, false, true, true}, --Ice Comet</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
@@ -22667,26 +22667,26 @@
         <v>40489</v>
       </c>
       <c r="D248" s="11">
-        <v>63457</v>
+        <v>63454</v>
       </c>
       <c r="E248" s="9">
-        <v>5174</v>
+        <v>1499</v>
       </c>
       <c r="F248" s="9">
-        <v>9285</v>
+        <v>2793</v>
       </c>
       <c r="G248" s="13">
         <f>F248/E248/N$2/1.52-1</f>
-        <v>4.988445542660469E-2</v>
+        <v>9.0072352485549567E-2</v>
       </c>
       <c r="H248" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J248" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K248" s="9" t="s">
         <v>347</v>
@@ -22698,14 +22698,14 @@
         <v>346</v>
       </c>
       <c r="P248" s="9" t="s">
-        <v>36</v>
+        <v>532</v>
       </c>
       <c r="Q248" s="9">
-        <v>40457</v>
+        <v>16536</v>
       </c>
       <c r="R248" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[63457] = {true, true, false, false, true, true}, --Ice Comet</v>
+        <v>[63454] = {true, false, true, false, true, true}, --Ice Comet</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
@@ -22789,10 +22789,10 @@
         <v>346</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K250" s="9" t="s">
         <v>347</v>
@@ -22805,7 +22805,7 @@
       </c>
       <c r="R250" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[63429] = {true, true, false, false, true, true}, --Meteor</v>
+        <v>[63429] = {true, false, true, false, true, true}, --Meteor</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
@@ -22820,17 +22820,17 @@
         <v>40465</v>
       </c>
       <c r="D251" s="11">
-        <v>40468</v>
+        <v>40469</v>
       </c>
       <c r="E251" s="9">
-        <v>291</v>
+        <v>2318</v>
       </c>
       <c r="F251" s="9">
-        <v>541</v>
+        <v>4160</v>
       </c>
       <c r="G251" s="13">
         <f>F251/E251/N$2/1.52-1</f>
-        <v>8.7652839633852508E-2</v>
+        <v>4.994347982051317E-2</v>
       </c>
       <c r="H251" s="9" t="s">
         <v>346</v>
@@ -22851,14 +22851,14 @@
         <v>346</v>
       </c>
       <c r="P251" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q251" s="9">
-        <v>40470</v>
+        <v>40489</v>
       </c>
       <c r="R251" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[40468] = {true, true, false, false, true, true}, --Scalding Rune</v>
+        <v>[40469] = {true, true, false, false, true, true}, --Scalding Rune</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
@@ -22873,26 +22873,26 @@
         <v>40465</v>
       </c>
       <c r="D252" s="11">
-        <v>40469</v>
+        <v>40468</v>
       </c>
       <c r="E252" s="9">
-        <v>2318</v>
+        <v>291</v>
       </c>
       <c r="F252" s="9">
-        <v>4160</v>
+        <v>541</v>
       </c>
       <c r="G252" s="13">
         <f>F252/E252/N$2/1.52-1</f>
-        <v>4.994347982051317E-2</v>
+        <v>8.7652839633852508E-2</v>
       </c>
       <c r="H252" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J252" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K252" s="9" t="s">
         <v>347</v>
@@ -22904,14 +22904,14 @@
         <v>346</v>
       </c>
       <c r="P252" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q252" s="9">
-        <v>40489</v>
+        <v>40470</v>
       </c>
       <c r="R252" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[40469] = {true, true, false, false, true, true}, --Scalding Rune</v>
+        <v>[40468] = {true, false, true, false, true, true}, --Scalding Rune</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
@@ -22926,17 +22926,17 @@
         <v>40493</v>
       </c>
       <c r="D253" s="11">
-        <v>63471</v>
+        <v>63474</v>
       </c>
       <c r="E253" s="9">
-        <v>1499</v>
+        <v>4717</v>
       </c>
       <c r="F253" s="9">
-        <v>2793</v>
+        <v>8464</v>
       </c>
       <c r="G253" s="13">
         <f>F253/E253/N$2/1.52-1</f>
-        <v>9.0072352485549567E-2</v>
+        <v>4.9773971161974906E-2</v>
       </c>
       <c r="H253" s="9" t="s">
         <v>346</v>
@@ -22957,14 +22957,14 @@
         <v>346</v>
       </c>
       <c r="P253" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q253" s="9">
-        <v>40452</v>
+        <v>40465</v>
       </c>
       <c r="R253" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[63471] = {true, true, false, false, true, true}, --Shooting Star</v>
+        <v>[63474] = {true, true, false, false, true, true}, --Shooting Star</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
@@ -22979,26 +22979,26 @@
         <v>40493</v>
       </c>
       <c r="D254" s="11">
-        <v>63474</v>
+        <v>63471</v>
       </c>
       <c r="E254" s="9">
-        <v>4717</v>
+        <v>1499</v>
       </c>
       <c r="F254" s="9">
-        <v>8464</v>
+        <v>2793</v>
       </c>
       <c r="G254" s="13">
         <f>F254/E254/N$2/1.52-1</f>
-        <v>4.9773971161974906E-2</v>
+        <v>9.0072352485549567E-2</v>
       </c>
       <c r="H254" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I254" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J254" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K254" s="9" t="s">
         <v>347</v>
@@ -23010,14 +23010,14 @@
         <v>346</v>
       </c>
       <c r="P254" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q254" s="9">
-        <v>40465</v>
+        <v>40452</v>
       </c>
       <c r="R254" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[63474] = {true, true, false, false, true, true}, --Shooting Star</v>
+        <v>[63471] = {true, false, true, false, true, true}, --Shooting Star</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
@@ -23340,20 +23340,20 @@
         <v>478</v>
       </c>
       <c r="C261" s="9">
-        <v>114317</v>
+        <v>118726</v>
       </c>
       <c r="D261" s="11">
-        <v>114461</v>
+        <v>118746</v>
       </c>
       <c r="E261" s="9">
-        <v>832</v>
+        <v>859</v>
       </c>
       <c r="F261" s="9">
-        <v>1490</v>
+        <v>1538</v>
       </c>
       <c r="G261" s="13">
         <f>F261/E261/N$2/1.52-1</f>
-        <v>4.7728997975708509E-2</v>
+        <v>4.748833079957504E-2</v>
       </c>
       <c r="H261" s="9" t="s">
         <v>346</v>
@@ -23375,7 +23375,7 @@
       </c>
       <c r="R261" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>[114461] = {true, true, false, false, true, true}, --Deathbolt</v>
+        <v>[118746] = {true, true, false, false, true, true}, --Deathbolt</v>
       </c>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.25">
@@ -23386,20 +23386,20 @@
         <v>478</v>
       </c>
       <c r="C262" s="10">
-        <v>118680</v>
+        <v>118726</v>
       </c>
       <c r="D262" s="11">
-        <v>122774</v>
+        <v>124468</v>
       </c>
       <c r="E262" s="9">
-        <v>637</v>
+        <v>859</v>
       </c>
       <c r="F262" s="9">
-        <v>1141</v>
+        <v>1538</v>
       </c>
       <c r="G262" s="13">
         <f>F262/E262/N$2/1.52-1</f>
-        <v>4.7929904782607169E-2</v>
+        <v>4.748833079957504E-2</v>
       </c>
       <c r="H262" s="9" t="s">
         <v>346</v>
@@ -23418,16 +23418,10 @@
       </c>
       <c r="M262" s="9" t="s">
         <v>346</v>
-      </c>
-      <c r="P262" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q262" s="9">
-        <v>117749</v>
       </c>
       <c r="R262" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>[122774] = {true, true, false, false, true, true}, --Deathbolt</v>
+        <v>[124468] = {true, true, false, false, true, true}, --Deathbolt</v>
       </c>
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.25">
@@ -23438,20 +23432,20 @@
         <v>478</v>
       </c>
       <c r="C263" s="9">
-        <v>118726</v>
+        <v>114317</v>
       </c>
       <c r="D263" s="11">
-        <v>118746</v>
+        <v>114461</v>
       </c>
       <c r="E263" s="9">
-        <v>859</v>
+        <v>832</v>
       </c>
       <c r="F263" s="9">
-        <v>1538</v>
+        <v>1490</v>
       </c>
       <c r="G263" s="13">
         <f>F263/E263/N$2/1.52-1</f>
-        <v>4.748833079957504E-2</v>
+        <v>4.7728997975708509E-2</v>
       </c>
       <c r="H263" s="9" t="s">
         <v>346</v>
@@ -23473,7 +23467,7 @@
       </c>
       <c r="R263" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>[118746] = {true, true, false, false, true, true}, --Deathbolt</v>
+        <v>[114461] = {true, true, false, false, true, true}, --Deathbolt</v>
       </c>
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.25">
@@ -23484,20 +23478,20 @@
         <v>478</v>
       </c>
       <c r="C264" s="10">
-        <v>118726</v>
+        <v>118680</v>
       </c>
       <c r="D264" s="11">
-        <v>124468</v>
+        <v>122774</v>
       </c>
       <c r="E264" s="9">
-        <v>859</v>
+        <v>637</v>
       </c>
       <c r="F264" s="9">
-        <v>1538</v>
+        <v>1141</v>
       </c>
       <c r="G264" s="13">
         <f>F264/E264/N$2/1.52-1</f>
-        <v>4.748833079957504E-2</v>
+        <v>4.7929904782607169E-2</v>
       </c>
       <c r="H264" s="9" t="s">
         <v>346</v>
@@ -23516,10 +23510,16 @@
       </c>
       <c r="M264" s="9" t="s">
         <v>346</v>
+      </c>
+      <c r="P264" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q264" s="9">
+        <v>117749</v>
       </c>
       <c r="R264" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>[124468] = {true, true, false, false, true, true}, --Deathbolt</v>
+        <v>[122774] = {true, true, false, false, true, true}, --Deathbolt</v>
       </c>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.25">
@@ -23534,26 +23534,26 @@
         <v>118763</v>
       </c>
       <c r="D265" s="11">
-        <v>118766</v>
+        <v>123082</v>
       </c>
       <c r="E265" s="9">
-        <v>154</v>
+        <v>1593</v>
       </c>
       <c r="F265" s="9">
-        <v>286</v>
+        <v>2856</v>
       </c>
       <c r="G265" s="13">
         <f>F265/E265/N$2/1.52-1</f>
-        <v>8.6504011707120076E-2</v>
+        <v>4.888638765989417E-2</v>
       </c>
       <c r="H265" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I265" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J265" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K265" s="9" t="s">
         <v>347</v>
@@ -23565,14 +23565,14 @@
         <v>346</v>
       </c>
       <c r="P265" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q265" s="10">
-        <v>118763</v>
+        <v>489</v>
+      </c>
+      <c r="Q265" s="9">
+        <v>117850</v>
       </c>
       <c r="R265" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>[118766] = {true, false, true, false, true, true}, --Detonating Siphon</v>
+        <v>[123082] = {true, true, false, false, true, true}, --Detonating Siphon</v>
       </c>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
@@ -23587,26 +23587,26 @@
         <v>118763</v>
       </c>
       <c r="D266" s="11">
-        <v>123082</v>
+        <v>118766</v>
       </c>
       <c r="E266" s="9">
-        <v>1593</v>
+        <v>154</v>
       </c>
       <c r="F266" s="9">
-        <v>2856</v>
+        <v>286</v>
       </c>
       <c r="G266" s="13">
         <f>F266/E266/N$2/1.52-1</f>
-        <v>4.888638765989417E-2</v>
+        <v>8.6504011707120076E-2</v>
       </c>
       <c r="H266" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I266" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J266" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K266" s="9" t="s">
         <v>347</v>
@@ -23618,14 +23618,14 @@
         <v>346</v>
       </c>
       <c r="P266" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q266" s="9">
-        <v>117850</v>
+        <v>484</v>
+      </c>
+      <c r="Q266" s="10">
+        <v>118763</v>
       </c>
       <c r="R266" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>[123082] = {true, true, false, false, true, true}, --Detonating Siphon</v>
+        <v>[118766] = {true, false, true, false, true, true}, --Detonating Siphon</v>
       </c>
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.25">
@@ -23990,17 +23990,17 @@
         <v>122395</v>
       </c>
       <c r="D274" s="11">
-        <v>122399</v>
+        <v>122401</v>
       </c>
       <c r="E274" s="9">
-        <v>3439</v>
+        <v>5366</v>
       </c>
       <c r="F274" s="9">
-        <v>6392</v>
+        <v>9973</v>
       </c>
       <c r="G274" s="13">
         <f>F274/E274/N$2/1.52-1</f>
-        <v>8.740321425779829E-2</v>
+        <v>8.7329504304678451E-2</v>
       </c>
       <c r="H274" s="9" t="s">
         <v>346</v>
@@ -24021,14 +24021,14 @@
         <v>346</v>
       </c>
       <c r="P274" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q274" s="10">
-        <v>122395</v>
+        <v>487</v>
+      </c>
+      <c r="Q274" s="9">
+        <v>123718</v>
       </c>
       <c r="R274" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>[122399] = {true, false, true, false, true, true}, --Pestilent Colossus</v>
+        <v>[122401] = {true, false, true, false, true, true}, --Pestilent Colossus</v>
       </c>
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
@@ -24043,17 +24043,17 @@
         <v>122395</v>
       </c>
       <c r="D275" s="11">
-        <v>122400</v>
+        <v>122399</v>
       </c>
       <c r="E275" s="9">
-        <v>4918</v>
+        <v>3439</v>
       </c>
       <c r="F275" s="9">
-        <v>9141</v>
+        <v>6392</v>
       </c>
       <c r="G275" s="13">
         <f>F275/E275/N$2/1.52-1</f>
-        <v>8.7404701678347907E-2</v>
+        <v>8.740321425779829E-2</v>
       </c>
       <c r="H275" s="9" t="s">
         <v>346</v>
@@ -24074,14 +24074,14 @@
         <v>346</v>
       </c>
       <c r="P275" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q275" s="10">
-        <v>118226</v>
+        <v>122395</v>
       </c>
       <c r="R275" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>[122400] = {true, false, true, false, true, true}, --Pestilent Colossus</v>
+        <v>[122399] = {true, false, true, false, true, true}, --Pestilent Colossus</v>
       </c>
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
@@ -24096,17 +24096,17 @@
         <v>122395</v>
       </c>
       <c r="D276" s="11">
-        <v>122401</v>
+        <v>122400</v>
       </c>
       <c r="E276" s="9">
-        <v>5366</v>
+        <v>4918</v>
       </c>
       <c r="F276" s="9">
-        <v>9973</v>
+        <v>9141</v>
       </c>
       <c r="G276" s="13">
         <f>F276/E276/N$2/1.52-1</f>
-        <v>8.7329504304678451E-2</v>
+        <v>8.7404701678347907E-2</v>
       </c>
       <c r="H276" s="9" t="s">
         <v>346</v>
@@ -24127,14 +24127,14 @@
         <v>346</v>
       </c>
       <c r="P276" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q276" s="9">
-        <v>123718</v>
+        <v>486</v>
+      </c>
+      <c r="Q276" s="10">
+        <v>118226</v>
       </c>
       <c r="R276" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>[122401] = {true, false, true, false, true, true}, --Pestilent Colossus</v>
+        <v>[122400] = {true, false, true, false, true, true}, --Pestilent Colossus</v>
       </c>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.25">
@@ -25403,26 +25403,26 @@
         <v>36957</v>
       </c>
       <c r="D301" s="11">
-        <v>36960</v>
+        <v>36963</v>
       </c>
       <c r="E301" s="9">
-        <v>991</v>
+        <v>875</v>
       </c>
       <c r="F301" s="9">
-        <v>1846</v>
+        <v>1569</v>
       </c>
       <c r="G301" s="13">
         <f>F301/E301/N$2/1.52-1</f>
-        <v>8.97931257687965E-2</v>
+        <v>4.9061411919059328E-2</v>
       </c>
       <c r="H301" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I301" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J301" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K301" s="9" t="s">
         <v>347</v>
@@ -25435,7 +25435,7 @@
       </c>
       <c r="R301" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>[36960] = {true, false, true, false, true, true}, --Crippling Grasp</v>
+        <v>[36963] = {true, true, false, false, true, true}, --Crippling Grasp</v>
       </c>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
@@ -25450,26 +25450,26 @@
         <v>36957</v>
       </c>
       <c r="D302" s="11">
-        <v>36963</v>
+        <v>36960</v>
       </c>
       <c r="E302" s="9">
-        <v>875</v>
+        <v>991</v>
       </c>
       <c r="F302" s="9">
-        <v>1569</v>
+        <v>1846</v>
       </c>
       <c r="G302" s="13">
         <f>F302/E302/N$2/1.52-1</f>
-        <v>4.9061411919059328E-2</v>
+        <v>8.97931257687965E-2</v>
       </c>
       <c r="H302" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I302" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J302" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K302" s="9" t="s">
         <v>347</v>
@@ -25482,7 +25482,7 @@
       </c>
       <c r="R302" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>[36963] = {true, true, false, false, true, true}, --Crippling Grasp</v>
+        <v>[36960] = {true, false, true, false, true, true}, --Crippling Grasp</v>
       </c>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
@@ -26737,17 +26737,17 @@
         <v>38268</v>
       </c>
       <c r="D327" s="11">
-        <v>38268</v>
+        <v>60921</v>
       </c>
       <c r="E327" s="9">
-        <v>1863</v>
+        <v>450</v>
       </c>
       <c r="F327" s="9">
-        <v>3343</v>
+        <v>807</v>
       </c>
       <c r="G327" s="13">
         <f>F327/E327/N$2/1.52-1</f>
-        <v>4.9807191789847494E-2</v>
+        <v>4.9172848227952315E-2</v>
       </c>
       <c r="H327" s="9" t="s">
         <v>346</v>
@@ -26768,14 +26768,14 @@
         <v>346</v>
       </c>
       <c r="P327" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q327" s="9">
-        <v>28365</v>
+        <v>38401</v>
       </c>
       <c r="R327" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>[38268] = {true, true, false, false, true, true}, --Deep Slash</v>
+        <v>[60921] = {true, true, false, false, true, true}, --Deep Slash</v>
       </c>
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.25">
@@ -26790,17 +26790,17 @@
         <v>38268</v>
       </c>
       <c r="D328" s="11">
-        <v>60921</v>
+        <v>38268</v>
       </c>
       <c r="E328" s="9">
-        <v>450</v>
+        <v>1863</v>
       </c>
       <c r="F328" s="9">
-        <v>807</v>
+        <v>3343</v>
       </c>
       <c r="G328" s="13">
         <f>F328/E328/N$2/1.52-1</f>
-        <v>4.9172848227952315E-2</v>
+        <v>4.9807191789847494E-2</v>
       </c>
       <c r="H328" s="9" t="s">
         <v>346</v>
@@ -26821,14 +26821,14 @@
         <v>346</v>
       </c>
       <c r="P328" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q328" s="9">
-        <v>38401</v>
+        <v>28365</v>
       </c>
       <c r="R328" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>[60921] = {true, true, false, false, true, true}, --Deep Slash</v>
+        <v>[38268] = {true, true, false, false, true, true}, --Deep Slash</v>
       </c>
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.25">
@@ -28356,17 +28356,17 @@
         <v>46331</v>
       </c>
       <c r="D361" s="11">
-        <v>46331</v>
+        <v>46333</v>
       </c>
       <c r="E361" s="9">
-        <v>3906</v>
+        <v>3031</v>
       </c>
       <c r="F361" s="9">
-        <v>7011</v>
+        <v>5439</v>
       </c>
       <c r="G361" s="13">
         <f>F361/E361/N$2/1.52-1</f>
-        <v>5.0107475334797424E-2</v>
+        <v>4.9830399658025604E-2</v>
       </c>
       <c r="H361" s="9" t="s">
         <v>346</v>
@@ -28387,14 +28387,14 @@
         <v>346</v>
       </c>
       <c r="P361" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q361" s="9">
-        <v>24636</v>
+        <v>29489</v>
       </c>
       <c r="R361" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>[46331] = {true, true, false, false, true, true}, --Crystal Blast</v>
+        <v>[46333] = {true, true, false, false, true, true}, --Crystal Blast</v>
       </c>
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.25">
@@ -28409,17 +28409,17 @@
         <v>46331</v>
       </c>
       <c r="D362" s="11">
-        <v>46333</v>
+        <v>46331</v>
       </c>
       <c r="E362" s="9">
-        <v>3031</v>
+        <v>3906</v>
       </c>
       <c r="F362" s="9">
-        <v>5439</v>
+        <v>7011</v>
       </c>
       <c r="G362" s="13">
         <f>F362/E362/N$2/1.52-1</f>
-        <v>4.9830399658025604E-2</v>
+        <v>5.0107475334797424E-2</v>
       </c>
       <c r="H362" s="9" t="s">
         <v>346</v>
@@ -28440,14 +28440,14 @@
         <v>346</v>
       </c>
       <c r="P362" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q362" s="9">
-        <v>29489</v>
+        <v>24636</v>
       </c>
       <c r="R362" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>[46333] = {true, true, false, false, true, true}, --Crystal Blast</v>
+        <v>[46331] = {true, true, false, false, true, true}, --Crystal Blast</v>
       </c>
     </row>
     <row r="363" spans="1:18" x14ac:dyDescent="0.25">
@@ -28608,17 +28608,17 @@
         <v>24326</v>
       </c>
       <c r="D366" s="11">
-        <v>44507</v>
+        <v>24327</v>
       </c>
       <c r="E366" s="9">
-        <v>1548</v>
+        <v>3368</v>
       </c>
       <c r="F366" s="9">
-        <v>2778</v>
+        <v>6043</v>
       </c>
       <c r="G366" s="13">
         <f>F366/E366/N$2/1.52-1</f>
-        <v>4.9898480006790757E-2</v>
+        <v>4.9703229472475963E-2</v>
       </c>
       <c r="H366" s="9" t="s">
         <v>346</v>
@@ -28639,14 +28639,14 @@
         <v>346</v>
       </c>
       <c r="P366" s="9" t="s">
-        <v>268</v>
+        <v>50</v>
       </c>
       <c r="Q366" s="9">
-        <v>24828</v>
+        <v>46331</v>
       </c>
       <c r="R366" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>[44507] = {true, true, false, false, true, true}, --Daedric Curse</v>
+        <v>[24327] = {true, true, false, false, true, true}, --Daedric Curse</v>
       </c>
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.25">
@@ -28661,17 +28661,17 @@
         <v>24326</v>
       </c>
       <c r="D367" s="11">
-        <v>24327</v>
+        <v>44507</v>
       </c>
       <c r="E367" s="9">
-        <v>3368</v>
+        <v>1548</v>
       </c>
       <c r="F367" s="9">
-        <v>6043</v>
+        <v>2778</v>
       </c>
       <c r="G367" s="13">
         <f>F367/E367/N$2/1.52-1</f>
-        <v>4.9703229472475963E-2</v>
+        <v>4.9898480006790757E-2</v>
       </c>
       <c r="H367" s="9" t="s">
         <v>346</v>
@@ -28692,14 +28692,14 @@
         <v>346</v>
       </c>
       <c r="P367" s="9" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="Q367" s="9">
-        <v>46331</v>
+        <v>24828</v>
       </c>
       <c r="R367" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>[24327] = {true, true, false, false, true, true}, --Daedric Curse</v>
+        <v>[44507] = {true, true, false, false, true, true}, --Daedric Curse</v>
       </c>
     </row>
     <row r="368" spans="1:18" x14ac:dyDescent="0.25">
@@ -29113,21 +29113,21 @@
       <c r="B376" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C376" s="9">
-        <v>23316</v>
+      <c r="C376" s="10">
+        <v>23304</v>
       </c>
       <c r="D376" s="11">
-        <v>77186</v>
+        <v>108844</v>
       </c>
       <c r="E376" s="9">
-        <v>1078</v>
+        <v>938</v>
       </c>
       <c r="F376" s="9">
-        <v>2008</v>
+        <v>1747</v>
       </c>
       <c r="G376" s="13">
         <f>F376/E376/N$2/1.52-1</f>
-        <v>8.9760267486462153E-2</v>
+        <v>8.9622565127634335E-2</v>
       </c>
       <c r="H376" s="9" t="s">
         <v>346</v>
@@ -29148,14 +29148,14 @@
         <v>346</v>
       </c>
       <c r="P376" s="9" t="s">
-        <v>56</v>
+        <v>453</v>
       </c>
       <c r="Q376" s="9">
-        <v>23236</v>
+        <v>24806</v>
       </c>
       <c r="R376" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>[77186] = {true, false, true, false, true, true}, --Familiar Damage Pulse</v>
+        <v>[108844] = {true, false, true, false, true, true}, --Familiar Damage Pulse</v>
       </c>
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.25">
@@ -29165,21 +29165,21 @@
       <c r="B377" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C377" s="10">
-        <v>23304</v>
+      <c r="C377" s="9">
+        <v>23316</v>
       </c>
       <c r="D377" s="11">
-        <v>108844</v>
+        <v>77186</v>
       </c>
       <c r="E377" s="9">
-        <v>938</v>
+        <v>1078</v>
       </c>
       <c r="F377" s="9">
-        <v>1747</v>
+        <v>2008</v>
       </c>
       <c r="G377" s="13">
         <f>F377/E377/N$2/1.52-1</f>
-        <v>8.9622565127634335E-2</v>
+        <v>8.9760267486462153E-2</v>
       </c>
       <c r="H377" s="9" t="s">
         <v>346</v>
@@ -29200,14 +29200,14 @@
         <v>346</v>
       </c>
       <c r="P377" s="9" t="s">
-        <v>453</v>
+        <v>56</v>
       </c>
       <c r="Q377" s="9">
-        <v>24806</v>
+        <v>23236</v>
       </c>
       <c r="R377" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>[108844] = {true, false, true, false, true, true}, --Familiar Damage Pulse</v>
+        <v>[77186] = {true, false, true, false, true, true}, --Familiar Damage Pulse</v>
       </c>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.25">
@@ -29326,17 +29326,17 @@
         <v>24330</v>
       </c>
       <c r="D380" s="11">
-        <v>24331</v>
+        <v>44515</v>
       </c>
       <c r="E380" s="9">
-        <v>3478</v>
+        <v>1600</v>
       </c>
       <c r="F380" s="9">
-        <v>6242</v>
+        <v>2871</v>
       </c>
       <c r="G380" s="13">
         <f>F380/E380/N$2/1.52-1</f>
-        <v>4.997802201820023E-2</v>
+        <v>4.9782265542211324E-2</v>
       </c>
       <c r="H380" s="9" t="s">
         <v>346</v>
@@ -29357,14 +29357,14 @@
         <v>346</v>
       </c>
       <c r="P380" s="9" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="Q380" s="9">
-        <v>23495</v>
+        <v>23182</v>
       </c>
       <c r="R380" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>[24331] = {true, true, false, false, true, true}, --Haunting Curse</v>
+        <v>[44515] = {true, true, false, false, true, true}, --Haunting Curse</v>
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.25">
@@ -29379,17 +29379,17 @@
         <v>24330</v>
       </c>
       <c r="D381" s="11">
-        <v>44515</v>
+        <v>24331</v>
       </c>
       <c r="E381" s="9">
-        <v>1600</v>
+        <v>3478</v>
       </c>
       <c r="F381" s="9">
-        <v>2871</v>
+        <v>6242</v>
       </c>
       <c r="G381" s="13">
         <f>F381/E381/N$2/1.52-1</f>
-        <v>4.9782265542211324E-2</v>
+        <v>4.997802201820023E-2</v>
       </c>
       <c r="H381" s="9" t="s">
         <v>346</v>
@@ -29410,14 +29410,14 @@
         <v>346</v>
       </c>
       <c r="P381" s="9" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="Q381" s="9">
-        <v>23182</v>
+        <v>23495</v>
       </c>
       <c r="R381" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>[44515] = {true, true, false, false, true, true}, --Haunting Curse</v>
+        <v>[24331] = {true, true, false, false, true, true}, --Haunting Curse</v>
       </c>
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
@@ -31632,17 +31632,17 @@
         <v>26869</v>
       </c>
       <c r="D426" s="11">
-        <v>26871</v>
+        <v>26879</v>
       </c>
       <c r="E426" s="9">
-        <v>1807</v>
+        <v>535</v>
       </c>
       <c r="F426" s="9">
-        <v>3366</v>
+        <v>996</v>
       </c>
       <c r="G426" s="13">
         <f>F426/E426/N$2/1.52-1</f>
-        <v>8.9787898507648123E-2</v>
+        <v>8.9159736825598968E-2</v>
       </c>
       <c r="H426" s="9" t="s">
         <v>346</v>
@@ -31663,14 +31663,14 @@
         <v>346</v>
       </c>
       <c r="P426" s="12" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="Q426" s="9">
-        <v>21726</v>
+        <v>22057</v>
       </c>
       <c r="R426" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[26871] = {true, false, true, false, true, true}, --Blazing Spear</v>
+        <v>[26879] = {true, false, true, false, true, true}, --Blazing Spear</v>
       </c>
     </row>
     <row r="427" spans="1:18" x14ac:dyDescent="0.25">
@@ -31685,17 +31685,17 @@
         <v>26869</v>
       </c>
       <c r="D427" s="11">
-        <v>26879</v>
+        <v>26871</v>
       </c>
       <c r="E427" s="9">
-        <v>535</v>
+        <v>1807</v>
       </c>
       <c r="F427" s="9">
-        <v>996</v>
+        <v>3366</v>
       </c>
       <c r="G427" s="13">
         <f>F427/E427/N$2/1.52-1</f>
-        <v>8.9159736825598968E-2</v>
+        <v>8.9787898507648123E-2</v>
       </c>
       <c r="H427" s="9" t="s">
         <v>346</v>
@@ -31716,14 +31716,14 @@
         <v>346</v>
       </c>
       <c r="P427" s="12" t="s">
-        <v>359</v>
+        <v>276</v>
       </c>
       <c r="Q427" s="9">
-        <v>22057</v>
+        <v>21726</v>
       </c>
       <c r="R427" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[26879] = {true, false, true, false, true, true}, --Blazing Spear</v>
+        <v>[26871] = {true, false, true, false, true, true}, --Blazing Spear</v>
       </c>
     </row>
     <row r="428" spans="1:18" x14ac:dyDescent="0.25">
@@ -31831,17 +31831,17 @@
         <v>22139</v>
       </c>
       <c r="D430" s="11">
-        <v>22139</v>
+        <v>62606</v>
       </c>
       <c r="E430" s="9">
-        <v>3859</v>
+        <v>1869</v>
       </c>
       <c r="F430" s="9">
-        <v>6926</v>
+        <v>3353</v>
       </c>
       <c r="G430" s="13">
         <f>F430/E430/N$2/1.52-1</f>
-        <v>5.001071412650937E-2</v>
+        <v>4.9567257635832362E-2</v>
       </c>
       <c r="H430" s="9" t="s">
         <v>346</v>
@@ -31862,14 +31862,14 @@
         <v>346</v>
       </c>
       <c r="P430" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q430" s="9">
-        <v>21776</v>
+        <v>63029</v>
       </c>
       <c r="R430" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[22139] = {true, true, false, false, true, true}, --Crescent Sweep</v>
+        <v>[62606] = {true, true, false, false, true, true}, --Crescent Sweep</v>
       </c>
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.25">
@@ -31884,17 +31884,17 @@
         <v>22139</v>
       </c>
       <c r="D431" s="11">
-        <v>62606</v>
+        <v>22139</v>
       </c>
       <c r="E431" s="9">
-        <v>1869</v>
+        <v>3859</v>
       </c>
       <c r="F431" s="9">
-        <v>3353</v>
+        <v>6926</v>
       </c>
       <c r="G431" s="13">
         <f>F431/E431/N$2/1.52-1</f>
-        <v>4.9567257635832362E-2</v>
+        <v>5.001071412650937E-2</v>
       </c>
       <c r="H431" s="9" t="s">
         <v>346</v>
@@ -31915,14 +31915,14 @@
         <v>346</v>
       </c>
       <c r="P431" s="12" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q431" s="9">
-        <v>63029</v>
+        <v>21776</v>
       </c>
       <c r="R431" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[62606] = {true, true, false, false, true, true}, --Crescent Sweep</v>
+        <v>[22139] = {true, true, false, false, true, true}, --Crescent Sweep</v>
       </c>
     </row>
     <row r="432" spans="1:18" x14ac:dyDescent="0.25">
@@ -32255,17 +32255,17 @@
         <v>26858</v>
       </c>
       <c r="D438" s="11">
-        <v>26859</v>
+        <v>95955</v>
       </c>
       <c r="E438" s="9">
-        <v>1750</v>
+        <v>396</v>
       </c>
       <c r="F438" s="9">
-        <v>3259</v>
+        <v>736</v>
       </c>
       <c r="G438" s="13">
         <f>F438/E438/N$2/1.52-1</f>
-        <v>8.9512792047232281E-2</v>
+        <v>8.7348226168431076E-2</v>
       </c>
       <c r="H438" s="9" t="s">
         <v>346</v>
@@ -32286,14 +32286,14 @@
         <v>346</v>
       </c>
       <c r="P438" s="12" t="s">
-        <v>60</v>
+        <v>362</v>
       </c>
       <c r="Q438" s="9">
-        <v>22144</v>
+        <v>21729</v>
       </c>
       <c r="R438" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[26859] = {true, false, true, false, true, true}, --Luminous Shards</v>
+        <v>[95955] = {true, false, true, false, true, true}, --Luminous Shards</v>
       </c>
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.25">
@@ -32308,17 +32308,17 @@
         <v>26858</v>
       </c>
       <c r="D439" s="11">
-        <v>95955</v>
+        <v>26859</v>
       </c>
       <c r="E439" s="9">
-        <v>396</v>
+        <v>1750</v>
       </c>
       <c r="F439" s="9">
-        <v>736</v>
+        <v>3259</v>
       </c>
       <c r="G439" s="13">
         <f>F439/E439/N$2/1.52-1</f>
-        <v>8.7348226168431076E-2</v>
+        <v>8.9512792047232281E-2</v>
       </c>
       <c r="H439" s="9" t="s">
         <v>346</v>
@@ -32339,14 +32339,14 @@
         <v>346</v>
       </c>
       <c r="P439" s="12" t="s">
-        <v>362</v>
+        <v>60</v>
       </c>
       <c r="Q439" s="9">
-        <v>21729</v>
+        <v>22144</v>
       </c>
       <c r="R439" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[95955] = {true, false, true, false, true, true}, --Luminous Shards</v>
+        <v>[26859] = {true, false, true, false, true, true}, --Luminous Shards</v>
       </c>
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.25">
@@ -32467,13 +32467,23 @@
         <v>21763</v>
       </c>
       <c r="D442" s="11">
-        <v>27567</v>
+        <v>89828</v>
+      </c>
+      <c r="E442" s="9">
+        <v>890</v>
+      </c>
+      <c r="F442" s="9">
+        <v>1589</v>
+      </c>
+      <c r="G442" s="13">
+        <f>F442/E442/N$2/1.52-1</f>
+        <v>4.4527581868478494E-2</v>
       </c>
       <c r="H442" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I442" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J442" s="9" t="s">
         <v>347</v>
@@ -32482,23 +32492,20 @@
         <v>347</v>
       </c>
       <c r="L442" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M442" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="N442" s="9" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="P442" s="12" t="s">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="Q442" s="9">
-        <v>22006</v>
+        <v>63044</v>
       </c>
       <c r="R442" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[27567] = {false, false, false, false, false, false}, --Power of the Light</v>
+        <v>[89828] = {true, true, false, false, true, true}, --Power of the Light</v>
       </c>
     </row>
     <row r="443" spans="1:18" x14ac:dyDescent="0.25">
@@ -32513,23 +32520,13 @@
         <v>21763</v>
       </c>
       <c r="D443" s="11">
-        <v>89828</v>
-      </c>
-      <c r="E443" s="9">
-        <v>890</v>
-      </c>
-      <c r="F443" s="9">
-        <v>1589</v>
-      </c>
-      <c r="G443" s="13">
-        <f>F443/E443/N$2/1.52-1</f>
-        <v>4.4527581868478494E-2</v>
+        <v>27567</v>
       </c>
       <c r="H443" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I443" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J443" s="9" t="s">
         <v>347</v>
@@ -32538,20 +32535,23 @@
         <v>347</v>
       </c>
       <c r="L443" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M443" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="N443" s="9" t="s">
+        <v>364</v>
       </c>
       <c r="P443" s="12" t="s">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="Q443" s="9">
-        <v>63044</v>
+        <v>22006</v>
       </c>
       <c r="R443" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[89828] = {true, true, false, false, true, true}, --Power of the Light</v>
+        <v>[27567] = {false, false, false, false, false, false}, --Power of the Light</v>
       </c>
     </row>
     <row r="444" spans="1:18" x14ac:dyDescent="0.25">
@@ -32566,17 +32566,17 @@
         <v>26114</v>
       </c>
       <c r="D444" s="11">
-        <v>26116</v>
+        <v>44426</v>
       </c>
       <c r="E444" s="9">
-        <v>326</v>
+        <v>848</v>
       </c>
       <c r="F444" s="9">
-        <v>608</v>
+        <v>1581</v>
       </c>
       <c r="G444" s="13">
         <f>F444/E444/N$2/1.52-1</f>
-        <v>9.111870548029799E-2</v>
+        <v>9.0742008124337747E-2</v>
       </c>
       <c r="H444" s="9" t="s">
         <v>346</v>
@@ -32597,14 +32597,14 @@
         <v>346</v>
       </c>
       <c r="P444" s="12" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="Q444" s="9">
-        <v>21755</v>
+        <v>26797</v>
       </c>
       <c r="R444" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[26116] = {true, false, true, false, true, true}, --Puncturing Strikes</v>
+        <v>[44426] = {true, false, true, false, true, true}, --Puncturing Strikes</v>
       </c>
     </row>
     <row r="445" spans="1:18" x14ac:dyDescent="0.25">
@@ -32619,17 +32619,17 @@
         <v>26114</v>
       </c>
       <c r="D445" s="11">
-        <v>44426</v>
+        <v>26116</v>
       </c>
       <c r="E445" s="9">
-        <v>848</v>
+        <v>326</v>
       </c>
       <c r="F445" s="9">
-        <v>1581</v>
+        <v>608</v>
       </c>
       <c r="G445" s="13">
         <f>F445/E445/N$2/1.52-1</f>
-        <v>9.0742008124337747E-2</v>
+        <v>9.111870548029799E-2</v>
       </c>
       <c r="H445" s="9" t="s">
         <v>346</v>
@@ -32650,14 +32650,14 @@
         <v>346</v>
       </c>
       <c r="P445" s="12" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="Q445" s="9">
-        <v>26797</v>
+        <v>21755</v>
       </c>
       <c r="R445" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[44426] = {true, false, true, false, true, true}, --Puncturing Strikes</v>
+        <v>[26116] = {true, false, true, false, true, true}, --Puncturing Strikes</v>
       </c>
     </row>
     <row r="446" spans="1:18" x14ac:dyDescent="0.25">
@@ -33395,17 +33395,17 @@
         <v>26188</v>
       </c>
       <c r="D460" s="11">
-        <v>26192</v>
+        <v>95931</v>
       </c>
       <c r="E460" s="9">
-        <v>1749</v>
+        <v>396</v>
       </c>
       <c r="F460" s="9">
-        <v>3258</v>
+        <v>736</v>
       </c>
       <c r="G460" s="13">
         <f>F460/E460/N$2/1.52-1</f>
-        <v>8.9801226678655199E-2</v>
+        <v>8.7348226168431076E-2</v>
       </c>
       <c r="H460" s="9" t="s">
         <v>346</v>
@@ -33428,7 +33428,7 @@
       <c r="P460" s="12"/>
       <c r="R460" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>[26192] = {true, false, true, false, true, true}, --Spear Shards</v>
+        <v>[95931] = {true, false, true, false, true, true}, --Spear Shards</v>
       </c>
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.25">
@@ -33443,17 +33443,17 @@
         <v>26188</v>
       </c>
       <c r="D461" s="11">
-        <v>95931</v>
+        <v>26192</v>
       </c>
       <c r="E461" s="9">
-        <v>396</v>
+        <v>1749</v>
       </c>
       <c r="F461" s="9">
-        <v>736</v>
+        <v>3258</v>
       </c>
       <c r="G461" s="13">
         <f>F461/E461/N$2/1.52-1</f>
-        <v>8.7348226168431076E-2</v>
+        <v>8.9801226678655199E-2</v>
       </c>
       <c r="H461" s="9" t="s">
         <v>346</v>
@@ -33476,7 +33476,7 @@
       <c r="P461" s="12"/>
       <c r="R461" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>[95931] = {true, false, true, false, true, true}, --Spear Shards</v>
+        <v>[26192] = {true, false, true, false, true, true}, --Spear Shards</v>
       </c>
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.25">
@@ -35343,10 +35343,10 @@
         <v>346</v>
       </c>
       <c r="I498" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J498" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K498" s="9" t="s">
         <v>347</v>
@@ -35365,7 +35365,7 @@
       </c>
       <c r="R498" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>[80107] = {true, true, false, false, true, true}, --Shadow Silk</v>
+        <v>[80107] = {true, false, true, false, true, true}, --Shadow Silk</v>
       </c>
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.25">
@@ -35451,10 +35451,10 @@
         <v>346</v>
       </c>
       <c r="I500" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J500" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K500" s="9" t="s">
         <v>347</v>
@@ -35473,7 +35473,7 @@
       </c>
       <c r="R500" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>[80129] = {true, true, false, false, true, true}, --Tangling Webs</v>
+        <v>[80129] = {true, false, true, false, true, true}, --Tangling Webs</v>
       </c>
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.25">
@@ -36245,7 +36245,7 @@
         <v>86109</v>
       </c>
       <c r="R515" s="9" t="str">
-        <f t="shared" ref="R515:R561" si="8">CONCATENATE("[",D515,"] = {",LOWER(H515),", ",LOWER(I515),", ",LOWER(J515),", ",LOWER(K515),", ",LOWER(L515),", ",LOWER(M515),"}, --",B515)</f>
+        <f t="shared" ref="R515:R559" si="8">CONCATENATE("[",D515,"] = {",LOWER(H515),", ",LOWER(I515),", ",LOWER(J515),", ",LOWER(K515),", ",LOWER(L515),", ",LOWER(M515),"}, --",B515)</f>
         <v>[85999] = {true, true, false, false, true, true}, --Cutting Dive</v>
       </c>
     </row>
@@ -37291,20 +37291,20 @@
         <v>462</v>
       </c>
       <c r="C536" s="9">
-        <v>85982</v>
+        <v>85986</v>
       </c>
       <c r="D536" s="11">
-        <v>89135</v>
+        <v>105906</v>
       </c>
       <c r="E536" s="9">
-        <v>908</v>
+        <v>939</v>
       </c>
       <c r="F536" s="9">
-        <v>1630</v>
+        <v>1684</v>
       </c>
       <c r="G536" s="13">
         <f>F536/E536/N$2/1.52-1</f>
-        <v>5.0238120431908007E-2</v>
+        <v>4.9210231015280659E-2</v>
       </c>
       <c r="H536" s="9" t="s">
         <v>346</v>
@@ -37325,14 +37325,14 @@
         <v>346</v>
       </c>
       <c r="P536" s="9" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="Q536" s="9">
-        <v>86023</v>
+        <v>86165</v>
       </c>
       <c r="R536" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>[89135] = {true, true, false, false, true, true}, --Swipe</v>
+        <v>[105906] = {true, true, false, false, true, true}, --Swipe</v>
       </c>
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.25">
@@ -37343,20 +37343,20 @@
         <v>462</v>
       </c>
       <c r="C537" s="9">
-        <v>85986</v>
+        <v>85990</v>
       </c>
       <c r="D537" s="11">
-        <v>105906</v>
+        <v>89219</v>
       </c>
       <c r="E537" s="9">
-        <v>939</v>
+        <v>986</v>
       </c>
       <c r="F537" s="9">
-        <v>1684</v>
+        <v>1769</v>
       </c>
       <c r="G537" s="13">
         <f>F537/E537/N$2/1.52-1</f>
-        <v>4.9210231015280659E-2</v>
+        <v>4.9631703617512013E-2</v>
       </c>
       <c r="H537" s="9" t="s">
         <v>346</v>
@@ -37377,14 +37377,14 @@
         <v>346</v>
       </c>
       <c r="P537" s="9" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="Q537" s="9">
-        <v>86165</v>
+        <v>86031</v>
       </c>
       <c r="R537" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>[105906] = {true, true, false, false, true, true}, --Swipe</v>
+        <v>[89219] = {true, true, false, false, true, true}, --Swipe</v>
       </c>
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.25">
@@ -37395,20 +37395,20 @@
         <v>462</v>
       </c>
       <c r="C538" s="9">
-        <v>85990</v>
+        <v>85982</v>
       </c>
       <c r="D538" s="11">
-        <v>89219</v>
+        <v>89135</v>
       </c>
       <c r="E538" s="9">
-        <v>986</v>
+        <v>908</v>
       </c>
       <c r="F538" s="9">
-        <v>1769</v>
+        <v>1630</v>
       </c>
       <c r="G538" s="13">
         <f>F538/E538/N$2/1.52-1</f>
-        <v>4.9631703617512013E-2</v>
+        <v>5.0238120431908007E-2</v>
       </c>
       <c r="H538" s="9" t="s">
         <v>346</v>
@@ -37429,14 +37429,14 @@
         <v>346</v>
       </c>
       <c r="P538" s="9" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="Q538" s="9">
-        <v>86031</v>
+        <v>86023</v>
       </c>
       <c r="R538" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>[89219] = {true, true, false, false, true, true}, --Swipe</v>
+        <v>[89135] = {true, true, false, false, true, true}, --Swipe</v>
       </c>
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.25">
@@ -37503,17 +37503,17 @@
         <v>39105</v>
       </c>
       <c r="D540" s="11">
-        <v>39109</v>
+        <v>61369</v>
       </c>
       <c r="E540" s="9">
-        <v>1486</v>
+        <v>743</v>
       </c>
       <c r="F540" s="9">
-        <v>2667</v>
+        <v>1333</v>
       </c>
       <c r="G540" s="13">
         <f>F540/E540/N$2/1.52-1</f>
-        <v>5.0002246327788935E-2</v>
+        <v>4.9608544698119816E-2</v>
       </c>
       <c r="H540" s="9" t="s">
         <v>346</v>
@@ -37533,15 +37533,18 @@
       <c r="M540" s="9" t="s">
         <v>346</v>
       </c>
+      <c r="N540" s="9" t="s">
+        <v>424</v>
+      </c>
       <c r="P540" s="9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q540" s="10">
-        <v>58317</v>
+        <v>39075</v>
       </c>
       <c r="R540" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>[39109] = {true, true, false, false, true, true}, --Brutal Pounce</v>
+        <v>[61369] = {true, true, false, false, true, true}, --Brutal Pounce</v>
       </c>
     </row>
     <row r="541" spans="1:18" x14ac:dyDescent="0.25">
@@ -37556,17 +37559,17 @@
         <v>39105</v>
       </c>
       <c r="D541" s="11">
-        <v>61369</v>
+        <v>39109</v>
       </c>
       <c r="E541" s="9">
-        <v>743</v>
+        <v>1486</v>
       </c>
       <c r="F541" s="9">
-        <v>1333</v>
+        <v>2667</v>
       </c>
       <c r="G541" s="13">
         <f>F541/E541/N$2/1.52-1</f>
-        <v>4.9608544698119816E-2</v>
+        <v>5.0002246327788935E-2</v>
       </c>
       <c r="H541" s="9" t="s">
         <v>346</v>
@@ -37586,18 +37589,15 @@
       <c r="M541" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="N541" s="9" t="s">
-        <v>424</v>
-      </c>
       <c r="P541" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Q541" s="10">
-        <v>39075</v>
+        <v>58317</v>
       </c>
       <c r="R541" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>[61369] = {true, true, false, false, true, true}, --Brutal Pounce</v>
+        <v>[39109] = {true, true, false, false, true, true}, --Brutal Pounce</v>
       </c>
     </row>
     <row r="542" spans="1:18" x14ac:dyDescent="0.25">
@@ -37980,7 +37980,17 @@
         <v>32477</v>
       </c>
       <c r="D549" s="11">
-        <v>32479</v>
+        <v>32494</v>
+      </c>
+      <c r="E549" s="9">
+        <v>1003</v>
+      </c>
+      <c r="F549" s="9">
+        <v>1799</v>
+      </c>
+      <c r="G549" s="13">
+        <f>F549/E549/N$2/1.52-1</f>
+        <v>4.9340058242791862E-2</v>
       </c>
       <c r="H549" s="9" t="s">
         <v>346</v>
@@ -38001,17 +38011,17 @@
         <v>346</v>
       </c>
       <c r="N549" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P549" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q549" s="9">
-        <v>32464</v>
+        <v>299</v>
+      </c>
+      <c r="Q549" s="10">
+        <v>39105</v>
       </c>
       <c r="R549" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>[32479] = {true, true, false, false, true, true}, --Heavy Attack</v>
+        <v>[32494] = {true, true, false, false, true, true}, --Heavy Attack</v>
       </c>
     </row>
     <row r="550" spans="1:18" x14ac:dyDescent="0.25">
@@ -38025,17 +38035,7 @@
         <v>32477</v>
       </c>
       <c r="D550" s="11">
-        <v>32494</v>
-      </c>
-      <c r="E550" s="9">
-        <v>1003</v>
-      </c>
-      <c r="F550" s="9">
-        <v>1799</v>
-      </c>
-      <c r="G550" s="13">
-        <f>F550/E550/N$2/1.52-1</f>
-        <v>4.9340058242791862E-2</v>
+        <v>32479</v>
       </c>
       <c r="H550" s="9" t="s">
         <v>346</v>
@@ -38056,17 +38056,17 @@
         <v>346</v>
       </c>
       <c r="N550" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P550" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q550" s="10">
-        <v>39105</v>
+        <v>293</v>
+      </c>
+      <c r="Q550" s="9">
+        <v>32464</v>
       </c>
       <c r="R550" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>[32494] = {true, true, false, false, true, true}, --Heavy Attack</v>
+        <v>[32479] = {true, true, false, false, true, true}, --Heavy Attack</v>
       </c>
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.25">
@@ -38710,7 +38710,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F355:F359">
     <sortCondition ref="F355"/>
   </sortState>
-  <conditionalFormatting sqref="H449:M449 H472:M472 H479:M498 H500:M502 H527:M527 H516:M521 H524:M525 H1:M106 H529:M1048576 H303:M428 H109:M301">
+  <conditionalFormatting sqref="H449:M449 H472:M472 H479:M498 H500:M502 H527:M527 H516:M521 H524:M525 H1:M106 H529:M1048576 H303:M428 H109:M301 H5:K472 H500:K505">
     <cfRule type="cellIs" dxfId="149" priority="185" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -38934,7 +38934,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H473:M474">
+  <conditionalFormatting sqref="H473:M474 H473:K499">
     <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>

--- a/CPData.xlsx
+++ b/CPData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dk-mi\Documents\ESOdev\Constellations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA42B6F-43E4-41E0-B130-40E837FECE95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F45AE4-91C2-4B5C-A4AE-A543593D76AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2040" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion Table" sheetId="1" r:id="rId1"/>
@@ -1904,7 +1904,91 @@
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="168">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -10572,8 +10656,8 @@
   <dimension ref="A1:R585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L425" sqref="L425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16424,24 +16508,14 @@
       <c r="D114" s="11">
         <v>38857</v>
       </c>
-      <c r="E114" s="9">
-        <v>336</v>
-      </c>
-      <c r="F114" s="9">
-        <v>626</v>
-      </c>
-      <c r="G114" s="13">
-        <f>F114/E114/N$2/1.52-1</f>
-        <v>8.9986396360027587E-2</v>
-      </c>
       <c r="H114" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K114" s="9" t="s">
         <v>347</v>
@@ -16460,7 +16534,7 @@
       </c>
       <c r="R114" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>[38857] = {true, false, true, false, true, true}, --Rapid Strikes</v>
+        <v>[38857] = {true, true, false, false, true, true}, --Rapid Strikes</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -20134,7 +20208,7 @@
         <v>346</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J187" s="9" t="s">
         <v>346</v>
@@ -20143,7 +20217,7 @@
         <v>347</v>
       </c>
       <c r="L187" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M187" s="9" t="s">
         <v>346</v>
@@ -20159,7 +20233,7 @@
       </c>
       <c r="R187" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>[107203] = {true, true, true, false, true, true}, --Arms of Relequen</v>
+        <v>[107203] = {true, false, true, false, false, true}, --Arms of Relequen</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
@@ -31720,7 +31794,7 @@
         <v>347</v>
       </c>
       <c r="L425" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M425" s="9" t="s">
         <v>347</v>
@@ -31728,7 +31802,7 @@
       <c r="P425" s="12"/>
       <c r="R425" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[26411] = {false, false, false, false, false, false}, --Backlash</v>
+        <v>[26411] = {false, false, false, false, true, false}, --Backlash</v>
       </c>
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.25">
@@ -31846,24 +31920,14 @@
       <c r="D428" s="11">
         <v>26794</v>
       </c>
-      <c r="E428" s="9">
-        <v>251</v>
-      </c>
-      <c r="F428" s="9">
-        <v>466</v>
-      </c>
-      <c r="G428" s="13">
-        <f>F428/E428/N$2/1.52-1</f>
-        <v>8.6171034688515391E-2</v>
-      </c>
       <c r="H428" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I428" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J428" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K428" s="9" t="s">
         <v>347</v>
@@ -31882,7 +31946,7 @@
       </c>
       <c r="R428" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[26794] = {true, false, true, false, true, true}, --Biting Jabs</v>
+        <v>[26794] = {true, true, false, false, true, true}, --Biting Jabs</v>
       </c>
     </row>
     <row r="429" spans="1:18" x14ac:dyDescent="0.25">
@@ -31899,24 +31963,14 @@
       <c r="D429" s="11">
         <v>44432</v>
       </c>
-      <c r="E429" s="9">
-        <v>642</v>
-      </c>
-      <c r="F429" s="9">
-        <v>1196</v>
-      </c>
-      <c r="G429" s="13">
-        <f>F429/E429/N$2/1.52-1</f>
-        <v>8.9888759407142471E-2</v>
-      </c>
       <c r="H429" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I429" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J429" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K429" s="9" t="s">
         <v>347</v>
@@ -31930,7 +31984,7 @@
       <c r="P429" s="12"/>
       <c r="R429" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[44432] = {true, false, true, false, true, true}, --Biting Jabs</v>
+        <v>[44432] = {true, true, false, false, true, true}, --Biting Jabs</v>
       </c>
     </row>
     <row r="430" spans="1:18" x14ac:dyDescent="0.25">
@@ -32770,7 +32824,7 @@
         <v>347</v>
       </c>
       <c r="L446" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M446" s="9" t="s">
         <v>347</v>
@@ -32778,7 +32832,7 @@
       <c r="P446" s="12"/>
       <c r="R446" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[27567] = {false, false, false, false, false, false}, --Power of the Light</v>
+        <v>[27567] = {false, false, false, false, true, false}, --Power of the Light</v>
       </c>
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.25">
@@ -32843,24 +32897,14 @@
       <c r="D448" s="11">
         <v>26116</v>
       </c>
-      <c r="E448" s="9">
-        <v>326</v>
-      </c>
-      <c r="F448" s="9">
-        <v>608</v>
-      </c>
-      <c r="G448" s="13">
-        <f>F448/E448/N$2/1.52-1</f>
-        <v>9.111870548029799E-2</v>
-      </c>
       <c r="H448" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I448" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J448" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K448" s="9" t="s">
         <v>347</v>
@@ -32879,7 +32923,7 @@
       </c>
       <c r="R448" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[26116] = {true, false, true, false, true, true}, --Puncturing Strikes</v>
+        <v>[26116] = {true, true, false, false, true, true}, --Puncturing Strikes</v>
       </c>
     </row>
     <row r="449" spans="1:18" x14ac:dyDescent="0.25">
@@ -32896,24 +32940,14 @@
       <c r="D449" s="11">
         <v>44426</v>
       </c>
-      <c r="E449" s="9">
-        <v>848</v>
-      </c>
-      <c r="F449" s="9">
-        <v>1581</v>
-      </c>
-      <c r="G449" s="13">
-        <f>F449/E449/N$2/1.52-1</f>
-        <v>9.0742008124337747E-2</v>
-      </c>
       <c r="H449" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I449" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J449" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K449" s="9" t="s">
         <v>347</v>
@@ -32932,7 +32966,7 @@
       </c>
       <c r="R449" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[44426] = {true, false, true, false, true, true}, --Puncturing Strikes</v>
+        <v>[44426] = {true, true, false, false, true, true}, --Puncturing Strikes</v>
       </c>
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.25">
@@ -32949,24 +32983,14 @@
       <c r="D450" s="11">
         <v>26799</v>
       </c>
-      <c r="E450" s="9">
-        <v>341</v>
-      </c>
-      <c r="F450" s="9">
-        <v>635</v>
-      </c>
-      <c r="G450" s="13">
-        <f>F450/E450/N$2/1.52-1</f>
-        <v>8.9445145959428984E-2</v>
-      </c>
       <c r="H450" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I450" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J450" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K450" s="9" t="s">
         <v>347</v>
@@ -32985,7 +33009,7 @@
       </c>
       <c r="R450" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>[26799] = {true, false, true, false, true, true}, --Puncturing Sweep</v>
+        <v>[26799] = {true, true, false, false, true, true}, --Puncturing Sweep</v>
       </c>
     </row>
     <row r="451" spans="1:18" x14ac:dyDescent="0.25">
@@ -33002,24 +33026,14 @@
       <c r="D451" s="11">
         <v>44436</v>
       </c>
-      <c r="E451" s="9">
-        <v>877</v>
-      </c>
-      <c r="F451" s="9">
-        <v>1634</v>
-      </c>
-      <c r="G451" s="13">
-        <f>F451/E451/N$2/1.52-1</f>
-        <v>9.0030075072891957E-2</v>
-      </c>
       <c r="H451" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I451" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J451" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K451" s="9" t="s">
         <v>347</v>
@@ -33038,7 +33052,7 @@
       </c>
       <c r="R451" s="9" t="str">
         <f t="shared" ref="R451:R514" si="7">CONCATENATE("[",D451,"] = {",LOWER(H451),", ",LOWER(I451),", ",LOWER(J451),", ",LOWER(K451),", ",LOWER(L451),", ",LOWER(M451),"}, --",B451)</f>
-        <v>[44436] = {true, false, true, false, true, true}, --Puncturing Sweep</v>
+        <v>[44436] = {true, true, false, false, true, true}, --Puncturing Sweep</v>
       </c>
     </row>
     <row r="452" spans="1:18" x14ac:dyDescent="0.25">
@@ -33071,7 +33085,7 @@
         <v>347</v>
       </c>
       <c r="L452" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M452" s="9" t="s">
         <v>347</v>
@@ -33079,7 +33093,7 @@
       <c r="P452" s="12"/>
       <c r="R452" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>[27544] = {false, false, false, false, false, false}, --Purifying Light</v>
+        <v>[27544] = {false, false, false, false, true, false}, --Purifying Light</v>
       </c>
     </row>
     <row r="453" spans="1:18" x14ac:dyDescent="0.25">
@@ -35107,17 +35121,17 @@
         <v>38823</v>
       </c>
       <c r="D492" s="11">
-        <v>38823</v>
+        <v>38827</v>
       </c>
       <c r="E492" s="9">
-        <v>1080</v>
+        <v>446</v>
       </c>
       <c r="F492" s="9">
-        <v>1937</v>
+        <v>900</v>
       </c>
       <c r="G492" s="13">
-        <f>F492/E492/N$2/1.52-1</f>
-        <v>4.9281189083820731E-2</v>
+        <f>F492/E492/N$2/N$2/1.52-1</f>
+        <v>4.9840402930562355E-2</v>
       </c>
       <c r="H492" s="9" t="s">
         <v>346</v>
@@ -35135,17 +35149,17 @@
         <v>346</v>
       </c>
       <c r="M492" s="9" t="s">
-        <v>346</v>
+        <v>519</v>
       </c>
       <c r="P492" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q492" s="9">
-        <v>28448</v>
+        <v>28302</v>
       </c>
       <c r="R492" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>[38823] = {true, true, false, false, true, true}, --Reverse Slice</v>
+        <v>[38827] = {true, true, false, false, true, double}, --Reverse Slice</v>
       </c>
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.25">
@@ -35160,17 +35174,17 @@
         <v>38823</v>
       </c>
       <c r="D493" s="11">
-        <v>38827</v>
+        <v>38823</v>
       </c>
       <c r="E493" s="9">
-        <v>446</v>
+        <v>1080</v>
       </c>
       <c r="F493" s="9">
-        <v>900</v>
+        <v>1937</v>
       </c>
       <c r="G493" s="13">
-        <f>F493/E493/N$2/N$2/1.52-1</f>
-        <v>4.9840402930562355E-2</v>
+        <f>F493/E493/N$2/1.52-1</f>
+        <v>4.9281189083820731E-2</v>
       </c>
       <c r="H493" s="9" t="s">
         <v>346</v>
@@ -35188,17 +35202,17 @@
         <v>346</v>
       </c>
       <c r="M493" s="9" t="s">
-        <v>519</v>
+        <v>346</v>
       </c>
       <c r="P493" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q493" s="9">
-        <v>28302</v>
+        <v>28448</v>
       </c>
       <c r="R493" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>[38827] = {true, true, false, false, true, double}, --Reverse Slice</v>
+        <v>[38823] = {true, true, false, false, true, true}, --Reverse Slice</v>
       </c>
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.25">
@@ -39050,7 +39064,55 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F349:F353">
     <sortCondition ref="F349"/>
   </sortState>
-  <conditionalFormatting sqref="H440:M440 H463:M463 H470:M489 H491:M493 H518:M518 H507:M512 H515:M516 H491:K496 H1:M106 H520:M557 H567:M1048576 H109:M245 H5:K245 H254:M295 H254:K463 H297:M419">
+  <conditionalFormatting sqref="H440:M440 H463:M463 H470:M489 H491:M493 H518:M518 H507:M512 H515:M516 H491:K496 H1:M106 H520:M557 H567:M1048576 H109:M245 H254:M295 H254:K427 H297:M419 H5:K245 H452:K463 H430:K447">
+    <cfRule type="cellIs" dxfId="167" priority="211" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="212" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H420:M424 H426:M427 H425:K425 M425">
+    <cfRule type="cellIs" dxfId="165" priority="209" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="210" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H441:M441">
+    <cfRule type="cellIs" dxfId="163" priority="207" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="208" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H442 K442:M442">
+    <cfRule type="cellIs" dxfId="161" priority="205" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="206" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I442:J442">
+    <cfRule type="cellIs" dxfId="159" priority="203" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="204" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H446:M447">
+    <cfRule type="cellIs" dxfId="157" priority="201" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="202" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H444:M445">
     <cfRule type="cellIs" dxfId="155" priority="199" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39058,7 +39120,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H420:M428">
+  <conditionalFormatting sqref="H443:M443">
     <cfRule type="cellIs" dxfId="153" priority="197" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39066,95 +39128,79 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H441:M441">
-    <cfRule type="cellIs" dxfId="151" priority="195" operator="equal">
+  <conditionalFormatting sqref="H406:M406">
+    <cfRule type="cellIs" dxfId="151" priority="181" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="196" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H442 K442:M442">
-    <cfRule type="cellIs" dxfId="149" priority="193" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="194" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I442:J442">
-    <cfRule type="cellIs" dxfId="147" priority="191" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="192" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H446:M448">
-    <cfRule type="cellIs" dxfId="145" priority="189" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="190" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H444:M445">
-    <cfRule type="cellIs" dxfId="143" priority="187" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="188" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H443:M443">
-    <cfRule type="cellIs" dxfId="141" priority="185" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="186" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H406:M406">
-    <cfRule type="cellIs" dxfId="139" priority="169" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="182" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H411:M412">
-    <cfRule type="cellIs" dxfId="137" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="179" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="180" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H405:M405">
-    <cfRule type="cellIs" dxfId="135" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="177" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="178" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H407:M410">
-    <cfRule type="cellIs" dxfId="133" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="175" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="176" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H430:M430">
-    <cfRule type="cellIs" dxfId="131" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="171" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="172" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H429:M429">
+  <conditionalFormatting sqref="H431:M432">
+    <cfRule type="cellIs" dxfId="139" priority="167" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="168" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H433:M434">
+    <cfRule type="cellIs" dxfId="137" priority="165" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="166" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H453:M454">
+    <cfRule type="cellIs" dxfId="135" priority="163" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="164" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H452:K452 M452">
+    <cfRule type="cellIs" dxfId="133" priority="161" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="162" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H416:M419">
     <cfRule type="cellIs" dxfId="129" priority="157" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39162,71 +39208,71 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H431:M432">
-    <cfRule type="cellIs" dxfId="127" priority="155" operator="equal">
+  <conditionalFormatting sqref="H437:M439">
+    <cfRule type="cellIs" dxfId="127" priority="153" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="156" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H433:M434">
-    <cfRule type="cellIs" dxfId="125" priority="153" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="154" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H453:M454">
-    <cfRule type="cellIs" dxfId="123" priority="151" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="152" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H449:M449 H451:M452">
-    <cfRule type="cellIs" dxfId="121" priority="149" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="150" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H450:M450">
-    <cfRule type="cellIs" dxfId="119" priority="147" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="148" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H416:M419">
-    <cfRule type="cellIs" dxfId="117" priority="145" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="146" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H437:M439">
-    <cfRule type="cellIs" dxfId="115" priority="141" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="154" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H435:M436">
-    <cfRule type="cellIs" dxfId="113" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="151" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="152" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H455:M455">
+    <cfRule type="cellIs" dxfId="123" priority="149" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="150" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H458:M460">
+    <cfRule type="cellIs" dxfId="121" priority="147" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="148" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H456:M457">
+    <cfRule type="cellIs" dxfId="119" priority="145" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I461:J461">
+    <cfRule type="cellIs" dxfId="117" priority="135" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="136" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H296:L296">
+    <cfRule type="cellIs" dxfId="115" priority="131" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="132" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H464:M465 H464:K490">
+    <cfRule type="cellIs" dxfId="113" priority="125" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="126" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H461 K461:M461">
     <cfRule type="cellIs" dxfId="111" priority="137" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39234,15 +39280,15 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H458:M460">
-    <cfRule type="cellIs" dxfId="109" priority="135" operator="equal">
+  <conditionalFormatting sqref="H473:M473">
+    <cfRule type="cellIs" dxfId="109" priority="129" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="130" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H456:M457">
+  <conditionalFormatting sqref="M296">
     <cfRule type="cellIs" dxfId="107" priority="133" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39250,55 +39296,55 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I461:J461">
-    <cfRule type="cellIs" dxfId="105" priority="123" operator="equal">
+  <conditionalFormatting sqref="H474:M477">
+    <cfRule type="cellIs" dxfId="105" priority="121" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="122" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H296:L296">
-    <cfRule type="cellIs" dxfId="103" priority="119" operator="equal">
+  <conditionalFormatting sqref="H471:M472">
+    <cfRule type="cellIs" dxfId="103" priority="127" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="128" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H464:M465 H464:K490">
-    <cfRule type="cellIs" dxfId="101" priority="113" operator="equal">
+  <conditionalFormatting sqref="H466:M467">
+    <cfRule type="cellIs" dxfId="101" priority="119" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="120" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H461 K461:M461">
-    <cfRule type="cellIs" dxfId="99" priority="125" operator="equal">
+  <conditionalFormatting sqref="H468:M469">
+    <cfRule type="cellIs" dxfId="99" priority="117" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="118" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H473:M473">
-    <cfRule type="cellIs" dxfId="97" priority="117" operator="equal">
+  <conditionalFormatting sqref="H478:M478">
+    <cfRule type="cellIs" dxfId="97" priority="115" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="116" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M296">
-    <cfRule type="cellIs" dxfId="95" priority="121" operator="equal">
+  <conditionalFormatting sqref="H479:M479">
+    <cfRule type="cellIs" dxfId="95" priority="113" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H474:M477">
+  <conditionalFormatting sqref="H482:M482">
     <cfRule type="cellIs" dxfId="93" priority="109" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39306,47 +39352,47 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H471:M472">
-    <cfRule type="cellIs" dxfId="91" priority="115" operator="equal">
+  <conditionalFormatting sqref="H476:M476">
+    <cfRule type="cellIs" dxfId="91" priority="107" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="108" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H466:M467">
-    <cfRule type="cellIs" dxfId="89" priority="107" operator="equal">
+  <conditionalFormatting sqref="H481:M481">
+    <cfRule type="cellIs" dxfId="89" priority="105" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="106" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H468:M469">
-    <cfRule type="cellIs" dxfId="87" priority="105" operator="equal">
+  <conditionalFormatting sqref="H483:M485">
+    <cfRule type="cellIs" dxfId="87" priority="103" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="104" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H478:M478">
-    <cfRule type="cellIs" dxfId="85" priority="103" operator="equal">
+  <conditionalFormatting sqref="H494:M498">
+    <cfRule type="cellIs" dxfId="85" priority="101" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="102" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H479:M479">
-    <cfRule type="cellIs" dxfId="83" priority="101" operator="equal">
+  <conditionalFormatting sqref="H496:M498">
+    <cfRule type="cellIs" dxfId="83" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="100" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H482:M482">
+  <conditionalFormatting sqref="H494:M495">
     <cfRule type="cellIs" dxfId="81" priority="97" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39354,55 +39400,55 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H476:M476">
-    <cfRule type="cellIs" dxfId="79" priority="95" operator="equal">
+  <conditionalFormatting sqref="H488:M488">
+    <cfRule type="cellIs" dxfId="79" priority="93" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="94" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H481:M481">
-    <cfRule type="cellIs" dxfId="77" priority="93" operator="equal">
+  <conditionalFormatting sqref="H487:M487">
+    <cfRule type="cellIs" dxfId="77" priority="91" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H483:M485">
-    <cfRule type="cellIs" dxfId="75" priority="91" operator="equal">
+  <conditionalFormatting sqref="H486:M486">
+    <cfRule type="cellIs" dxfId="75" priority="89" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="90" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H494:M498">
-    <cfRule type="cellIs" dxfId="73" priority="89" operator="equal">
+  <conditionalFormatting sqref="H501:M504">
+    <cfRule type="cellIs" dxfId="73" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="88" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H496:M498">
-    <cfRule type="cellIs" dxfId="71" priority="87" operator="equal">
+  <conditionalFormatting sqref="H501:M504">
+    <cfRule type="cellIs" dxfId="71" priority="85" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H494:M495">
-    <cfRule type="cellIs" dxfId="69" priority="85" operator="equal">
+  <conditionalFormatting sqref="H499:M500">
+    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H488:M488">
+  <conditionalFormatting sqref="H499:M500">
     <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39410,55 +39456,55 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H487:M487">
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
+  <conditionalFormatting sqref="H505:M506">
+    <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="80" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H486:M486">
-    <cfRule type="cellIs" dxfId="63" priority="77" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="78" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H501:M504">
-    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H501:M504">
-    <cfRule type="cellIs" dxfId="59" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="74" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H499:M500">
-    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H499:M500">
-    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="72" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H505:M506">
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H490:M490">
+    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="68" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H490:M490">
+    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H492:M492">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H492:M492">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H512:M512">
     <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39466,7 +39512,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H505:M506">
+  <conditionalFormatting sqref="H512:M512">
     <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39474,7 +39520,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H490:M490">
+  <conditionalFormatting sqref="H519:M519">
     <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39482,7 +39528,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H490:M490">
+  <conditionalFormatting sqref="H519:M519">
     <cfRule type="cellIs" dxfId="47" priority="53" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39490,7 +39536,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H492:M492">
+  <conditionalFormatting sqref="H517:M517">
     <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39498,7 +39544,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H492:M492">
+  <conditionalFormatting sqref="H517:M517">
     <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39506,23 +39552,23 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H512:M512">
-    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
+  <conditionalFormatting sqref="H521:M522">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H512:M512">
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+  <conditionalFormatting sqref="H521:M522">
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H519:M519">
+  <conditionalFormatting sqref="H513:M513">
     <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39530,7 +39576,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H519:M519">
+  <conditionalFormatting sqref="H513:M513">
     <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39538,39 +39584,39 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H517:M517">
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
+  <conditionalFormatting sqref="H514:M514">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H517:M517">
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+  <conditionalFormatting sqref="H514:M514">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H521:M522">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+  <conditionalFormatting sqref="H462:M462">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H521:M522">
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+  <conditionalFormatting sqref="H108:M108">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H513:M513">
+  <conditionalFormatting sqref="H107:M107">
     <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39578,79 +39624,79 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H513:M513">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+  <conditionalFormatting sqref="H524:M524">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H514:M514">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H514:M514">
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H462:M462">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H108:M108">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H107:M107">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H524:M524">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H524:M524">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H558:M559">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H560:M561">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H562:M566">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H246:M253">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H448:K451">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H448:M451">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H428:K429">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H428:M429">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39658,7 +39704,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H562:M566">
+  <conditionalFormatting sqref="L452">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -39666,7 +39712,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H246:M253">
+  <conditionalFormatting sqref="L425">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>

--- a/CPData.xlsx
+++ b/CPData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dk-mi\Documents\ESOdev\Constellations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8DEBD1-D359-43FB-B1BE-CC3373396886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4A5F16-6AC6-4301-ABF9-899E1DA413FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -165,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5057" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5187" uniqueCount="546">
   <si>
     <t>Points</t>
   </si>
@@ -1800,6 +1802,9 @@
   </si>
   <si>
     <t>vMA</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1880,7 +1885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1908,15 +1913,5257 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="174">
+  <dxfs count="922">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -10707,11 +15954,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD059EA0-F803-4971-A391-70A40AFDA722}">
-  <dimension ref="A1:R587"/>
+  <dimension ref="A1:R593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E571" sqref="E571"/>
+      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H593" sqref="H593:M593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10809,7 +16056,7 @@
       <c r="A3" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>536</v>
       </c>
       <c r="C3" s="10">
@@ -10915,7 +16162,7 @@
       <c r="A5" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C5" s="10">
@@ -10962,7 +16209,7 @@
       <c r="A6" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>535</v>
       </c>
       <c r="C6" s="10">
@@ -11015,7 +16262,7 @@
       <c r="A7" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C7" s="10">
@@ -11068,7 +16315,7 @@
       <c r="A8" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C8" s="10">
@@ -11121,7 +16368,7 @@
       <c r="A9" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C9" s="10">
@@ -11327,7 +16574,7 @@
       <c r="A13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="9" t="s">
         <v>245</v>
       </c>
       <c r="C13" s="10">
@@ -11480,7 +16727,7 @@
       <c r="A16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C16" s="10">
@@ -11639,7 +16886,7 @@
       <c r="A19" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C19" s="9">
@@ -11691,7 +16938,7 @@
       <c r="A20" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C20" s="9">
@@ -11796,7 +17043,7 @@
       <c r="A22" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="9" t="s">
         <v>293</v>
       </c>
       <c r="C22" s="9">
@@ -11848,7 +17095,7 @@
       <c r="A23" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C23" s="10">
@@ -11901,7 +17148,7 @@
       <c r="A24" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="9" t="s">
         <v>246</v>
       </c>
       <c r="C24" s="10">
@@ -12001,7 +17248,7 @@
       <c r="A26" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C26" s="10">
@@ -12054,7 +17301,7 @@
       <c r="A27" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C27" s="10">
@@ -12154,7 +17401,7 @@
       <c r="A29" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="9" t="s">
         <v>244</v>
       </c>
       <c r="C29" s="10">
@@ -12207,7 +17454,7 @@
       <c r="A30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="9" t="s">
         <v>242</v>
       </c>
       <c r="C30" s="10">
@@ -12366,7 +17613,7 @@
       <c r="A33" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C33" s="10">
@@ -12419,7 +17666,7 @@
       <c r="A34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="10">
@@ -12984,7 +18231,7 @@
       <c r="A45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="10">
@@ -13090,7 +18337,7 @@
       <c r="A47" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="10">
@@ -13196,7 +18443,7 @@
       <c r="A49" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C49" s="10">
@@ -13302,7 +18549,7 @@
       <c r="A51" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="9" t="s">
         <v>377</v>
       </c>
       <c r="C51" s="10">
@@ -13355,7 +18602,7 @@
       <c r="A52" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="9" t="s">
         <v>385</v>
       </c>
       <c r="C52" s="10">
@@ -13408,7 +18655,7 @@
       <c r="A53" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="9" t="s">
         <v>385</v>
       </c>
       <c r="C53" s="10">
@@ -13461,7 +18708,7 @@
       <c r="A54" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="9" t="s">
         <v>371</v>
       </c>
       <c r="C54" s="10">
@@ -13514,7 +18761,7 @@
       <c r="A55" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="9" t="s">
         <v>381</v>
       </c>
       <c r="C55" s="10">
@@ -13620,7 +18867,7 @@
       <c r="A57" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="9" t="s">
         <v>372</v>
       </c>
       <c r="C57" s="10">
@@ -13673,7 +18920,7 @@
       <c r="A58" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="9" t="s">
         <v>372</v>
       </c>
       <c r="C58" s="10">
@@ -13726,7 +18973,7 @@
       <c r="A59" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="10">
@@ -13779,7 +19026,7 @@
       <c r="A60" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C60" s="10">
@@ -13938,7 +19185,7 @@
       <c r="A63" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="10">
@@ -13991,7 +19238,7 @@
       <c r="A64" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C64" s="10">
@@ -14044,7 +19291,7 @@
       <c r="A65" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="9" t="s">
         <v>342</v>
       </c>
       <c r="C65" s="10">
@@ -14150,7 +19397,7 @@
       <c r="A67" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="9" t="s">
         <v>374</v>
       </c>
       <c r="C67" s="10">
@@ -14203,7 +19450,7 @@
       <c r="A68" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C68" s="10">
@@ -14256,7 +19503,7 @@
       <c r="A69" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C69" s="10">
@@ -14309,7 +19556,7 @@
       <c r="A70" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="9" t="s">
         <v>250</v>
       </c>
       <c r="C70" s="10">
@@ -14362,7 +19609,7 @@
       <c r="A71" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="9" t="s">
         <v>382</v>
       </c>
       <c r="C71" s="10">
@@ -14415,7 +19662,7 @@
       <c r="A72" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C72" s="10">
@@ -14468,7 +19715,7 @@
       <c r="A73" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="9" t="s">
         <v>380</v>
       </c>
       <c r="C73" s="10">
@@ -14521,7 +19768,7 @@
       <c r="A74" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="9" t="s">
         <v>380</v>
       </c>
       <c r="C74" s="10">
@@ -14574,7 +19821,7 @@
       <c r="A75" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="9" t="s">
         <v>249</v>
       </c>
       <c r="C75" s="10">
@@ -14733,7 +19980,7 @@
       <c r="A78" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C78" s="10">
@@ -14786,7 +20033,7 @@
       <c r="A79" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C79" s="10">
@@ -14892,7 +20139,7 @@
       <c r="A81" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C81" s="10">
@@ -14945,7 +20192,7 @@
       <c r="A82" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C82" s="10">
@@ -14998,7 +20245,7 @@
       <c r="A83" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="9" t="s">
         <v>214</v>
       </c>
       <c r="C83" s="10">
@@ -15039,7 +20286,7 @@
       <c r="A84" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="9" t="s">
         <v>373</v>
       </c>
       <c r="C84" s="10">
@@ -15145,7 +20392,7 @@
       <c r="A86" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C86" s="10">
@@ -15304,7 +20551,7 @@
       <c r="A89" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="9" t="s">
         <v>376</v>
       </c>
       <c r="C89" s="10">
@@ -15410,7 +20657,7 @@
       <c r="A91" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C91" s="10">
@@ -15463,7 +20710,7 @@
       <c r="A92" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="9" t="s">
         <v>386</v>
       </c>
       <c r="C92" s="10">
@@ -15516,7 +20763,7 @@
       <c r="A93" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C93" s="10">
@@ -15569,7 +20816,7 @@
       <c r="A94" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C94" s="10">
@@ -15617,7 +20864,7 @@
       <c r="A95" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C95" s="10">
@@ -15713,7 +20960,7 @@
       <c r="A97" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C97" s="10">
@@ -16155,7 +21402,7 @@
       <c r="A106" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C106" s="10">
@@ -16806,7 +22053,7 @@
       <c r="A119" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C119" s="10">
@@ -16859,7 +22106,7 @@
       <c r="A120" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C120" s="10">
@@ -16912,7 +22159,7 @@
       <c r="A121" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C121" s="10">
@@ -17012,7 +22259,7 @@
       <c r="A123" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C123" s="10">
@@ -17982,7 +23229,7 @@
       <c r="A142" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C142" s="10">
@@ -18035,7 +23282,7 @@
       <c r="A143" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C143" s="10">
@@ -18335,7 +23582,7 @@
       <c r="A149" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="B149" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C149" s="10">
@@ -18441,7 +23688,7 @@
       <c r="A151" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B151" s="9" t="s">
         <v>508</v>
       </c>
       <c r="C151" s="10">
@@ -18488,7 +23735,7 @@
       <c r="A152" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C152" s="10">
@@ -18541,7 +23788,7 @@
       <c r="A153" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C153" s="10">
@@ -18594,7 +23841,7 @@
       <c r="A154" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B154" s="15" t="s">
+      <c r="B154" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C154" s="10">
@@ -18647,7 +23894,7 @@
       <c r="A155" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B155" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C155" s="10">
@@ -18700,7 +23947,7 @@
       <c r="A156" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="9" t="s">
         <v>234</v>
       </c>
       <c r="C156" s="10">
@@ -18753,7 +24000,7 @@
       <c r="A157" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="9" t="s">
         <v>234</v>
       </c>
       <c r="C157" s="10">
@@ -18806,7 +24053,7 @@
       <c r="A158" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C158" s="9">
@@ -18852,7 +24099,7 @@
       <c r="A159" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B159" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C159" s="9">
@@ -18898,7 +24145,7 @@
       <c r="A160" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="9" t="s">
         <v>509</v>
       </c>
       <c r="C160" s="10">
@@ -19004,7 +24251,7 @@
       <c r="A162" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B162" s="9" t="s">
         <v>293</v>
       </c>
       <c r="C162" s="9">
@@ -19103,7 +24350,7 @@
       <c r="A164" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B164" s="15" t="s">
+      <c r="B164" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C164" s="10">
@@ -19209,7 +24456,7 @@
       <c r="A166" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="B166" s="15" t="s">
+      <c r="B166" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C166" s="9" t="e">
@@ -19449,7 +24696,7 @@
       <c r="A171" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="9" t="s">
         <v>503</v>
       </c>
       <c r="C171" s="10">
@@ -19502,7 +24749,7 @@
       <c r="A172" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="B172" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C172" s="10">
@@ -19660,7 +24907,7 @@
       <c r="A175" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B175" s="15" t="s">
+      <c r="B175" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C175" s="10">
@@ -19713,7 +24960,7 @@
       <c r="A176" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="B176" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C176" s="10">
@@ -19760,7 +25007,7 @@
       <c r="A177" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C177" s="10">
@@ -19854,7 +25101,7 @@
       <c r="A179" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B179" s="14" t="s">
+      <c r="B179" s="9" t="s">
         <v>233</v>
       </c>
       <c r="C179" s="10">
@@ -19907,7 +25154,7 @@
       <c r="A180" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C180" s="9">
@@ -19953,7 +25200,7 @@
       <c r="A181" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B181" s="15" t="s">
+      <c r="B181" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C181" s="9">
@@ -19999,7 +25246,7 @@
       <c r="A182" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B182" s="15" t="s">
+      <c r="B182" s="9" t="s">
         <v>293</v>
       </c>
       <c r="C182" s="9">
@@ -20098,7 +25345,7 @@
       <c r="A184" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B184" s="15" t="s">
+      <c r="B184" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C184" s="10">
@@ -20204,7 +25451,7 @@
       <c r="A186" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="B186" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -20294,7 +25541,7 @@
       <c r="A188" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B188" s="14" t="s">
+      <c r="B188" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C188" s="10" t="s">
@@ -20333,7 +25580,7 @@
       <c r="A189" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B189" s="14" t="s">
+      <c r="B189" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C189" s="10" t="s">
@@ -20372,7 +25619,7 @@
       <c r="A190" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B190" s="14" t="s">
+      <c r="B190" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C190" s="10" t="s">
@@ -20411,7 +25658,7 @@
       <c r="A191" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B191" s="14" t="s">
+      <c r="B191" s="9" t="s">
         <v>232</v>
       </c>
       <c r="C191" s="10" t="s">
@@ -20528,7 +25775,7 @@
       <c r="A194" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B194" s="14" t="s">
+      <c r="B194" s="9" t="s">
         <v>344</v>
       </c>
       <c r="C194" s="10" t="s">
@@ -20567,7 +25814,7 @@
       <c r="A195" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B195" s="14" t="s">
+      <c r="B195" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C195" s="10" t="s">
@@ -20606,7 +25853,7 @@
       <c r="A196" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B196" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C196" s="10" t="s">
@@ -20840,7 +26087,7 @@
       <c r="A202" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B202" s="14" t="s">
+      <c r="B202" s="9" t="s">
         <v>218</v>
       </c>
       <c r="C202" s="10" t="s">
@@ -20879,7 +26126,7 @@
       <c r="A203" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B203" s="14" t="s">
+      <c r="B203" s="9" t="s">
         <v>343</v>
       </c>
       <c r="C203" s="10" t="s">
@@ -20957,7 +26204,7 @@
       <c r="A205" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B205" s="14" t="s">
+      <c r="B205" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C205" s="10" t="s">
@@ -21129,7 +26376,7 @@
       <c r="A209" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B209" s="14" t="s">
+      <c r="B209" s="9" t="s">
         <v>231</v>
       </c>
       <c r="C209" s="10" t="s">
@@ -21168,7 +26415,7 @@
       <c r="A210" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B210" s="14" t="s">
+      <c r="B210" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C210" s="10" t="s">
@@ -21207,7 +26454,7 @@
       <c r="A211" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B211" s="14" t="s">
+      <c r="B211" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C211" s="10" t="s">
@@ -21246,7 +26493,7 @@
       <c r="A212" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B212" s="14" t="s">
+      <c r="B212" s="9" t="s">
         <v>220</v>
       </c>
       <c r="C212" s="10" t="s">
@@ -21285,7 +26532,7 @@
       <c r="A213" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B213" s="14" t="s">
+      <c r="B213" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C213" s="10" t="s">
@@ -21324,7 +26571,7 @@
       <c r="A214" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B214" s="14" t="s">
+      <c r="B214" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C214" s="10" t="s">
@@ -21363,7 +26610,7 @@
       <c r="A215" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B215" s="14" t="s">
+      <c r="B215" s="9" t="s">
         <v>223</v>
       </c>
       <c r="C215" s="10" t="s">
@@ -21441,7 +26688,7 @@
       <c r="A217" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B217" s="14" t="s">
+      <c r="B217" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C217" s="10" t="s">
@@ -21480,7 +26727,7 @@
       <c r="A218" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B218" s="14" t="s">
+      <c r="B218" s="9" t="s">
         <v>227</v>
       </c>
       <c r="C218" s="10" t="s">
@@ -21519,7 +26766,7 @@
       <c r="A219" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B219" s="14" t="s">
+      <c r="B219" s="9" t="s">
         <v>228</v>
       </c>
       <c r="C219" s="10" t="s">
@@ -21558,7 +26805,7 @@
       <c r="A220" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B220" s="14" t="s">
+      <c r="B220" s="9" t="s">
         <v>229</v>
       </c>
       <c r="C220" s="10" t="s">
@@ -21597,7 +26844,7 @@
       <c r="A221" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B221" s="14" t="s">
+      <c r="B221" s="9" t="s">
         <v>230</v>
       </c>
       <c r="C221" s="10" t="s">
@@ -21636,7 +26883,7 @@
       <c r="A222" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B222" s="14" t="s">
+      <c r="B222" s="9" t="s">
         <v>345</v>
       </c>
       <c r="C222" s="10" t="s">
@@ -21854,7 +27101,7 @@
       <c r="A227" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B227" s="14" t="s">
+      <c r="B227" s="9" t="s">
         <v>293</v>
       </c>
       <c r="C227" s="9">
@@ -21900,7 +27147,7 @@
       <c r="A228" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B228" s="14" t="s">
+      <c r="B228" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C228" s="10">
@@ -22006,7 +27253,7 @@
       <c r="A230" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B230" s="14" t="s">
+      <c r="B230" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C230" s="9">
@@ -22052,7 +27299,7 @@
       <c r="A231" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B231" s="14" t="s">
+      <c r="B231" s="9" t="s">
         <v>512</v>
       </c>
       <c r="C231" s="10">
@@ -22099,7 +27346,7 @@
       <c r="A232" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B232" s="14" t="s">
+      <c r="B232" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C232" s="9">
@@ -22151,7 +27398,7 @@
       <c r="A233" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B233" s="14" t="s">
+      <c r="B233" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C233" s="10">
@@ -22257,7 +27504,7 @@
       <c r="A235" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B235" s="14" t="s">
+      <c r="B235" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C235" s="10">
@@ -22310,7 +27557,7 @@
       <c r="A236" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B236" s="14" t="s">
+      <c r="B236" s="9" t="s">
         <v>236</v>
       </c>
       <c r="C236" s="10">
@@ -22416,7 +27663,7 @@
       <c r="A238" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B238" s="14" t="s">
+      <c r="B238" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C238" s="10">
@@ -22674,7 +27921,7 @@
       <c r="A243" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B243" s="14" t="s">
+      <c r="B243" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C243" s="10">
@@ -22980,7 +28227,7 @@
       <c r="A249" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B249" s="14" t="s">
+      <c r="B249" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C249" s="10">
@@ -23033,7 +28280,7 @@
       <c r="A250" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B250" s="14" t="s">
+      <c r="B250" s="9" t="s">
         <v>531</v>
       </c>
       <c r="C250" s="10">
@@ -23286,7 +28533,7 @@
       <c r="A255" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B255" s="14" t="s">
+      <c r="B255" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C255" s="10">
@@ -23486,7 +28733,7 @@
       <c r="A259" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B259" s="14" t="s">
+      <c r="B259" s="9" t="s">
         <v>472</v>
       </c>
       <c r="C259" s="10">
@@ -23539,7 +28786,7 @@
       <c r="A260" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B260" s="14" t="s">
+      <c r="B260" s="9" t="s">
         <v>480</v>
       </c>
       <c r="C260" s="10">
@@ -23639,7 +28886,7 @@
       <c r="A262" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B262" s="14" t="s">
+      <c r="B262" s="9" t="s">
         <v>478</v>
       </c>
       <c r="C262" s="10">
@@ -23692,7 +28939,7 @@
       <c r="A263" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B263" s="14" t="s">
+      <c r="B263" s="9" t="s">
         <v>477</v>
       </c>
       <c r="C263" s="9">
@@ -23738,7 +28985,7 @@
       <c r="A264" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B264" s="14" t="s">
+      <c r="B264" s="9" t="s">
         <v>477</v>
       </c>
       <c r="C264" s="9">
@@ -23790,7 +29037,7 @@
       <c r="A265" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B265" s="14" t="s">
+      <c r="B265" s="9" t="s">
         <v>477</v>
       </c>
       <c r="C265" s="10">
@@ -23842,7 +29089,7 @@
       <c r="A266" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B266" s="14" t="s">
+      <c r="B266" s="9" t="s">
         <v>477</v>
       </c>
       <c r="C266" s="10">
@@ -23935,7 +29182,7 @@
       <c r="A268" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B268" s="14" t="s">
+      <c r="B268" s="9" t="s">
         <v>483</v>
       </c>
       <c r="C268" s="10">
@@ -23988,7 +29235,7 @@
       <c r="A269" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B269" s="14" t="s">
+      <c r="B269" s="9" t="s">
         <v>471</v>
       </c>
       <c r="C269" s="10">
@@ -24040,7 +29287,7 @@
       <c r="A270" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B270" s="14" t="s">
+      <c r="B270" s="9" t="s">
         <v>471</v>
       </c>
       <c r="C270" s="10">
@@ -24092,7 +29339,7 @@
       <c r="A271" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B271" s="14" t="s">
+      <c r="B271" s="9" t="s">
         <v>471</v>
       </c>
       <c r="C271" s="10">
@@ -24550,7 +29797,7 @@
       <c r="A280" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B280" s="14" t="s">
+      <c r="B280" s="9" t="s">
         <v>486</v>
       </c>
       <c r="C280" s="10">
@@ -24603,7 +29850,7 @@
       <c r="A281" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B281" s="14" t="s">
+      <c r="B281" s="9" t="s">
         <v>486</v>
       </c>
       <c r="C281" s="10">
@@ -24656,7 +29903,7 @@
       <c r="A282" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B282" s="14" t="s">
+      <c r="B282" s="9" t="s">
         <v>486</v>
       </c>
       <c r="C282" s="10">
@@ -24709,7 +29956,7 @@
       <c r="A283" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B283" s="14" t="s">
+      <c r="B283" s="9" t="s">
         <v>486</v>
       </c>
       <c r="C283" s="10">
@@ -24762,7 +30009,7 @@
       <c r="A284" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B284" s="14" t="s">
+      <c r="B284" s="9" t="s">
         <v>486</v>
       </c>
       <c r="C284" s="10">
@@ -24815,7 +30062,7 @@
       <c r="A285" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B285" s="14" t="s">
+      <c r="B285" s="9" t="s">
         <v>485</v>
       </c>
       <c r="C285" s="10">
@@ -24921,7 +30168,7 @@
       <c r="A287" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B287" s="14" t="s">
+      <c r="B287" s="9" t="s">
         <v>487</v>
       </c>
       <c r="C287" s="10">
@@ -25021,7 +30268,7 @@
       <c r="A289" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B289" s="14" t="s">
+      <c r="B289" s="9" t="s">
         <v>479</v>
       </c>
       <c r="C289" s="10">
@@ -25073,7 +30320,7 @@
       <c r="A290" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B290" s="14" t="s">
+      <c r="B290" s="9" t="s">
         <v>479</v>
       </c>
       <c r="C290" s="10">
@@ -25119,7 +30366,7 @@
       <c r="A291" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B291" s="14" t="s">
+      <c r="B291" s="9" t="s">
         <v>479</v>
       </c>
       <c r="C291" s="10">
@@ -25172,7 +30419,7 @@
       <c r="A292" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B292" s="14" t="s">
+      <c r="B292" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C292" s="10">
@@ -25219,7 +30466,7 @@
       <c r="A293" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B293" s="14" t="s">
+      <c r="B293" s="9" t="s">
         <v>393</v>
       </c>
       <c r="C293" s="10">
@@ -25272,7 +30519,7 @@
       <c r="A294" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B294" s="14" t="s">
+      <c r="B294" s="9" t="s">
         <v>260</v>
       </c>
       <c r="C294" s="9">
@@ -25324,7 +30571,7 @@
       <c r="A295" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B295" s="14" t="s">
+      <c r="B295" s="9" t="s">
         <v>261</v>
       </c>
       <c r="C295" s="9">
@@ -25376,7 +30623,7 @@
       <c r="A296" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B296" s="14" t="s">
+      <c r="B296" s="9" t="s">
         <v>261</v>
       </c>
       <c r="C296" s="9">
@@ -25422,7 +30669,7 @@
       <c r="A297" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B297" s="14" t="s">
+      <c r="B297" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C297" s="10">
@@ -25469,7 +30716,7 @@
       <c r="A298" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B298" s="14" t="s">
+      <c r="B298" s="9" t="s">
         <v>404</v>
       </c>
       <c r="C298" s="9">
@@ -25521,7 +30768,7 @@
       <c r="A299" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B299" s="14" t="s">
+      <c r="B299" s="9" t="s">
         <v>399</v>
       </c>
       <c r="C299" s="9">
@@ -25573,7 +30820,7 @@
       <c r="A300" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B300" s="14" t="s">
+      <c r="B300" s="9" t="s">
         <v>402</v>
       </c>
       <c r="C300" s="9">
@@ -25625,7 +30872,7 @@
       <c r="A301" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B301" s="14" t="s">
+      <c r="B301" s="9" t="s">
         <v>397</v>
       </c>
       <c r="C301" s="9">
@@ -25783,7 +31030,7 @@
       <c r="A304" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B304" s="14" t="s">
+      <c r="B304" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C304" s="9">
@@ -25836,7 +31083,7 @@
       <c r="A305" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B305" s="14" t="s">
+      <c r="B305" s="9" t="s">
         <v>396</v>
       </c>
       <c r="C305" s="10">
@@ -25942,7 +31189,7 @@
       <c r="A307" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B307" s="14" t="s">
+      <c r="B307" s="9" t="s">
         <v>408</v>
       </c>
       <c r="C307" s="9">
@@ -25995,7 +31242,7 @@
       <c r="A308" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B308" s="14" t="s">
+      <c r="B308" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C308" s="9">
@@ -26048,7 +31295,7 @@
       <c r="A309" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B309" s="14" t="s">
+      <c r="B309" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C309" s="10">
@@ -26101,7 +31348,7 @@
       <c r="A310" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B310" s="14" t="s">
+      <c r="B310" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C310" s="10">
@@ -26157,7 +31404,7 @@
       <c r="A311" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B311" s="14" t="s">
+      <c r="B311" s="9" t="s">
         <v>398</v>
       </c>
       <c r="C311" s="10">
@@ -26210,7 +31457,7 @@
       <c r="A312" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B312" s="14" t="s">
+      <c r="B312" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C312" s="10">
@@ -26359,7 +31606,7 @@
       <c r="A315" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B315" s="14" t="s">
+      <c r="B315" s="9" t="s">
         <v>177</v>
       </c>
       <c r="C315" s="9">
@@ -26409,7 +31656,7 @@
       <c r="A316" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B316" s="14" t="s">
+      <c r="B316" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C316" s="9">
@@ -26462,7 +31709,7 @@
       <c r="A317" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B317" s="14" t="s">
+      <c r="B317" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C317" s="10">
@@ -26515,7 +31762,7 @@
       <c r="A318" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B318" s="14" t="s">
+      <c r="B318" s="9" t="s">
         <v>406</v>
       </c>
       <c r="C318" s="9">
@@ -26568,7 +31815,7 @@
       <c r="A319" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B319" s="14" t="s">
+      <c r="B319" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C319" s="9">
@@ -26674,7 +31921,7 @@
       <c r="A321" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B321" s="14" t="s">
+      <c r="B321" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C321" s="10">
@@ -26717,7 +31964,7 @@
       <c r="A322" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B322" s="14" t="s">
+      <c r="B322" s="9" t="s">
         <v>407</v>
       </c>
       <c r="C322" s="9">
@@ -26770,7 +32017,7 @@
       <c r="A323" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B323" s="14" t="s">
+      <c r="B323" s="9" t="s">
         <v>263</v>
       </c>
       <c r="C323" s="10">
@@ -26817,7 +32064,7 @@
       <c r="A324" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B324" s="14" t="s">
+      <c r="B324" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C324" s="9">
@@ -26873,7 +32120,7 @@
       <c r="A325" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B325" s="14" t="s">
+      <c r="B325" s="9" t="s">
         <v>394</v>
       </c>
       <c r="C325" s="10">
@@ -27038,7 +32285,7 @@
       <c r="A328" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B328" s="14" t="s">
+      <c r="B328" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C328" s="10">
@@ -27085,7 +32332,7 @@
       <c r="A329" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B329" s="14" t="s">
+      <c r="B329" s="9" t="s">
         <v>324</v>
       </c>
       <c r="C329" s="10">
@@ -27138,7 +32385,7 @@
       <c r="A330" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B330" s="14" t="s">
+      <c r="B330" s="9" t="s">
         <v>324</v>
       </c>
       <c r="C330" s="10">
@@ -27188,7 +32435,7 @@
       <c r="A331" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B331" s="14" t="s">
+      <c r="B331" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C331" s="9">
@@ -27234,7 +32481,7 @@
       <c r="A332" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B332" s="14" t="s">
+      <c r="B332" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C332" s="9">
@@ -27280,7 +32527,7 @@
       <c r="A333" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B333" s="14" t="s">
+      <c r="B333" s="9" t="s">
         <v>328</v>
       </c>
       <c r="C333" s="10">
@@ -27333,7 +32580,7 @@
       <c r="A334" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B334" s="14" t="s">
+      <c r="B334" s="9" t="s">
         <v>329</v>
       </c>
       <c r="C334" s="10">
@@ -27386,7 +32633,7 @@
       <c r="A335" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B335" s="14" t="s">
+      <c r="B335" s="9" t="s">
         <v>293</v>
       </c>
       <c r="C335" s="10">
@@ -27442,7 +32689,7 @@
       <c r="A336" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B336" s="14" t="s">
+      <c r="B336" s="9" t="s">
         <v>320</v>
       </c>
       <c r="C336" s="10">
@@ -27498,7 +32745,7 @@
       <c r="A337" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B337" s="14" t="s">
+      <c r="B337" s="9" t="s">
         <v>327</v>
       </c>
       <c r="C337" s="10">
@@ -27545,7 +32792,7 @@
       <c r="A338" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B338" s="14" t="s">
+      <c r="B338" s="9" t="s">
         <v>322</v>
       </c>
       <c r="C338" s="10">
@@ -27595,7 +32842,7 @@
       <c r="A339" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B339" s="14" t="s">
+      <c r="B339" s="9" t="s">
         <v>322</v>
       </c>
       <c r="C339" s="10">
@@ -27632,7 +32879,7 @@
       <c r="A340" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B340" s="14" t="s">
+      <c r="B340" s="9" t="s">
         <v>330</v>
       </c>
       <c r="C340" s="10">
@@ -27685,7 +32932,7 @@
       <c r="A341" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B341" s="14" t="s">
+      <c r="B341" s="9" t="s">
         <v>319</v>
       </c>
       <c r="C341" s="10">
@@ -27741,7 +32988,7 @@
       <c r="A342" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B342" s="14" t="s">
+      <c r="B342" s="9" t="s">
         <v>323</v>
       </c>
       <c r="C342" s="10">
@@ -27794,7 +33041,7 @@
       <c r="A343" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B343" s="14" t="s">
+      <c r="B343" s="9" t="s">
         <v>326</v>
       </c>
       <c r="C343" s="10">
@@ -27847,7 +33094,7 @@
       <c r="A344" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B344" s="14" t="s">
+      <c r="B344" s="9" t="s">
         <v>321</v>
       </c>
       <c r="C344" s="10">
@@ -27894,7 +33141,7 @@
       <c r="A345" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B345" s="14" t="s">
+      <c r="B345" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C345" s="10">
@@ -27947,7 +33194,7 @@
       <c r="A346" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B346" s="14" t="s">
+      <c r="B346" s="9" t="s">
         <v>337</v>
       </c>
       <c r="C346" s="10" t="e">
@@ -28033,7 +33280,7 @@
       <c r="A348" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B348" s="14" t="s">
+      <c r="B348" s="9" t="s">
         <v>340</v>
       </c>
       <c r="C348" s="10" t="e">
@@ -28129,7 +33376,7 @@
       <c r="A350" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B350" s="14" t="s">
+      <c r="B350" s="9" t="s">
         <v>264</v>
       </c>
       <c r="C350" s="10" t="e">
@@ -28212,7 +33459,7 @@
       <c r="A352" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B352" s="14" t="s">
+      <c r="B352" s="9" t="s">
         <v>265</v>
       </c>
       <c r="C352" s="10" t="e">
@@ -28255,7 +33502,7 @@
       <c r="A353" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B353" s="14" t="s">
+      <c r="B353" s="9" t="s">
         <v>335</v>
       </c>
       <c r="C353" s="10" t="e">
@@ -28295,7 +33542,7 @@
       <c r="A354" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B354" s="14" t="s">
+      <c r="B354" s="9" t="s">
         <v>336</v>
       </c>
       <c r="C354" s="10" t="e">
@@ -28332,7 +33579,7 @@
       <c r="A355" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="B355" s="14" t="s">
+      <c r="B355" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C355" s="10">
@@ -28382,7 +33629,7 @@
       <c r="A356" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="B356" s="14" t="s">
+      <c r="B356" s="9" t="s">
         <v>334</v>
       </c>
       <c r="C356" s="10">
@@ -28432,7 +33679,7 @@
       <c r="A357" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="B357" s="14" t="s">
+      <c r="B357" s="9" t="s">
         <v>332</v>
       </c>
       <c r="C357" s="10">
@@ -28531,7 +33778,7 @@
       <c r="A359" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B359" s="14" t="s">
+      <c r="B359" s="9" t="s">
         <v>293</v>
       </c>
       <c r="C359" s="10">
@@ -28734,7 +33981,7 @@
       <c r="A363" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B363" s="14" t="s">
+      <c r="B363" s="9" t="s">
         <v>446</v>
       </c>
       <c r="C363" s="9">
@@ -28786,7 +34033,7 @@
       <c r="A364" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B364" s="14" t="s">
+      <c r="B364" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C364" s="10">
@@ -28839,7 +34086,7 @@
       <c r="A365" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B365" s="14" t="s">
+      <c r="B365" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C365" s="10">
@@ -28892,7 +34139,7 @@
       <c r="A366" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B366" s="14" t="s">
+      <c r="B366" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C366" s="10">
@@ -28945,7 +34192,7 @@
       <c r="A367" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B367" s="14" t="s">
+      <c r="B367" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C367" s="10">
@@ -28988,7 +34235,7 @@
       <c r="A368" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B368" s="14" t="s">
+      <c r="B368" s="9" t="s">
         <v>266</v>
       </c>
       <c r="C368" s="10">
@@ -29035,7 +34282,7 @@
       <c r="A369" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B369" s="14" t="s">
+      <c r="B369" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C369" s="10">
@@ -29088,7 +34335,7 @@
       <c r="A370" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B370" s="14" t="s">
+      <c r="B370" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C370" s="10">
@@ -29241,7 +34488,7 @@
       <c r="A373" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B373" s="14" t="s">
+      <c r="B373" s="9" t="s">
         <v>182</v>
       </c>
       <c r="C373" s="10">
@@ -29294,7 +34541,7 @@
       <c r="A374" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B374" s="14" t="s">
+      <c r="B374" s="9" t="s">
         <v>182</v>
       </c>
       <c r="C374" s="10">
@@ -29394,7 +34641,7 @@
       <c r="A376" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B376" s="14" t="s">
+      <c r="B376" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C376" s="10">
@@ -29493,7 +34740,7 @@
       <c r="A378" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B378" s="14" t="s">
+      <c r="B378" s="9" t="s">
         <v>457</v>
       </c>
       <c r="C378" s="9">
@@ -29637,7 +34884,7 @@
       <c r="A381" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B381" s="14" t="s">
+      <c r="B381" s="9" t="s">
         <v>431</v>
       </c>
       <c r="C381" s="10">
@@ -29683,7 +34930,7 @@
       <c r="A382" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B382" s="14" t="s">
+      <c r="B382" s="9" t="s">
         <v>441</v>
       </c>
       <c r="C382" s="9">
@@ -29735,7 +34982,7 @@
       <c r="A383" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B383" s="14" t="s">
+      <c r="B383" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C383" s="10">
@@ -29788,7 +35035,7 @@
       <c r="A384" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B384" s="14" t="s">
+      <c r="B384" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C384" s="10">
@@ -29841,7 +35088,7 @@
       <c r="A385" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B385" s="14" t="s">
+      <c r="B385" s="9" t="s">
         <v>442</v>
       </c>
       <c r="C385" s="9">
@@ -29934,7 +35181,7 @@
       <c r="A387" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B387" s="14" t="s">
+      <c r="B387" s="9" t="s">
         <v>269</v>
       </c>
       <c r="C387" s="10" t="e">
@@ -29977,7 +35224,7 @@
       <c r="A388" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B388" s="14" t="s">
+      <c r="B388" s="9" t="s">
         <v>270</v>
       </c>
       <c r="C388" s="10" t="e">
@@ -30167,7 +35414,7 @@
       <c r="A392" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B392" s="14" t="s">
+      <c r="B392" s="9" t="s">
         <v>447</v>
       </c>
       <c r="C392" s="9">
@@ -30266,7 +35513,7 @@
       <c r="A394" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B394" s="14" t="s">
+      <c r="B394" s="9" t="s">
         <v>273</v>
       </c>
       <c r="C394" s="10">
@@ -30316,7 +35563,7 @@
       <c r="A395" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B395" s="14" t="s">
+      <c r="B395" s="9" t="s">
         <v>452</v>
       </c>
       <c r="C395" s="10">
@@ -30415,7 +35662,7 @@
       <c r="A397" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B397" s="14" t="s">
+      <c r="B397" s="9" t="s">
         <v>186</v>
       </c>
       <c r="C397" s="9">
@@ -30519,7 +35766,7 @@
       <c r="A399" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B399" s="14" t="s">
+      <c r="B399" s="9" t="s">
         <v>455</v>
       </c>
       <c r="C399" s="9">
@@ -30571,7 +35818,7 @@
       <c r="A400" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B400" s="14" t="s">
+      <c r="B400" s="9" t="s">
         <v>436</v>
       </c>
       <c r="C400" s="10">
@@ -30624,7 +35871,7 @@
       <c r="A401" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B401" s="14" t="s">
+      <c r="B401" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C401" s="10">
@@ -30671,7 +35918,7 @@
       <c r="A402" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B402" s="14" t="s">
+      <c r="B402" s="9" t="s">
         <v>430</v>
       </c>
       <c r="C402" s="10">
@@ -30723,7 +35970,7 @@
       <c r="A403" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B403" s="14" t="s">
+      <c r="B403" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C403" s="10">
@@ -30776,7 +36023,7 @@
       <c r="A404" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B404" s="14" t="s">
+      <c r="B404" s="9" t="s">
         <v>349</v>
       </c>
       <c r="C404" s="10">
@@ -30828,7 +36075,7 @@
       <c r="A405" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B405" s="14" t="s">
+      <c r="B405" s="9" t="s">
         <v>348</v>
       </c>
       <c r="C405" s="10">
@@ -30927,7 +36174,7 @@
       <c r="A407" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B407" s="14" t="s">
+      <c r="B407" s="9" t="s">
         <v>443</v>
       </c>
       <c r="C407" s="9">
@@ -30979,7 +36226,7 @@
       <c r="A408" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B408" s="14" t="s">
+      <c r="B408" s="9" t="s">
         <v>448</v>
       </c>
       <c r="C408" s="9">
@@ -31031,7 +36278,7 @@
       <c r="A409" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B409" s="14" t="s">
+      <c r="B409" s="9" t="s">
         <v>449</v>
       </c>
       <c r="C409" s="9">
@@ -31083,7 +36330,7 @@
       <c r="A410" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B410" s="14" t="s">
+      <c r="B410" s="9" t="s">
         <v>352</v>
       </c>
       <c r="C410" s="10">
@@ -31135,7 +36382,7 @@
       <c r="A411" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B411" s="14" t="s">
+      <c r="B411" s="9" t="s">
         <v>351</v>
       </c>
       <c r="C411" s="10">
@@ -31187,7 +36434,7 @@
       <c r="A412" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B412" s="14" t="s">
+      <c r="B412" s="9" t="s">
         <v>350</v>
       </c>
       <c r="C412" s="9">
@@ -31732,7 +36979,7 @@
       <c r="A423" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B423" s="14" t="s">
+      <c r="B423" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C423" s="10" t="e">
@@ -31879,7 +37126,7 @@
       <c r="A426" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B426" s="14" t="s">
+      <c r="B426" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C426" s="10">
@@ -31932,7 +37179,7 @@
       <c r="A427" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B427" s="14" t="s">
+      <c r="B427" s="9" t="s">
         <v>361</v>
       </c>
       <c r="C427" s="10">
@@ -31973,7 +37220,7 @@
       <c r="A428" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B428" s="14" t="s">
+      <c r="B428" s="9" t="s">
         <v>361</v>
       </c>
       <c r="C428" s="10">
@@ -32021,7 +37268,7 @@
       <c r="A429" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B429" s="14" t="s">
+      <c r="B429" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C429" s="10">
@@ -32256,7 +37503,7 @@
       <c r="A434" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B434" s="14" t="s">
+      <c r="B434" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C434" s="10" t="e">
@@ -32309,7 +37556,7 @@
       <c r="A435" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B435" s="14" t="s">
+      <c r="B435" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C435" s="10" t="e">
@@ -32352,7 +37599,7 @@
       <c r="A436" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B436" s="14" t="s">
+      <c r="B436" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C436" s="10">
@@ -32408,7 +37655,7 @@
       <c r="A437" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B437" s="14" t="s">
+      <c r="B437" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C437" s="10">
@@ -32461,7 +37708,7 @@
       <c r="A438" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B438" s="14" t="s">
+      <c r="B438" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C438" s="10">
@@ -32514,7 +37761,7 @@
       <c r="A439" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B439" s="14" t="s">
+      <c r="B439" s="9" t="s">
         <v>365</v>
       </c>
       <c r="C439" s="10">
@@ -32567,7 +37814,7 @@
       <c r="A440" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B440" s="14" t="s">
+      <c r="B440" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C440" s="10">
@@ -32668,7 +37915,7 @@
       <c r="A442" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B442" s="14" t="s">
+      <c r="B442" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C442" s="10">
@@ -32716,7 +37963,7 @@
       <c r="A443" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B443" s="14" t="s">
+      <c r="B443" s="9" t="s">
         <v>356</v>
       </c>
       <c r="C443" s="10">
@@ -32912,7 +38159,7 @@
       <c r="A447" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B447" s="14" t="s">
+      <c r="B447" s="9" t="s">
         <v>355</v>
       </c>
       <c r="C447" s="10">
@@ -32965,7 +38212,7 @@
       <c r="A448" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B448" s="14" t="s">
+      <c r="B448" s="9" t="s">
         <v>367</v>
       </c>
       <c r="C448" s="10">
@@ -33003,7 +38250,7 @@
       <c r="A449" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B449" s="14" t="s">
+      <c r="B449" s="9" t="s">
         <v>367</v>
       </c>
       <c r="C449" s="10">
@@ -33223,7 +38470,7 @@
       <c r="A454" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B454" s="14" t="s">
+      <c r="B454" s="9" t="s">
         <v>363</v>
       </c>
       <c r="C454" s="10">
@@ -33264,7 +38511,7 @@
       <c r="A455" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B455" s="14" t="s">
+      <c r="B455" s="9" t="s">
         <v>363</v>
       </c>
       <c r="C455" s="10">
@@ -33476,7 +38723,7 @@
       <c r="A459" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B459" s="14" t="s">
+      <c r="B459" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C459" s="10">
@@ -33524,7 +38771,7 @@
       <c r="A460" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B460" s="14" t="s">
+      <c r="B460" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C460" s="10">
@@ -33733,7 +38980,7 @@
       <c r="A464" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B464" s="14" t="s">
+      <c r="B464" s="9" t="s">
         <v>359</v>
       </c>
       <c r="C464" s="10">
@@ -33939,7 +39186,7 @@
       <c r="A468" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B468" s="14" t="s">
+      <c r="B468" s="9" t="s">
         <v>276</v>
       </c>
       <c r="C468" s="10">
@@ -34033,7 +39280,7 @@
       <c r="A470" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B470" s="14" t="s">
+      <c r="B470" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C470" s="10">
@@ -34081,7 +39328,7 @@
       <c r="A471" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B471" s="14" t="s">
+      <c r="B471" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C471" s="10">
@@ -34128,7 +39375,7 @@
       <c r="A472" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B472" s="14" t="s">
+      <c r="B472" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C472" s="10">
@@ -34184,7 +39431,7 @@
       <c r="A473" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B473" s="14" t="s">
+      <c r="B473" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C473" s="10">
@@ -34237,7 +39484,7 @@
       <c r="A474" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B474" s="14" t="s">
+      <c r="B474" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C474" s="10">
@@ -34285,7 +39532,7 @@
       <c r="A475" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B475" s="14" t="s">
+      <c r="B475" s="9" t="s">
         <v>362</v>
       </c>
       <c r="C475" s="10">
@@ -34385,7 +39632,7 @@
       <c r="A477" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B477" s="14" t="s">
+      <c r="B477" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C477" s="10">
@@ -34438,7 +39685,7 @@
       <c r="A478" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B478" s="14" t="s">
+      <c r="B478" s="9" t="s">
         <v>282</v>
       </c>
       <c r="C478" s="10">
@@ -34494,7 +39741,7 @@
       <c r="A479" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B479" s="14" t="s">
+      <c r="B479" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C479" s="10">
@@ -34544,7 +39791,7 @@
       <c r="A480" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B480" s="14" t="s">
+      <c r="B480" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C480" s="10">
@@ -34650,7 +39897,7 @@
       <c r="A482" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B482" s="14" t="s">
+      <c r="B482" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C482" s="10">
@@ -34703,7 +39950,7 @@
       <c r="A483" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B483" s="14" t="s">
+      <c r="B483" s="9" t="s">
         <v>279</v>
       </c>
       <c r="C483" s="10">
@@ -34756,7 +40003,7 @@
       <c r="A484" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B484" s="14" t="s">
+      <c r="B484" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C484" s="10">
@@ -34803,7 +40050,7 @@
       <c r="A485" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B485" s="14" t="s">
+      <c r="B485" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C485" s="10">
@@ -34856,7 +40103,7 @@
       <c r="A486" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B486" s="14" t="s">
+      <c r="B486" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C486" s="10">
@@ -34909,7 +40156,7 @@
       <c r="A487" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B487" s="14" t="s">
+      <c r="B487" s="9" t="s">
         <v>495</v>
       </c>
       <c r="C487" s="10" t="e">
@@ -34962,7 +40209,7 @@
       <c r="A488" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B488" s="14" t="s">
+      <c r="B488" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C488" s="9">
@@ -35014,7 +40261,7 @@
       <c r="A489" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B489" s="14" t="s">
+      <c r="B489" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C489" s="9">
@@ -35119,7 +40366,7 @@
       <c r="A491" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B491" s="14" t="s">
+      <c r="B491" s="9" t="s">
         <v>293</v>
       </c>
       <c r="C491" s="9">
@@ -35171,7 +40418,7 @@
       <c r="A492" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B492" s="14" t="s">
+      <c r="B492" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C492" s="10">
@@ -35224,7 +40471,7 @@
       <c r="A493" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B493" s="14" t="s">
+      <c r="B493" s="9" t="s">
         <v>281</v>
       </c>
       <c r="C493" s="10">
@@ -35277,7 +40524,7 @@
       <c r="A494" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B494" s="14" t="s">
+      <c r="B494" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C494" s="10">
@@ -35330,7 +40577,7 @@
       <c r="A495" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B495" s="14" t="s">
+      <c r="B495" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C495" s="10">
@@ -35383,7 +40630,7 @@
       <c r="A496" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B496" s="14" t="s">
+      <c r="B496" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C496" s="10">
@@ -35485,7 +40732,7 @@
       <c r="A498" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B498" s="14" t="s">
+      <c r="B498" s="9" t="s">
         <v>278</v>
       </c>
       <c r="C498" s="10">
@@ -35538,7 +40785,7 @@
       <c r="A499" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B499" s="14" t="s">
+      <c r="B499" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C499" s="10">
@@ -35591,7 +40838,7 @@
       <c r="A500" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B500" s="14" t="s">
+      <c r="B500" s="9" t="s">
         <v>285</v>
       </c>
       <c r="C500" s="10">
@@ -35644,7 +40891,7 @@
       <c r="A501" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B501" s="14" t="s">
+      <c r="B501" s="9" t="s">
         <v>523</v>
       </c>
       <c r="C501" s="10">
@@ -35697,7 +40944,7 @@
       <c r="A502" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B502" s="14" t="s">
+      <c r="B502" s="9" t="s">
         <v>286</v>
       </c>
       <c r="C502" s="10">
@@ -35750,7 +40997,7 @@
       <c r="A503" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B503" s="14" t="s">
+      <c r="B503" s="9" t="s">
         <v>527</v>
       </c>
       <c r="C503" s="10">
@@ -35797,7 +41044,7 @@
       <c r="A504" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B504" s="14" t="s">
+      <c r="B504" s="9" t="s">
         <v>522</v>
       </c>
       <c r="C504" s="10">
@@ -35897,7 +41144,7 @@
       <c r="A506" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B506" s="14" t="s">
+      <c r="B506" s="9" t="s">
         <v>526</v>
       </c>
       <c r="C506" s="10">
@@ -36426,7 +41673,7 @@
       <c r="A516" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B516" s="14" t="s">
+      <c r="B516" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C516" s="10">
@@ -36522,7 +41769,7 @@
       <c r="A518" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B518" s="14" t="s">
+      <c r="B518" s="9" t="s">
         <v>460</v>
       </c>
       <c r="C518" s="9">
@@ -36574,7 +41821,7 @@
       <c r="A519" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B519" s="14" t="s">
+      <c r="B519" s="9" t="s">
         <v>460</v>
       </c>
       <c r="C519" s="9">
@@ -36626,7 +41873,7 @@
       <c r="A520" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B520" s="14" t="s">
+      <c r="B520" s="9" t="s">
         <v>460</v>
       </c>
       <c r="C520" s="9">
@@ -36678,7 +41925,7 @@
       <c r="A521" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B521" s="14" t="s">
+      <c r="B521" s="9" t="s">
         <v>465</v>
       </c>
       <c r="C521" s="10">
@@ -36731,7 +41978,7 @@
       <c r="A522" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B522" s="14" t="s">
+      <c r="B522" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C522" s="10">
@@ -36784,7 +42031,7 @@
       <c r="A523" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B523" s="14" t="s">
+      <c r="B523" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C523" s="10">
@@ -36837,7 +42084,7 @@
       <c r="A524" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B524" s="14" t="s">
+      <c r="B524" s="9" t="s">
         <v>287</v>
       </c>
       <c r="C524" s="10">
@@ -37249,7 +42496,7 @@
       <c r="A532" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B532" s="14" t="s">
+      <c r="B532" s="9" t="s">
         <v>467</v>
       </c>
       <c r="C532" s="10">
@@ -37302,7 +42549,7 @@
       <c r="A533" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B533" s="14" t="s">
+      <c r="B533" s="9" t="s">
         <v>462</v>
       </c>
       <c r="C533" s="9">
@@ -37354,7 +42601,7 @@
       <c r="A534" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B534" s="14" t="s">
+      <c r="B534" s="9" t="s">
         <v>462</v>
       </c>
       <c r="C534" s="9">
@@ -37506,7 +42753,7 @@
       <c r="A537" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B537" s="14" t="s">
+      <c r="B537" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C537" s="10">
@@ -37559,7 +42806,7 @@
       <c r="A538" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B538" s="14" t="s">
+      <c r="B538" s="9" t="s">
         <v>289</v>
       </c>
       <c r="C538" s="10">
@@ -37612,7 +42859,7 @@
       <c r="A539" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B539" s="14" t="s">
+      <c r="B539" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C539" s="10">
@@ -37718,7 +42965,7 @@
       <c r="A541" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B541" s="14" t="s">
+      <c r="B541" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C541" s="10">
@@ -37824,7 +43071,7 @@
       <c r="A543" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B543" s="14" t="s">
+      <c r="B543" s="9" t="s">
         <v>461</v>
       </c>
       <c r="C543" s="9">
@@ -37876,7 +43123,7 @@
       <c r="A544" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B544" s="14" t="s">
+      <c r="B544" s="9" t="s">
         <v>461</v>
       </c>
       <c r="C544" s="9">
@@ -37928,7 +43175,7 @@
       <c r="A545" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B545" s="14" t="s">
+      <c r="B545" s="9" t="s">
         <v>461</v>
       </c>
       <c r="C545" s="9">
@@ -38032,7 +43279,7 @@
       <c r="A547" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B547" s="14" t="s">
+      <c r="B547" s="9" t="s">
         <v>299</v>
       </c>
       <c r="C547" s="10">
@@ -38088,7 +43335,7 @@
       <c r="A548" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B548" s="14" t="s">
+      <c r="B548" s="9" t="s">
         <v>299</v>
       </c>
       <c r="C548" s="10">
@@ -38141,7 +43388,7 @@
       <c r="A549" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B549" s="14" t="s">
+      <c r="B549" s="9" t="s">
         <v>300</v>
       </c>
       <c r="C549" s="10">
@@ -38242,7 +43489,7 @@
       <c r="A551" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B551" s="14" t="s">
+      <c r="B551" s="9" t="s">
         <v>303</v>
       </c>
       <c r="C551" s="10">
@@ -38351,7 +43598,7 @@
       <c r="A553" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B553" s="14" t="s">
+      <c r="B553" s="9" t="s">
         <v>301</v>
       </c>
       <c r="C553" s="10">
@@ -38404,7 +43651,7 @@
       <c r="A554" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B554" s="14" t="s">
+      <c r="B554" s="9" t="s">
         <v>422</v>
       </c>
       <c r="C554" s="10">
@@ -38456,7 +43703,7 @@
       <c r="A555" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B555" s="14" t="s">
+      <c r="B555" s="9" t="s">
         <v>422</v>
       </c>
       <c r="C555" s="10">
@@ -38505,7 +43752,7 @@
       <c r="A556" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B556" s="14" t="s">
+      <c r="B556" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C556" s="9">
@@ -38541,7 +43788,7 @@
       <c r="A557" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B557" s="14" t="s">
+      <c r="B557" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C557" s="9">
@@ -38593,7 +43840,7 @@
       <c r="A558" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B558" s="14" t="s">
+      <c r="B558" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C558" s="9">
@@ -38639,7 +43886,7 @@
       <c r="A559" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B559" s="14" t="s">
+      <c r="B559" s="9" t="s">
         <v>302</v>
       </c>
       <c r="C559" s="10">
@@ -38695,7 +43942,7 @@
       <c r="A560" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B560" s="14" t="s">
+      <c r="B560" s="9" t="s">
         <v>419</v>
       </c>
       <c r="C560" s="10">
@@ -38748,7 +43995,7 @@
       <c r="A561" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B561" s="14" t="s">
+      <c r="B561" s="9" t="s">
         <v>296</v>
       </c>
       <c r="C561" s="10">
@@ -38860,7 +44107,7 @@
       <c r="A563" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B563" s="14" t="s">
+      <c r="B563" s="9" t="s">
         <v>293</v>
       </c>
       <c r="C563" s="10">
@@ -38913,7 +44160,7 @@
       <c r="A564" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B564" s="14" t="s">
+      <c r="B564" s="9" t="s">
         <v>421</v>
       </c>
       <c r="C564" s="10">
@@ -38965,7 +44212,7 @@
       <c r="A565" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B565" s="14" t="s">
+      <c r="B565" s="9" t="s">
         <v>295</v>
       </c>
       <c r="C565" s="10">
@@ -39021,7 +44268,7 @@
       <c r="A566" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B566" s="14" t="s">
+      <c r="B566" s="9" t="s">
         <v>294</v>
       </c>
       <c r="C566" s="10">
@@ -39208,6 +44455,50 @@
       </c>
     </row>
     <row r="573" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A573" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B573" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C573" s="15">
+        <f>VLOOKUP(B573,P:Q,2,0)</f>
+        <v>22138</v>
+      </c>
+      <c r="D573" s="14">
+        <v>22138</v>
+      </c>
+      <c r="E573" s="14">
+        <v>2968</v>
+      </c>
+      <c r="F573" s="14">
+        <v>5327</v>
+      </c>
+      <c r="G573" s="16">
+        <f>F573/E573/N$2/1.52-1</f>
+        <v>5.0037530907806493E-2</v>
+      </c>
+      <c r="H573" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I573" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J573" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K573" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L573" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M573" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="N573" s="9" t="s">
+        <v>545</v>
+      </c>
       <c r="P573" s="9" t="s">
         <v>427</v>
       </c>
@@ -39215,7 +44506,327 @@
         <v>39076</v>
       </c>
     </row>
-    <row r="580" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A574" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B574" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C574" s="15">
+        <f>VLOOKUP(B574,P:Q,2,0)</f>
+        <v>22149</v>
+      </c>
+      <c r="D574" s="14">
+        <v>22155</v>
+      </c>
+      <c r="E574" s="14">
+        <v>1780</v>
+      </c>
+      <c r="F574" s="14">
+        <v>3195</v>
+      </c>
+      <c r="G574" s="16">
+        <f>F574/E574/N$2/1.52-1</f>
+        <v>5.0115048480110058E-2</v>
+      </c>
+      <c r="H574" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I574" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J574" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K574" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L574" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M574" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="N574" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="575" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A575" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B575" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C575" s="15">
+        <f>VLOOKUP(B575,P:Q,2,0)</f>
+        <v>22178</v>
+      </c>
+      <c r="D575" s="14">
+        <v>22178</v>
+      </c>
+      <c r="E575" s="14">
+        <v>2226</v>
+      </c>
+      <c r="F575" s="14">
+        <v>3995</v>
+      </c>
+      <c r="G575" s="16">
+        <f>F575/E575/N$2/1.52-1</f>
+        <v>4.9971825536996972E-2</v>
+      </c>
+      <c r="H575" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I575" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J575" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K575" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L575" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M575" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="N575" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="576" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A576" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B576" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C576" s="15">
+        <f>VLOOKUP(B576,P:Q,2,0)</f>
+        <v>26158</v>
+      </c>
+      <c r="D576" s="14">
+        <v>26158</v>
+      </c>
+      <c r="E576" s="14">
+        <v>2799</v>
+      </c>
+      <c r="F576" s="14">
+        <v>4467</v>
+      </c>
+      <c r="G576" s="16">
+        <f>F576/E576/1.52-1</f>
+        <v>4.9952050544367355E-2</v>
+      </c>
+      <c r="H576" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I576" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J576" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K576" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L576" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M576" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="N576" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="577" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A577" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B577" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C577" s="15">
+        <f>VLOOKUP(B577,P:Q,2,0)</f>
+        <v>26188</v>
+      </c>
+      <c r="D577" s="14">
+        <v>26192</v>
+      </c>
+      <c r="E577" s="14">
+        <v>2226</v>
+      </c>
+      <c r="F577" s="14">
+        <v>4147</v>
+      </c>
+      <c r="G577" s="16">
+        <f>F577/E577/N$2/1.52-1</f>
+        <v>8.9920690989218066E-2</v>
+      </c>
+      <c r="H577" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I577" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J577" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K577" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L577" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M577" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="N577" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="578" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A578" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B578" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C578" s="15">
+        <f>VLOOKUP(B578,P:Q,2,0)</f>
+        <v>26114</v>
+      </c>
+      <c r="D578" s="14">
+        <v>44426</v>
+      </c>
+      <c r="E578" s="14">
+        <v>1080</v>
+      </c>
+      <c r="F578" s="14">
+        <v>1938</v>
+      </c>
+      <c r="G578" s="16">
+        <f>F578/E578/N$2/1.52-1</f>
+        <v>4.9822893363161924E-2</v>
+      </c>
+      <c r="H578" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I578" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J578" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K578" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L578" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M578" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="N578" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="579" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A579" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B579" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C579" s="15">
+        <f>VLOOKUP(B579,P:Q,2,0)</f>
+        <v>22138</v>
+      </c>
+      <c r="D579" s="14">
+        <v>62550</v>
+      </c>
+      <c r="E579" s="14">
+        <v>1483</v>
+      </c>
+      <c r="F579" s="14">
+        <v>2763</v>
+      </c>
+      <c r="G579" s="16">
+        <f>F579/E579/N$2/1.52-1</f>
+        <v>8.9998137373692222E-2</v>
+      </c>
+      <c r="H579" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I579" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J579" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K579" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L579" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M579" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="N579" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="580" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A580" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B580" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C580" s="15" t="e">
+        <f>VLOOKUP(B580,P:Q,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D580" s="14">
+        <v>80170</v>
+      </c>
+      <c r="E580" s="14">
+        <v>1724</v>
+      </c>
+      <c r="F580" s="14">
+        <v>3093</v>
+      </c>
+      <c r="G580" s="16">
+        <f>F580/E580/N$2/1.52-1</f>
+        <v>4.9611741811121712E-2</v>
+      </c>
+      <c r="H580" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I580" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J580" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K580" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L580" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M580" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="N580" s="9" t="s">
+        <v>545</v>
+      </c>
       <c r="P580" s="9" t="s">
         <v>59</v>
       </c>
@@ -39223,7 +44834,51 @@
         <v>40328</v>
       </c>
     </row>
-    <row r="581" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A581" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B581" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C581" s="15">
+        <f>VLOOKUP(B581,P:Q,2,0)</f>
+        <v>26188</v>
+      </c>
+      <c r="D581" s="14">
+        <v>95931</v>
+      </c>
+      <c r="E581" s="14">
+        <v>222</v>
+      </c>
+      <c r="F581" s="14">
+        <v>413</v>
+      </c>
+      <c r="G581" s="16">
+        <f>F581/E581/N$2/1.52-1</f>
+        <v>8.8386381789772761E-2</v>
+      </c>
+      <c r="H581" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I581" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J581" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K581" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L581" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M581" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="N581" s="9" t="s">
+        <v>545</v>
+      </c>
       <c r="P581" s="9" t="s">
         <v>526</v>
       </c>
@@ -39231,7 +44886,7 @@
         <v>42138</v>
       </c>
     </row>
-    <row r="582" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P582" s="9" t="s">
         <v>19</v>
       </c>
@@ -39239,7 +44894,7 @@
         <v>40493</v>
       </c>
     </row>
-    <row r="585" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P585" s="9" t="s">
         <v>149</v>
       </c>
@@ -39247,12 +44902,294 @@
         <v>61491</v>
       </c>
     </row>
-    <row r="587" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B586" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C586" s="15">
+        <f t="shared" ref="C586:C593" si="9">VLOOKUP(B586,P:Q,2,0)</f>
+        <v>21726</v>
+      </c>
+      <c r="D586" s="11">
+        <v>21726</v>
+      </c>
+      <c r="E586" s="9">
+        <v>1483</v>
+      </c>
+      <c r="F586" s="9">
+        <v>2662</v>
+      </c>
+      <c r="G586" s="16">
+        <f t="shared" ref="G586:G593" si="10">F586/E586/N$2/1.52-1</f>
+        <v>5.015383340165358E-2</v>
+      </c>
+      <c r="H586" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I586" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J586" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K586" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L586" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M586" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="587" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B587" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C587" s="15">
+        <f t="shared" si="9"/>
+        <v>21726</v>
+      </c>
+      <c r="D587" s="11">
+        <v>21728</v>
+      </c>
+      <c r="E587" s="9">
+        <v>592</v>
+      </c>
+      <c r="F587" s="9">
+        <v>1103</v>
+      </c>
+      <c r="G587" s="16">
+        <f t="shared" si="10"/>
+        <v>9.003345561209386E-2</v>
+      </c>
+      <c r="H587" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I587" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J587" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K587" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L587" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M587" s="9" t="s">
+        <v>346</v>
+      </c>
       <c r="P587" s="9" t="s">
         <v>540</v>
       </c>
       <c r="Q587" s="9">
         <v>130291</v>
+      </c>
+    </row>
+    <row r="588" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B588" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C588" s="15">
+        <f t="shared" si="9"/>
+        <v>21752</v>
+      </c>
+      <c r="D588" s="11">
+        <v>21753</v>
+      </c>
+      <c r="E588" s="9">
+        <v>1483</v>
+      </c>
+      <c r="F588" s="9">
+        <v>2763</v>
+      </c>
+      <c r="G588" s="16">
+        <f t="shared" si="10"/>
+        <v>8.9998137373692222E-2</v>
+      </c>
+      <c r="H588" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I588" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J588" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K588" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L588" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M588" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="589" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B589" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C589" s="15">
+        <f t="shared" si="9"/>
+        <v>22057</v>
+      </c>
+      <c r="D589" s="11">
+        <v>22057</v>
+      </c>
+      <c r="E589" s="9">
+        <v>3890</v>
+      </c>
+      <c r="F589" s="9">
+        <v>6982</v>
+      </c>
+      <c r="G589" s="16">
+        <f t="shared" si="10"/>
+        <v>5.0065198105077924E-2</v>
+      </c>
+      <c r="H589" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I589" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J589" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K589" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L589" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M589" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="590" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B590" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C590" s="15">
+        <f t="shared" si="9"/>
+        <v>39298</v>
+      </c>
+      <c r="D590" s="11">
+        <v>39299</v>
+      </c>
+      <c r="E590" s="9">
+        <v>347</v>
+      </c>
+      <c r="F590" s="9">
+        <v>647</v>
+      </c>
+      <c r="G590" s="16">
+        <f t="shared" si="10"/>
+        <v>9.0839430064630244E-2</v>
+      </c>
+      <c r="H590" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I590" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J590" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K590" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L590" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M590" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="591" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C591" s="15"/>
+      <c r="G591" s="16"/>
+    </row>
+    <row r="592" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B592" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C592" s="15">
+        <f t="shared" si="9"/>
+        <v>63029</v>
+      </c>
+      <c r="D592" s="11">
+        <v>63952</v>
+      </c>
+      <c r="E592" s="9">
+        <v>1081</v>
+      </c>
+      <c r="F592" s="9">
+        <v>2014</v>
+      </c>
+      <c r="G592" s="16">
+        <f t="shared" si="10"/>
+        <v>8.9983174912615205E-2</v>
+      </c>
+      <c r="H592" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I592" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J592" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K592" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L592" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M592" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="593" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B593" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C593" s="15">
+        <f t="shared" si="9"/>
+        <v>21761</v>
+      </c>
+      <c r="D593" s="11">
+        <v>89821</v>
+      </c>
+      <c r="E593" s="9">
+        <v>1483</v>
+      </c>
+      <c r="F593" s="9">
+        <v>2662</v>
+      </c>
+      <c r="G593" s="16">
+        <f t="shared" si="10"/>
+        <v>5.015383340165358E-2</v>
+      </c>
+      <c r="H593" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I593" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J593" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K593" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L593" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M593" s="9" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -39264,684 +45201,12 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F349:F353">
     <sortCondition ref="F349"/>
   </sortState>
-  <conditionalFormatting sqref="H440:M440 H463:M463 H470:M489 H491:M493 H518:M518 H507:M512 H515:M516 H491:K496 H1:M106 H520:M557 H569:M1048576 H109:M245 H254:M295 H254:K427 H297:M419 H5:K245 H452:K463 H430:K447">
-    <cfRule type="cellIs" dxfId="173" priority="217" operator="equal">
-      <formula>FALSE</formula>
+  <conditionalFormatting sqref="H1:M1048576">
+    <cfRule type="cellIs" dxfId="1" priority="235" operator="equal">
+      <formula>"FALSE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="218" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H420:M424 H426:M427 H425:K425 M425">
-    <cfRule type="cellIs" dxfId="171" priority="215" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="216" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H441:M441">
-    <cfRule type="cellIs" dxfId="169" priority="213" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="214" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H442 K442:M442">
-    <cfRule type="cellIs" dxfId="167" priority="211" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="212" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I442:J442">
-    <cfRule type="cellIs" dxfId="165" priority="209" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="210" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H446:M447">
-    <cfRule type="cellIs" dxfId="163" priority="207" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="208" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H444:M445">
-    <cfRule type="cellIs" dxfId="161" priority="205" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="206" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H443:M443">
-    <cfRule type="cellIs" dxfId="159" priority="203" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="204" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H406:M406">
-    <cfRule type="cellIs" dxfId="157" priority="187" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="188" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H411:M412">
-    <cfRule type="cellIs" dxfId="155" priority="185" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="186" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H405:M405">
-    <cfRule type="cellIs" dxfId="153" priority="183" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="184" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H407:M410">
-    <cfRule type="cellIs" dxfId="151" priority="181" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="182" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H430:M430">
-    <cfRule type="cellIs" dxfId="149" priority="177" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="178" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H452:K452 M452">
-    <cfRule type="cellIs" dxfId="147" priority="167" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="168" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H431:M432">
-    <cfRule type="cellIs" dxfId="145" priority="173" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="174" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H433:M434">
-    <cfRule type="cellIs" dxfId="143" priority="171" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="172" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H453:M454">
-    <cfRule type="cellIs" dxfId="141" priority="169" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="170" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H416:M419">
-    <cfRule type="cellIs" dxfId="139" priority="163" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="164" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H458:M460">
-    <cfRule type="cellIs" dxfId="137" priority="153" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="154" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H437:M439">
-    <cfRule type="cellIs" dxfId="133" priority="159" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="160" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H435:M436">
-    <cfRule type="cellIs" dxfId="131" priority="157" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="158" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H455:M455">
-    <cfRule type="cellIs" dxfId="129" priority="155" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="156" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H456:M457">
-    <cfRule type="cellIs" dxfId="125" priority="151" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="152" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I461:J461">
-    <cfRule type="cellIs" dxfId="123" priority="141" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="142" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H296:L296">
-    <cfRule type="cellIs" dxfId="121" priority="137" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="138" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H464:M465 H464:K490">
-    <cfRule type="cellIs" dxfId="119" priority="131" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="132" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H461 K461:M461">
-    <cfRule type="cellIs" dxfId="117" priority="143" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="144" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H473:M473">
-    <cfRule type="cellIs" dxfId="115" priority="135" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="136" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M296">
-    <cfRule type="cellIs" dxfId="113" priority="139" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="140" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H474:M477">
-    <cfRule type="cellIs" dxfId="111" priority="127" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="128" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H471:M472">
-    <cfRule type="cellIs" dxfId="109" priority="133" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="134" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H466:M467">
-    <cfRule type="cellIs" dxfId="107" priority="125" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="126" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H468:M469">
-    <cfRule type="cellIs" dxfId="105" priority="123" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="124" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H478:M478">
-    <cfRule type="cellIs" dxfId="103" priority="121" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="122" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H479:M479">
-    <cfRule type="cellIs" dxfId="101" priority="119" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="120" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H482:M482">
-    <cfRule type="cellIs" dxfId="99" priority="115" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="116" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H476:M476">
-    <cfRule type="cellIs" dxfId="97" priority="113" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="114" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H481:M481">
-    <cfRule type="cellIs" dxfId="95" priority="111" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="112" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H483:M485">
-    <cfRule type="cellIs" dxfId="93" priority="109" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="110" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H494:M498">
-    <cfRule type="cellIs" dxfId="91" priority="107" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="108" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H496:M498">
-    <cfRule type="cellIs" dxfId="89" priority="105" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="106" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H494:M495">
-    <cfRule type="cellIs" dxfId="87" priority="103" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="104" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H488:M488">
-    <cfRule type="cellIs" dxfId="85" priority="99" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="100" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H487:M487">
-    <cfRule type="cellIs" dxfId="83" priority="97" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="98" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H486:M486">
-    <cfRule type="cellIs" dxfId="81" priority="95" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="96" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H501:M504">
-    <cfRule type="cellIs" dxfId="79" priority="93" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="94" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H501:M504">
-    <cfRule type="cellIs" dxfId="77" priority="91" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H499:M500">
-    <cfRule type="cellIs" dxfId="75" priority="89" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="90" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H499:M500">
-    <cfRule type="cellIs" dxfId="73" priority="87" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="88" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H505:M506">
-    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="78" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H505:M506">
-    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H490:M490">
-    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H490:M490">
-    <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="72" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H492:M492">
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H492:M492">
-    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="68" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H512:M512">
-    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H512:M512">
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H519:M519">
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H519:M519">
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H517:M517">
-    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H517:M517">
-    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H521:M522">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H521:M522">
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H513:M513">
-    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H513:M513">
-    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H514:M514">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H514:M514">
-    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H462:M462">
-    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H108:M108">
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H107:M107">
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H524:M524">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H524:M524">
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H558:M559">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H560:M561">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H562:M566">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H246:M253">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H448:K451">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H448:M451">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H428:K429">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H428:M429">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L452">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L425">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H567:K567">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L567:M567">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H568:M568">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>TRUE</formula>
+    <cfRule type="cellIs" dxfId="0" priority="236" operator="equal">
+      <formula>"TRUE"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
